--- a/010-外部設計/014-画面レイアウト_画面入出力項目一覧/014-1-外部設計書(画面・帳票仕様)_ショッピング_商品検索.xlsx
+++ b/010-外部設計/014-画面レイアウト_画面入出力項目一覧/014-1-外部設計書(画面・帳票仕様)_ショッピング_商品検索.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27D80CB-157B-404E-B829-7388D9198865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CA600A-288A-4BF1-A30A-CDC73A3D863E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="86">
   <si>
     <t>業務</t>
   </si>
@@ -158,10 +158,6 @@
   </si>
   <si>
     <t>ラジオボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リストボックス</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -358,9 +354,6 @@
   </si>
   <si>
     <t>テキストボックス</t>
-  </si>
-  <si>
-    <t>リストボックス</t>
   </si>
   <si>
     <t>リンク</t>
@@ -632,6 +625,37 @@
       <t>フカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>itemName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manufacturer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セレクトボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セレクトボックス</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1014,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1096,6 +1120,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1114,26 +1147,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1153,18 +1186,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1183,14 +1204,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1202,19 +1235,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1801,81 +1828,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="41" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="43" t="s">
-        <v>71</v>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="49" t="s">
+        <v>69</v>
       </c>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="41" t="s">
-        <v>19</v>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="48" t="s">
+        <v>18</v>
       </c>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="43" t="s">
-        <v>72</v>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="49" t="s">
+        <v>70</v>
       </c>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="41" t="s">
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="43" t="s">
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="43"/>
-      <c r="AU1" s="43"/>
-      <c r="AV1" s="43"/>
-      <c r="AW1" s="41" t="s">
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="42" t="s">
-        <v>30</v>
+      <c r="AX1" s="48"/>
+      <c r="AY1" s="48"/>
+      <c r="AZ1" s="50" t="s">
+        <v>29</v>
       </c>
-      <c r="BA1" s="42"/>
-      <c r="BB1" s="42"/>
-      <c r="BC1" s="42"/>
-      <c r="BD1" s="42"/>
-      <c r="BE1" s="42"/>
+      <c r="BA1" s="50"/>
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="50"/>
+      <c r="BD1" s="50"/>
+      <c r="BE1" s="50"/>
       <c r="BF1" s="8"/>
       <c r="BG1" s="8"/>
       <c r="BH1" s="8"/>
@@ -2075,67 +2102,67 @@
       <c r="IT1" s="8"/>
     </row>
     <row r="2" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="41" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="41" t="s">
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AX2" s="41"/>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="42"/>
-      <c r="BA2" s="42"/>
-      <c r="BB2" s="42"/>
-      <c r="BC2" s="42"/>
-      <c r="BD2" s="42"/>
-      <c r="BE2" s="42"/>
+      <c r="AX2" s="48"/>
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="50"/>
+      <c r="BA2" s="50"/>
+      <c r="BB2" s="50"/>
+      <c r="BC2" s="50"/>
+      <c r="BD2" s="50"/>
+      <c r="BE2" s="50"/>
       <c r="BF2" s="8"/>
       <c r="BG2" s="8"/>
       <c r="BH2" s="8"/>
@@ -2591,15 +2618,15 @@
       <c r="IT3" s="8"/>
     </row>
     <row r="4" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="44" t="s">
-        <v>32</v>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46" t="s">
+        <v>31</v>
       </c>
       <c r="G4" s="47"/>
       <c r="H4" s="47"/>
@@ -2618,15 +2645,15 @@
       <c r="U4" s="47"/>
       <c r="V4" s="47"/>
       <c r="W4" s="47"/>
-      <c r="X4" s="46" t="s">
+      <c r="X4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="44" t="s">
-        <v>31</v>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="46" t="s">
+        <v>30</v>
       </c>
       <c r="AD4" s="47"/>
       <c r="AE4" s="47"/>
@@ -2855,11 +2882,11 @@
       <c r="IT4" s="8"/>
     </row>
     <row r="5" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>
@@ -2878,11 +2905,11 @@
       <c r="U5" s="47"/>
       <c r="V5" s="47"/>
       <c r="W5" s="47"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="46"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
       <c r="AC5" s="47"/>
       <c r="AD5" s="47"/>
       <c r="AE5" s="47"/>
@@ -8444,81 +8471,81 @@
       <c r="BE35" s="24"/>
     </row>
     <row r="36" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="41" t="s">
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="43" t="s">
-        <v>71</v>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="49" t="s">
+        <v>69</v>
       </c>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="43"/>
-      <c r="Y36" s="43"/>
-      <c r="Z36" s="41" t="s">
-        <v>19</v>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="48" t="s">
+        <v>18</v>
       </c>
-      <c r="AA36" s="41"/>
-      <c r="AB36" s="41"/>
-      <c r="AC36" s="41"/>
-      <c r="AD36" s="43" t="s">
-        <v>70</v>
+      <c r="AA36" s="48"/>
+      <c r="AB36" s="48"/>
+      <c r="AC36" s="48"/>
+      <c r="AD36" s="49" t="s">
+        <v>68</v>
       </c>
-      <c r="AE36" s="43"/>
-      <c r="AF36" s="43"/>
-      <c r="AG36" s="43"/>
-      <c r="AH36" s="43"/>
-      <c r="AI36" s="43"/>
-      <c r="AJ36" s="43"/>
-      <c r="AK36" s="43"/>
-      <c r="AL36" s="43"/>
-      <c r="AM36" s="41" t="s">
+      <c r="AE36" s="49"/>
+      <c r="AF36" s="49"/>
+      <c r="AG36" s="49"/>
+      <c r="AH36" s="49"/>
+      <c r="AI36" s="49"/>
+      <c r="AJ36" s="49"/>
+      <c r="AK36" s="49"/>
+      <c r="AL36" s="49"/>
+      <c r="AM36" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="AN36" s="41"/>
-      <c r="AO36" s="41"/>
-      <c r="AP36" s="43" t="s">
+      <c r="AN36" s="48"/>
+      <c r="AO36" s="48"/>
+      <c r="AP36" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="AQ36" s="43"/>
-      <c r="AR36" s="43"/>
-      <c r="AS36" s="43"/>
-      <c r="AT36" s="43"/>
-      <c r="AU36" s="43"/>
-      <c r="AV36" s="43"/>
-      <c r="AW36" s="41" t="s">
+      <c r="AQ36" s="49"/>
+      <c r="AR36" s="49"/>
+      <c r="AS36" s="49"/>
+      <c r="AT36" s="49"/>
+      <c r="AU36" s="49"/>
+      <c r="AV36" s="49"/>
+      <c r="AW36" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AX36" s="41"/>
-      <c r="AY36" s="41"/>
-      <c r="AZ36" s="42" t="s">
-        <v>30</v>
+      <c r="AX36" s="48"/>
+      <c r="AY36" s="48"/>
+      <c r="AZ36" s="50" t="s">
+        <v>29</v>
       </c>
-      <c r="BA36" s="42"/>
-      <c r="BB36" s="42"/>
-      <c r="BC36" s="42"/>
-      <c r="BD36" s="42"/>
-      <c r="BE36" s="42"/>
+      <c r="BA36" s="50"/>
+      <c r="BB36" s="50"/>
+      <c r="BC36" s="50"/>
+      <c r="BD36" s="50"/>
+      <c r="BE36" s="50"/>
       <c r="BF36" s="8"/>
       <c r="BG36" s="8"/>
       <c r="BH36" s="8"/>
@@ -8718,67 +8745,67 @@
       <c r="IT36" s="8"/>
     </row>
     <row r="37" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="38"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="43"/>
-      <c r="V37" s="43"/>
-      <c r="W37" s="43"/>
-      <c r="X37" s="43"/>
-      <c r="Y37" s="43"/>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="41"/>
-      <c r="AB37" s="41"/>
-      <c r="AC37" s="41"/>
-      <c r="AD37" s="43"/>
-      <c r="AE37" s="43"/>
-      <c r="AF37" s="43"/>
-      <c r="AG37" s="43"/>
-      <c r="AH37" s="43"/>
-      <c r="AI37" s="43"/>
-      <c r="AJ37" s="43"/>
-      <c r="AK37" s="43"/>
-      <c r="AL37" s="43"/>
-      <c r="AM37" s="41" t="s">
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="48"/>
+      <c r="AA37" s="48"/>
+      <c r="AB37" s="48"/>
+      <c r="AC37" s="48"/>
+      <c r="AD37" s="49"/>
+      <c r="AE37" s="49"/>
+      <c r="AF37" s="49"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="49"/>
+      <c r="AI37" s="49"/>
+      <c r="AJ37" s="49"/>
+      <c r="AK37" s="49"/>
+      <c r="AL37" s="49"/>
+      <c r="AM37" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="AN37" s="41"/>
-      <c r="AO37" s="41"/>
-      <c r="AP37" s="43"/>
-      <c r="AQ37" s="43"/>
-      <c r="AR37" s="43"/>
-      <c r="AS37" s="43"/>
-      <c r="AT37" s="43"/>
-      <c r="AU37" s="43"/>
-      <c r="AV37" s="43"/>
-      <c r="AW37" s="41" t="s">
+      <c r="AN37" s="48"/>
+      <c r="AO37" s="48"/>
+      <c r="AP37" s="49"/>
+      <c r="AQ37" s="49"/>
+      <c r="AR37" s="49"/>
+      <c r="AS37" s="49"/>
+      <c r="AT37" s="49"/>
+      <c r="AU37" s="49"/>
+      <c r="AV37" s="49"/>
+      <c r="AW37" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AX37" s="41"/>
-      <c r="AY37" s="41"/>
-      <c r="AZ37" s="42"/>
-      <c r="BA37" s="42"/>
-      <c r="BB37" s="42"/>
-      <c r="BC37" s="42"/>
-      <c r="BD37" s="42"/>
-      <c r="BE37" s="42"/>
+      <c r="AX37" s="48"/>
+      <c r="AY37" s="48"/>
+      <c r="AZ37" s="50"/>
+      <c r="BA37" s="50"/>
+      <c r="BB37" s="50"/>
+      <c r="BC37" s="50"/>
+      <c r="BD37" s="50"/>
+      <c r="BE37" s="50"/>
       <c r="BF37" s="8"/>
       <c r="BG37" s="8"/>
       <c r="BH37" s="8"/>
@@ -9234,15 +9261,15 @@
       <c r="IT38" s="8"/>
     </row>
     <row r="39" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="44" t="s">
-        <v>34</v>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="46" t="s">
+        <v>33</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
@@ -9261,15 +9288,15 @@
       <c r="U39" s="47"/>
       <c r="V39" s="47"/>
       <c r="W39" s="47"/>
-      <c r="X39" s="46" t="s">
+      <c r="X39" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="Y39" s="46"/>
-      <c r="Z39" s="46"/>
-      <c r="AA39" s="46"/>
-      <c r="AB39" s="46"/>
-      <c r="AC39" s="44" t="s">
-        <v>33</v>
+      <c r="Y39" s="45"/>
+      <c r="Z39" s="45"/>
+      <c r="AA39" s="45"/>
+      <c r="AB39" s="45"/>
+      <c r="AC39" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="AD39" s="47"/>
       <c r="AE39" s="47"/>
@@ -9498,11 +9525,11 @@
       <c r="IT39" s="8"/>
     </row>
     <row r="40" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="46"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
       <c r="F40" s="47"/>
       <c r="G40" s="47"/>
       <c r="H40" s="47"/>
@@ -9521,11 +9548,11 @@
       <c r="U40" s="47"/>
       <c r="V40" s="47"/>
       <c r="W40" s="47"/>
-      <c r="X40" s="46"/>
-      <c r="Y40" s="46"/>
-      <c r="Z40" s="46"/>
-      <c r="AA40" s="46"/>
-      <c r="AB40" s="46"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="45"/>
+      <c r="Z40" s="45"/>
+      <c r="AA40" s="45"/>
+      <c r="AB40" s="45"/>
       <c r="AC40" s="47"/>
       <c r="AD40" s="47"/>
       <c r="AE40" s="47"/>
@@ -15343,144 +15370,144 @@
       <c r="BE71" s="24"/>
     </row>
     <row r="72" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="35" t="s">
+      <c r="A72" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="36"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="41" t="s">
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="N72" s="41"/>
-      <c r="O72" s="41"/>
-      <c r="P72" s="41"/>
-      <c r="Q72" s="43" t="s">
-        <v>71</v>
+      <c r="N72" s="48"/>
+      <c r="O72" s="48"/>
+      <c r="P72" s="48"/>
+      <c r="Q72" s="49" t="s">
+        <v>69</v>
       </c>
-      <c r="R72" s="43"/>
-      <c r="S72" s="43"/>
-      <c r="T72" s="43"/>
-      <c r="U72" s="43"/>
-      <c r="V72" s="43"/>
-      <c r="W72" s="43"/>
-      <c r="X72" s="43"/>
-      <c r="Y72" s="43"/>
-      <c r="Z72" s="41" t="s">
-        <v>19</v>
+      <c r="R72" s="49"/>
+      <c r="S72" s="49"/>
+      <c r="T72" s="49"/>
+      <c r="U72" s="49"/>
+      <c r="V72" s="49"/>
+      <c r="W72" s="49"/>
+      <c r="X72" s="49"/>
+      <c r="Y72" s="49"/>
+      <c r="Z72" s="48" t="s">
+        <v>18</v>
       </c>
-      <c r="AA72" s="41"/>
-      <c r="AB72" s="41"/>
-      <c r="AC72" s="41"/>
-      <c r="AD72" s="43" t="s">
-        <v>70</v>
+      <c r="AA72" s="48"/>
+      <c r="AB72" s="48"/>
+      <c r="AC72" s="48"/>
+      <c r="AD72" s="49" t="s">
+        <v>68</v>
       </c>
-      <c r="AE72" s="43"/>
-      <c r="AF72" s="43"/>
-      <c r="AG72" s="43"/>
-      <c r="AH72" s="43"/>
-      <c r="AI72" s="43"/>
-      <c r="AJ72" s="43"/>
-      <c r="AK72" s="43"/>
-      <c r="AL72" s="43"/>
-      <c r="AM72" s="41" t="s">
+      <c r="AE72" s="49"/>
+      <c r="AF72" s="49"/>
+      <c r="AG72" s="49"/>
+      <c r="AH72" s="49"/>
+      <c r="AI72" s="49"/>
+      <c r="AJ72" s="49"/>
+      <c r="AK72" s="49"/>
+      <c r="AL72" s="49"/>
+      <c r="AM72" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="AN72" s="41"/>
-      <c r="AO72" s="41"/>
-      <c r="AP72" s="43" t="s">
+      <c r="AN72" s="48"/>
+      <c r="AO72" s="48"/>
+      <c r="AP72" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="AQ72" s="43"/>
-      <c r="AR72" s="43"/>
-      <c r="AS72" s="43"/>
-      <c r="AT72" s="43"/>
-      <c r="AU72" s="43"/>
-      <c r="AV72" s="43"/>
-      <c r="AW72" s="41" t="s">
+      <c r="AQ72" s="49"/>
+      <c r="AR72" s="49"/>
+      <c r="AS72" s="49"/>
+      <c r="AT72" s="49"/>
+      <c r="AU72" s="49"/>
+      <c r="AV72" s="49"/>
+      <c r="AW72" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AX72" s="41"/>
-      <c r="AY72" s="41"/>
-      <c r="AZ72" s="42" t="s">
-        <v>30</v>
+      <c r="AX72" s="48"/>
+      <c r="AY72" s="48"/>
+      <c r="AZ72" s="50" t="s">
+        <v>29</v>
       </c>
-      <c r="BA72" s="42"/>
-      <c r="BB72" s="42"/>
-      <c r="BC72" s="42"/>
-      <c r="BD72" s="42"/>
-      <c r="BE72" s="42"/>
+      <c r="BA72" s="50"/>
+      <c r="BB72" s="50"/>
+      <c r="BC72" s="50"/>
+      <c r="BD72" s="50"/>
+      <c r="BE72" s="50"/>
     </row>
     <row r="73" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="38"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="39"/>
-      <c r="K73" s="39"/>
-      <c r="L73" s="40"/>
-      <c r="M73" s="41"/>
-      <c r="N73" s="41"/>
-      <c r="O73" s="41"/>
-      <c r="P73" s="41"/>
-      <c r="Q73" s="43"/>
-      <c r="R73" s="43"/>
-      <c r="S73" s="43"/>
-      <c r="T73" s="43"/>
-      <c r="U73" s="43"/>
-      <c r="V73" s="43"/>
-      <c r="W73" s="43"/>
-      <c r="X73" s="43"/>
-      <c r="Y73" s="43"/>
-      <c r="Z73" s="41"/>
-      <c r="AA73" s="41"/>
-      <c r="AB73" s="41"/>
-      <c r="AC73" s="41"/>
-      <c r="AD73" s="43"/>
-      <c r="AE73" s="43"/>
-      <c r="AF73" s="43"/>
-      <c r="AG73" s="43"/>
-      <c r="AH73" s="43"/>
-      <c r="AI73" s="43"/>
-      <c r="AJ73" s="43"/>
-      <c r="AK73" s="43"/>
-      <c r="AL73" s="43"/>
-      <c r="AM73" s="41" t="s">
+      <c r="A73" s="41"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="48"/>
+      <c r="N73" s="48"/>
+      <c r="O73" s="48"/>
+      <c r="P73" s="48"/>
+      <c r="Q73" s="49"/>
+      <c r="R73" s="49"/>
+      <c r="S73" s="49"/>
+      <c r="T73" s="49"/>
+      <c r="U73" s="49"/>
+      <c r="V73" s="49"/>
+      <c r="W73" s="49"/>
+      <c r="X73" s="49"/>
+      <c r="Y73" s="49"/>
+      <c r="Z73" s="48"/>
+      <c r="AA73" s="48"/>
+      <c r="AB73" s="48"/>
+      <c r="AC73" s="48"/>
+      <c r="AD73" s="49"/>
+      <c r="AE73" s="49"/>
+      <c r="AF73" s="49"/>
+      <c r="AG73" s="49"/>
+      <c r="AH73" s="49"/>
+      <c r="AI73" s="49"/>
+      <c r="AJ73" s="49"/>
+      <c r="AK73" s="49"/>
+      <c r="AL73" s="49"/>
+      <c r="AM73" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="AN73" s="41"/>
-      <c r="AO73" s="41"/>
-      <c r="AP73" s="43"/>
-      <c r="AQ73" s="43"/>
-      <c r="AR73" s="43"/>
-      <c r="AS73" s="43"/>
-      <c r="AT73" s="43"/>
-      <c r="AU73" s="43"/>
-      <c r="AV73" s="43"/>
-      <c r="AW73" s="41" t="s">
+      <c r="AN73" s="48"/>
+      <c r="AO73" s="48"/>
+      <c r="AP73" s="49"/>
+      <c r="AQ73" s="49"/>
+      <c r="AR73" s="49"/>
+      <c r="AS73" s="49"/>
+      <c r="AT73" s="49"/>
+      <c r="AU73" s="49"/>
+      <c r="AV73" s="49"/>
+      <c r="AW73" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AX73" s="41"/>
-      <c r="AY73" s="41"/>
-      <c r="AZ73" s="42"/>
-      <c r="BA73" s="42"/>
-      <c r="BB73" s="42"/>
-      <c r="BC73" s="42"/>
-      <c r="BD73" s="42"/>
-      <c r="BE73" s="42"/>
+      <c r="AX73" s="48"/>
+      <c r="AY73" s="48"/>
+      <c r="AZ73" s="50"/>
+      <c r="BA73" s="50"/>
+      <c r="BB73" s="50"/>
+      <c r="BC73" s="50"/>
+      <c r="BD73" s="50"/>
+      <c r="BE73" s="50"/>
     </row>
     <row r="74" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
@@ -15542,130 +15569,130 @@
       <c r="BE74" s="5"/>
     </row>
     <row r="75" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A75" s="45" t="s">
+      <c r="A75" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="45"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="44" t="s">
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="46"/>
+      <c r="N75" s="46"/>
+      <c r="O75" s="46"/>
+      <c r="P75" s="46"/>
+      <c r="Q75" s="46"/>
+      <c r="R75" s="46"/>
+      <c r="S75" s="46"/>
+      <c r="T75" s="46"/>
+      <c r="U75" s="46"/>
+      <c r="V75" s="46"/>
+      <c r="W75" s="46"/>
+      <c r="X75" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y75" s="44"/>
+      <c r="Z75" s="44"/>
+      <c r="AA75" s="44"/>
+      <c r="AB75" s="44"/>
+      <c r="AC75" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="G75" s="44"/>
-      <c r="H75" s="44"/>
-      <c r="I75" s="44"/>
-      <c r="J75" s="44"/>
-      <c r="K75" s="44"/>
-      <c r="L75" s="44"/>
-      <c r="M75" s="44"/>
-      <c r="N75" s="44"/>
-      <c r="O75" s="44"/>
-      <c r="P75" s="44"/>
-      <c r="Q75" s="44"/>
-      <c r="R75" s="44"/>
-      <c r="S75" s="44"/>
-      <c r="T75" s="44"/>
-      <c r="U75" s="44"/>
-      <c r="V75" s="44"/>
-      <c r="W75" s="44"/>
-      <c r="X75" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y75" s="45"/>
-      <c r="Z75" s="45"/>
-      <c r="AA75" s="45"/>
-      <c r="AB75" s="45"/>
-      <c r="AC75" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD75" s="44"/>
-      <c r="AE75" s="44"/>
-      <c r="AF75" s="44"/>
-      <c r="AG75" s="44"/>
-      <c r="AH75" s="44"/>
-      <c r="AI75" s="44"/>
-      <c r="AJ75" s="44"/>
-      <c r="AK75" s="44"/>
-      <c r="AL75" s="44"/>
-      <c r="AM75" s="44"/>
-      <c r="AN75" s="44"/>
-      <c r="AO75" s="44"/>
-      <c r="AP75" s="44"/>
-      <c r="AQ75" s="44"/>
-      <c r="AR75" s="44"/>
-      <c r="AS75" s="44"/>
-      <c r="AT75" s="44"/>
-      <c r="AU75" s="44"/>
-      <c r="AV75" s="44"/>
-      <c r="AW75" s="44"/>
-      <c r="AX75" s="44"/>
-      <c r="AY75" s="44"/>
-      <c r="AZ75" s="44"/>
-      <c r="BA75" s="44"/>
-      <c r="BB75" s="44"/>
-      <c r="BC75" s="44"/>
-      <c r="BD75" s="44"/>
-      <c r="BE75" s="44"/>
+      <c r="AD75" s="46"/>
+      <c r="AE75" s="46"/>
+      <c r="AF75" s="46"/>
+      <c r="AG75" s="46"/>
+      <c r="AH75" s="46"/>
+      <c r="AI75" s="46"/>
+      <c r="AJ75" s="46"/>
+      <c r="AK75" s="46"/>
+      <c r="AL75" s="46"/>
+      <c r="AM75" s="46"/>
+      <c r="AN75" s="46"/>
+      <c r="AO75" s="46"/>
+      <c r="AP75" s="46"/>
+      <c r="AQ75" s="46"/>
+      <c r="AR75" s="46"/>
+      <c r="AS75" s="46"/>
+      <c r="AT75" s="46"/>
+      <c r="AU75" s="46"/>
+      <c r="AV75" s="46"/>
+      <c r="AW75" s="46"/>
+      <c r="AX75" s="46"/>
+      <c r="AY75" s="46"/>
+      <c r="AZ75" s="46"/>
+      <c r="BA75" s="46"/>
+      <c r="BB75" s="46"/>
+      <c r="BC75" s="46"/>
+      <c r="BD75" s="46"/>
+      <c r="BE75" s="46"/>
     </row>
     <row r="76" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A76" s="45"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="44"/>
-      <c r="I76" s="44"/>
-      <c r="J76" s="44"/>
-      <c r="K76" s="44"/>
-      <c r="L76" s="44"/>
-      <c r="M76" s="44"/>
-      <c r="N76" s="44"/>
-      <c r="O76" s="44"/>
-      <c r="P76" s="44"/>
-      <c r="Q76" s="44"/>
-      <c r="R76" s="44"/>
-      <c r="S76" s="44"/>
-      <c r="T76" s="44"/>
-      <c r="U76" s="44"/>
-      <c r="V76" s="44"/>
-      <c r="W76" s="44"/>
-      <c r="X76" s="45"/>
-      <c r="Y76" s="45"/>
-      <c r="Z76" s="45"/>
-      <c r="AA76" s="45"/>
-      <c r="AB76" s="45"/>
-      <c r="AC76" s="44"/>
-      <c r="AD76" s="44"/>
-      <c r="AE76" s="44"/>
-      <c r="AF76" s="44"/>
-      <c r="AG76" s="44"/>
-      <c r="AH76" s="44"/>
-      <c r="AI76" s="44"/>
-      <c r="AJ76" s="44"/>
-      <c r="AK76" s="44"/>
-      <c r="AL76" s="44"/>
-      <c r="AM76" s="44"/>
-      <c r="AN76" s="44"/>
-      <c r="AO76" s="44"/>
-      <c r="AP76" s="44"/>
-      <c r="AQ76" s="44"/>
-      <c r="AR76" s="44"/>
-      <c r="AS76" s="44"/>
-      <c r="AT76" s="44"/>
-      <c r="AU76" s="44"/>
-      <c r="AV76" s="44"/>
-      <c r="AW76" s="44"/>
-      <c r="AX76" s="44"/>
-      <c r="AY76" s="44"/>
-      <c r="AZ76" s="44"/>
-      <c r="BA76" s="44"/>
-      <c r="BB76" s="44"/>
-      <c r="BC76" s="44"/>
-      <c r="BD76" s="44"/>
-      <c r="BE76" s="44"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="46"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="46"/>
+      <c r="M76" s="46"/>
+      <c r="N76" s="46"/>
+      <c r="O76" s="46"/>
+      <c r="P76" s="46"/>
+      <c r="Q76" s="46"/>
+      <c r="R76" s="46"/>
+      <c r="S76" s="46"/>
+      <c r="T76" s="46"/>
+      <c r="U76" s="46"/>
+      <c r="V76" s="46"/>
+      <c r="W76" s="46"/>
+      <c r="X76" s="44"/>
+      <c r="Y76" s="44"/>
+      <c r="Z76" s="44"/>
+      <c r="AA76" s="44"/>
+      <c r="AB76" s="44"/>
+      <c r="AC76" s="46"/>
+      <c r="AD76" s="46"/>
+      <c r="AE76" s="46"/>
+      <c r="AF76" s="46"/>
+      <c r="AG76" s="46"/>
+      <c r="AH76" s="46"/>
+      <c r="AI76" s="46"/>
+      <c r="AJ76" s="46"/>
+      <c r="AK76" s="46"/>
+      <c r="AL76" s="46"/>
+      <c r="AM76" s="46"/>
+      <c r="AN76" s="46"/>
+      <c r="AO76" s="46"/>
+      <c r="AP76" s="46"/>
+      <c r="AQ76" s="46"/>
+      <c r="AR76" s="46"/>
+      <c r="AS76" s="46"/>
+      <c r="AT76" s="46"/>
+      <c r="AU76" s="46"/>
+      <c r="AV76" s="46"/>
+      <c r="AW76" s="46"/>
+      <c r="AX76" s="46"/>
+      <c r="AY76" s="46"/>
+      <c r="AZ76" s="46"/>
+      <c r="BA76" s="46"/>
+      <c r="BB76" s="46"/>
+      <c r="BC76" s="46"/>
+      <c r="BD76" s="46"/>
+      <c r="BE76" s="46"/>
     </row>
     <row r="77" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A77" s="9"/>
@@ -17502,7 +17529,6 @@
     <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="AW37:AY37"/>
     <mergeCell ref="AZ37:BE37"/>
     <mergeCell ref="A39:E40"/>
     <mergeCell ref="F39:W40"/>
@@ -17518,12 +17544,22 @@
     <mergeCell ref="AW36:AY36"/>
     <mergeCell ref="AZ36:BE36"/>
     <mergeCell ref="M37:P37"/>
-    <mergeCell ref="Q37:Y37"/>
     <mergeCell ref="Z37:AC37"/>
     <mergeCell ref="Q1:Y1"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="AD1:AL1"/>
     <mergeCell ref="AD37:AL37"/>
+    <mergeCell ref="AC4:BE5"/>
+    <mergeCell ref="AW1:AY1"/>
+    <mergeCell ref="AZ1:BE1"/>
+    <mergeCell ref="AW2:AY2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="AD2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AV2"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AV1"/>
+    <mergeCell ref="AW37:AY37"/>
     <mergeCell ref="AM37:AO37"/>
     <mergeCell ref="AP37:AV37"/>
     <mergeCell ref="AM72:AO72"/>
@@ -17531,40 +17567,31 @@
     <mergeCell ref="F75:W76"/>
     <mergeCell ref="X75:AB76"/>
     <mergeCell ref="AC75:BE76"/>
+    <mergeCell ref="AD72:AL72"/>
+    <mergeCell ref="AW72:AY72"/>
+    <mergeCell ref="AZ72:BE72"/>
+    <mergeCell ref="AW73:AY73"/>
+    <mergeCell ref="AZ73:BE73"/>
+    <mergeCell ref="AD73:AL73"/>
+    <mergeCell ref="AM73:AO73"/>
+    <mergeCell ref="AP73:AV73"/>
+    <mergeCell ref="Q37:Y37"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="A4:E5"/>
     <mergeCell ref="A75:E76"/>
     <mergeCell ref="F4:W5"/>
     <mergeCell ref="X4:AB5"/>
-    <mergeCell ref="AC4:BE5"/>
     <mergeCell ref="M72:P72"/>
     <mergeCell ref="Q72:Y72"/>
     <mergeCell ref="Z72:AC72"/>
-    <mergeCell ref="AD72:AL72"/>
-    <mergeCell ref="AW1:AY1"/>
-    <mergeCell ref="AZ1:BE1"/>
-    <mergeCell ref="AW2:AY2"/>
-    <mergeCell ref="AZ2:BE2"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AV2"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AV1"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:Y2"/>
     <mergeCell ref="A72:L73"/>
-    <mergeCell ref="AW72:AY72"/>
-    <mergeCell ref="AZ72:BE72"/>
-    <mergeCell ref="AW73:AY73"/>
-    <mergeCell ref="AZ73:BE73"/>
     <mergeCell ref="M73:P73"/>
     <mergeCell ref="Q73:Y73"/>
     <mergeCell ref="Z73:AC73"/>
-    <mergeCell ref="AD73:AL73"/>
-    <mergeCell ref="AM73:AO73"/>
-    <mergeCell ref="AP73:AV73"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -17596,79 +17623,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="41" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="43" t="s">
-        <v>71</v>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="49" t="s">
+        <v>69</v>
       </c>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="41" t="s">
-        <v>19</v>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="48" t="s">
+        <v>18</v>
       </c>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="43" t="s">
-        <v>70</v>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="49" t="s">
+        <v>68</v>
       </c>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="41" t="s">
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="43" t="s">
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="43"/>
-      <c r="AU1" s="41" t="s">
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="42" t="s">
-        <v>30</v>
+      <c r="AV1" s="48"/>
+      <c r="AW1" s="48"/>
+      <c r="AX1" s="50" t="s">
+        <v>29</v>
       </c>
-      <c r="AY1" s="42"/>
-      <c r="AZ1" s="42"/>
-      <c r="BA1" s="42"/>
-      <c r="BB1" s="42"/>
-      <c r="BC1" s="42"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="50"/>
+      <c r="BA1" s="50"/>
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="50"/>
       <c r="BD1" s="3"/>
       <c r="BE1" s="3"/>
       <c r="BF1" s="3"/>
@@ -17849,65 +17876,65 @@
       <c r="HY1" s="3"/>
     </row>
     <row r="2" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="41" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="41" t="s">
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AV2" s="41"/>
-      <c r="AW2" s="41"/>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="42"/>
-      <c r="AZ2" s="42"/>
-      <c r="BA2" s="42"/>
-      <c r="BB2" s="42"/>
-      <c r="BC2" s="42"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="50"/>
+      <c r="BA2" s="50"/>
+      <c r="BB2" s="50"/>
+      <c r="BC2" s="50"/>
       <c r="BD2" s="3"/>
       <c r="BE2" s="3"/>
       <c r="BF2" s="3"/>
@@ -18323,69 +18350,69 @@
       <c r="HY3" s="3"/>
     </row>
     <row r="4" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="60" t="s">
-        <v>32</v>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="59" t="s">
+        <v>31</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="62" t="s">
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="60" t="s">
-        <v>31</v>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="59" t="s">
+        <v>30</v>
       </c>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="60"/>
-      <c r="AL4" s="60"/>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="60"/>
-      <c r="AO4" s="60"/>
-      <c r="AP4" s="60"/>
-      <c r="AQ4" s="60"/>
-      <c r="AR4" s="60"/>
-      <c r="AS4" s="60"/>
-      <c r="AT4" s="60"/>
-      <c r="AU4" s="60"/>
-      <c r="AV4" s="60"/>
-      <c r="AW4" s="60"/>
-      <c r="AX4" s="60"/>
-      <c r="AY4" s="60"/>
-      <c r="AZ4" s="60"/>
-      <c r="BA4" s="60"/>
-      <c r="BB4" s="60"/>
-      <c r="BC4" s="60"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="59"/>
+      <c r="AO4" s="59"/>
+      <c r="AP4" s="59"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="59"/>
+      <c r="AS4" s="59"/>
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="59"/>
+      <c r="AV4" s="59"/>
+      <c r="AW4" s="59"/>
+      <c r="AX4" s="59"/>
+      <c r="AY4" s="59"/>
+      <c r="AZ4" s="59"/>
+      <c r="BA4" s="59"/>
+      <c r="BB4" s="59"/>
+      <c r="BC4" s="59"/>
       <c r="BD4" s="3"/>
       <c r="BE4" s="3"/>
       <c r="BF4" s="3"/>
@@ -18566,61 +18593,61 @@
       <c r="HY4" s="3"/>
     </row>
     <row r="5" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="63"/>
-      <c r="Z5" s="63"/>
-      <c r="AA5" s="63"/>
-      <c r="AB5" s="63"/>
-      <c r="AC5" s="61"/>
-      <c r="AD5" s="61"/>
-      <c r="AE5" s="61"/>
-      <c r="AF5" s="61"/>
-      <c r="AG5" s="61"/>
-      <c r="AH5" s="61"/>
-      <c r="AI5" s="61"/>
-      <c r="AJ5" s="61"/>
-      <c r="AK5" s="61"/>
-      <c r="AL5" s="61"/>
-      <c r="AM5" s="61"/>
-      <c r="AN5" s="61"/>
-      <c r="AO5" s="61"/>
-      <c r="AP5" s="61"/>
-      <c r="AQ5" s="61"/>
-      <c r="AR5" s="61"/>
-      <c r="AS5" s="61"/>
-      <c r="AT5" s="61"/>
-      <c r="AU5" s="61"/>
-      <c r="AV5" s="61"/>
-      <c r="AW5" s="61"/>
-      <c r="AX5" s="61"/>
-      <c r="AY5" s="61"/>
-      <c r="AZ5" s="61"/>
-      <c r="BA5" s="61"/>
-      <c r="BB5" s="61"/>
-      <c r="BC5" s="61"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="60"/>
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="60"/>
+      <c r="AJ5" s="60"/>
+      <c r="AK5" s="60"/>
+      <c r="AL5" s="60"/>
+      <c r="AM5" s="60"/>
+      <c r="AN5" s="60"/>
+      <c r="AO5" s="60"/>
+      <c r="AP5" s="60"/>
+      <c r="AQ5" s="60"/>
+      <c r="AR5" s="60"/>
+      <c r="AS5" s="60"/>
+      <c r="AT5" s="60"/>
+      <c r="AU5" s="60"/>
+      <c r="AV5" s="60"/>
+      <c r="AW5" s="60"/>
+      <c r="AX5" s="60"/>
+      <c r="AY5" s="60"/>
+      <c r="AZ5" s="60"/>
+      <c r="BA5" s="60"/>
+      <c r="BB5" s="60"/>
+      <c r="BC5" s="60"/>
       <c r="BD5" s="3"/>
       <c r="BE5" s="3"/>
       <c r="BF5" s="3"/>
@@ -19021,71 +19048,71 @@
       <c r="HR6" s="3"/>
     </row>
     <row r="7" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46" t="s">
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46" t="s">
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46" t="s">
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="46"/>
-      <c r="AD7" s="46"/>
-      <c r="AE7" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF7" s="46"/>
-      <c r="AG7" s="46"/>
-      <c r="AH7" s="46"/>
-      <c r="AI7" s="46"/>
-      <c r="AJ7" s="46"/>
-      <c r="AK7" s="46"/>
-      <c r="AL7" s="46"/>
-      <c r="AM7" s="46"/>
-      <c r="AN7" s="46"/>
-      <c r="AO7" s="46"/>
-      <c r="AP7" s="46"/>
-      <c r="AQ7" s="46"/>
-      <c r="AR7" s="46"/>
-      <c r="AS7" s="46"/>
-      <c r="AT7" s="46"/>
-      <c r="AU7" s="46"/>
-      <c r="AV7" s="46"/>
-      <c r="AW7" s="46"/>
-      <c r="AX7" s="46"/>
-      <c r="AY7" s="46"/>
-      <c r="AZ7" s="46"/>
-      <c r="BA7" s="46"/>
-      <c r="BB7" s="46"/>
-      <c r="BC7" s="46"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="45"/>
+      <c r="AJ7" s="45"/>
+      <c r="AK7" s="45"/>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="45"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="45"/>
+      <c r="AQ7" s="45"/>
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="45"/>
+      <c r="AU7" s="45"/>
+      <c r="AV7" s="45"/>
+      <c r="AW7" s="45"/>
+      <c r="AX7" s="45"/>
+      <c r="AY7" s="45"/>
+      <c r="AZ7" s="45"/>
+      <c r="BA7" s="45"/>
+      <c r="BB7" s="45"/>
+      <c r="BC7" s="45"/>
       <c r="BD7" s="3"/>
       <c r="BE7" s="3"/>
       <c r="CP7" s="3"/>
@@ -19215,61 +19242,61 @@
       <c r="HJ7" s="3"/>
     </row>
     <row r="8" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="46"/>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="46"/>
-      <c r="AH8" s="46"/>
-      <c r="AI8" s="46"/>
-      <c r="AJ8" s="46"/>
-      <c r="AK8" s="46"/>
-      <c r="AL8" s="46"/>
-      <c r="AM8" s="46"/>
-      <c r="AN8" s="46"/>
-      <c r="AO8" s="46"/>
-      <c r="AP8" s="46"/>
-      <c r="AQ8" s="46"/>
-      <c r="AR8" s="46"/>
-      <c r="AS8" s="46"/>
-      <c r="AT8" s="46"/>
-      <c r="AU8" s="46"/>
-      <c r="AV8" s="46"/>
-      <c r="AW8" s="46"/>
-      <c r="AX8" s="46"/>
-      <c r="AY8" s="46"/>
-      <c r="AZ8" s="46"/>
-      <c r="BA8" s="46"/>
-      <c r="BB8" s="46"/>
-      <c r="BC8" s="46"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="45"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="45"/>
+      <c r="AK8" s="45"/>
+      <c r="AL8" s="45"/>
+      <c r="AM8" s="45"/>
+      <c r="AN8" s="45"/>
+      <c r="AO8" s="45"/>
+      <c r="AP8" s="45"/>
+      <c r="AQ8" s="45"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
+      <c r="AT8" s="45"/>
+      <c r="AU8" s="45"/>
+      <c r="AV8" s="45"/>
+      <c r="AW8" s="45"/>
+      <c r="AX8" s="45"/>
+      <c r="AY8" s="45"/>
+      <c r="AZ8" s="45"/>
+      <c r="BA8" s="45"/>
+      <c r="BB8" s="45"/>
+      <c r="BC8" s="45"/>
       <c r="BD8" s="3"/>
       <c r="BE8" s="3"/>
       <c r="CP8" s="3"/>
@@ -19399,71 +19426,71 @@
       <c r="HJ8" s="3"/>
     </row>
     <row r="9" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
-        <v>37</v>
+      <c r="A9" s="52" t="s">
+        <v>36</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="49" t="s">
-        <v>46</v>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="52" t="s">
+        <v>44</v>
       </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="49" t="s">
-        <v>43</v>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="52" t="s">
+        <v>42</v>
       </c>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="55" t="s">
-        <v>25</v>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="64" t="s">
+        <v>24</v>
       </c>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="56" t="s">
-        <v>18</v>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="65" t="s">
+        <v>17</v>
       </c>
-      <c r="AF9" s="57"/>
-      <c r="AG9" s="57"/>
-      <c r="AH9" s="57"/>
-      <c r="AI9" s="57"/>
-      <c r="AJ9" s="57"/>
-      <c r="AK9" s="57"/>
-      <c r="AL9" s="57"/>
-      <c r="AM9" s="57"/>
-      <c r="AN9" s="57"/>
-      <c r="AO9" s="57"/>
-      <c r="AP9" s="57"/>
-      <c r="AQ9" s="57"/>
-      <c r="AR9" s="57"/>
-      <c r="AS9" s="57"/>
-      <c r="AT9" s="57"/>
-      <c r="AU9" s="57"/>
-      <c r="AV9" s="57"/>
-      <c r="AW9" s="57"/>
-      <c r="AX9" s="57"/>
-      <c r="AY9" s="57"/>
-      <c r="AZ9" s="57"/>
-      <c r="BA9" s="57"/>
-      <c r="BB9" s="57"/>
-      <c r="BC9" s="57"/>
+      <c r="AF9" s="66"/>
+      <c r="AG9" s="66"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="66"/>
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="66"/>
+      <c r="AL9" s="66"/>
+      <c r="AM9" s="66"/>
+      <c r="AN9" s="66"/>
+      <c r="AO9" s="66"/>
+      <c r="AP9" s="66"/>
+      <c r="AQ9" s="66"/>
+      <c r="AR9" s="66"/>
+      <c r="AS9" s="66"/>
+      <c r="AT9" s="66"/>
+      <c r="AU9" s="66"/>
+      <c r="AV9" s="66"/>
+      <c r="AW9" s="66"/>
+      <c r="AX9" s="66"/>
+      <c r="AY9" s="66"/>
+      <c r="AZ9" s="66"/>
+      <c r="BA9" s="66"/>
+      <c r="BB9" s="66"/>
+      <c r="BC9" s="66"/>
       <c r="BD9" s="3"/>
       <c r="BE9" s="3"/>
       <c r="CP9" s="3"/>
@@ -19593,71 +19620,71 @@
       <c r="HJ9" s="3"/>
     </row>
     <row r="10" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
-        <v>38</v>
+      <c r="A10" s="52" t="s">
+        <v>37</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="49" t="s">
-        <v>47</v>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="52" t="s">
+        <v>45</v>
       </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54" t="s">
-        <v>44</v>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63" t="s">
+        <v>85</v>
       </c>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="55" t="s">
-        <v>25</v>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="64" t="s">
+        <v>24</v>
       </c>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="56" t="s">
-        <v>28</v>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="65" t="s">
+        <v>27</v>
       </c>
-      <c r="AF10" s="57"/>
-      <c r="AG10" s="57"/>
-      <c r="AH10" s="57"/>
-      <c r="AI10" s="57"/>
-      <c r="AJ10" s="57"/>
-      <c r="AK10" s="57"/>
-      <c r="AL10" s="57"/>
-      <c r="AM10" s="57"/>
-      <c r="AN10" s="57"/>
-      <c r="AO10" s="57"/>
-      <c r="AP10" s="57"/>
-      <c r="AQ10" s="57"/>
-      <c r="AR10" s="57"/>
-      <c r="AS10" s="57"/>
-      <c r="AT10" s="57"/>
-      <c r="AU10" s="57"/>
-      <c r="AV10" s="57"/>
-      <c r="AW10" s="57"/>
-      <c r="AX10" s="57"/>
-      <c r="AY10" s="57"/>
-      <c r="AZ10" s="57"/>
-      <c r="BA10" s="57"/>
-      <c r="BB10" s="57"/>
-      <c r="BC10" s="57"/>
+      <c r="AF10" s="66"/>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="66"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="66"/>
+      <c r="AL10" s="66"/>
+      <c r="AM10" s="66"/>
+      <c r="AN10" s="66"/>
+      <c r="AO10" s="66"/>
+      <c r="AP10" s="66"/>
+      <c r="AQ10" s="66"/>
+      <c r="AR10" s="66"/>
+      <c r="AS10" s="66"/>
+      <c r="AT10" s="66"/>
+      <c r="AU10" s="66"/>
+      <c r="AV10" s="66"/>
+      <c r="AW10" s="66"/>
+      <c r="AX10" s="66"/>
+      <c r="AY10" s="66"/>
+      <c r="AZ10" s="66"/>
+      <c r="BA10" s="66"/>
+      <c r="BB10" s="66"/>
+      <c r="BC10" s="66"/>
       <c r="BD10" s="3"/>
       <c r="BE10" s="3"/>
       <c r="CP10" s="3"/>
@@ -19787,71 +19814,71 @@
       <c r="HJ10" s="3"/>
     </row>
     <row r="11" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49" t="s">
-        <v>39</v>
+      <c r="A11" s="52" t="s">
+        <v>38</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="49" t="s">
-        <v>48</v>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="52" t="s">
+        <v>46</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54" t="s">
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="64"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="X11" s="55"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="55"/>
-      <c r="AB11" s="55"/>
-      <c r="AC11" s="55"/>
-      <c r="AD11" s="55"/>
-      <c r="AE11" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF11" s="57"/>
-      <c r="AG11" s="57"/>
-      <c r="AH11" s="57"/>
-      <c r="AI11" s="57"/>
-      <c r="AJ11" s="57"/>
-      <c r="AK11" s="57"/>
-      <c r="AL11" s="57"/>
-      <c r="AM11" s="57"/>
-      <c r="AN11" s="57"/>
-      <c r="AO11" s="57"/>
-      <c r="AP11" s="57"/>
-      <c r="AQ11" s="57"/>
-      <c r="AR11" s="57"/>
-      <c r="AS11" s="57"/>
-      <c r="AT11" s="57"/>
-      <c r="AU11" s="57"/>
-      <c r="AV11" s="57"/>
-      <c r="AW11" s="57"/>
-      <c r="AX11" s="57"/>
-      <c r="AY11" s="57"/>
-      <c r="AZ11" s="57"/>
-      <c r="BA11" s="57"/>
-      <c r="BB11" s="57"/>
-      <c r="BC11" s="57"/>
+      <c r="AF11" s="66"/>
+      <c r="AG11" s="66"/>
+      <c r="AH11" s="66"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="66"/>
+      <c r="AK11" s="66"/>
+      <c r="AL11" s="66"/>
+      <c r="AM11" s="66"/>
+      <c r="AN11" s="66"/>
+      <c r="AO11" s="66"/>
+      <c r="AP11" s="66"/>
+      <c r="AQ11" s="66"/>
+      <c r="AR11" s="66"/>
+      <c r="AS11" s="66"/>
+      <c r="AT11" s="66"/>
+      <c r="AU11" s="66"/>
+      <c r="AV11" s="66"/>
+      <c r="AW11" s="66"/>
+      <c r="AX11" s="66"/>
+      <c r="AY11" s="66"/>
+      <c r="AZ11" s="66"/>
+      <c r="BA11" s="66"/>
+      <c r="BB11" s="66"/>
+      <c r="BC11" s="66"/>
       <c r="BD11" s="3"/>
       <c r="BE11" s="3"/>
       <c r="CP11" s="3"/>
@@ -19981,71 +20008,71 @@
       <c r="HJ11" s="3"/>
     </row>
     <row r="12" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
-        <v>40</v>
+      <c r="A12" s="52" t="s">
+        <v>39</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="49" t="s">
-        <v>49</v>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="52" t="s">
+        <v>47</v>
       </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54" t="s">
-        <v>45</v>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63" t="s">
+        <v>43</v>
       </c>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="55" t="s">
-        <v>26</v>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="64" t="s">
+        <v>25</v>
       </c>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="55"/>
-      <c r="AD12" s="55"/>
-      <c r="AE12" s="56" t="s">
-        <v>28</v>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="64"/>
+      <c r="AD12" s="64"/>
+      <c r="AE12" s="65" t="s">
+        <v>27</v>
       </c>
-      <c r="AF12" s="57"/>
-      <c r="AG12" s="57"/>
-      <c r="AH12" s="57"/>
-      <c r="AI12" s="57"/>
-      <c r="AJ12" s="57"/>
-      <c r="AK12" s="57"/>
-      <c r="AL12" s="57"/>
-      <c r="AM12" s="57"/>
-      <c r="AN12" s="57"/>
-      <c r="AO12" s="57"/>
-      <c r="AP12" s="57"/>
-      <c r="AQ12" s="57"/>
-      <c r="AR12" s="57"/>
-      <c r="AS12" s="57"/>
-      <c r="AT12" s="57"/>
-      <c r="AU12" s="57"/>
-      <c r="AV12" s="57"/>
-      <c r="AW12" s="57"/>
-      <c r="AX12" s="57"/>
-      <c r="AY12" s="57"/>
-      <c r="AZ12" s="57"/>
-      <c r="BA12" s="57"/>
-      <c r="BB12" s="57"/>
-      <c r="BC12" s="57"/>
+      <c r="AF12" s="66"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="66"/>
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="66"/>
+      <c r="AL12" s="66"/>
+      <c r="AM12" s="66"/>
+      <c r="AN12" s="66"/>
+      <c r="AO12" s="66"/>
+      <c r="AP12" s="66"/>
+      <c r="AQ12" s="66"/>
+      <c r="AR12" s="66"/>
+      <c r="AS12" s="66"/>
+      <c r="AT12" s="66"/>
+      <c r="AU12" s="66"/>
+      <c r="AV12" s="66"/>
+      <c r="AW12" s="66"/>
+      <c r="AX12" s="66"/>
+      <c r="AY12" s="66"/>
+      <c r="AZ12" s="66"/>
+      <c r="BA12" s="66"/>
+      <c r="BB12" s="66"/>
+      <c r="BC12" s="66"/>
       <c r="BD12" s="3"/>
       <c r="BE12" s="3"/>
       <c r="CP12" s="3"/>
@@ -20175,71 +20202,71 @@
       <c r="HJ12" s="3"/>
     </row>
     <row r="13" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
-        <v>41</v>
+      <c r="A13" s="52" t="s">
+        <v>40</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="49" t="s">
-        <v>50</v>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="52" t="s">
+        <v>48</v>
       </c>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54" t="s">
-        <v>45</v>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63" t="s">
+        <v>43</v>
       </c>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="55" t="s">
-        <v>26</v>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="64" t="s">
+        <v>25</v>
       </c>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="55"/>
-      <c r="AA13" s="55"/>
-      <c r="AB13" s="55"/>
-      <c r="AC13" s="55"/>
-      <c r="AD13" s="55"/>
-      <c r="AE13" s="56" t="s">
-        <v>28</v>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="64"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="64"/>
+      <c r="AE13" s="65" t="s">
+        <v>27</v>
       </c>
-      <c r="AF13" s="57"/>
-      <c r="AG13" s="57"/>
-      <c r="AH13" s="57"/>
-      <c r="AI13" s="57"/>
-      <c r="AJ13" s="57"/>
-      <c r="AK13" s="57"/>
-      <c r="AL13" s="57"/>
-      <c r="AM13" s="57"/>
-      <c r="AN13" s="57"/>
-      <c r="AO13" s="57"/>
-      <c r="AP13" s="57"/>
-      <c r="AQ13" s="57"/>
-      <c r="AR13" s="57"/>
-      <c r="AS13" s="57"/>
-      <c r="AT13" s="57"/>
-      <c r="AU13" s="57"/>
-      <c r="AV13" s="57"/>
-      <c r="AW13" s="57"/>
-      <c r="AX13" s="57"/>
-      <c r="AY13" s="57"/>
-      <c r="AZ13" s="57"/>
-      <c r="BA13" s="57"/>
-      <c r="BB13" s="57"/>
-      <c r="BC13" s="57"/>
+      <c r="AF13" s="66"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="66"/>
+      <c r="AK13" s="66"/>
+      <c r="AL13" s="66"/>
+      <c r="AM13" s="66"/>
+      <c r="AN13" s="66"/>
+      <c r="AO13" s="66"/>
+      <c r="AP13" s="66"/>
+      <c r="AQ13" s="66"/>
+      <c r="AR13" s="66"/>
+      <c r="AS13" s="66"/>
+      <c r="AT13" s="66"/>
+      <c r="AU13" s="66"/>
+      <c r="AV13" s="66"/>
+      <c r="AW13" s="66"/>
+      <c r="AX13" s="66"/>
+      <c r="AY13" s="66"/>
+      <c r="AZ13" s="66"/>
+      <c r="BA13" s="66"/>
+      <c r="BB13" s="66"/>
+      <c r="BC13" s="66"/>
       <c r="BD13" s="3"/>
       <c r="BE13" s="3"/>
       <c r="CP13" s="3"/>
@@ -20369,71 +20396,71 @@
       <c r="HJ13" s="3"/>
     </row>
     <row r="14" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
-        <v>42</v>
+      <c r="A14" s="52" t="s">
+        <v>41</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="49" t="s">
-        <v>51</v>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="52" t="s">
+        <v>49</v>
       </c>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54" t="s">
-        <v>45</v>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63" t="s">
+        <v>43</v>
       </c>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="55" t="s">
-        <v>26</v>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="64" t="s">
+        <v>25</v>
       </c>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="55"/>
-      <c r="AD14" s="55"/>
-      <c r="AE14" s="56" t="s">
-        <v>28</v>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="64"/>
+      <c r="AC14" s="64"/>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="65" t="s">
+        <v>27</v>
       </c>
-      <c r="AF14" s="57"/>
-      <c r="AG14" s="57"/>
-      <c r="AH14" s="57"/>
-      <c r="AI14" s="57"/>
-      <c r="AJ14" s="57"/>
-      <c r="AK14" s="57"/>
-      <c r="AL14" s="57"/>
-      <c r="AM14" s="57"/>
-      <c r="AN14" s="57"/>
-      <c r="AO14" s="57"/>
-      <c r="AP14" s="57"/>
-      <c r="AQ14" s="57"/>
-      <c r="AR14" s="57"/>
-      <c r="AS14" s="57"/>
-      <c r="AT14" s="57"/>
-      <c r="AU14" s="57"/>
-      <c r="AV14" s="57"/>
-      <c r="AW14" s="57"/>
-      <c r="AX14" s="57"/>
-      <c r="AY14" s="57"/>
-      <c r="AZ14" s="57"/>
-      <c r="BA14" s="57"/>
-      <c r="BB14" s="57"/>
-      <c r="BC14" s="57"/>
+      <c r="AF14" s="66"/>
+      <c r="AG14" s="66"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="66"/>
+      <c r="AL14" s="66"/>
+      <c r="AM14" s="66"/>
+      <c r="AN14" s="66"/>
+      <c r="AO14" s="66"/>
+      <c r="AP14" s="66"/>
+      <c r="AQ14" s="66"/>
+      <c r="AR14" s="66"/>
+      <c r="AS14" s="66"/>
+      <c r="AT14" s="66"/>
+      <c r="AU14" s="66"/>
+      <c r="AV14" s="66"/>
+      <c r="AW14" s="66"/>
+      <c r="AX14" s="66"/>
+      <c r="AY14" s="66"/>
+      <c r="AZ14" s="66"/>
+      <c r="BA14" s="66"/>
+      <c r="BB14" s="66"/>
+      <c r="BC14" s="66"/>
       <c r="BD14" s="3"/>
       <c r="BE14" s="3"/>
       <c r="CP14" s="3"/>
@@ -20563,61 +20590,61 @@
       <c r="HJ14" s="3"/>
     </row>
     <row r="15" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="55"/>
-      <c r="AA15" s="55"/>
-      <c r="AB15" s="55"/>
-      <c r="AC15" s="55"/>
-      <c r="AD15" s="55"/>
-      <c r="AE15" s="56"/>
-      <c r="AF15" s="57"/>
-      <c r="AG15" s="57"/>
-      <c r="AH15" s="57"/>
-      <c r="AI15" s="57"/>
-      <c r="AJ15" s="57"/>
-      <c r="AK15" s="57"/>
-      <c r="AL15" s="57"/>
-      <c r="AM15" s="57"/>
-      <c r="AN15" s="57"/>
-      <c r="AO15" s="57"/>
-      <c r="AP15" s="57"/>
-      <c r="AQ15" s="57"/>
-      <c r="AR15" s="57"/>
-      <c r="AS15" s="57"/>
-      <c r="AT15" s="57"/>
-      <c r="AU15" s="57"/>
-      <c r="AV15" s="57"/>
-      <c r="AW15" s="57"/>
-      <c r="AX15" s="57"/>
-      <c r="AY15" s="57"/>
-      <c r="AZ15" s="57"/>
-      <c r="BA15" s="57"/>
-      <c r="BB15" s="57"/>
-      <c r="BC15" s="57"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="64"/>
+      <c r="AC15" s="64"/>
+      <c r="AD15" s="64"/>
+      <c r="AE15" s="65"/>
+      <c r="AF15" s="66"/>
+      <c r="AG15" s="66"/>
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="66"/>
+      <c r="AK15" s="66"/>
+      <c r="AL15" s="66"/>
+      <c r="AM15" s="66"/>
+      <c r="AN15" s="66"/>
+      <c r="AO15" s="66"/>
+      <c r="AP15" s="66"/>
+      <c r="AQ15" s="66"/>
+      <c r="AR15" s="66"/>
+      <c r="AS15" s="66"/>
+      <c r="AT15" s="66"/>
+      <c r="AU15" s="66"/>
+      <c r="AV15" s="66"/>
+      <c r="AW15" s="66"/>
+      <c r="AX15" s="66"/>
+      <c r="AY15" s="66"/>
+      <c r="AZ15" s="66"/>
+      <c r="BA15" s="66"/>
+      <c r="BB15" s="66"/>
+      <c r="BC15" s="66"/>
       <c r="BD15" s="3"/>
       <c r="BE15" s="3"/>
       <c r="CP15" s="3"/>
@@ -20931,69 +20958,69 @@
       <c r="HJ16" s="3"/>
     </row>
     <row r="17" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="44" t="s">
-        <v>34</v>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="46" t="s">
+        <v>33</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="46" t="s">
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="46"/>
-      <c r="AB17" s="46"/>
-      <c r="AC17" s="44" t="s">
-        <v>33</v>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="46" t="s">
+        <v>32</v>
       </c>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="44"/>
-      <c r="AF17" s="44"/>
-      <c r="AG17" s="44"/>
-      <c r="AH17" s="44"/>
-      <c r="AI17" s="44"/>
-      <c r="AJ17" s="44"/>
-      <c r="AK17" s="44"/>
-      <c r="AL17" s="44"/>
-      <c r="AM17" s="44"/>
-      <c r="AN17" s="44"/>
-      <c r="AO17" s="44"/>
-      <c r="AP17" s="44"/>
-      <c r="AQ17" s="44"/>
-      <c r="AR17" s="44"/>
-      <c r="AS17" s="44"/>
-      <c r="AT17" s="44"/>
-      <c r="AU17" s="44"/>
-      <c r="AV17" s="44"/>
-      <c r="AW17" s="44"/>
-      <c r="AX17" s="44"/>
-      <c r="AY17" s="44"/>
-      <c r="AZ17" s="44"/>
-      <c r="BA17" s="44"/>
-      <c r="BB17" s="44"/>
-      <c r="BC17" s="44"/>
+      <c r="AD17" s="46"/>
+      <c r="AE17" s="46"/>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="46"/>
+      <c r="AJ17" s="46"/>
+      <c r="AK17" s="46"/>
+      <c r="AL17" s="46"/>
+      <c r="AM17" s="46"/>
+      <c r="AN17" s="46"/>
+      <c r="AO17" s="46"/>
+      <c r="AP17" s="46"/>
+      <c r="AQ17" s="46"/>
+      <c r="AR17" s="46"/>
+      <c r="AS17" s="46"/>
+      <c r="AT17" s="46"/>
+      <c r="AU17" s="46"/>
+      <c r="AV17" s="46"/>
+      <c r="AW17" s="46"/>
+      <c r="AX17" s="46"/>
+      <c r="AY17" s="46"/>
+      <c r="AZ17" s="46"/>
+      <c r="BA17" s="46"/>
+      <c r="BB17" s="46"/>
+      <c r="BC17" s="46"/>
       <c r="BD17" s="3"/>
       <c r="BE17" s="3"/>
       <c r="CP17" s="3"/>
@@ -21123,61 +21150,61 @@
       <c r="HJ17" s="3"/>
     </row>
     <row r="18" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="44"/>
-      <c r="AD18" s="44"/>
-      <c r="AE18" s="44"/>
-      <c r="AF18" s="44"/>
-      <c r="AG18" s="44"/>
-      <c r="AH18" s="44"/>
-      <c r="AI18" s="44"/>
-      <c r="AJ18" s="44"/>
-      <c r="AK18" s="44"/>
-      <c r="AL18" s="44"/>
-      <c r="AM18" s="44"/>
-      <c r="AN18" s="44"/>
-      <c r="AO18" s="44"/>
-      <c r="AP18" s="44"/>
-      <c r="AQ18" s="44"/>
-      <c r="AR18" s="44"/>
-      <c r="AS18" s="44"/>
-      <c r="AT18" s="44"/>
-      <c r="AU18" s="44"/>
-      <c r="AV18" s="44"/>
-      <c r="AW18" s="44"/>
-      <c r="AX18" s="44"/>
-      <c r="AY18" s="44"/>
-      <c r="AZ18" s="44"/>
-      <c r="BA18" s="44"/>
-      <c r="BB18" s="44"/>
-      <c r="BC18" s="44"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="45"/>
+      <c r="AC18" s="46"/>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="46"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="46"/>
+      <c r="AJ18" s="46"/>
+      <c r="AK18" s="46"/>
+      <c r="AL18" s="46"/>
+      <c r="AM18" s="46"/>
+      <c r="AN18" s="46"/>
+      <c r="AO18" s="46"/>
+      <c r="AP18" s="46"/>
+      <c r="AQ18" s="46"/>
+      <c r="AR18" s="46"/>
+      <c r="AS18" s="46"/>
+      <c r="AT18" s="46"/>
+      <c r="AU18" s="46"/>
+      <c r="AV18" s="46"/>
+      <c r="AW18" s="46"/>
+      <c r="AX18" s="46"/>
+      <c r="AY18" s="46"/>
+      <c r="AZ18" s="46"/>
+      <c r="BA18" s="46"/>
+      <c r="BB18" s="46"/>
+      <c r="BC18" s="46"/>
       <c r="BD18" s="3"/>
       <c r="BE18" s="3"/>
       <c r="CP18" s="3"/>
@@ -21491,71 +21518,71 @@
       <c r="HJ19" s="3"/>
     </row>
     <row r="20" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46" t="s">
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46" t="s">
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46" t="s">
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="45"/>
+      <c r="AD20" s="45"/>
+      <c r="AE20" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="46"/>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF20" s="46"/>
-      <c r="AG20" s="46"/>
-      <c r="AH20" s="46"/>
-      <c r="AI20" s="46"/>
-      <c r="AJ20" s="46"/>
-      <c r="AK20" s="46"/>
-      <c r="AL20" s="46"/>
-      <c r="AM20" s="46"/>
-      <c r="AN20" s="46"/>
-      <c r="AO20" s="46"/>
-      <c r="AP20" s="46"/>
-      <c r="AQ20" s="46"/>
-      <c r="AR20" s="46"/>
-      <c r="AS20" s="46"/>
-      <c r="AT20" s="46"/>
-      <c r="AU20" s="46"/>
-      <c r="AV20" s="46"/>
-      <c r="AW20" s="46"/>
-      <c r="AX20" s="46"/>
-      <c r="AY20" s="46"/>
-      <c r="AZ20" s="46"/>
-      <c r="BA20" s="46"/>
-      <c r="BB20" s="46"/>
-      <c r="BC20" s="46"/>
+      <c r="AF20" s="45"/>
+      <c r="AG20" s="45"/>
+      <c r="AH20" s="45"/>
+      <c r="AI20" s="45"/>
+      <c r="AJ20" s="45"/>
+      <c r="AK20" s="45"/>
+      <c r="AL20" s="45"/>
+      <c r="AM20" s="45"/>
+      <c r="AN20" s="45"/>
+      <c r="AO20" s="45"/>
+      <c r="AP20" s="45"/>
+      <c r="AQ20" s="45"/>
+      <c r="AR20" s="45"/>
+      <c r="AS20" s="45"/>
+      <c r="AT20" s="45"/>
+      <c r="AU20" s="45"/>
+      <c r="AV20" s="45"/>
+      <c r="AW20" s="45"/>
+      <c r="AX20" s="45"/>
+      <c r="AY20" s="45"/>
+      <c r="AZ20" s="45"/>
+      <c r="BA20" s="45"/>
+      <c r="BB20" s="45"/>
+      <c r="BC20" s="45"/>
       <c r="BD20" s="3"/>
       <c r="BE20" s="3"/>
       <c r="CP20" s="3"/>
@@ -21685,61 +21712,61 @@
       <c r="HJ20" s="3"/>
     </row>
     <row r="21" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="46"/>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="46"/>
-      <c r="AE21" s="46"/>
-      <c r="AF21" s="46"/>
-      <c r="AG21" s="46"/>
-      <c r="AH21" s="46"/>
-      <c r="AI21" s="46"/>
-      <c r="AJ21" s="46"/>
-      <c r="AK21" s="46"/>
-      <c r="AL21" s="46"/>
-      <c r="AM21" s="46"/>
-      <c r="AN21" s="46"/>
-      <c r="AO21" s="46"/>
-      <c r="AP21" s="46"/>
-      <c r="AQ21" s="46"/>
-      <c r="AR21" s="46"/>
-      <c r="AS21" s="46"/>
-      <c r="AT21" s="46"/>
-      <c r="AU21" s="46"/>
-      <c r="AV21" s="46"/>
-      <c r="AW21" s="46"/>
-      <c r="AX21" s="46"/>
-      <c r="AY21" s="46"/>
-      <c r="AZ21" s="46"/>
-      <c r="BA21" s="46"/>
-      <c r="BB21" s="46"/>
-      <c r="BC21" s="46"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="45"/>
+      <c r="AD21" s="45"/>
+      <c r="AE21" s="45"/>
+      <c r="AF21" s="45"/>
+      <c r="AG21" s="45"/>
+      <c r="AH21" s="45"/>
+      <c r="AI21" s="45"/>
+      <c r="AJ21" s="45"/>
+      <c r="AK21" s="45"/>
+      <c r="AL21" s="45"/>
+      <c r="AM21" s="45"/>
+      <c r="AN21" s="45"/>
+      <c r="AO21" s="45"/>
+      <c r="AP21" s="45"/>
+      <c r="AQ21" s="45"/>
+      <c r="AR21" s="45"/>
+      <c r="AS21" s="45"/>
+      <c r="AT21" s="45"/>
+      <c r="AU21" s="45"/>
+      <c r="AV21" s="45"/>
+      <c r="AW21" s="45"/>
+      <c r="AX21" s="45"/>
+      <c r="AY21" s="45"/>
+      <c r="AZ21" s="45"/>
+      <c r="BA21" s="45"/>
+      <c r="BB21" s="45"/>
+      <c r="BC21" s="45"/>
       <c r="BD21" s="3"/>
       <c r="BE21" s="3"/>
       <c r="CP21" s="3"/>
@@ -21869,71 +21896,71 @@
       <c r="HJ21" s="3"/>
     </row>
     <row r="22" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="49" t="s">
-        <v>57</v>
+      <c r="A22" s="52" t="s">
+        <v>55</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="49" t="s">
-        <v>18</v>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="52" t="s">
+        <v>78</v>
       </c>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="49" t="s">
-        <v>29</v>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="52" t="s">
+        <v>28</v>
       </c>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="55" t="s">
-        <v>18</v>
+      <c r="R22" s="63"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="63"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="64" t="s">
+        <v>17</v>
       </c>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="55"/>
-      <c r="AA22" s="55"/>
-      <c r="AB22" s="55"/>
-      <c r="AC22" s="55"/>
-      <c r="AD22" s="55"/>
-      <c r="AE22" s="56" t="s">
-        <v>18</v>
+      <c r="X22" s="64"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="64"/>
+      <c r="AA22" s="64"/>
+      <c r="AB22" s="64"/>
+      <c r="AC22" s="64"/>
+      <c r="AD22" s="64"/>
+      <c r="AE22" s="65" t="s">
+        <v>17</v>
       </c>
-      <c r="AF22" s="57"/>
-      <c r="AG22" s="57"/>
-      <c r="AH22" s="57"/>
-      <c r="AI22" s="57"/>
-      <c r="AJ22" s="57"/>
-      <c r="AK22" s="57"/>
-      <c r="AL22" s="57"/>
-      <c r="AM22" s="57"/>
-      <c r="AN22" s="57"/>
-      <c r="AO22" s="57"/>
-      <c r="AP22" s="57"/>
-      <c r="AQ22" s="57"/>
-      <c r="AR22" s="57"/>
-      <c r="AS22" s="57"/>
-      <c r="AT22" s="57"/>
-      <c r="AU22" s="57"/>
-      <c r="AV22" s="57"/>
-      <c r="AW22" s="57"/>
-      <c r="AX22" s="57"/>
-      <c r="AY22" s="57"/>
-      <c r="AZ22" s="57"/>
-      <c r="BA22" s="57"/>
-      <c r="BB22" s="57"/>
-      <c r="BC22" s="57"/>
+      <c r="AF22" s="66"/>
+      <c r="AG22" s="66"/>
+      <c r="AH22" s="66"/>
+      <c r="AI22" s="66"/>
+      <c r="AJ22" s="66"/>
+      <c r="AK22" s="66"/>
+      <c r="AL22" s="66"/>
+      <c r="AM22" s="66"/>
+      <c r="AN22" s="66"/>
+      <c r="AO22" s="66"/>
+      <c r="AP22" s="66"/>
+      <c r="AQ22" s="66"/>
+      <c r="AR22" s="66"/>
+      <c r="AS22" s="66"/>
+      <c r="AT22" s="66"/>
+      <c r="AU22" s="66"/>
+      <c r="AV22" s="66"/>
+      <c r="AW22" s="66"/>
+      <c r="AX22" s="66"/>
+      <c r="AY22" s="66"/>
+      <c r="AZ22" s="66"/>
+      <c r="BA22" s="66"/>
+      <c r="BB22" s="66"/>
+      <c r="BC22" s="66"/>
       <c r="BD22" s="3"/>
       <c r="BE22" s="3"/>
       <c r="CP22" s="3"/>
@@ -22063,71 +22090,71 @@
       <c r="HJ22" s="3"/>
     </row>
     <row r="23" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="s">
-        <v>58</v>
+      <c r="A23" s="52" t="s">
+        <v>56</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="49" t="s">
-        <v>18</v>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="52" t="s">
+        <v>79</v>
       </c>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="49" t="s">
-        <v>29</v>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="52" t="s">
+        <v>28</v>
       </c>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="55" t="s">
-        <v>18</v>
+      <c r="R23" s="63"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="63"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="64" t="s">
+        <v>17</v>
       </c>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="55"/>
-      <c r="AA23" s="55"/>
-      <c r="AB23" s="55"/>
-      <c r="AC23" s="55"/>
-      <c r="AD23" s="55"/>
-      <c r="AE23" s="56" t="s">
-        <v>18</v>
+      <c r="X23" s="64"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="64"/>
+      <c r="AB23" s="64"/>
+      <c r="AC23" s="64"/>
+      <c r="AD23" s="64"/>
+      <c r="AE23" s="65" t="s">
+        <v>17</v>
       </c>
-      <c r="AF23" s="57"/>
-      <c r="AG23" s="57"/>
-      <c r="AH23" s="57"/>
-      <c r="AI23" s="57"/>
-      <c r="AJ23" s="57"/>
-      <c r="AK23" s="57"/>
-      <c r="AL23" s="57"/>
-      <c r="AM23" s="57"/>
-      <c r="AN23" s="57"/>
-      <c r="AO23" s="57"/>
-      <c r="AP23" s="57"/>
-      <c r="AQ23" s="57"/>
-      <c r="AR23" s="57"/>
-      <c r="AS23" s="57"/>
-      <c r="AT23" s="57"/>
-      <c r="AU23" s="57"/>
-      <c r="AV23" s="57"/>
-      <c r="AW23" s="57"/>
-      <c r="AX23" s="57"/>
-      <c r="AY23" s="57"/>
-      <c r="AZ23" s="57"/>
-      <c r="BA23" s="57"/>
-      <c r="BB23" s="57"/>
-      <c r="BC23" s="57"/>
+      <c r="AF23" s="66"/>
+      <c r="AG23" s="66"/>
+      <c r="AH23" s="66"/>
+      <c r="AI23" s="66"/>
+      <c r="AJ23" s="66"/>
+      <c r="AK23" s="66"/>
+      <c r="AL23" s="66"/>
+      <c r="AM23" s="66"/>
+      <c r="AN23" s="66"/>
+      <c r="AO23" s="66"/>
+      <c r="AP23" s="66"/>
+      <c r="AQ23" s="66"/>
+      <c r="AR23" s="66"/>
+      <c r="AS23" s="66"/>
+      <c r="AT23" s="66"/>
+      <c r="AU23" s="66"/>
+      <c r="AV23" s="66"/>
+      <c r="AW23" s="66"/>
+      <c r="AX23" s="66"/>
+      <c r="AY23" s="66"/>
+      <c r="AZ23" s="66"/>
+      <c r="BA23" s="66"/>
+      <c r="BB23" s="66"/>
+      <c r="BC23" s="66"/>
       <c r="BD23" s="3"/>
       <c r="BE23" s="3"/>
       <c r="CP23" s="3"/>
@@ -22257,71 +22284,71 @@
       <c r="HJ23" s="3"/>
     </row>
     <row r="24" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="s">
-        <v>59</v>
+      <c r="A24" s="52" t="s">
+        <v>57</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="49" t="s">
-        <v>18</v>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="52" t="s">
+        <v>80</v>
       </c>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="49" t="s">
-        <v>29</v>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="52" t="s">
+        <v>28</v>
       </c>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="55" t="s">
-        <v>18</v>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="64" t="s">
+        <v>17</v>
       </c>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="55"/>
-      <c r="Z24" s="55"/>
-      <c r="AA24" s="55"/>
-      <c r="AB24" s="55"/>
-      <c r="AC24" s="55"/>
-      <c r="AD24" s="55"/>
-      <c r="AE24" s="56" t="s">
-        <v>18</v>
+      <c r="X24" s="64"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="64"/>
+      <c r="AA24" s="64"/>
+      <c r="AB24" s="64"/>
+      <c r="AC24" s="64"/>
+      <c r="AD24" s="64"/>
+      <c r="AE24" s="65" t="s">
+        <v>17</v>
       </c>
-      <c r="AF24" s="57"/>
-      <c r="AG24" s="57"/>
-      <c r="AH24" s="57"/>
-      <c r="AI24" s="57"/>
-      <c r="AJ24" s="57"/>
-      <c r="AK24" s="57"/>
-      <c r="AL24" s="57"/>
-      <c r="AM24" s="57"/>
-      <c r="AN24" s="57"/>
-      <c r="AO24" s="57"/>
-      <c r="AP24" s="57"/>
-      <c r="AQ24" s="57"/>
-      <c r="AR24" s="57"/>
-      <c r="AS24" s="57"/>
-      <c r="AT24" s="57"/>
-      <c r="AU24" s="57"/>
-      <c r="AV24" s="57"/>
-      <c r="AW24" s="57"/>
-      <c r="AX24" s="57"/>
-      <c r="AY24" s="57"/>
-      <c r="AZ24" s="57"/>
-      <c r="BA24" s="57"/>
-      <c r="BB24" s="57"/>
-      <c r="BC24" s="57"/>
+      <c r="AF24" s="66"/>
+      <c r="AG24" s="66"/>
+      <c r="AH24" s="66"/>
+      <c r="AI24" s="66"/>
+      <c r="AJ24" s="66"/>
+      <c r="AK24" s="66"/>
+      <c r="AL24" s="66"/>
+      <c r="AM24" s="66"/>
+      <c r="AN24" s="66"/>
+      <c r="AO24" s="66"/>
+      <c r="AP24" s="66"/>
+      <c r="AQ24" s="66"/>
+      <c r="AR24" s="66"/>
+      <c r="AS24" s="66"/>
+      <c r="AT24" s="66"/>
+      <c r="AU24" s="66"/>
+      <c r="AV24" s="66"/>
+      <c r="AW24" s="66"/>
+      <c r="AX24" s="66"/>
+      <c r="AY24" s="66"/>
+      <c r="AZ24" s="66"/>
+      <c r="BA24" s="66"/>
+      <c r="BB24" s="66"/>
+      <c r="BC24" s="66"/>
       <c r="BD24" s="3"/>
       <c r="BE24" s="3"/>
       <c r="CP24" s="3"/>
@@ -22451,71 +22478,71 @@
       <c r="HJ24" s="3"/>
     </row>
     <row r="25" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
-        <v>60</v>
+      <c r="A25" s="52" t="s">
+        <v>58</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="49" t="s">
-        <v>18</v>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="52" t="s">
+        <v>81</v>
       </c>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="49" t="s">
-        <v>29</v>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="52" t="s">
+        <v>28</v>
       </c>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="55" t="s">
-        <v>18</v>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="64" t="s">
+        <v>17</v>
       </c>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="55"/>
-      <c r="AA25" s="55"/>
-      <c r="AB25" s="55"/>
-      <c r="AC25" s="55"/>
-      <c r="AD25" s="55"/>
-      <c r="AE25" s="56" t="s">
-        <v>18</v>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="64"/>
+      <c r="AB25" s="64"/>
+      <c r="AC25" s="64"/>
+      <c r="AD25" s="64"/>
+      <c r="AE25" s="65" t="s">
+        <v>17</v>
       </c>
-      <c r="AF25" s="57"/>
-      <c r="AG25" s="57"/>
-      <c r="AH25" s="57"/>
-      <c r="AI25" s="57"/>
-      <c r="AJ25" s="57"/>
-      <c r="AK25" s="57"/>
-      <c r="AL25" s="57"/>
-      <c r="AM25" s="57"/>
-      <c r="AN25" s="57"/>
-      <c r="AO25" s="57"/>
-      <c r="AP25" s="57"/>
-      <c r="AQ25" s="57"/>
-      <c r="AR25" s="57"/>
-      <c r="AS25" s="57"/>
-      <c r="AT25" s="57"/>
-      <c r="AU25" s="57"/>
-      <c r="AV25" s="57"/>
-      <c r="AW25" s="57"/>
-      <c r="AX25" s="57"/>
-      <c r="AY25" s="57"/>
-      <c r="AZ25" s="57"/>
-      <c r="BA25" s="57"/>
-      <c r="BB25" s="57"/>
-      <c r="BC25" s="57"/>
+      <c r="AF25" s="66"/>
+      <c r="AG25" s="66"/>
+      <c r="AH25" s="66"/>
+      <c r="AI25" s="66"/>
+      <c r="AJ25" s="66"/>
+      <c r="AK25" s="66"/>
+      <c r="AL25" s="66"/>
+      <c r="AM25" s="66"/>
+      <c r="AN25" s="66"/>
+      <c r="AO25" s="66"/>
+      <c r="AP25" s="66"/>
+      <c r="AQ25" s="66"/>
+      <c r="AR25" s="66"/>
+      <c r="AS25" s="66"/>
+      <c r="AT25" s="66"/>
+      <c r="AU25" s="66"/>
+      <c r="AV25" s="66"/>
+      <c r="AW25" s="66"/>
+      <c r="AX25" s="66"/>
+      <c r="AY25" s="66"/>
+      <c r="AZ25" s="66"/>
+      <c r="BA25" s="66"/>
+      <c r="BB25" s="66"/>
+      <c r="BC25" s="66"/>
       <c r="BD25" s="3"/>
       <c r="BE25" s="3"/>
       <c r="CP25" s="3"/>
@@ -22645,71 +22672,71 @@
       <c r="HJ25" s="3"/>
     </row>
     <row r="26" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="49" t="s">
-        <v>61</v>
+      <c r="A26" s="52" t="s">
+        <v>59</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="49" t="s">
-        <v>73</v>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="52" t="s">
+        <v>71</v>
       </c>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54" t="s">
-        <v>45</v>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63" t="s">
+        <v>43</v>
       </c>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="55" t="s">
-        <v>18</v>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="64" t="s">
+        <v>17</v>
       </c>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="55"/>
-      <c r="AA26" s="55"/>
-      <c r="AB26" s="55"/>
-      <c r="AC26" s="55"/>
-      <c r="AD26" s="55"/>
-      <c r="AE26" s="56" t="s">
-        <v>78</v>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="64"/>
+      <c r="AB26" s="64"/>
+      <c r="AC26" s="64"/>
+      <c r="AD26" s="64"/>
+      <c r="AE26" s="65" t="s">
+        <v>76</v>
       </c>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
-      <c r="AJ26" s="57"/>
-      <c r="AK26" s="57"/>
-      <c r="AL26" s="57"/>
-      <c r="AM26" s="57"/>
-      <c r="AN26" s="57"/>
-      <c r="AO26" s="57"/>
-      <c r="AP26" s="57"/>
-      <c r="AQ26" s="57"/>
-      <c r="AR26" s="57"/>
-      <c r="AS26" s="57"/>
-      <c r="AT26" s="57"/>
-      <c r="AU26" s="57"/>
-      <c r="AV26" s="57"/>
-      <c r="AW26" s="57"/>
-      <c r="AX26" s="57"/>
-      <c r="AY26" s="57"/>
-      <c r="AZ26" s="57"/>
-      <c r="BA26" s="57"/>
-      <c r="BB26" s="57"/>
-      <c r="BC26" s="57"/>
+      <c r="AF26" s="66"/>
+      <c r="AG26" s="66"/>
+      <c r="AH26" s="66"/>
+      <c r="AI26" s="66"/>
+      <c r="AJ26" s="66"/>
+      <c r="AK26" s="66"/>
+      <c r="AL26" s="66"/>
+      <c r="AM26" s="66"/>
+      <c r="AN26" s="66"/>
+      <c r="AO26" s="66"/>
+      <c r="AP26" s="66"/>
+      <c r="AQ26" s="66"/>
+      <c r="AR26" s="66"/>
+      <c r="AS26" s="66"/>
+      <c r="AT26" s="66"/>
+      <c r="AU26" s="66"/>
+      <c r="AV26" s="66"/>
+      <c r="AW26" s="66"/>
+      <c r="AX26" s="66"/>
+      <c r="AY26" s="66"/>
+      <c r="AZ26" s="66"/>
+      <c r="BA26" s="66"/>
+      <c r="BB26" s="66"/>
+      <c r="BC26" s="66"/>
       <c r="BD26" s="3"/>
       <c r="BE26" s="3"/>
       <c r="CP26" s="3"/>
@@ -22838,266 +22865,266 @@
       <c r="HI26" s="3"/>
       <c r="HJ26" s="3"/>
     </row>
-    <row r="27" spans="1:218" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="64" t="s">
+    <row r="27" spans="1:218" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="R27" s="74"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="74"/>
+      <c r="U27" s="74"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="64" t="s">
-        <v>76</v>
+      <c r="X27" s="71"/>
+      <c r="Y27" s="71"/>
+      <c r="Z27" s="71"/>
+      <c r="AA27" s="71"/>
+      <c r="AB27" s="71"/>
+      <c r="AC27" s="71"/>
+      <c r="AD27" s="72"/>
+      <c r="AE27" s="67" t="s">
+        <v>61</v>
       </c>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="64" t="s">
-        <v>45</v>
+      <c r="AF27" s="68"/>
+      <c r="AG27" s="68"/>
+      <c r="AH27" s="68"/>
+      <c r="AI27" s="68"/>
+      <c r="AJ27" s="68"/>
+      <c r="AK27" s="68"/>
+      <c r="AL27" s="68"/>
+      <c r="AM27" s="68"/>
+      <c r="AN27" s="68"/>
+      <c r="AO27" s="68"/>
+      <c r="AP27" s="68"/>
+      <c r="AQ27" s="68"/>
+      <c r="AR27" s="68"/>
+      <c r="AS27" s="68"/>
+      <c r="AT27" s="68"/>
+      <c r="AU27" s="68"/>
+      <c r="AV27" s="68"/>
+      <c r="AW27" s="68"/>
+      <c r="AX27" s="68"/>
+      <c r="AY27" s="68"/>
+      <c r="AZ27" s="68"/>
+      <c r="BA27" s="68"/>
+      <c r="BB27" s="68"/>
+      <c r="BC27" s="69"/>
+      <c r="BD27" s="35"/>
+      <c r="BE27" s="35"/>
+      <c r="CP27" s="35"/>
+      <c r="CQ27" s="35"/>
+      <c r="CR27" s="35"/>
+      <c r="CS27" s="35"/>
+      <c r="CT27" s="35"/>
+      <c r="CU27" s="35"/>
+      <c r="CV27" s="35"/>
+      <c r="CW27" s="35"/>
+      <c r="CX27" s="35"/>
+      <c r="CY27" s="35"/>
+      <c r="CZ27" s="35"/>
+      <c r="DA27" s="35"/>
+      <c r="DB27" s="35"/>
+      <c r="DC27" s="35"/>
+      <c r="DD27" s="35"/>
+      <c r="DE27" s="35"/>
+      <c r="DF27" s="35"/>
+      <c r="DG27" s="35"/>
+      <c r="DH27" s="35"/>
+      <c r="DI27" s="35"/>
+      <c r="DJ27" s="35"/>
+      <c r="DK27" s="35"/>
+      <c r="DL27" s="35"/>
+      <c r="DM27" s="35"/>
+      <c r="DN27" s="35"/>
+      <c r="DO27" s="35"/>
+      <c r="DP27" s="35"/>
+      <c r="DQ27" s="35"/>
+      <c r="DR27" s="35"/>
+      <c r="DS27" s="35"/>
+      <c r="DT27" s="35"/>
+      <c r="DU27" s="35"/>
+      <c r="DV27" s="35"/>
+      <c r="DW27" s="35"/>
+      <c r="DX27" s="35"/>
+      <c r="DY27" s="35"/>
+      <c r="DZ27" s="35"/>
+      <c r="EA27" s="35"/>
+      <c r="EB27" s="35"/>
+      <c r="EC27" s="35"/>
+      <c r="ED27" s="35"/>
+      <c r="EE27" s="35"/>
+      <c r="EF27" s="35"/>
+      <c r="EG27" s="35"/>
+      <c r="EH27" s="35"/>
+      <c r="EI27" s="35"/>
+      <c r="EJ27" s="35"/>
+      <c r="EK27" s="35"/>
+      <c r="EL27" s="35"/>
+      <c r="EM27" s="35"/>
+      <c r="EN27" s="35"/>
+      <c r="EO27" s="35"/>
+      <c r="EP27" s="35"/>
+      <c r="EQ27" s="35"/>
+      <c r="ER27" s="35"/>
+      <c r="ES27" s="35"/>
+      <c r="ET27" s="35"/>
+      <c r="EU27" s="35"/>
+      <c r="EV27" s="35"/>
+      <c r="EW27" s="35"/>
+      <c r="EX27" s="35"/>
+      <c r="EY27" s="35"/>
+      <c r="EZ27" s="35"/>
+      <c r="FA27" s="35"/>
+      <c r="FB27" s="35"/>
+      <c r="FC27" s="35"/>
+      <c r="FD27" s="35"/>
+      <c r="FE27" s="35"/>
+      <c r="FF27" s="35"/>
+      <c r="FG27" s="35"/>
+      <c r="FH27" s="35"/>
+      <c r="FI27" s="35"/>
+      <c r="FJ27" s="35"/>
+      <c r="FK27" s="35"/>
+      <c r="FL27" s="35"/>
+      <c r="FM27" s="35"/>
+      <c r="FN27" s="35"/>
+      <c r="FO27" s="35"/>
+      <c r="FP27" s="35"/>
+      <c r="FQ27" s="35"/>
+      <c r="FR27" s="35"/>
+      <c r="FS27" s="35"/>
+      <c r="FT27" s="35"/>
+      <c r="FU27" s="35"/>
+      <c r="FV27" s="35"/>
+      <c r="FW27" s="35"/>
+      <c r="FX27" s="35"/>
+      <c r="FY27" s="35"/>
+      <c r="FZ27" s="35"/>
+      <c r="GA27" s="35"/>
+      <c r="GB27" s="35"/>
+      <c r="GC27" s="35"/>
+      <c r="GD27" s="35"/>
+      <c r="GE27" s="35"/>
+      <c r="GF27" s="35"/>
+      <c r="GG27" s="35"/>
+      <c r="GH27" s="35"/>
+      <c r="GI27" s="35"/>
+      <c r="GJ27" s="35"/>
+      <c r="GK27" s="35"/>
+      <c r="GL27" s="35"/>
+      <c r="GM27" s="35"/>
+      <c r="GN27" s="35"/>
+      <c r="GO27" s="35"/>
+      <c r="GP27" s="35"/>
+      <c r="GQ27" s="35"/>
+      <c r="GR27" s="35"/>
+      <c r="GS27" s="35"/>
+      <c r="GT27" s="35"/>
+      <c r="GU27" s="35"/>
+      <c r="GV27" s="35"/>
+      <c r="GW27" s="35"/>
+      <c r="GX27" s="35"/>
+      <c r="GY27" s="35"/>
+      <c r="GZ27" s="35"/>
+      <c r="HA27" s="35"/>
+      <c r="HB27" s="35"/>
+      <c r="HC27" s="35"/>
+      <c r="HD27" s="35"/>
+      <c r="HE27" s="35"/>
+      <c r="HF27" s="35"/>
+      <c r="HG27" s="35"/>
+      <c r="HH27" s="35"/>
+      <c r="HI27" s="35"/>
+      <c r="HJ27" s="35"/>
+    </row>
+    <row r="28" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="52" t="s">
+        <v>60</v>
       </c>
-      <c r="R27" s="65"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="65"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="67" t="s">
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="64"/>
+      <c r="AC28" s="64"/>
+      <c r="AD28" s="64"/>
+      <c r="AE28" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="X27" s="68"/>
-      <c r="Y27" s="68"/>
-      <c r="Z27" s="68"/>
-      <c r="AA27" s="68"/>
-      <c r="AB27" s="68"/>
-      <c r="AC27" s="68"/>
-      <c r="AD27" s="69"/>
-      <c r="AE27" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF27" s="71"/>
-      <c r="AG27" s="71"/>
-      <c r="AH27" s="71"/>
-      <c r="AI27" s="71"/>
-      <c r="AJ27" s="71"/>
-      <c r="AK27" s="71"/>
-      <c r="AL27" s="71"/>
-      <c r="AM27" s="71"/>
-      <c r="AN27" s="71"/>
-      <c r="AO27" s="71"/>
-      <c r="AP27" s="71"/>
-      <c r="AQ27" s="71"/>
-      <c r="AR27" s="71"/>
-      <c r="AS27" s="71"/>
-      <c r="AT27" s="71"/>
-      <c r="AU27" s="71"/>
-      <c r="AV27" s="71"/>
-      <c r="AW27" s="71"/>
-      <c r="AX27" s="71"/>
-      <c r="AY27" s="71"/>
-      <c r="AZ27" s="71"/>
-      <c r="BA27" s="71"/>
-      <c r="BB27" s="71"/>
-      <c r="BC27" s="72"/>
-      <c r="BD27" s="73"/>
-      <c r="BE27" s="73"/>
-      <c r="CP27" s="73"/>
-      <c r="CQ27" s="73"/>
-      <c r="CR27" s="73"/>
-      <c r="CS27" s="73"/>
-      <c r="CT27" s="73"/>
-      <c r="CU27" s="73"/>
-      <c r="CV27" s="73"/>
-      <c r="CW27" s="73"/>
-      <c r="CX27" s="73"/>
-      <c r="CY27" s="73"/>
-      <c r="CZ27" s="73"/>
-      <c r="DA27" s="73"/>
-      <c r="DB27" s="73"/>
-      <c r="DC27" s="73"/>
-      <c r="DD27" s="73"/>
-      <c r="DE27" s="73"/>
-      <c r="DF27" s="73"/>
-      <c r="DG27" s="73"/>
-      <c r="DH27" s="73"/>
-      <c r="DI27" s="73"/>
-      <c r="DJ27" s="73"/>
-      <c r="DK27" s="73"/>
-      <c r="DL27" s="73"/>
-      <c r="DM27" s="73"/>
-      <c r="DN27" s="73"/>
-      <c r="DO27" s="73"/>
-      <c r="DP27" s="73"/>
-      <c r="DQ27" s="73"/>
-      <c r="DR27" s="73"/>
-      <c r="DS27" s="73"/>
-      <c r="DT27" s="73"/>
-      <c r="DU27" s="73"/>
-      <c r="DV27" s="73"/>
-      <c r="DW27" s="73"/>
-      <c r="DX27" s="73"/>
-      <c r="DY27" s="73"/>
-      <c r="DZ27" s="73"/>
-      <c r="EA27" s="73"/>
-      <c r="EB27" s="73"/>
-      <c r="EC27" s="73"/>
-      <c r="ED27" s="73"/>
-      <c r="EE27" s="73"/>
-      <c r="EF27" s="73"/>
-      <c r="EG27" s="73"/>
-      <c r="EH27" s="73"/>
-      <c r="EI27" s="73"/>
-      <c r="EJ27" s="73"/>
-      <c r="EK27" s="73"/>
-      <c r="EL27" s="73"/>
-      <c r="EM27" s="73"/>
-      <c r="EN27" s="73"/>
-      <c r="EO27" s="73"/>
-      <c r="EP27" s="73"/>
-      <c r="EQ27" s="73"/>
-      <c r="ER27" s="73"/>
-      <c r="ES27" s="73"/>
-      <c r="ET27" s="73"/>
-      <c r="EU27" s="73"/>
-      <c r="EV27" s="73"/>
-      <c r="EW27" s="73"/>
-      <c r="EX27" s="73"/>
-      <c r="EY27" s="73"/>
-      <c r="EZ27" s="73"/>
-      <c r="FA27" s="73"/>
-      <c r="FB27" s="73"/>
-      <c r="FC27" s="73"/>
-      <c r="FD27" s="73"/>
-      <c r="FE27" s="73"/>
-      <c r="FF27" s="73"/>
-      <c r="FG27" s="73"/>
-      <c r="FH27" s="73"/>
-      <c r="FI27" s="73"/>
-      <c r="FJ27" s="73"/>
-      <c r="FK27" s="73"/>
-      <c r="FL27" s="73"/>
-      <c r="FM27" s="73"/>
-      <c r="FN27" s="73"/>
-      <c r="FO27" s="73"/>
-      <c r="FP27" s="73"/>
-      <c r="FQ27" s="73"/>
-      <c r="FR27" s="73"/>
-      <c r="FS27" s="73"/>
-      <c r="FT27" s="73"/>
-      <c r="FU27" s="73"/>
-      <c r="FV27" s="73"/>
-      <c r="FW27" s="73"/>
-      <c r="FX27" s="73"/>
-      <c r="FY27" s="73"/>
-      <c r="FZ27" s="73"/>
-      <c r="GA27" s="73"/>
-      <c r="GB27" s="73"/>
-      <c r="GC27" s="73"/>
-      <c r="GD27" s="73"/>
-      <c r="GE27" s="73"/>
-      <c r="GF27" s="73"/>
-      <c r="GG27" s="73"/>
-      <c r="GH27" s="73"/>
-      <c r="GI27" s="73"/>
-      <c r="GJ27" s="73"/>
-      <c r="GK27" s="73"/>
-      <c r="GL27" s="73"/>
-      <c r="GM27" s="73"/>
-      <c r="GN27" s="73"/>
-      <c r="GO27" s="73"/>
-      <c r="GP27" s="73"/>
-      <c r="GQ27" s="73"/>
-      <c r="GR27" s="73"/>
-      <c r="GS27" s="73"/>
-      <c r="GT27" s="73"/>
-      <c r="GU27" s="73"/>
-      <c r="GV27" s="73"/>
-      <c r="GW27" s="73"/>
-      <c r="GX27" s="73"/>
-      <c r="GY27" s="73"/>
-      <c r="GZ27" s="73"/>
-      <c r="HA27" s="73"/>
-      <c r="HB27" s="73"/>
-      <c r="HC27" s="73"/>
-      <c r="HD27" s="73"/>
-      <c r="HE27" s="73"/>
-      <c r="HF27" s="73"/>
-      <c r="HG27" s="73"/>
-      <c r="HH27" s="73"/>
-      <c r="HI27" s="73"/>
-      <c r="HJ27" s="73"/>
-    </row>
-    <row r="28" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="54"/>
-      <c r="W28" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="55"/>
-      <c r="AA28" s="55"/>
-      <c r="AB28" s="55"/>
-      <c r="AC28" s="55"/>
-      <c r="AD28" s="55"/>
-      <c r="AE28" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF28" s="57"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="57"/>
-      <c r="AI28" s="57"/>
-      <c r="AJ28" s="57"/>
-      <c r="AK28" s="57"/>
-      <c r="AL28" s="57"/>
-      <c r="AM28" s="57"/>
-      <c r="AN28" s="57"/>
-      <c r="AO28" s="57"/>
-      <c r="AP28" s="57"/>
-      <c r="AQ28" s="57"/>
-      <c r="AR28" s="57"/>
-      <c r="AS28" s="57"/>
-      <c r="AT28" s="57"/>
-      <c r="AU28" s="57"/>
-      <c r="AV28" s="57"/>
-      <c r="AW28" s="57"/>
-      <c r="AX28" s="57"/>
-      <c r="AY28" s="57"/>
-      <c r="AZ28" s="57"/>
-      <c r="BA28" s="57"/>
-      <c r="BB28" s="57"/>
-      <c r="BC28" s="57"/>
+      <c r="AF28" s="66"/>
+      <c r="AG28" s="66"/>
+      <c r="AH28" s="66"/>
+      <c r="AI28" s="66"/>
+      <c r="AJ28" s="66"/>
+      <c r="AK28" s="66"/>
+      <c r="AL28" s="66"/>
+      <c r="AM28" s="66"/>
+      <c r="AN28" s="66"/>
+      <c r="AO28" s="66"/>
+      <c r="AP28" s="66"/>
+      <c r="AQ28" s="66"/>
+      <c r="AR28" s="66"/>
+      <c r="AS28" s="66"/>
+      <c r="AT28" s="66"/>
+      <c r="AU28" s="66"/>
+      <c r="AV28" s="66"/>
+      <c r="AW28" s="66"/>
+      <c r="AX28" s="66"/>
+      <c r="AY28" s="66"/>
+      <c r="AZ28" s="66"/>
+      <c r="BA28" s="66"/>
+      <c r="BB28" s="66"/>
+      <c r="BC28" s="66"/>
       <c r="BD28" s="3"/>
       <c r="BE28" s="3"/>
       <c r="CP28" s="3"/>
@@ -23227,69 +23254,69 @@
       <c r="HJ28" s="3"/>
     </row>
     <row r="29" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="49" t="s">
-        <v>55</v>
+      <c r="A29" s="52" t="s">
+        <v>53</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="49" t="s">
-        <v>31</v>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="52" t="s">
+        <v>30</v>
       </c>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="54" t="s">
-        <v>45</v>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="63" t="s">
+        <v>43</v>
       </c>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="50" t="s">
-        <v>77</v>
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="53" t="s">
+        <v>75</v>
       </c>
-      <c r="X29" s="55"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="55"/>
-      <c r="AA29" s="55"/>
-      <c r="AB29" s="55"/>
-      <c r="AC29" s="55"/>
-      <c r="AD29" s="55"/>
-      <c r="AE29" s="56"/>
-      <c r="AF29" s="57"/>
-      <c r="AG29" s="57"/>
-      <c r="AH29" s="57"/>
-      <c r="AI29" s="57"/>
-      <c r="AJ29" s="57"/>
-      <c r="AK29" s="57"/>
-      <c r="AL29" s="57"/>
-      <c r="AM29" s="57"/>
-      <c r="AN29" s="57"/>
-      <c r="AO29" s="57"/>
-      <c r="AP29" s="57"/>
-      <c r="AQ29" s="57"/>
-      <c r="AR29" s="57"/>
-      <c r="AS29" s="57"/>
-      <c r="AT29" s="57"/>
-      <c r="AU29" s="57"/>
-      <c r="AV29" s="57"/>
-      <c r="AW29" s="57"/>
-      <c r="AX29" s="57"/>
-      <c r="AY29" s="57"/>
-      <c r="AZ29" s="57"/>
-      <c r="BA29" s="57"/>
-      <c r="BB29" s="57"/>
-      <c r="BC29" s="57"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="64"/>
+      <c r="AC29" s="64"/>
+      <c r="AD29" s="64"/>
+      <c r="AE29" s="65"/>
+      <c r="AF29" s="66"/>
+      <c r="AG29" s="66"/>
+      <c r="AH29" s="66"/>
+      <c r="AI29" s="66"/>
+      <c r="AJ29" s="66"/>
+      <c r="AK29" s="66"/>
+      <c r="AL29" s="66"/>
+      <c r="AM29" s="66"/>
+      <c r="AN29" s="66"/>
+      <c r="AO29" s="66"/>
+      <c r="AP29" s="66"/>
+      <c r="AQ29" s="66"/>
+      <c r="AR29" s="66"/>
+      <c r="AS29" s="66"/>
+      <c r="AT29" s="66"/>
+      <c r="AU29" s="66"/>
+      <c r="AV29" s="66"/>
+      <c r="AW29" s="66"/>
+      <c r="AX29" s="66"/>
+      <c r="AY29" s="66"/>
+      <c r="AZ29" s="66"/>
+      <c r="BA29" s="66"/>
+      <c r="BB29" s="66"/>
+      <c r="BC29" s="66"/>
       <c r="BD29" s="3"/>
       <c r="BE29" s="3"/>
       <c r="CP29" s="3"/>
@@ -23603,79 +23630,79 @@
       <c r="HJ30" s="3"/>
     </row>
     <row r="31" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="41" t="s">
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="43" t="s">
-        <v>71</v>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="49" t="s">
+        <v>69</v>
       </c>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="41" t="s">
-        <v>19</v>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="48" t="s">
+        <v>18</v>
       </c>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="41"/>
-      <c r="AB31" s="43" t="s">
-        <v>70</v>
+      <c r="Y31" s="48"/>
+      <c r="Z31" s="48"/>
+      <c r="AA31" s="48"/>
+      <c r="AB31" s="49" t="s">
+        <v>68</v>
       </c>
-      <c r="AC31" s="43"/>
-      <c r="AD31" s="43"/>
-      <c r="AE31" s="43"/>
-      <c r="AF31" s="43"/>
-      <c r="AG31" s="43"/>
-      <c r="AH31" s="43"/>
-      <c r="AI31" s="43"/>
-      <c r="AJ31" s="43"/>
-      <c r="AK31" s="41" t="s">
+      <c r="AC31" s="49"/>
+      <c r="AD31" s="49"/>
+      <c r="AE31" s="49"/>
+      <c r="AF31" s="49"/>
+      <c r="AG31" s="49"/>
+      <c r="AH31" s="49"/>
+      <c r="AI31" s="49"/>
+      <c r="AJ31" s="49"/>
+      <c r="AK31" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="AL31" s="41"/>
-      <c r="AM31" s="41"/>
-      <c r="AN31" s="43" t="s">
+      <c r="AL31" s="48"/>
+      <c r="AM31" s="48"/>
+      <c r="AN31" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="AO31" s="43"/>
-      <c r="AP31" s="43"/>
-      <c r="AQ31" s="43"/>
-      <c r="AR31" s="43"/>
-      <c r="AS31" s="43"/>
-      <c r="AT31" s="43"/>
-      <c r="AU31" s="41" t="s">
+      <c r="AO31" s="49"/>
+      <c r="AP31" s="49"/>
+      <c r="AQ31" s="49"/>
+      <c r="AR31" s="49"/>
+      <c r="AS31" s="49"/>
+      <c r="AT31" s="49"/>
+      <c r="AU31" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AV31" s="41"/>
-      <c r="AW31" s="41"/>
-      <c r="AX31" s="42" t="s">
-        <v>30</v>
+      <c r="AV31" s="48"/>
+      <c r="AW31" s="48"/>
+      <c r="AX31" s="50" t="s">
+        <v>29</v>
       </c>
-      <c r="AY31" s="42"/>
-      <c r="AZ31" s="42"/>
-      <c r="BA31" s="42"/>
-      <c r="BB31" s="42"/>
-      <c r="BC31" s="42"/>
+      <c r="AY31" s="50"/>
+      <c r="AZ31" s="50"/>
+      <c r="BA31" s="50"/>
+      <c r="BB31" s="50"/>
+      <c r="BC31" s="50"/>
       <c r="BD31" s="3"/>
       <c r="BE31" s="3"/>
       <c r="CP31" s="3"/>
@@ -23805,65 +23832,65 @@
       <c r="HJ31" s="3"/>
     </row>
     <row r="32" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="41"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="41"/>
-      <c r="AB32" s="43"/>
-      <c r="AC32" s="43"/>
-      <c r="AD32" s="43"/>
-      <c r="AE32" s="43"/>
-      <c r="AF32" s="43"/>
-      <c r="AG32" s="43"/>
-      <c r="AH32" s="43"/>
-      <c r="AI32" s="43"/>
-      <c r="AJ32" s="43"/>
-      <c r="AK32" s="41" t="s">
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="48"/>
+      <c r="AB32" s="49"/>
+      <c r="AC32" s="49"/>
+      <c r="AD32" s="49"/>
+      <c r="AE32" s="49"/>
+      <c r="AF32" s="49"/>
+      <c r="AG32" s="49"/>
+      <c r="AH32" s="49"/>
+      <c r="AI32" s="49"/>
+      <c r="AJ32" s="49"/>
+      <c r="AK32" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="AL32" s="41"/>
-      <c r="AM32" s="41"/>
-      <c r="AN32" s="43"/>
-      <c r="AO32" s="43"/>
-      <c r="AP32" s="43"/>
-      <c r="AQ32" s="43"/>
-      <c r="AR32" s="43"/>
-      <c r="AS32" s="43"/>
-      <c r="AT32" s="43"/>
-      <c r="AU32" s="41" t="s">
+      <c r="AL32" s="48"/>
+      <c r="AM32" s="48"/>
+      <c r="AN32" s="49"/>
+      <c r="AO32" s="49"/>
+      <c r="AP32" s="49"/>
+      <c r="AQ32" s="49"/>
+      <c r="AR32" s="49"/>
+      <c r="AS32" s="49"/>
+      <c r="AT32" s="49"/>
+      <c r="AU32" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AV32" s="41"/>
-      <c r="AW32" s="41"/>
-      <c r="AX32" s="42"/>
-      <c r="AY32" s="42"/>
-      <c r="AZ32" s="42"/>
-      <c r="BA32" s="42"/>
-      <c r="BB32" s="42"/>
-      <c r="BC32" s="42"/>
+      <c r="AV32" s="48"/>
+      <c r="AW32" s="48"/>
+      <c r="AX32" s="50"/>
+      <c r="AY32" s="50"/>
+      <c r="AZ32" s="50"/>
+      <c r="BA32" s="50"/>
+      <c r="BB32" s="50"/>
+      <c r="BC32" s="50"/>
     </row>
     <row r="33" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
@@ -23923,126 +23950,126 @@
       <c r="BC33" s="5"/>
     </row>
     <row r="34" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="60" t="s">
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y34" s="61"/>
+      <c r="Z34" s="61"/>
+      <c r="AA34" s="61"/>
+      <c r="AB34" s="61"/>
+      <c r="AC34" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="60"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="60"/>
-      <c r="T34" s="60"/>
-      <c r="U34" s="60"/>
-      <c r="V34" s="60"/>
-      <c r="W34" s="60"/>
-      <c r="X34" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y34" s="62"/>
-      <c r="Z34" s="62"/>
-      <c r="AA34" s="62"/>
-      <c r="AB34" s="62"/>
-      <c r="AC34" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD34" s="60"/>
-      <c r="AE34" s="60"/>
-      <c r="AF34" s="60"/>
-      <c r="AG34" s="60"/>
-      <c r="AH34" s="60"/>
-      <c r="AI34" s="60"/>
-      <c r="AJ34" s="60"/>
-      <c r="AK34" s="60"/>
-      <c r="AL34" s="60"/>
-      <c r="AM34" s="60"/>
-      <c r="AN34" s="60"/>
-      <c r="AO34" s="60"/>
-      <c r="AP34" s="60"/>
-      <c r="AQ34" s="60"/>
-      <c r="AR34" s="60"/>
-      <c r="AS34" s="60"/>
-      <c r="AT34" s="60"/>
-      <c r="AU34" s="60"/>
-      <c r="AV34" s="60"/>
-      <c r="AW34" s="60"/>
-      <c r="AX34" s="60"/>
-      <c r="AY34" s="60"/>
-      <c r="AZ34" s="60"/>
-      <c r="BA34" s="60"/>
-      <c r="BB34" s="60"/>
-      <c r="BC34" s="60"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="59"/>
+      <c r="AF34" s="59"/>
+      <c r="AG34" s="59"/>
+      <c r="AH34" s="59"/>
+      <c r="AI34" s="59"/>
+      <c r="AJ34" s="59"/>
+      <c r="AK34" s="59"/>
+      <c r="AL34" s="59"/>
+      <c r="AM34" s="59"/>
+      <c r="AN34" s="59"/>
+      <c r="AO34" s="59"/>
+      <c r="AP34" s="59"/>
+      <c r="AQ34" s="59"/>
+      <c r="AR34" s="59"/>
+      <c r="AS34" s="59"/>
+      <c r="AT34" s="59"/>
+      <c r="AU34" s="59"/>
+      <c r="AV34" s="59"/>
+      <c r="AW34" s="59"/>
+      <c r="AX34" s="59"/>
+      <c r="AY34" s="59"/>
+      <c r="AZ34" s="59"/>
+      <c r="BA34" s="59"/>
+      <c r="BB34" s="59"/>
+      <c r="BC34" s="59"/>
     </row>
     <row r="35" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="61"/>
-      <c r="R35" s="61"/>
-      <c r="S35" s="61"/>
-      <c r="T35" s="61"/>
-      <c r="U35" s="61"/>
-      <c r="V35" s="61"/>
-      <c r="W35" s="61"/>
-      <c r="X35" s="63"/>
-      <c r="Y35" s="63"/>
-      <c r="Z35" s="63"/>
-      <c r="AA35" s="63"/>
-      <c r="AB35" s="63"/>
-      <c r="AC35" s="61"/>
-      <c r="AD35" s="61"/>
-      <c r="AE35" s="61"/>
-      <c r="AF35" s="61"/>
-      <c r="AG35" s="61"/>
-      <c r="AH35" s="61"/>
-      <c r="AI35" s="61"/>
-      <c r="AJ35" s="61"/>
-      <c r="AK35" s="61"/>
-      <c r="AL35" s="61"/>
-      <c r="AM35" s="61"/>
-      <c r="AN35" s="61"/>
-      <c r="AO35" s="61"/>
-      <c r="AP35" s="61"/>
-      <c r="AQ35" s="61"/>
-      <c r="AR35" s="61"/>
-      <c r="AS35" s="61"/>
-      <c r="AT35" s="61"/>
-      <c r="AU35" s="61"/>
-      <c r="AV35" s="61"/>
-      <c r="AW35" s="61"/>
-      <c r="AX35" s="61"/>
-      <c r="AY35" s="61"/>
-      <c r="AZ35" s="61"/>
-      <c r="BA35" s="61"/>
-      <c r="BB35" s="61"/>
-      <c r="BC35" s="61"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="60"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="62"/>
+      <c r="Z35" s="62"/>
+      <c r="AA35" s="62"/>
+      <c r="AB35" s="62"/>
+      <c r="AC35" s="60"/>
+      <c r="AD35" s="60"/>
+      <c r="AE35" s="60"/>
+      <c r="AF35" s="60"/>
+      <c r="AG35" s="60"/>
+      <c r="AH35" s="60"/>
+      <c r="AI35" s="60"/>
+      <c r="AJ35" s="60"/>
+      <c r="AK35" s="60"/>
+      <c r="AL35" s="60"/>
+      <c r="AM35" s="60"/>
+      <c r="AN35" s="60"/>
+      <c r="AO35" s="60"/>
+      <c r="AP35" s="60"/>
+      <c r="AQ35" s="60"/>
+      <c r="AR35" s="60"/>
+      <c r="AS35" s="60"/>
+      <c r="AT35" s="60"/>
+      <c r="AU35" s="60"/>
+      <c r="AV35" s="60"/>
+      <c r="AW35" s="60"/>
+      <c r="AX35" s="60"/>
+      <c r="AY35" s="60"/>
+      <c r="AZ35" s="60"/>
+      <c r="BA35" s="60"/>
+      <c r="BB35" s="60"/>
+      <c r="BC35" s="60"/>
     </row>
     <row r="36" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
@@ -24102,530 +24129,530 @@
       <c r="BC36" s="8"/>
     </row>
     <row r="37" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45" t="s">
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45" t="s">
+      <c r="R37" s="44"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="44"/>
+      <c r="W37" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="45"/>
-      <c r="W37" s="46" t="s">
+      <c r="X37" s="45"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="45"/>
+      <c r="AE37" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="46"/>
-      <c r="Z37" s="46"/>
-      <c r="AA37" s="46"/>
-      <c r="AB37" s="46"/>
-      <c r="AC37" s="46"/>
-      <c r="AD37" s="46"/>
-      <c r="AE37" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF37" s="45"/>
-      <c r="AG37" s="45"/>
-      <c r="AH37" s="45"/>
-      <c r="AI37" s="45"/>
-      <c r="AJ37" s="45"/>
-      <c r="AK37" s="45"/>
-      <c r="AL37" s="45"/>
-      <c r="AM37" s="45"/>
-      <c r="AN37" s="45"/>
-      <c r="AO37" s="45"/>
-      <c r="AP37" s="45"/>
-      <c r="AQ37" s="45"/>
-      <c r="AR37" s="45"/>
-      <c r="AS37" s="45"/>
-      <c r="AT37" s="45"/>
-      <c r="AU37" s="45"/>
-      <c r="AV37" s="45"/>
-      <c r="AW37" s="45"/>
-      <c r="AX37" s="45"/>
-      <c r="AY37" s="45"/>
-      <c r="AZ37" s="45"/>
-      <c r="BA37" s="45"/>
-      <c r="BB37" s="45"/>
-      <c r="BC37" s="45"/>
+      <c r="AF37" s="44"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="44"/>
+      <c r="AJ37" s="44"/>
+      <c r="AK37" s="44"/>
+      <c r="AL37" s="44"/>
+      <c r="AM37" s="44"/>
+      <c r="AN37" s="44"/>
+      <c r="AO37" s="44"/>
+      <c r="AP37" s="44"/>
+      <c r="AQ37" s="44"/>
+      <c r="AR37" s="44"/>
+      <c r="AS37" s="44"/>
+      <c r="AT37" s="44"/>
+      <c r="AU37" s="44"/>
+      <c r="AV37" s="44"/>
+      <c r="AW37" s="44"/>
+      <c r="AX37" s="44"/>
+      <c r="AY37" s="44"/>
+      <c r="AZ37" s="44"/>
+      <c r="BA37" s="44"/>
+      <c r="BB37" s="44"/>
+      <c r="BC37" s="44"/>
     </row>
     <row r="38" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="45"/>
-      <c r="W38" s="46"/>
-      <c r="X38" s="46"/>
-      <c r="Y38" s="46"/>
-      <c r="Z38" s="46"/>
-      <c r="AA38" s="46"/>
-      <c r="AB38" s="46"/>
-      <c r="AC38" s="46"/>
-      <c r="AD38" s="46"/>
-      <c r="AE38" s="45"/>
-      <c r="AF38" s="45"/>
-      <c r="AG38" s="45"/>
-      <c r="AH38" s="45"/>
-      <c r="AI38" s="45"/>
-      <c r="AJ38" s="45"/>
-      <c r="AK38" s="45"/>
-      <c r="AL38" s="45"/>
-      <c r="AM38" s="45"/>
-      <c r="AN38" s="45"/>
-      <c r="AO38" s="45"/>
-      <c r="AP38" s="45"/>
-      <c r="AQ38" s="45"/>
-      <c r="AR38" s="45"/>
-      <c r="AS38" s="45"/>
-      <c r="AT38" s="45"/>
-      <c r="AU38" s="45"/>
-      <c r="AV38" s="45"/>
-      <c r="AW38" s="45"/>
-      <c r="AX38" s="45"/>
-      <c r="AY38" s="45"/>
-      <c r="AZ38" s="45"/>
-      <c r="BA38" s="45"/>
-      <c r="BB38" s="45"/>
-      <c r="BC38" s="45"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="45"/>
+      <c r="X38" s="45"/>
+      <c r="Y38" s="45"/>
+      <c r="Z38" s="45"/>
+      <c r="AA38" s="45"/>
+      <c r="AB38" s="45"/>
+      <c r="AC38" s="45"/>
+      <c r="AD38" s="45"/>
+      <c r="AE38" s="44"/>
+      <c r="AF38" s="44"/>
+      <c r="AG38" s="44"/>
+      <c r="AH38" s="44"/>
+      <c r="AI38" s="44"/>
+      <c r="AJ38" s="44"/>
+      <c r="AK38" s="44"/>
+      <c r="AL38" s="44"/>
+      <c r="AM38" s="44"/>
+      <c r="AN38" s="44"/>
+      <c r="AO38" s="44"/>
+      <c r="AP38" s="44"/>
+      <c r="AQ38" s="44"/>
+      <c r="AR38" s="44"/>
+      <c r="AS38" s="44"/>
+      <c r="AT38" s="44"/>
+      <c r="AU38" s="44"/>
+      <c r="AV38" s="44"/>
+      <c r="AW38" s="44"/>
+      <c r="AX38" s="44"/>
+      <c r="AY38" s="44"/>
+      <c r="AZ38" s="44"/>
+      <c r="BA38" s="44"/>
+      <c r="BB38" s="44"/>
+      <c r="BC38" s="44"/>
     </row>
     <row r="39" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="X39" s="53"/>
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="53"/>
+      <c r="AB39" s="53"/>
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="53"/>
+      <c r="AE39" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF39" s="54"/>
+      <c r="AG39" s="54"/>
+      <c r="AH39" s="54"/>
+      <c r="AI39" s="54"/>
+      <c r="AJ39" s="54"/>
+      <c r="AK39" s="54"/>
+      <c r="AL39" s="54"/>
+      <c r="AM39" s="54"/>
+      <c r="AN39" s="54"/>
+      <c r="AO39" s="54"/>
+      <c r="AP39" s="54"/>
+      <c r="AQ39" s="54"/>
+      <c r="AR39" s="54"/>
+      <c r="AS39" s="54"/>
+      <c r="AT39" s="54"/>
+      <c r="AU39" s="54"/>
+      <c r="AV39" s="54"/>
+      <c r="AW39" s="54"/>
+      <c r="AX39" s="54"/>
+      <c r="AY39" s="54"/>
+      <c r="AZ39" s="54"/>
+      <c r="BA39" s="54"/>
+      <c r="BB39" s="54"/>
+      <c r="BC39" s="54"/>
+    </row>
+    <row r="40" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="X40" s="53"/>
+      <c r="Y40" s="53"/>
+      <c r="Z40" s="53"/>
+      <c r="AA40" s="53"/>
+      <c r="AB40" s="53"/>
+      <c r="AC40" s="53"/>
+      <c r="AD40" s="53"/>
+      <c r="AE40" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF40" s="54"/>
+      <c r="AG40" s="54"/>
+      <c r="AH40" s="54"/>
+      <c r="AI40" s="54"/>
+      <c r="AJ40" s="54"/>
+      <c r="AK40" s="54"/>
+      <c r="AL40" s="54"/>
+      <c r="AM40" s="54"/>
+      <c r="AN40" s="54"/>
+      <c r="AO40" s="54"/>
+      <c r="AP40" s="54"/>
+      <c r="AQ40" s="54"/>
+      <c r="AR40" s="54"/>
+      <c r="AS40" s="54"/>
+      <c r="AT40" s="54"/>
+      <c r="AU40" s="54"/>
+      <c r="AV40" s="54"/>
+      <c r="AW40" s="54"/>
+      <c r="AX40" s="54"/>
+      <c r="AY40" s="54"/>
+      <c r="AZ40" s="54"/>
+      <c r="BA40" s="54"/>
+      <c r="BB40" s="54"/>
+      <c r="BC40" s="54"/>
+    </row>
+    <row r="41" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="49" t="s">
-        <v>18</v>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="52" t="s">
+        <v>80</v>
       </c>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="49" t="s">
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="R41" s="52"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="52"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="R39" s="49"/>
-      <c r="S39" s="49"/>
-      <c r="T39" s="49"/>
-      <c r="U39" s="49"/>
-      <c r="V39" s="49"/>
-      <c r="W39" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="X39" s="50"/>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="50"/>
-      <c r="AE39" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF39" s="51"/>
-      <c r="AG39" s="51"/>
-      <c r="AH39" s="51"/>
-      <c r="AI39" s="51"/>
-      <c r="AJ39" s="51"/>
-      <c r="AK39" s="51"/>
-      <c r="AL39" s="51"/>
-      <c r="AM39" s="51"/>
-      <c r="AN39" s="51"/>
-      <c r="AO39" s="51"/>
-      <c r="AP39" s="51"/>
-      <c r="AQ39" s="51"/>
-      <c r="AR39" s="51"/>
-      <c r="AS39" s="51"/>
-      <c r="AT39" s="51"/>
-      <c r="AU39" s="51"/>
-      <c r="AV39" s="51"/>
-      <c r="AW39" s="51"/>
-      <c r="AX39" s="51"/>
-      <c r="AY39" s="51"/>
-      <c r="AZ39" s="51"/>
-      <c r="BA39" s="51"/>
-      <c r="BB39" s="51"/>
-      <c r="BC39" s="51"/>
-    </row>
-    <row r="40" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="49"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="49" t="s">
+      <c r="X41" s="53"/>
+      <c r="Y41" s="53"/>
+      <c r="Z41" s="53"/>
+      <c r="AA41" s="53"/>
+      <c r="AB41" s="53"/>
+      <c r="AC41" s="53"/>
+      <c r="AD41" s="53"/>
+      <c r="AE41" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="R40" s="49"/>
-      <c r="S40" s="49"/>
-      <c r="T40" s="49"/>
-      <c r="U40" s="49"/>
-      <c r="V40" s="49"/>
-      <c r="W40" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="X40" s="50"/>
-      <c r="Y40" s="50"/>
-      <c r="Z40" s="50"/>
-      <c r="AA40" s="50"/>
-      <c r="AB40" s="50"/>
-      <c r="AC40" s="50"/>
-      <c r="AD40" s="50"/>
-      <c r="AE40" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF40" s="51"/>
-      <c r="AG40" s="51"/>
-      <c r="AH40" s="51"/>
-      <c r="AI40" s="51"/>
-      <c r="AJ40" s="51"/>
-      <c r="AK40" s="51"/>
-      <c r="AL40" s="51"/>
-      <c r="AM40" s="51"/>
-      <c r="AN40" s="51"/>
-      <c r="AO40" s="51"/>
-      <c r="AP40" s="51"/>
-      <c r="AQ40" s="51"/>
-      <c r="AR40" s="51"/>
-      <c r="AS40" s="51"/>
-      <c r="AT40" s="51"/>
-      <c r="AU40" s="51"/>
-      <c r="AV40" s="51"/>
-      <c r="AW40" s="51"/>
-      <c r="AX40" s="51"/>
-      <c r="AY40" s="51"/>
-      <c r="AZ40" s="51"/>
-      <c r="BA40" s="51"/>
-      <c r="BB40" s="51"/>
-      <c r="BC40" s="51"/>
-    </row>
-    <row r="41" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="49"/>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="R41" s="49"/>
-      <c r="S41" s="49"/>
-      <c r="T41" s="49"/>
-      <c r="U41" s="49"/>
-      <c r="V41" s="49"/>
-      <c r="W41" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="X41" s="50"/>
-      <c r="Y41" s="50"/>
-      <c r="Z41" s="50"/>
-      <c r="AA41" s="50"/>
-      <c r="AB41" s="50"/>
-      <c r="AC41" s="50"/>
-      <c r="AD41" s="50"/>
-      <c r="AE41" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF41" s="51"/>
-      <c r="AG41" s="51"/>
-      <c r="AH41" s="51"/>
-      <c r="AI41" s="51"/>
-      <c r="AJ41" s="51"/>
-      <c r="AK41" s="51"/>
-      <c r="AL41" s="51"/>
-      <c r="AM41" s="51"/>
-      <c r="AN41" s="51"/>
-      <c r="AO41" s="51"/>
-      <c r="AP41" s="51"/>
-      <c r="AQ41" s="51"/>
-      <c r="AR41" s="51"/>
-      <c r="AS41" s="51"/>
-      <c r="AT41" s="51"/>
-      <c r="AU41" s="51"/>
-      <c r="AV41" s="51"/>
-      <c r="AW41" s="51"/>
-      <c r="AX41" s="51"/>
-      <c r="AY41" s="51"/>
-      <c r="AZ41" s="51"/>
-      <c r="BA41" s="51"/>
-      <c r="BB41" s="51"/>
-      <c r="BC41" s="51"/>
+      <c r="AF41" s="54"/>
+      <c r="AG41" s="54"/>
+      <c r="AH41" s="54"/>
+      <c r="AI41" s="54"/>
+      <c r="AJ41" s="54"/>
+      <c r="AK41" s="54"/>
+      <c r="AL41" s="54"/>
+      <c r="AM41" s="54"/>
+      <c r="AN41" s="54"/>
+      <c r="AO41" s="54"/>
+      <c r="AP41" s="54"/>
+      <c r="AQ41" s="54"/>
+      <c r="AR41" s="54"/>
+      <c r="AS41" s="54"/>
+      <c r="AT41" s="54"/>
+      <c r="AU41" s="54"/>
+      <c r="AV41" s="54"/>
+      <c r="AW41" s="54"/>
+      <c r="AX41" s="54"/>
+      <c r="AY41" s="54"/>
+      <c r="AZ41" s="54"/>
+      <c r="BA41" s="54"/>
+      <c r="BB41" s="54"/>
+      <c r="BC41" s="54"/>
     </row>
     <row r="42" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="R42" s="52"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="52"/>
+      <c r="V42" s="52"/>
+      <c r="W42" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="X42" s="53"/>
+      <c r="Y42" s="53"/>
+      <c r="Z42" s="53"/>
+      <c r="AA42" s="53"/>
+      <c r="AB42" s="53"/>
+      <c r="AC42" s="53"/>
+      <c r="AD42" s="53"/>
+      <c r="AE42" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF42" s="54"/>
+      <c r="AG42" s="54"/>
+      <c r="AH42" s="54"/>
+      <c r="AI42" s="54"/>
+      <c r="AJ42" s="54"/>
+      <c r="AK42" s="54"/>
+      <c r="AL42" s="54"/>
+      <c r="AM42" s="54"/>
+      <c r="AN42" s="54"/>
+      <c r="AO42" s="54"/>
+      <c r="AP42" s="54"/>
+      <c r="AQ42" s="54"/>
+      <c r="AR42" s="54"/>
+      <c r="AS42" s="54"/>
+      <c r="AT42" s="54"/>
+      <c r="AU42" s="54"/>
+      <c r="AV42" s="54"/>
+      <c r="AW42" s="54"/>
+      <c r="AX42" s="54"/>
+      <c r="AY42" s="54"/>
+      <c r="AZ42" s="54"/>
+      <c r="BA42" s="54"/>
+      <c r="BB42" s="54"/>
+      <c r="BC42" s="54"/>
+    </row>
+    <row r="43" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="R43" s="52"/>
+      <c r="S43" s="52"/>
+      <c r="T43" s="52"/>
+      <c r="U43" s="52"/>
+      <c r="V43" s="52"/>
+      <c r="W43" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="X43" s="53"/>
+      <c r="Y43" s="53"/>
+      <c r="Z43" s="53"/>
+      <c r="AA43" s="53"/>
+      <c r="AB43" s="53"/>
+      <c r="AC43" s="53"/>
+      <c r="AD43" s="53"/>
+      <c r="AE43" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF43" s="54"/>
+      <c r="AG43" s="54"/>
+      <c r="AH43" s="54"/>
+      <c r="AI43" s="54"/>
+      <c r="AJ43" s="54"/>
+      <c r="AK43" s="54"/>
+      <c r="AL43" s="54"/>
+      <c r="AM43" s="54"/>
+      <c r="AN43" s="54"/>
+      <c r="AO43" s="54"/>
+      <c r="AP43" s="54"/>
+      <c r="AQ43" s="54"/>
+      <c r="AR43" s="54"/>
+      <c r="AS43" s="54"/>
+      <c r="AT43" s="54"/>
+      <c r="AU43" s="54"/>
+      <c r="AV43" s="54"/>
+      <c r="AW43" s="54"/>
+      <c r="AX43" s="54"/>
+      <c r="AY43" s="54"/>
+      <c r="AZ43" s="54"/>
+      <c r="BA43" s="54"/>
+      <c r="BB43" s="54"/>
+      <c r="BC43" s="54"/>
+    </row>
+    <row r="44" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="49" t="s">
-        <v>18</v>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="52" t="s">
+        <v>83</v>
       </c>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="49"/>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="49" t="s">
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="R44" s="52"/>
+      <c r="S44" s="52"/>
+      <c r="T44" s="52"/>
+      <c r="U44" s="52"/>
+      <c r="V44" s="52"/>
+      <c r="W44" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="R42" s="49"/>
-      <c r="S42" s="49"/>
-      <c r="T42" s="49"/>
-      <c r="U42" s="49"/>
-      <c r="V42" s="49"/>
-      <c r="W42" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="X42" s="50"/>
-      <c r="Y42" s="50"/>
-      <c r="Z42" s="50"/>
-      <c r="AA42" s="50"/>
-      <c r="AB42" s="50"/>
-      <c r="AC42" s="50"/>
-      <c r="AD42" s="50"/>
-      <c r="AE42" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF42" s="51"/>
-      <c r="AG42" s="51"/>
-      <c r="AH42" s="51"/>
-      <c r="AI42" s="51"/>
-      <c r="AJ42" s="51"/>
-      <c r="AK42" s="51"/>
-      <c r="AL42" s="51"/>
-      <c r="AM42" s="51"/>
-      <c r="AN42" s="51"/>
-      <c r="AO42" s="51"/>
-      <c r="AP42" s="51"/>
-      <c r="AQ42" s="51"/>
-      <c r="AR42" s="51"/>
-      <c r="AS42" s="51"/>
-      <c r="AT42" s="51"/>
-      <c r="AU42" s="51"/>
-      <c r="AV42" s="51"/>
-      <c r="AW42" s="51"/>
-      <c r="AX42" s="51"/>
-      <c r="AY42" s="51"/>
-      <c r="AZ42" s="51"/>
-      <c r="BA42" s="51"/>
-      <c r="BB42" s="51"/>
-      <c r="BC42" s="51"/>
-    </row>
-    <row r="43" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="49"/>
-      <c r="Q43" s="49" t="s">
+      <c r="X44" s="53"/>
+      <c r="Y44" s="53"/>
+      <c r="Z44" s="53"/>
+      <c r="AA44" s="53"/>
+      <c r="AB44" s="53"/>
+      <c r="AC44" s="53"/>
+      <c r="AD44" s="53"/>
+      <c r="AE44" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="R43" s="49"/>
-      <c r="S43" s="49"/>
-      <c r="T43" s="49"/>
-      <c r="U43" s="49"/>
-      <c r="V43" s="49"/>
-      <c r="W43" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="X43" s="50"/>
-      <c r="Y43" s="50"/>
-      <c r="Z43" s="50"/>
-      <c r="AA43" s="50"/>
-      <c r="AB43" s="50"/>
-      <c r="AC43" s="50"/>
-      <c r="AD43" s="50"/>
-      <c r="AE43" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF43" s="51"/>
-      <c r="AG43" s="51"/>
-      <c r="AH43" s="51"/>
-      <c r="AI43" s="51"/>
-      <c r="AJ43" s="51"/>
-      <c r="AK43" s="51"/>
-      <c r="AL43" s="51"/>
-      <c r="AM43" s="51"/>
-      <c r="AN43" s="51"/>
-      <c r="AO43" s="51"/>
-      <c r="AP43" s="51"/>
-      <c r="AQ43" s="51"/>
-      <c r="AR43" s="51"/>
-      <c r="AS43" s="51"/>
-      <c r="AT43" s="51"/>
-      <c r="AU43" s="51"/>
-      <c r="AV43" s="51"/>
-      <c r="AW43" s="51"/>
-      <c r="AX43" s="51"/>
-      <c r="AY43" s="51"/>
-      <c r="AZ43" s="51"/>
-      <c r="BA43" s="51"/>
-      <c r="BB43" s="51"/>
-      <c r="BC43" s="51"/>
-    </row>
-    <row r="44" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="49"/>
-      <c r="P44" s="49"/>
-      <c r="Q44" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="R44" s="49"/>
-      <c r="S44" s="49"/>
-      <c r="T44" s="49"/>
-      <c r="U44" s="49"/>
-      <c r="V44" s="49"/>
-      <c r="W44" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="X44" s="50"/>
-      <c r="Y44" s="50"/>
-      <c r="Z44" s="50"/>
-      <c r="AA44" s="50"/>
-      <c r="AB44" s="50"/>
-      <c r="AC44" s="50"/>
-      <c r="AD44" s="50"/>
-      <c r="AE44" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF44" s="51"/>
-      <c r="AG44" s="51"/>
-      <c r="AH44" s="51"/>
-      <c r="AI44" s="51"/>
-      <c r="AJ44" s="51"/>
-      <c r="AK44" s="51"/>
-      <c r="AL44" s="51"/>
-      <c r="AM44" s="51"/>
-      <c r="AN44" s="51"/>
-      <c r="AO44" s="51"/>
-      <c r="AP44" s="51"/>
-      <c r="AQ44" s="51"/>
-      <c r="AR44" s="51"/>
-      <c r="AS44" s="51"/>
-      <c r="AT44" s="51"/>
-      <c r="AU44" s="51"/>
-      <c r="AV44" s="51"/>
-      <c r="AW44" s="51"/>
-      <c r="AX44" s="51"/>
-      <c r="AY44" s="51"/>
-      <c r="AZ44" s="51"/>
-      <c r="BA44" s="51"/>
-      <c r="BB44" s="51"/>
-      <c r="BC44" s="51"/>
+      <c r="AF44" s="54"/>
+      <c r="AG44" s="54"/>
+      <c r="AH44" s="54"/>
+      <c r="AI44" s="54"/>
+      <c r="AJ44" s="54"/>
+      <c r="AK44" s="54"/>
+      <c r="AL44" s="54"/>
+      <c r="AM44" s="54"/>
+      <c r="AN44" s="54"/>
+      <c r="AO44" s="54"/>
+      <c r="AP44" s="54"/>
+      <c r="AQ44" s="54"/>
+      <c r="AR44" s="54"/>
+      <c r="AS44" s="54"/>
+      <c r="AT44" s="54"/>
+      <c r="AU44" s="54"/>
+      <c r="AV44" s="54"/>
+      <c r="AW44" s="54"/>
+      <c r="AX44" s="54"/>
+      <c r="AY44" s="54"/>
+      <c r="AZ44" s="54"/>
+      <c r="BA44" s="54"/>
+      <c r="BB44" s="54"/>
+      <c r="BC44" s="54"/>
       <c r="BD44" s="6"/>
       <c r="BE44" s="6"/>
       <c r="BF44" s="3"/>
@@ -24770,199 +24797,199 @@
       <c r="GV44" s="3"/>
     </row>
     <row r="45" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="48" t="s">
+      <c r="A45" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="49" t="s">
-        <v>69</v>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="52" t="s">
+        <v>26</v>
       </c>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="49"/>
-      <c r="P45" s="49"/>
-      <c r="Q45" s="49" t="s">
-        <v>27</v>
+      <c r="R45" s="52"/>
+      <c r="S45" s="52"/>
+      <c r="T45" s="52"/>
+      <c r="U45" s="52"/>
+      <c r="V45" s="52"/>
+      <c r="W45" s="53" t="s">
+        <v>17</v>
       </c>
-      <c r="R45" s="49"/>
-      <c r="S45" s="49"/>
-      <c r="T45" s="49"/>
-      <c r="U45" s="49"/>
-      <c r="V45" s="49"/>
-      <c r="W45" s="50" t="s">
-        <v>18</v>
+      <c r="X45" s="53"/>
+      <c r="Y45" s="53"/>
+      <c r="Z45" s="53"/>
+      <c r="AA45" s="53"/>
+      <c r="AB45" s="53"/>
+      <c r="AC45" s="53"/>
+      <c r="AD45" s="53"/>
+      <c r="AE45" s="54" t="s">
+        <v>66</v>
       </c>
-      <c r="X45" s="50"/>
-      <c r="Y45" s="50"/>
-      <c r="Z45" s="50"/>
-      <c r="AA45" s="50"/>
-      <c r="AB45" s="50"/>
-      <c r="AC45" s="50"/>
-      <c r="AD45" s="50"/>
-      <c r="AE45" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF45" s="51"/>
-      <c r="AG45" s="51"/>
-      <c r="AH45" s="51"/>
-      <c r="AI45" s="51"/>
-      <c r="AJ45" s="51"/>
-      <c r="AK45" s="51"/>
-      <c r="AL45" s="51"/>
-      <c r="AM45" s="51"/>
-      <c r="AN45" s="51"/>
-      <c r="AO45" s="51"/>
-      <c r="AP45" s="51"/>
-      <c r="AQ45" s="51"/>
-      <c r="AR45" s="51"/>
-      <c r="AS45" s="51"/>
-      <c r="AT45" s="51"/>
-      <c r="AU45" s="51"/>
-      <c r="AV45" s="51"/>
-      <c r="AW45" s="51"/>
-      <c r="AX45" s="51"/>
-      <c r="AY45" s="51"/>
-      <c r="AZ45" s="51"/>
-      <c r="BA45" s="51"/>
-      <c r="BB45" s="51"/>
-      <c r="BC45" s="51"/>
+      <c r="AF45" s="54"/>
+      <c r="AG45" s="54"/>
+      <c r="AH45" s="54"/>
+      <c r="AI45" s="54"/>
+      <c r="AJ45" s="54"/>
+      <c r="AK45" s="54"/>
+      <c r="AL45" s="54"/>
+      <c r="AM45" s="54"/>
+      <c r="AN45" s="54"/>
+      <c r="AO45" s="54"/>
+      <c r="AP45" s="54"/>
+      <c r="AQ45" s="54"/>
+      <c r="AR45" s="54"/>
+      <c r="AS45" s="54"/>
+      <c r="AT45" s="54"/>
+      <c r="AU45" s="54"/>
+      <c r="AV45" s="54"/>
+      <c r="AW45" s="54"/>
+      <c r="AX45" s="54"/>
+      <c r="AY45" s="54"/>
+      <c r="AZ45" s="54"/>
+      <c r="BA45" s="54"/>
+      <c r="BB45" s="54"/>
+      <c r="BC45" s="54"/>
       <c r="BD45" s="7"/>
       <c r="BE45" s="7"/>
     </row>
     <row r="46" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="48" t="s">
-        <v>55</v>
+      <c r="A46" s="51" t="s">
+        <v>53</v>
       </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="49" t="s">
-        <v>56</v>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="52" t="s">
+        <v>54</v>
       </c>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="49"/>
-      <c r="P46" s="49"/>
-      <c r="Q46" s="49" t="s">
-        <v>45</v>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="52"/>
+      <c r="Q46" s="52" t="s">
+        <v>43</v>
       </c>
-      <c r="R46" s="49"/>
-      <c r="S46" s="49"/>
-      <c r="T46" s="49"/>
-      <c r="U46" s="49"/>
-      <c r="V46" s="49"/>
-      <c r="W46" s="50" t="s">
-        <v>18</v>
+      <c r="R46" s="52"/>
+      <c r="S46" s="52"/>
+      <c r="T46" s="52"/>
+      <c r="U46" s="52"/>
+      <c r="V46" s="52"/>
+      <c r="W46" s="53" t="s">
+        <v>17</v>
       </c>
-      <c r="X46" s="50"/>
-      <c r="Y46" s="50"/>
-      <c r="Z46" s="50"/>
-      <c r="AA46" s="50"/>
-      <c r="AB46" s="50"/>
-      <c r="AC46" s="50"/>
-      <c r="AD46" s="50"/>
-      <c r="AE46" s="51" t="s">
-        <v>18</v>
+      <c r="X46" s="53"/>
+      <c r="Y46" s="53"/>
+      <c r="Z46" s="53"/>
+      <c r="AA46" s="53"/>
+      <c r="AB46" s="53"/>
+      <c r="AC46" s="53"/>
+      <c r="AD46" s="53"/>
+      <c r="AE46" s="54" t="s">
+        <v>17</v>
       </c>
-      <c r="AF46" s="51"/>
-      <c r="AG46" s="51"/>
-      <c r="AH46" s="51"/>
-      <c r="AI46" s="51"/>
-      <c r="AJ46" s="51"/>
-      <c r="AK46" s="51"/>
-      <c r="AL46" s="51"/>
-      <c r="AM46" s="51"/>
-      <c r="AN46" s="51"/>
-      <c r="AO46" s="51"/>
-      <c r="AP46" s="51"/>
-      <c r="AQ46" s="51"/>
-      <c r="AR46" s="51"/>
-      <c r="AS46" s="51"/>
-      <c r="AT46" s="51"/>
-      <c r="AU46" s="51"/>
-      <c r="AV46" s="51"/>
-      <c r="AW46" s="51"/>
-      <c r="AX46" s="51"/>
-      <c r="AY46" s="51"/>
-      <c r="AZ46" s="51"/>
-      <c r="BA46" s="51"/>
-      <c r="BB46" s="51"/>
-      <c r="BC46" s="51"/>
+      <c r="AF46" s="54"/>
+      <c r="AG46" s="54"/>
+      <c r="AH46" s="54"/>
+      <c r="AI46" s="54"/>
+      <c r="AJ46" s="54"/>
+      <c r="AK46" s="54"/>
+      <c r="AL46" s="54"/>
+      <c r="AM46" s="54"/>
+      <c r="AN46" s="54"/>
+      <c r="AO46" s="54"/>
+      <c r="AP46" s="54"/>
+      <c r="AQ46" s="54"/>
+      <c r="AR46" s="54"/>
+      <c r="AS46" s="54"/>
+      <c r="AT46" s="54"/>
+      <c r="AU46" s="54"/>
+      <c r="AV46" s="54"/>
+      <c r="AW46" s="54"/>
+      <c r="AX46" s="54"/>
+      <c r="AY46" s="54"/>
+      <c r="AZ46" s="54"/>
+      <c r="BA46" s="54"/>
+      <c r="BB46" s="54"/>
+      <c r="BC46" s="54"/>
       <c r="BD46" s="7"/>
       <c r="BE46" s="7"/>
     </row>
     <row r="47" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="52"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="49"/>
-      <c r="R47" s="49"/>
-      <c r="S47" s="49"/>
-      <c r="T47" s="49"/>
-      <c r="U47" s="49"/>
-      <c r="V47" s="49"/>
-      <c r="W47" s="50"/>
-      <c r="X47" s="50"/>
-      <c r="Y47" s="50"/>
-      <c r="Z47" s="50"/>
-      <c r="AA47" s="50"/>
-      <c r="AB47" s="50"/>
-      <c r="AC47" s="50"/>
-      <c r="AD47" s="50"/>
-      <c r="AE47" s="51"/>
-      <c r="AF47" s="51"/>
-      <c r="AG47" s="51"/>
-      <c r="AH47" s="51"/>
-      <c r="AI47" s="51"/>
-      <c r="AJ47" s="51"/>
-      <c r="AK47" s="51"/>
-      <c r="AL47" s="51"/>
-      <c r="AM47" s="51"/>
-      <c r="AN47" s="51"/>
-      <c r="AO47" s="51"/>
-      <c r="AP47" s="51"/>
-      <c r="AQ47" s="51"/>
-      <c r="AR47" s="51"/>
-      <c r="AS47" s="51"/>
-      <c r="AT47" s="51"/>
-      <c r="AU47" s="51"/>
-      <c r="AV47" s="51"/>
-      <c r="AW47" s="51"/>
-      <c r="AX47" s="51"/>
-      <c r="AY47" s="51"/>
-      <c r="AZ47" s="51"/>
-      <c r="BA47" s="51"/>
-      <c r="BB47" s="51"/>
-      <c r="BC47" s="51"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="56"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="52"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="52"/>
+      <c r="U47" s="52"/>
+      <c r="V47" s="52"/>
+      <c r="W47" s="53"/>
+      <c r="X47" s="53"/>
+      <c r="Y47" s="53"/>
+      <c r="Z47" s="53"/>
+      <c r="AA47" s="53"/>
+      <c r="AB47" s="53"/>
+      <c r="AC47" s="53"/>
+      <c r="AD47" s="53"/>
+      <c r="AE47" s="54"/>
+      <c r="AF47" s="54"/>
+      <c r="AG47" s="54"/>
+      <c r="AH47" s="54"/>
+      <c r="AI47" s="54"/>
+      <c r="AJ47" s="54"/>
+      <c r="AK47" s="54"/>
+      <c r="AL47" s="54"/>
+      <c r="AM47" s="54"/>
+      <c r="AN47" s="54"/>
+      <c r="AO47" s="54"/>
+      <c r="AP47" s="54"/>
+      <c r="AQ47" s="54"/>
+      <c r="AR47" s="54"/>
+      <c r="AS47" s="54"/>
+      <c r="AT47" s="54"/>
+      <c r="AU47" s="54"/>
+      <c r="AV47" s="54"/>
+      <c r="AW47" s="54"/>
+      <c r="AX47" s="54"/>
+      <c r="AY47" s="54"/>
+      <c r="AZ47" s="54"/>
+      <c r="BA47" s="54"/>
+      <c r="BB47" s="54"/>
+      <c r="BC47" s="54"/>
       <c r="BD47" s="7"/>
       <c r="BE47" s="7"/>
     </row>
@@ -25344,8 +25371,6 @@
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="AU32:AW32"/>
-    <mergeCell ref="AX32:BC32"/>
     <mergeCell ref="AE27:BC27"/>
     <mergeCell ref="W27:AD27"/>
     <mergeCell ref="Q27:V27"/>
@@ -25359,15 +25384,32 @@
     <mergeCell ref="I15:P15"/>
     <mergeCell ref="Q15:V15"/>
     <mergeCell ref="W15:AD15"/>
-    <mergeCell ref="W12:AD12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="I13:P13"/>
-    <mergeCell ref="Q13:V13"/>
-    <mergeCell ref="W13:AD13"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:W1"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I14:P14"/>
+    <mergeCell ref="A20:H21"/>
+    <mergeCell ref="I20:P21"/>
+    <mergeCell ref="Q20:V21"/>
+    <mergeCell ref="W20:AD21"/>
+    <mergeCell ref="AE20:BC21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="I22:P22"/>
     <mergeCell ref="X1:AA1"/>
     <mergeCell ref="AB1:AJ1"/>
+    <mergeCell ref="AE10:BC10"/>
+    <mergeCell ref="AE11:BC11"/>
+    <mergeCell ref="AE12:BC12"/>
+    <mergeCell ref="AE13:BC13"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:P10"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="W10:AD10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:P11"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="W11:AD11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:P12"/>
+    <mergeCell ref="Q12:V12"/>
     <mergeCell ref="AK1:AM1"/>
     <mergeCell ref="F4:W5"/>
     <mergeCell ref="X4:AB5"/>
@@ -25390,23 +25432,8 @@
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="A4:E5"/>
     <mergeCell ref="AC4:BC5"/>
-    <mergeCell ref="AE10:BC10"/>
-    <mergeCell ref="AE11:BC11"/>
-    <mergeCell ref="AE12:BC12"/>
-    <mergeCell ref="AE13:BC13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I14:P14"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:P10"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="W10:AD10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:P11"/>
-    <mergeCell ref="Q11:V11"/>
-    <mergeCell ref="W11:AD11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:P12"/>
-    <mergeCell ref="Q12:V12"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:W1"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="I9:P9"/>
     <mergeCell ref="Q9:V9"/>
@@ -25416,13 +25443,11 @@
     <mergeCell ref="F17:W18"/>
     <mergeCell ref="X17:AB18"/>
     <mergeCell ref="AC17:BC18"/>
-    <mergeCell ref="A20:H21"/>
-    <mergeCell ref="I20:P21"/>
-    <mergeCell ref="Q20:V21"/>
-    <mergeCell ref="W20:AD21"/>
-    <mergeCell ref="AE20:BC21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="I22:P22"/>
+    <mergeCell ref="W12:AD12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="I13:P13"/>
+    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="W13:AD13"/>
     <mergeCell ref="Q22:V22"/>
     <mergeCell ref="W22:AD22"/>
     <mergeCell ref="AE22:BC22"/>
@@ -25475,6 +25500,8 @@
     <mergeCell ref="AB32:AJ32"/>
     <mergeCell ref="AK32:AM32"/>
     <mergeCell ref="AN32:AT32"/>
+    <mergeCell ref="AU32:AW32"/>
+    <mergeCell ref="AX32:BC32"/>
     <mergeCell ref="A37:H38"/>
     <mergeCell ref="I37:P38"/>
     <mergeCell ref="Q37:V38"/>
@@ -25548,7 +25575,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25573,33 +25600,33 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
+      <c r="A4" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -25609,12 +25636,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -25746,7 +25767,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -25755,16 +25776,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1772C4F8-7E90-48A5-BA69-025DEF3B94A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{779E7F19-D7BB-4605-A5DA-30EE80C7B0F0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25782,10 +25800,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB350337-5F8D-43AC-A85C-B7B1DB45F08B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1772C4F8-7E90-48A5-BA69-025DEF3B94A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/010-外部設計/014-画面レイアウト_画面入出力項目一覧/014-1-外部設計書(画面・帳票仕様)_ショッピング_商品検索.xlsx
+++ b/010-外部設計/014-画面レイアウト_画面入出力項目一覧/014-1-外部設計書(画面・帳票仕様)_ショッピング_商品検索.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CA600A-288A-4BF1-A30A-CDC73A3D863E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE4B5EE-D2B6-4151-9E8F-86DA68A9C602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -726,14 +726,12 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0070C0"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10.5"/>
-      <color rgb="FF0070C0"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1120,14 +1118,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1147,50 +1154,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1204,26 +1190,32 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1235,13 +1227,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1828,81 +1826,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="48" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="49" t="s">
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="48" t="s">
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="49" t="s">
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="48" t="s">
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="49" t="s">
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="48" t="s">
+      <c r="AQ1" s="48"/>
+      <c r="AR1" s="48"/>
+      <c r="AS1" s="48"/>
+      <c r="AT1" s="48"/>
+      <c r="AU1" s="48"/>
+      <c r="AV1" s="48"/>
+      <c r="AW1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AX1" s="48"/>
-      <c r="AY1" s="48"/>
-      <c r="AZ1" s="50" t="s">
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="50"/>
-      <c r="BE1" s="50"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="36"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="36"/>
       <c r="BF1" s="8"/>
       <c r="BG1" s="8"/>
       <c r="BH1" s="8"/>
@@ -2102,67 +2100,67 @@
       <c r="IT1" s="8"/>
     </row>
     <row r="2" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="48" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="48"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="48" t="s">
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="48"/>
+      <c r="AQ2" s="48"/>
+      <c r="AR2" s="48"/>
+      <c r="AS2" s="48"/>
+      <c r="AT2" s="48"/>
+      <c r="AU2" s="48"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="50"/>
-      <c r="BD2" s="50"/>
-      <c r="BE2" s="50"/>
+      <c r="AX2" s="47"/>
+      <c r="AY2" s="47"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="36"/>
+      <c r="BD2" s="36"/>
+      <c r="BE2" s="36"/>
       <c r="BF2" s="8"/>
       <c r="BG2" s="8"/>
       <c r="BH2" s="8"/>
@@ -2618,71 +2616,71 @@
       <c r="IT3" s="8"/>
     </row>
     <row r="4" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="45" t="s">
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="46" t="s">
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="47"/>
-      <c r="AK4" s="47"/>
-      <c r="AL4" s="47"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="47"/>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="47"/>
-      <c r="AS4" s="47"/>
-      <c r="AT4" s="47"/>
-      <c r="AU4" s="47"/>
-      <c r="AV4" s="47"/>
-      <c r="AW4" s="47"/>
-      <c r="AX4" s="47"/>
-      <c r="AY4" s="47"/>
-      <c r="AZ4" s="47"/>
-      <c r="BA4" s="47"/>
-      <c r="BB4" s="47"/>
-      <c r="BC4" s="47"/>
-      <c r="BD4" s="47"/>
-      <c r="BE4" s="47"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40"/>
+      <c r="AN4" s="40"/>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="40"/>
+      <c r="AQ4" s="40"/>
+      <c r="AR4" s="40"/>
+      <c r="AS4" s="40"/>
+      <c r="AT4" s="40"/>
+      <c r="AU4" s="40"/>
+      <c r="AV4" s="40"/>
+      <c r="AW4" s="40"/>
+      <c r="AX4" s="40"/>
+      <c r="AY4" s="40"/>
+      <c r="AZ4" s="40"/>
+      <c r="BA4" s="40"/>
+      <c r="BB4" s="40"/>
+      <c r="BC4" s="40"/>
+      <c r="BD4" s="40"/>
+      <c r="BE4" s="40"/>
       <c r="BF4" s="8"/>
       <c r="BG4" s="8"/>
       <c r="BH4" s="8"/>
@@ -2882,63 +2880,63 @@
       <c r="IT4" s="8"/>
     </row>
     <row r="5" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="47"/>
-      <c r="AO5" s="47"/>
-      <c r="AP5" s="47"/>
-      <c r="AQ5" s="47"/>
-      <c r="AR5" s="47"/>
-      <c r="AS5" s="47"/>
-      <c r="AT5" s="47"/>
-      <c r="AU5" s="47"/>
-      <c r="AV5" s="47"/>
-      <c r="AW5" s="47"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="47"/>
-      <c r="AZ5" s="47"/>
-      <c r="BA5" s="47"/>
-      <c r="BB5" s="47"/>
-      <c r="BC5" s="47"/>
-      <c r="BD5" s="47"/>
-      <c r="BE5" s="47"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="40"/>
+      <c r="AH5" s="40"/>
+      <c r="AI5" s="40"/>
+      <c r="AJ5" s="40"/>
+      <c r="AK5" s="40"/>
+      <c r="AL5" s="40"/>
+      <c r="AM5" s="40"/>
+      <c r="AN5" s="40"/>
+      <c r="AO5" s="40"/>
+      <c r="AP5" s="40"/>
+      <c r="AQ5" s="40"/>
+      <c r="AR5" s="40"/>
+      <c r="AS5" s="40"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="40"/>
+      <c r="AV5" s="40"/>
+      <c r="AW5" s="40"/>
+      <c r="AX5" s="40"/>
+      <c r="AY5" s="40"/>
+      <c r="AZ5" s="40"/>
+      <c r="BA5" s="40"/>
+      <c r="BB5" s="40"/>
+      <c r="BC5" s="40"/>
+      <c r="BD5" s="40"/>
+      <c r="BE5" s="40"/>
       <c r="BF5" s="8"/>
       <c r="BG5" s="8"/>
       <c r="BH5" s="8"/>
@@ -8471,81 +8469,81 @@
       <c r="BE35" s="24"/>
     </row>
     <row r="36" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="48" t="s">
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="49" t="s">
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="R36" s="49"/>
-      <c r="S36" s="49"/>
-      <c r="T36" s="49"/>
-      <c r="U36" s="49"/>
-      <c r="V36" s="49"/>
-      <c r="W36" s="49"/>
-      <c r="X36" s="49"/>
-      <c r="Y36" s="49"/>
-      <c r="Z36" s="48" t="s">
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="48"/>
+      <c r="V36" s="48"/>
+      <c r="W36" s="48"/>
+      <c r="X36" s="48"/>
+      <c r="Y36" s="48"/>
+      <c r="Z36" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="AA36" s="48"/>
-      <c r="AB36" s="48"/>
-      <c r="AC36" s="48"/>
-      <c r="AD36" s="49" t="s">
+      <c r="AA36" s="47"/>
+      <c r="AB36" s="47"/>
+      <c r="AC36" s="47"/>
+      <c r="AD36" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AE36" s="49"/>
-      <c r="AF36" s="49"/>
-      <c r="AG36" s="49"/>
-      <c r="AH36" s="49"/>
-      <c r="AI36" s="49"/>
-      <c r="AJ36" s="49"/>
-      <c r="AK36" s="49"/>
-      <c r="AL36" s="49"/>
-      <c r="AM36" s="48" t="s">
+      <c r="AE36" s="48"/>
+      <c r="AF36" s="48"/>
+      <c r="AG36" s="48"/>
+      <c r="AH36" s="48"/>
+      <c r="AI36" s="48"/>
+      <c r="AJ36" s="48"/>
+      <c r="AK36" s="48"/>
+      <c r="AL36" s="48"/>
+      <c r="AM36" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="AN36" s="48"/>
-      <c r="AO36" s="48"/>
-      <c r="AP36" s="49" t="s">
+      <c r="AN36" s="47"/>
+      <c r="AO36" s="47"/>
+      <c r="AP36" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="AQ36" s="49"/>
-      <c r="AR36" s="49"/>
-      <c r="AS36" s="49"/>
-      <c r="AT36" s="49"/>
-      <c r="AU36" s="49"/>
-      <c r="AV36" s="49"/>
-      <c r="AW36" s="48" t="s">
+      <c r="AQ36" s="48"/>
+      <c r="AR36" s="48"/>
+      <c r="AS36" s="48"/>
+      <c r="AT36" s="48"/>
+      <c r="AU36" s="48"/>
+      <c r="AV36" s="48"/>
+      <c r="AW36" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AX36" s="48"/>
-      <c r="AY36" s="48"/>
-      <c r="AZ36" s="50" t="s">
+      <c r="AX36" s="47"/>
+      <c r="AY36" s="47"/>
+      <c r="AZ36" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="BA36" s="50"/>
-      <c r="BB36" s="50"/>
-      <c r="BC36" s="50"/>
-      <c r="BD36" s="50"/>
-      <c r="BE36" s="50"/>
+      <c r="BA36" s="36"/>
+      <c r="BB36" s="36"/>
+      <c r="BC36" s="36"/>
+      <c r="BD36" s="36"/>
+      <c r="BE36" s="36"/>
       <c r="BF36" s="8"/>
       <c r="BG36" s="8"/>
       <c r="BH36" s="8"/>
@@ -8745,67 +8743,67 @@
       <c r="IT36" s="8"/>
     </row>
     <row r="37" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="49"/>
-      <c r="V37" s="49"/>
-      <c r="W37" s="49"/>
-      <c r="X37" s="49"/>
-      <c r="Y37" s="49"/>
-      <c r="Z37" s="48"/>
-      <c r="AA37" s="48"/>
-      <c r="AB37" s="48"/>
-      <c r="AC37" s="48"/>
-      <c r="AD37" s="49"/>
-      <c r="AE37" s="49"/>
-      <c r="AF37" s="49"/>
-      <c r="AG37" s="49"/>
-      <c r="AH37" s="49"/>
-      <c r="AI37" s="49"/>
-      <c r="AJ37" s="49"/>
-      <c r="AK37" s="49"/>
-      <c r="AL37" s="49"/>
-      <c r="AM37" s="48" t="s">
+      <c r="A37" s="44"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="48"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="48"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="48"/>
+      <c r="AE37" s="48"/>
+      <c r="AF37" s="48"/>
+      <c r="AG37" s="48"/>
+      <c r="AH37" s="48"/>
+      <c r="AI37" s="48"/>
+      <c r="AJ37" s="48"/>
+      <c r="AK37" s="48"/>
+      <c r="AL37" s="48"/>
+      <c r="AM37" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AN37" s="48"/>
-      <c r="AO37" s="48"/>
-      <c r="AP37" s="49"/>
-      <c r="AQ37" s="49"/>
-      <c r="AR37" s="49"/>
-      <c r="AS37" s="49"/>
-      <c r="AT37" s="49"/>
-      <c r="AU37" s="49"/>
-      <c r="AV37" s="49"/>
-      <c r="AW37" s="48" t="s">
+      <c r="AN37" s="47"/>
+      <c r="AO37" s="47"/>
+      <c r="AP37" s="48"/>
+      <c r="AQ37" s="48"/>
+      <c r="AR37" s="48"/>
+      <c r="AS37" s="48"/>
+      <c r="AT37" s="48"/>
+      <c r="AU37" s="48"/>
+      <c r="AV37" s="48"/>
+      <c r="AW37" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AX37" s="48"/>
-      <c r="AY37" s="48"/>
-      <c r="AZ37" s="50"/>
-      <c r="BA37" s="50"/>
-      <c r="BB37" s="50"/>
-      <c r="BC37" s="50"/>
-      <c r="BD37" s="50"/>
-      <c r="BE37" s="50"/>
+      <c r="AX37" s="47"/>
+      <c r="AY37" s="47"/>
+      <c r="AZ37" s="36"/>
+      <c r="BA37" s="36"/>
+      <c r="BB37" s="36"/>
+      <c r="BC37" s="36"/>
+      <c r="BD37" s="36"/>
+      <c r="BE37" s="36"/>
       <c r="BF37" s="8"/>
       <c r="BG37" s="8"/>
       <c r="BH37" s="8"/>
@@ -9261,71 +9259,71 @@
       <c r="IT38" s="8"/>
     </row>
     <row r="39" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="46" t="s">
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="47"/>
-      <c r="W39" s="47"/>
-      <c r="X39" s="45" t="s">
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="Y39" s="45"/>
-      <c r="Z39" s="45"/>
-      <c r="AA39" s="45"/>
-      <c r="AB39" s="45"/>
-      <c r="AC39" s="46" t="s">
+      <c r="Y39" s="38"/>
+      <c r="Z39" s="38"/>
+      <c r="AA39" s="38"/>
+      <c r="AB39" s="38"/>
+      <c r="AC39" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="AD39" s="47"/>
-      <c r="AE39" s="47"/>
-      <c r="AF39" s="47"/>
-      <c r="AG39" s="47"/>
-      <c r="AH39" s="47"/>
-      <c r="AI39" s="47"/>
-      <c r="AJ39" s="47"/>
-      <c r="AK39" s="47"/>
-      <c r="AL39" s="47"/>
-      <c r="AM39" s="47"/>
-      <c r="AN39" s="47"/>
-      <c r="AO39" s="47"/>
-      <c r="AP39" s="47"/>
-      <c r="AQ39" s="47"/>
-      <c r="AR39" s="47"/>
-      <c r="AS39" s="47"/>
-      <c r="AT39" s="47"/>
-      <c r="AU39" s="47"/>
-      <c r="AV39" s="47"/>
-      <c r="AW39" s="47"/>
-      <c r="AX39" s="47"/>
-      <c r="AY39" s="47"/>
-      <c r="AZ39" s="47"/>
-      <c r="BA39" s="47"/>
-      <c r="BB39" s="47"/>
-      <c r="BC39" s="47"/>
-      <c r="BD39" s="47"/>
-      <c r="BE39" s="47"/>
+      <c r="AD39" s="40"/>
+      <c r="AE39" s="40"/>
+      <c r="AF39" s="40"/>
+      <c r="AG39" s="40"/>
+      <c r="AH39" s="40"/>
+      <c r="AI39" s="40"/>
+      <c r="AJ39" s="40"/>
+      <c r="AK39" s="40"/>
+      <c r="AL39" s="40"/>
+      <c r="AM39" s="40"/>
+      <c r="AN39" s="40"/>
+      <c r="AO39" s="40"/>
+      <c r="AP39" s="40"/>
+      <c r="AQ39" s="40"/>
+      <c r="AR39" s="40"/>
+      <c r="AS39" s="40"/>
+      <c r="AT39" s="40"/>
+      <c r="AU39" s="40"/>
+      <c r="AV39" s="40"/>
+      <c r="AW39" s="40"/>
+      <c r="AX39" s="40"/>
+      <c r="AY39" s="40"/>
+      <c r="AZ39" s="40"/>
+      <c r="BA39" s="40"/>
+      <c r="BB39" s="40"/>
+      <c r="BC39" s="40"/>
+      <c r="BD39" s="40"/>
+      <c r="BE39" s="40"/>
       <c r="BF39" s="8"/>
       <c r="BG39" s="8"/>
       <c r="BH39" s="8"/>
@@ -9525,63 +9523,63 @@
       <c r="IT39" s="8"/>
     </row>
     <row r="40" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="47"/>
-      <c r="S40" s="47"/>
-      <c r="T40" s="47"/>
-      <c r="U40" s="47"/>
-      <c r="V40" s="47"/>
-      <c r="W40" s="47"/>
-      <c r="X40" s="45"/>
-      <c r="Y40" s="45"/>
-      <c r="Z40" s="45"/>
-      <c r="AA40" s="45"/>
-      <c r="AB40" s="45"/>
-      <c r="AC40" s="47"/>
-      <c r="AD40" s="47"/>
-      <c r="AE40" s="47"/>
-      <c r="AF40" s="47"/>
-      <c r="AG40" s="47"/>
-      <c r="AH40" s="47"/>
-      <c r="AI40" s="47"/>
-      <c r="AJ40" s="47"/>
-      <c r="AK40" s="47"/>
-      <c r="AL40" s="47"/>
-      <c r="AM40" s="47"/>
-      <c r="AN40" s="47"/>
-      <c r="AO40" s="47"/>
-      <c r="AP40" s="47"/>
-      <c r="AQ40" s="47"/>
-      <c r="AR40" s="47"/>
-      <c r="AS40" s="47"/>
-      <c r="AT40" s="47"/>
-      <c r="AU40" s="47"/>
-      <c r="AV40" s="47"/>
-      <c r="AW40" s="47"/>
-      <c r="AX40" s="47"/>
-      <c r="AY40" s="47"/>
-      <c r="AZ40" s="47"/>
-      <c r="BA40" s="47"/>
-      <c r="BB40" s="47"/>
-      <c r="BC40" s="47"/>
-      <c r="BD40" s="47"/>
-      <c r="BE40" s="47"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="40"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="40"/>
+      <c r="W40" s="40"/>
+      <c r="X40" s="38"/>
+      <c r="Y40" s="38"/>
+      <c r="Z40" s="38"/>
+      <c r="AA40" s="38"/>
+      <c r="AB40" s="38"/>
+      <c r="AC40" s="40"/>
+      <c r="AD40" s="40"/>
+      <c r="AE40" s="40"/>
+      <c r="AF40" s="40"/>
+      <c r="AG40" s="40"/>
+      <c r="AH40" s="40"/>
+      <c r="AI40" s="40"/>
+      <c r="AJ40" s="40"/>
+      <c r="AK40" s="40"/>
+      <c r="AL40" s="40"/>
+      <c r="AM40" s="40"/>
+      <c r="AN40" s="40"/>
+      <c r="AO40" s="40"/>
+      <c r="AP40" s="40"/>
+      <c r="AQ40" s="40"/>
+      <c r="AR40" s="40"/>
+      <c r="AS40" s="40"/>
+      <c r="AT40" s="40"/>
+      <c r="AU40" s="40"/>
+      <c r="AV40" s="40"/>
+      <c r="AW40" s="40"/>
+      <c r="AX40" s="40"/>
+      <c r="AY40" s="40"/>
+      <c r="AZ40" s="40"/>
+      <c r="BA40" s="40"/>
+      <c r="BB40" s="40"/>
+      <c r="BC40" s="40"/>
+      <c r="BD40" s="40"/>
+      <c r="BE40" s="40"/>
       <c r="BF40" s="8"/>
       <c r="BG40" s="8"/>
       <c r="BH40" s="8"/>
@@ -15370,144 +15368,144 @@
       <c r="BE71" s="24"/>
     </row>
     <row r="72" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="38" t="s">
+      <c r="A72" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="39"/>
-      <c r="L72" s="40"/>
-      <c r="M72" s="48" t="s">
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="N72" s="48"/>
-      <c r="O72" s="48"/>
-      <c r="P72" s="48"/>
-      <c r="Q72" s="49" t="s">
+      <c r="N72" s="47"/>
+      <c r="O72" s="47"/>
+      <c r="P72" s="47"/>
+      <c r="Q72" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="R72" s="49"/>
-      <c r="S72" s="49"/>
-      <c r="T72" s="49"/>
-      <c r="U72" s="49"/>
-      <c r="V72" s="49"/>
-      <c r="W72" s="49"/>
-      <c r="X72" s="49"/>
-      <c r="Y72" s="49"/>
-      <c r="Z72" s="48" t="s">
+      <c r="R72" s="48"/>
+      <c r="S72" s="48"/>
+      <c r="T72" s="48"/>
+      <c r="U72" s="48"/>
+      <c r="V72" s="48"/>
+      <c r="W72" s="48"/>
+      <c r="X72" s="48"/>
+      <c r="Y72" s="48"/>
+      <c r="Z72" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="AA72" s="48"/>
-      <c r="AB72" s="48"/>
-      <c r="AC72" s="48"/>
-      <c r="AD72" s="49" t="s">
+      <c r="AA72" s="47"/>
+      <c r="AB72" s="47"/>
+      <c r="AC72" s="47"/>
+      <c r="AD72" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AE72" s="49"/>
-      <c r="AF72" s="49"/>
-      <c r="AG72" s="49"/>
-      <c r="AH72" s="49"/>
-      <c r="AI72" s="49"/>
-      <c r="AJ72" s="49"/>
-      <c r="AK72" s="49"/>
-      <c r="AL72" s="49"/>
-      <c r="AM72" s="48" t="s">
+      <c r="AE72" s="48"/>
+      <c r="AF72" s="48"/>
+      <c r="AG72" s="48"/>
+      <c r="AH72" s="48"/>
+      <c r="AI72" s="48"/>
+      <c r="AJ72" s="48"/>
+      <c r="AK72" s="48"/>
+      <c r="AL72" s="48"/>
+      <c r="AM72" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="AN72" s="48"/>
-      <c r="AO72" s="48"/>
-      <c r="AP72" s="49" t="s">
+      <c r="AN72" s="47"/>
+      <c r="AO72" s="47"/>
+      <c r="AP72" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="AQ72" s="49"/>
-      <c r="AR72" s="49"/>
-      <c r="AS72" s="49"/>
-      <c r="AT72" s="49"/>
-      <c r="AU72" s="49"/>
-      <c r="AV72" s="49"/>
-      <c r="AW72" s="48" t="s">
+      <c r="AQ72" s="48"/>
+      <c r="AR72" s="48"/>
+      <c r="AS72" s="48"/>
+      <c r="AT72" s="48"/>
+      <c r="AU72" s="48"/>
+      <c r="AV72" s="48"/>
+      <c r="AW72" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AX72" s="48"/>
-      <c r="AY72" s="48"/>
-      <c r="AZ72" s="50" t="s">
+      <c r="AX72" s="47"/>
+      <c r="AY72" s="47"/>
+      <c r="AZ72" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="BA72" s="50"/>
-      <c r="BB72" s="50"/>
-      <c r="BC72" s="50"/>
-      <c r="BD72" s="50"/>
-      <c r="BE72" s="50"/>
+      <c r="BA72" s="36"/>
+      <c r="BB72" s="36"/>
+      <c r="BC72" s="36"/>
+      <c r="BD72" s="36"/>
+      <c r="BE72" s="36"/>
     </row>
     <row r="73" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="41"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="42"/>
-      <c r="L73" s="43"/>
-      <c r="M73" s="48"/>
-      <c r="N73" s="48"/>
-      <c r="O73" s="48"/>
-      <c r="P73" s="48"/>
-      <c r="Q73" s="49"/>
-      <c r="R73" s="49"/>
-      <c r="S73" s="49"/>
-      <c r="T73" s="49"/>
-      <c r="U73" s="49"/>
-      <c r="V73" s="49"/>
-      <c r="W73" s="49"/>
-      <c r="X73" s="49"/>
-      <c r="Y73" s="49"/>
-      <c r="Z73" s="48"/>
-      <c r="AA73" s="48"/>
-      <c r="AB73" s="48"/>
-      <c r="AC73" s="48"/>
-      <c r="AD73" s="49"/>
-      <c r="AE73" s="49"/>
-      <c r="AF73" s="49"/>
-      <c r="AG73" s="49"/>
-      <c r="AH73" s="49"/>
-      <c r="AI73" s="49"/>
-      <c r="AJ73" s="49"/>
-      <c r="AK73" s="49"/>
-      <c r="AL73" s="49"/>
-      <c r="AM73" s="48" t="s">
+      <c r="A73" s="44"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
+      <c r="J73" s="45"/>
+      <c r="K73" s="45"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="47"/>
+      <c r="N73" s="47"/>
+      <c r="O73" s="47"/>
+      <c r="P73" s="47"/>
+      <c r="Q73" s="48"/>
+      <c r="R73" s="48"/>
+      <c r="S73" s="48"/>
+      <c r="T73" s="48"/>
+      <c r="U73" s="48"/>
+      <c r="V73" s="48"/>
+      <c r="W73" s="48"/>
+      <c r="X73" s="48"/>
+      <c r="Y73" s="48"/>
+      <c r="Z73" s="47"/>
+      <c r="AA73" s="47"/>
+      <c r="AB73" s="47"/>
+      <c r="AC73" s="47"/>
+      <c r="AD73" s="48"/>
+      <c r="AE73" s="48"/>
+      <c r="AF73" s="48"/>
+      <c r="AG73" s="48"/>
+      <c r="AH73" s="48"/>
+      <c r="AI73" s="48"/>
+      <c r="AJ73" s="48"/>
+      <c r="AK73" s="48"/>
+      <c r="AL73" s="48"/>
+      <c r="AM73" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AN73" s="48"/>
-      <c r="AO73" s="48"/>
-      <c r="AP73" s="49"/>
-      <c r="AQ73" s="49"/>
-      <c r="AR73" s="49"/>
-      <c r="AS73" s="49"/>
-      <c r="AT73" s="49"/>
-      <c r="AU73" s="49"/>
-      <c r="AV73" s="49"/>
-      <c r="AW73" s="48" t="s">
+      <c r="AN73" s="47"/>
+      <c r="AO73" s="47"/>
+      <c r="AP73" s="48"/>
+      <c r="AQ73" s="48"/>
+      <c r="AR73" s="48"/>
+      <c r="AS73" s="48"/>
+      <c r="AT73" s="48"/>
+      <c r="AU73" s="48"/>
+      <c r="AV73" s="48"/>
+      <c r="AW73" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AX73" s="48"/>
-      <c r="AY73" s="48"/>
-      <c r="AZ73" s="50"/>
-      <c r="BA73" s="50"/>
-      <c r="BB73" s="50"/>
-      <c r="BC73" s="50"/>
-      <c r="BD73" s="50"/>
-      <c r="BE73" s="50"/>
+      <c r="AX73" s="47"/>
+      <c r="AY73" s="47"/>
+      <c r="AZ73" s="36"/>
+      <c r="BA73" s="36"/>
+      <c r="BB73" s="36"/>
+      <c r="BC73" s="36"/>
+      <c r="BD73" s="36"/>
+      <c r="BE73" s="36"/>
     </row>
     <row r="74" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
@@ -15569,130 +15567,130 @@
       <c r="BE74" s="5"/>
     </row>
     <row r="75" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A75" s="44" t="s">
+      <c r="A75" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="46" t="s">
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G75" s="46"/>
-      <c r="H75" s="46"/>
-      <c r="I75" s="46"/>
-      <c r="J75" s="46"/>
-      <c r="K75" s="46"/>
-      <c r="L75" s="46"/>
-      <c r="M75" s="46"/>
-      <c r="N75" s="46"/>
-      <c r="O75" s="46"/>
-      <c r="P75" s="46"/>
-      <c r="Q75" s="46"/>
-      <c r="R75" s="46"/>
-      <c r="S75" s="46"/>
-      <c r="T75" s="46"/>
-      <c r="U75" s="46"/>
-      <c r="V75" s="46"/>
-      <c r="W75" s="46"/>
-      <c r="X75" s="44" t="s">
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="39"/>
+      <c r="N75" s="39"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="39"/>
+      <c r="Q75" s="39"/>
+      <c r="R75" s="39"/>
+      <c r="S75" s="39"/>
+      <c r="T75" s="39"/>
+      <c r="U75" s="39"/>
+      <c r="V75" s="39"/>
+      <c r="W75" s="39"/>
+      <c r="X75" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="Y75" s="44"/>
-      <c r="Z75" s="44"/>
-      <c r="AA75" s="44"/>
-      <c r="AB75" s="44"/>
-      <c r="AC75" s="46" t="s">
+      <c r="Y75" s="37"/>
+      <c r="Z75" s="37"/>
+      <c r="AA75" s="37"/>
+      <c r="AB75" s="37"/>
+      <c r="AC75" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="AD75" s="46"/>
-      <c r="AE75" s="46"/>
-      <c r="AF75" s="46"/>
-      <c r="AG75" s="46"/>
-      <c r="AH75" s="46"/>
-      <c r="AI75" s="46"/>
-      <c r="AJ75" s="46"/>
-      <c r="AK75" s="46"/>
-      <c r="AL75" s="46"/>
-      <c r="AM75" s="46"/>
-      <c r="AN75" s="46"/>
-      <c r="AO75" s="46"/>
-      <c r="AP75" s="46"/>
-      <c r="AQ75" s="46"/>
-      <c r="AR75" s="46"/>
-      <c r="AS75" s="46"/>
-      <c r="AT75" s="46"/>
-      <c r="AU75" s="46"/>
-      <c r="AV75" s="46"/>
-      <c r="AW75" s="46"/>
-      <c r="AX75" s="46"/>
-      <c r="AY75" s="46"/>
-      <c r="AZ75" s="46"/>
-      <c r="BA75" s="46"/>
-      <c r="BB75" s="46"/>
-      <c r="BC75" s="46"/>
-      <c r="BD75" s="46"/>
-      <c r="BE75" s="46"/>
+      <c r="AD75" s="39"/>
+      <c r="AE75" s="39"/>
+      <c r="AF75" s="39"/>
+      <c r="AG75" s="39"/>
+      <c r="AH75" s="39"/>
+      <c r="AI75" s="39"/>
+      <c r="AJ75" s="39"/>
+      <c r="AK75" s="39"/>
+      <c r="AL75" s="39"/>
+      <c r="AM75" s="39"/>
+      <c r="AN75" s="39"/>
+      <c r="AO75" s="39"/>
+      <c r="AP75" s="39"/>
+      <c r="AQ75" s="39"/>
+      <c r="AR75" s="39"/>
+      <c r="AS75" s="39"/>
+      <c r="AT75" s="39"/>
+      <c r="AU75" s="39"/>
+      <c r="AV75" s="39"/>
+      <c r="AW75" s="39"/>
+      <c r="AX75" s="39"/>
+      <c r="AY75" s="39"/>
+      <c r="AZ75" s="39"/>
+      <c r="BA75" s="39"/>
+      <c r="BB75" s="39"/>
+      <c r="BC75" s="39"/>
+      <c r="BD75" s="39"/>
+      <c r="BE75" s="39"/>
     </row>
     <row r="76" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A76" s="44"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="46"/>
-      <c r="I76" s="46"/>
-      <c r="J76" s="46"/>
-      <c r="K76" s="46"/>
-      <c r="L76" s="46"/>
-      <c r="M76" s="46"/>
-      <c r="N76" s="46"/>
-      <c r="O76" s="46"/>
-      <c r="P76" s="46"/>
-      <c r="Q76" s="46"/>
-      <c r="R76" s="46"/>
-      <c r="S76" s="46"/>
-      <c r="T76" s="46"/>
-      <c r="U76" s="46"/>
-      <c r="V76" s="46"/>
-      <c r="W76" s="46"/>
-      <c r="X76" s="44"/>
-      <c r="Y76" s="44"/>
-      <c r="Z76" s="44"/>
-      <c r="AA76" s="44"/>
-      <c r="AB76" s="44"/>
-      <c r="AC76" s="46"/>
-      <c r="AD76" s="46"/>
-      <c r="AE76" s="46"/>
-      <c r="AF76" s="46"/>
-      <c r="AG76" s="46"/>
-      <c r="AH76" s="46"/>
-      <c r="AI76" s="46"/>
-      <c r="AJ76" s="46"/>
-      <c r="AK76" s="46"/>
-      <c r="AL76" s="46"/>
-      <c r="AM76" s="46"/>
-      <c r="AN76" s="46"/>
-      <c r="AO76" s="46"/>
-      <c r="AP76" s="46"/>
-      <c r="AQ76" s="46"/>
-      <c r="AR76" s="46"/>
-      <c r="AS76" s="46"/>
-      <c r="AT76" s="46"/>
-      <c r="AU76" s="46"/>
-      <c r="AV76" s="46"/>
-      <c r="AW76" s="46"/>
-      <c r="AX76" s="46"/>
-      <c r="AY76" s="46"/>
-      <c r="AZ76" s="46"/>
-      <c r="BA76" s="46"/>
-      <c r="BB76" s="46"/>
-      <c r="BC76" s="46"/>
-      <c r="BD76" s="46"/>
-      <c r="BE76" s="46"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="39"/>
+      <c r="M76" s="39"/>
+      <c r="N76" s="39"/>
+      <c r="O76" s="39"/>
+      <c r="P76" s="39"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="39"/>
+      <c r="S76" s="39"/>
+      <c r="T76" s="39"/>
+      <c r="U76" s="39"/>
+      <c r="V76" s="39"/>
+      <c r="W76" s="39"/>
+      <c r="X76" s="37"/>
+      <c r="Y76" s="37"/>
+      <c r="Z76" s="37"/>
+      <c r="AA76" s="37"/>
+      <c r="AB76" s="37"/>
+      <c r="AC76" s="39"/>
+      <c r="AD76" s="39"/>
+      <c r="AE76" s="39"/>
+      <c r="AF76" s="39"/>
+      <c r="AG76" s="39"/>
+      <c r="AH76" s="39"/>
+      <c r="AI76" s="39"/>
+      <c r="AJ76" s="39"/>
+      <c r="AK76" s="39"/>
+      <c r="AL76" s="39"/>
+      <c r="AM76" s="39"/>
+      <c r="AN76" s="39"/>
+      <c r="AO76" s="39"/>
+      <c r="AP76" s="39"/>
+      <c r="AQ76" s="39"/>
+      <c r="AR76" s="39"/>
+      <c r="AS76" s="39"/>
+      <c r="AT76" s="39"/>
+      <c r="AU76" s="39"/>
+      <c r="AV76" s="39"/>
+      <c r="AW76" s="39"/>
+      <c r="AX76" s="39"/>
+      <c r="AY76" s="39"/>
+      <c r="AZ76" s="39"/>
+      <c r="BA76" s="39"/>
+      <c r="BB76" s="39"/>
+      <c r="BC76" s="39"/>
+      <c r="BD76" s="39"/>
+      <c r="BE76" s="39"/>
     </row>
     <row r="77" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A77" s="9"/>
@@ -17529,6 +17527,53 @@
     <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="A4:E5"/>
+    <mergeCell ref="A75:E76"/>
+    <mergeCell ref="F4:W5"/>
+    <mergeCell ref="X4:AB5"/>
+    <mergeCell ref="M72:P72"/>
+    <mergeCell ref="Q72:Y72"/>
+    <mergeCell ref="Z72:AC72"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="A72:L73"/>
+    <mergeCell ref="M73:P73"/>
+    <mergeCell ref="Q73:Y73"/>
+    <mergeCell ref="Z73:AC73"/>
+    <mergeCell ref="AP37:AV37"/>
+    <mergeCell ref="AM72:AO72"/>
+    <mergeCell ref="AP72:AV72"/>
+    <mergeCell ref="F75:W76"/>
+    <mergeCell ref="X75:AB76"/>
+    <mergeCell ref="AC75:BE76"/>
+    <mergeCell ref="AD72:AL72"/>
+    <mergeCell ref="AW72:AY72"/>
+    <mergeCell ref="AZ72:BE72"/>
+    <mergeCell ref="AW73:AY73"/>
+    <mergeCell ref="AZ73:BE73"/>
+    <mergeCell ref="AD73:AL73"/>
+    <mergeCell ref="AM73:AO73"/>
+    <mergeCell ref="AP73:AV73"/>
+    <mergeCell ref="Q37:Y37"/>
+    <mergeCell ref="Q1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AD1:AL1"/>
+    <mergeCell ref="AD37:AL37"/>
+    <mergeCell ref="AC4:BE5"/>
+    <mergeCell ref="AW1:AY1"/>
+    <mergeCell ref="AZ1:BE1"/>
+    <mergeCell ref="AW2:AY2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="AD2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AV2"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AV1"/>
+    <mergeCell ref="AW37:AY37"/>
+    <mergeCell ref="AM37:AO37"/>
     <mergeCell ref="AZ37:BE37"/>
     <mergeCell ref="A39:E40"/>
     <mergeCell ref="F39:W40"/>
@@ -17545,53 +17590,6 @@
     <mergeCell ref="AZ36:BE36"/>
     <mergeCell ref="M37:P37"/>
     <mergeCell ref="Z37:AC37"/>
-    <mergeCell ref="Q1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="AD1:AL1"/>
-    <mergeCell ref="AD37:AL37"/>
-    <mergeCell ref="AC4:BE5"/>
-    <mergeCell ref="AW1:AY1"/>
-    <mergeCell ref="AZ1:BE1"/>
-    <mergeCell ref="AW2:AY2"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="AD2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AV2"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AV1"/>
-    <mergeCell ref="AW37:AY37"/>
-    <mergeCell ref="AM37:AO37"/>
-    <mergeCell ref="AP37:AV37"/>
-    <mergeCell ref="AM72:AO72"/>
-    <mergeCell ref="AP72:AV72"/>
-    <mergeCell ref="F75:W76"/>
-    <mergeCell ref="X75:AB76"/>
-    <mergeCell ref="AC75:BE76"/>
-    <mergeCell ref="AD72:AL72"/>
-    <mergeCell ref="AW72:AY72"/>
-    <mergeCell ref="AZ72:BE72"/>
-    <mergeCell ref="AW73:AY73"/>
-    <mergeCell ref="AZ73:BE73"/>
-    <mergeCell ref="AD73:AL73"/>
-    <mergeCell ref="AM73:AO73"/>
-    <mergeCell ref="AP73:AV73"/>
-    <mergeCell ref="Q37:Y37"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="A4:E5"/>
-    <mergeCell ref="A75:E76"/>
-    <mergeCell ref="F4:W5"/>
-    <mergeCell ref="X4:AB5"/>
-    <mergeCell ref="M72:P72"/>
-    <mergeCell ref="Q72:Y72"/>
-    <mergeCell ref="Z72:AC72"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="A72:L73"/>
-    <mergeCell ref="M73:P73"/>
-    <mergeCell ref="Q73:Y73"/>
-    <mergeCell ref="Z73:AC73"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -17623,79 +17621,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="48" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="49" t="s">
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="48" t="s">
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="49" t="s">
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="48" t="s">
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="49" t="s">
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="48" t="s">
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="48"/>
+      <c r="AQ1" s="48"/>
+      <c r="AR1" s="48"/>
+      <c r="AS1" s="48"/>
+      <c r="AT1" s="48"/>
+      <c r="AU1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="48"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="50" t="s">
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="36"/>
       <c r="BD1" s="3"/>
       <c r="BE1" s="3"/>
       <c r="BF1" s="3"/>
@@ -17876,65 +17874,65 @@
       <c r="HY1" s="3"/>
     </row>
     <row r="2" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="48" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="48" t="s">
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="48"/>
+      <c r="AQ2" s="48"/>
+      <c r="AR2" s="48"/>
+      <c r="AS2" s="48"/>
+      <c r="AT2" s="48"/>
+      <c r="AU2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="50"/>
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="36"/>
       <c r="BD2" s="3"/>
       <c r="BE2" s="3"/>
       <c r="BF2" s="3"/>
@@ -18350,69 +18348,69 @@
       <c r="HY3" s="3"/>
     </row>
     <row r="4" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="59" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="61" t="s">
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="59" t="s">
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59"/>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="59"/>
-      <c r="AO4" s="59"/>
-      <c r="AP4" s="59"/>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="59"/>
-      <c r="AS4" s="59"/>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="59"/>
-      <c r="AV4" s="59"/>
-      <c r="AW4" s="59"/>
-      <c r="AX4" s="59"/>
-      <c r="AY4" s="59"/>
-      <c r="AZ4" s="59"/>
-      <c r="BA4" s="59"/>
-      <c r="BB4" s="59"/>
-      <c r="BC4" s="59"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="55"/>
+      <c r="AS4" s="55"/>
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="55"/>
+      <c r="AV4" s="55"/>
+      <c r="AW4" s="55"/>
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="55"/>
+      <c r="AZ4" s="55"/>
+      <c r="BA4" s="55"/>
+      <c r="BB4" s="55"/>
+      <c r="BC4" s="55"/>
       <c r="BD4" s="3"/>
       <c r="BE4" s="3"/>
       <c r="BF4" s="3"/>
@@ -18593,61 +18591,61 @@
       <c r="HY4" s="3"/>
     </row>
     <row r="5" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="62"/>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="62"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="60"/>
-      <c r="AE5" s="60"/>
-      <c r="AF5" s="60"/>
-      <c r="AG5" s="60"/>
-      <c r="AH5" s="60"/>
-      <c r="AI5" s="60"/>
-      <c r="AJ5" s="60"/>
-      <c r="AK5" s="60"/>
-      <c r="AL5" s="60"/>
-      <c r="AM5" s="60"/>
-      <c r="AN5" s="60"/>
-      <c r="AO5" s="60"/>
-      <c r="AP5" s="60"/>
-      <c r="AQ5" s="60"/>
-      <c r="AR5" s="60"/>
-      <c r="AS5" s="60"/>
-      <c r="AT5" s="60"/>
-      <c r="AU5" s="60"/>
-      <c r="AV5" s="60"/>
-      <c r="AW5" s="60"/>
-      <c r="AX5" s="60"/>
-      <c r="AY5" s="60"/>
-      <c r="AZ5" s="60"/>
-      <c r="BA5" s="60"/>
-      <c r="BB5" s="60"/>
-      <c r="BC5" s="60"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="56"/>
+      <c r="AR5" s="56"/>
+      <c r="AS5" s="56"/>
+      <c r="AT5" s="56"/>
+      <c r="AU5" s="56"/>
+      <c r="AV5" s="56"/>
+      <c r="AW5" s="56"/>
+      <c r="AX5" s="56"/>
+      <c r="AY5" s="56"/>
+      <c r="AZ5" s="56"/>
+      <c r="BA5" s="56"/>
+      <c r="BB5" s="56"/>
+      <c r="BC5" s="56"/>
       <c r="BD5" s="3"/>
       <c r="BE5" s="3"/>
       <c r="BF5" s="3"/>
@@ -19048,71 +19046,71 @@
       <c r="HR6" s="3"/>
     </row>
     <row r="7" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45" t="s">
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45" t="s">
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45" t="s">
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="45"/>
-      <c r="AI7" s="45"/>
-      <c r="AJ7" s="45"/>
-      <c r="AK7" s="45"/>
-      <c r="AL7" s="45"/>
-      <c r="AM7" s="45"/>
-      <c r="AN7" s="45"/>
-      <c r="AO7" s="45"/>
-      <c r="AP7" s="45"/>
-      <c r="AQ7" s="45"/>
-      <c r="AR7" s="45"/>
-      <c r="AS7" s="45"/>
-      <c r="AT7" s="45"/>
-      <c r="AU7" s="45"/>
-      <c r="AV7" s="45"/>
-      <c r="AW7" s="45"/>
-      <c r="AX7" s="45"/>
-      <c r="AY7" s="45"/>
-      <c r="AZ7" s="45"/>
-      <c r="BA7" s="45"/>
-      <c r="BB7" s="45"/>
-      <c r="BC7" s="45"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="38"/>
+      <c r="AK7" s="38"/>
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="38"/>
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="38"/>
+      <c r="AQ7" s="38"/>
+      <c r="AR7" s="38"/>
+      <c r="AS7" s="38"/>
+      <c r="AT7" s="38"/>
+      <c r="AU7" s="38"/>
+      <c r="AV7" s="38"/>
+      <c r="AW7" s="38"/>
+      <c r="AX7" s="38"/>
+      <c r="AY7" s="38"/>
+      <c r="AZ7" s="38"/>
+      <c r="BA7" s="38"/>
+      <c r="BB7" s="38"/>
+      <c r="BC7" s="38"/>
       <c r="BD7" s="3"/>
       <c r="BE7" s="3"/>
       <c r="CP7" s="3"/>
@@ -19242,61 +19240,61 @@
       <c r="HJ7" s="3"/>
     </row>
     <row r="8" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="45"/>
-      <c r="AM8" s="45"/>
-      <c r="AN8" s="45"/>
-      <c r="AO8" s="45"/>
-      <c r="AP8" s="45"/>
-      <c r="AQ8" s="45"/>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
-      <c r="AT8" s="45"/>
-      <c r="AU8" s="45"/>
-      <c r="AV8" s="45"/>
-      <c r="AW8" s="45"/>
-      <c r="AX8" s="45"/>
-      <c r="AY8" s="45"/>
-      <c r="AZ8" s="45"/>
-      <c r="BA8" s="45"/>
-      <c r="BB8" s="45"/>
-      <c r="BC8" s="45"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="38"/>
+      <c r="AJ8" s="38"/>
+      <c r="AK8" s="38"/>
+      <c r="AL8" s="38"/>
+      <c r="AM8" s="38"/>
+      <c r="AN8" s="38"/>
+      <c r="AO8" s="38"/>
+      <c r="AP8" s="38"/>
+      <c r="AQ8" s="38"/>
+      <c r="AR8" s="38"/>
+      <c r="AS8" s="38"/>
+      <c r="AT8" s="38"/>
+      <c r="AU8" s="38"/>
+      <c r="AV8" s="38"/>
+      <c r="AW8" s="38"/>
+      <c r="AX8" s="38"/>
+      <c r="AY8" s="38"/>
+      <c r="AZ8" s="38"/>
+      <c r="BA8" s="38"/>
+      <c r="BB8" s="38"/>
+      <c r="BC8" s="38"/>
       <c r="BD8" s="3"/>
       <c r="BE8" s="3"/>
       <c r="CP8" s="3"/>
@@ -19426,71 +19424,71 @@
       <c r="HJ8" s="3"/>
     </row>
     <row r="9" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="52" t="s">
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="52" t="s">
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="64" t="s">
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="64"/>
-      <c r="AC9" s="64"/>
-      <c r="AD9" s="64"/>
-      <c r="AE9" s="65" t="s">
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="AF9" s="66"/>
-      <c r="AG9" s="66"/>
-      <c r="AH9" s="66"/>
-      <c r="AI9" s="66"/>
-      <c r="AJ9" s="66"/>
-      <c r="AK9" s="66"/>
-      <c r="AL9" s="66"/>
-      <c r="AM9" s="66"/>
-      <c r="AN9" s="66"/>
-      <c r="AO9" s="66"/>
-      <c r="AP9" s="66"/>
-      <c r="AQ9" s="66"/>
-      <c r="AR9" s="66"/>
-      <c r="AS9" s="66"/>
-      <c r="AT9" s="66"/>
-      <c r="AU9" s="66"/>
-      <c r="AV9" s="66"/>
-      <c r="AW9" s="66"/>
-      <c r="AX9" s="66"/>
-      <c r="AY9" s="66"/>
-      <c r="AZ9" s="66"/>
-      <c r="BA9" s="66"/>
-      <c r="BB9" s="66"/>
-      <c r="BC9" s="66"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="50"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="50"/>
+      <c r="AK9" s="50"/>
+      <c r="AL9" s="50"/>
+      <c r="AM9" s="50"/>
+      <c r="AN9" s="50"/>
+      <c r="AO9" s="50"/>
+      <c r="AP9" s="50"/>
+      <c r="AQ9" s="50"/>
+      <c r="AR9" s="50"/>
+      <c r="AS9" s="50"/>
+      <c r="AT9" s="50"/>
+      <c r="AU9" s="50"/>
+      <c r="AV9" s="50"/>
+      <c r="AW9" s="50"/>
+      <c r="AX9" s="50"/>
+      <c r="AY9" s="50"/>
+      <c r="AZ9" s="50"/>
+      <c r="BA9" s="50"/>
+      <c r="BB9" s="50"/>
+      <c r="BC9" s="50"/>
       <c r="BD9" s="3"/>
       <c r="BE9" s="3"/>
       <c r="CP9" s="3"/>
@@ -19620,71 +19618,71 @@
       <c r="HJ9" s="3"/>
     </row>
     <row r="10" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="52" t="s">
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63" t="s">
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="R10" s="63"/>
-      <c r="S10" s="63"/>
-      <c r="T10" s="63"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="64" t="s">
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="65" t="s">
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="66"/>
-      <c r="AL10" s="66"/>
-      <c r="AM10" s="66"/>
-      <c r="AN10" s="66"/>
-      <c r="AO10" s="66"/>
-      <c r="AP10" s="66"/>
-      <c r="AQ10" s="66"/>
-      <c r="AR10" s="66"/>
-      <c r="AS10" s="66"/>
-      <c r="AT10" s="66"/>
-      <c r="AU10" s="66"/>
-      <c r="AV10" s="66"/>
-      <c r="AW10" s="66"/>
-      <c r="AX10" s="66"/>
-      <c r="AY10" s="66"/>
-      <c r="AZ10" s="66"/>
-      <c r="BA10" s="66"/>
-      <c r="BB10" s="66"/>
-      <c r="BC10" s="66"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="50"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="50"/>
+      <c r="AK10" s="50"/>
+      <c r="AL10" s="50"/>
+      <c r="AM10" s="50"/>
+      <c r="AN10" s="50"/>
+      <c r="AO10" s="50"/>
+      <c r="AP10" s="50"/>
+      <c r="AQ10" s="50"/>
+      <c r="AR10" s="50"/>
+      <c r="AS10" s="50"/>
+      <c r="AT10" s="50"/>
+      <c r="AU10" s="50"/>
+      <c r="AV10" s="50"/>
+      <c r="AW10" s="50"/>
+      <c r="AX10" s="50"/>
+      <c r="AY10" s="50"/>
+      <c r="AZ10" s="50"/>
+      <c r="BA10" s="50"/>
+      <c r="BB10" s="50"/>
+      <c r="BC10" s="50"/>
       <c r="BD10" s="3"/>
       <c r="BE10" s="3"/>
       <c r="CP10" s="3"/>
@@ -19814,71 +19812,71 @@
       <c r="HJ10" s="3"/>
     </row>
     <row r="11" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="52" t="s">
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63" t="s">
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="63"/>
-      <c r="W11" s="64" t="s">
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="X11" s="64"/>
-      <c r="Y11" s="64"/>
-      <c r="Z11" s="64"/>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="64"/>
-      <c r="AC11" s="64"/>
-      <c r="AD11" s="64"/>
-      <c r="AE11" s="65" t="s">
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="66"/>
-      <c r="AK11" s="66"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="66"/>
-      <c r="AN11" s="66"/>
-      <c r="AO11" s="66"/>
-      <c r="AP11" s="66"/>
-      <c r="AQ11" s="66"/>
-      <c r="AR11" s="66"/>
-      <c r="AS11" s="66"/>
-      <c r="AT11" s="66"/>
-      <c r="AU11" s="66"/>
-      <c r="AV11" s="66"/>
-      <c r="AW11" s="66"/>
-      <c r="AX11" s="66"/>
-      <c r="AY11" s="66"/>
-      <c r="AZ11" s="66"/>
-      <c r="BA11" s="66"/>
-      <c r="BB11" s="66"/>
-      <c r="BC11" s="66"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
+      <c r="AH11" s="50"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="50"/>
+      <c r="AK11" s="50"/>
+      <c r="AL11" s="50"/>
+      <c r="AM11" s="50"/>
+      <c r="AN11" s="50"/>
+      <c r="AO11" s="50"/>
+      <c r="AP11" s="50"/>
+      <c r="AQ11" s="50"/>
+      <c r="AR11" s="50"/>
+      <c r="AS11" s="50"/>
+      <c r="AT11" s="50"/>
+      <c r="AU11" s="50"/>
+      <c r="AV11" s="50"/>
+      <c r="AW11" s="50"/>
+      <c r="AX11" s="50"/>
+      <c r="AY11" s="50"/>
+      <c r="AZ11" s="50"/>
+      <c r="BA11" s="50"/>
+      <c r="BB11" s="50"/>
+      <c r="BC11" s="50"/>
       <c r="BD11" s="3"/>
       <c r="BE11" s="3"/>
       <c r="CP11" s="3"/>
@@ -20008,71 +20006,71 @@
       <c r="HJ11" s="3"/>
     </row>
     <row r="12" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="52" t="s">
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63" t="s">
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="63"/>
-      <c r="W12" s="64" t="s">
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="X12" s="64"/>
-      <c r="Y12" s="64"/>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="64"/>
-      <c r="AC12" s="64"/>
-      <c r="AD12" s="64"/>
-      <c r="AE12" s="65" t="s">
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="AF12" s="66"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="66"/>
-      <c r="AK12" s="66"/>
-      <c r="AL12" s="66"/>
-      <c r="AM12" s="66"/>
-      <c r="AN12" s="66"/>
-      <c r="AO12" s="66"/>
-      <c r="AP12" s="66"/>
-      <c r="AQ12" s="66"/>
-      <c r="AR12" s="66"/>
-      <c r="AS12" s="66"/>
-      <c r="AT12" s="66"/>
-      <c r="AU12" s="66"/>
-      <c r="AV12" s="66"/>
-      <c r="AW12" s="66"/>
-      <c r="AX12" s="66"/>
-      <c r="AY12" s="66"/>
-      <c r="AZ12" s="66"/>
-      <c r="BA12" s="66"/>
-      <c r="BB12" s="66"/>
-      <c r="BC12" s="66"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="50"/>
+      <c r="AH12" s="50"/>
+      <c r="AI12" s="50"/>
+      <c r="AJ12" s="50"/>
+      <c r="AK12" s="50"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
+      <c r="AP12" s="50"/>
+      <c r="AQ12" s="50"/>
+      <c r="AR12" s="50"/>
+      <c r="AS12" s="50"/>
+      <c r="AT12" s="50"/>
+      <c r="AU12" s="50"/>
+      <c r="AV12" s="50"/>
+      <c r="AW12" s="50"/>
+      <c r="AX12" s="50"/>
+      <c r="AY12" s="50"/>
+      <c r="AZ12" s="50"/>
+      <c r="BA12" s="50"/>
+      <c r="BB12" s="50"/>
+      <c r="BC12" s="50"/>
       <c r="BD12" s="3"/>
       <c r="BE12" s="3"/>
       <c r="CP12" s="3"/>
@@ -20202,71 +20200,71 @@
       <c r="HJ12" s="3"/>
     </row>
     <row r="13" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="52" t="s">
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63" t="s">
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="63"/>
-      <c r="W13" s="64" t="s">
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="X13" s="64"/>
-      <c r="Y13" s="64"/>
-      <c r="Z13" s="64"/>
-      <c r="AA13" s="64"/>
-      <c r="AB13" s="64"/>
-      <c r="AC13" s="64"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="65" t="s">
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="66"/>
-      <c r="AJ13" s="66"/>
-      <c r="AK13" s="66"/>
-      <c r="AL13" s="66"/>
-      <c r="AM13" s="66"/>
-      <c r="AN13" s="66"/>
-      <c r="AO13" s="66"/>
-      <c r="AP13" s="66"/>
-      <c r="AQ13" s="66"/>
-      <c r="AR13" s="66"/>
-      <c r="AS13" s="66"/>
-      <c r="AT13" s="66"/>
-      <c r="AU13" s="66"/>
-      <c r="AV13" s="66"/>
-      <c r="AW13" s="66"/>
-      <c r="AX13" s="66"/>
-      <c r="AY13" s="66"/>
-      <c r="AZ13" s="66"/>
-      <c r="BA13" s="66"/>
-      <c r="BB13" s="66"/>
-      <c r="BC13" s="66"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
+      <c r="AH13" s="50"/>
+      <c r="AI13" s="50"/>
+      <c r="AJ13" s="50"/>
+      <c r="AK13" s="50"/>
+      <c r="AL13" s="50"/>
+      <c r="AM13" s="50"/>
+      <c r="AN13" s="50"/>
+      <c r="AO13" s="50"/>
+      <c r="AP13" s="50"/>
+      <c r="AQ13" s="50"/>
+      <c r="AR13" s="50"/>
+      <c r="AS13" s="50"/>
+      <c r="AT13" s="50"/>
+      <c r="AU13" s="50"/>
+      <c r="AV13" s="50"/>
+      <c r="AW13" s="50"/>
+      <c r="AX13" s="50"/>
+      <c r="AY13" s="50"/>
+      <c r="AZ13" s="50"/>
+      <c r="BA13" s="50"/>
+      <c r="BB13" s="50"/>
+      <c r="BC13" s="50"/>
       <c r="BD13" s="3"/>
       <c r="BE13" s="3"/>
       <c r="CP13" s="3"/>
@@ -20396,71 +20394,71 @@
       <c r="HJ13" s="3"/>
     </row>
     <row r="14" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="52" t="s">
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63" t="s">
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="63"/>
-      <c r="W14" s="64" t="s">
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="64"/>
-      <c r="AC14" s="64"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="65" t="s">
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
+      <c r="AD14" s="52"/>
+      <c r="AE14" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="66"/>
-      <c r="AL14" s="66"/>
-      <c r="AM14" s="66"/>
-      <c r="AN14" s="66"/>
-      <c r="AO14" s="66"/>
-      <c r="AP14" s="66"/>
-      <c r="AQ14" s="66"/>
-      <c r="AR14" s="66"/>
-      <c r="AS14" s="66"/>
-      <c r="AT14" s="66"/>
-      <c r="AU14" s="66"/>
-      <c r="AV14" s="66"/>
-      <c r="AW14" s="66"/>
-      <c r="AX14" s="66"/>
-      <c r="AY14" s="66"/>
-      <c r="AZ14" s="66"/>
-      <c r="BA14" s="66"/>
-      <c r="BB14" s="66"/>
-      <c r="BC14" s="66"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
+      <c r="AH14" s="50"/>
+      <c r="AI14" s="50"/>
+      <c r="AJ14" s="50"/>
+      <c r="AK14" s="50"/>
+      <c r="AL14" s="50"/>
+      <c r="AM14" s="50"/>
+      <c r="AN14" s="50"/>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="50"/>
+      <c r="AQ14" s="50"/>
+      <c r="AR14" s="50"/>
+      <c r="AS14" s="50"/>
+      <c r="AT14" s="50"/>
+      <c r="AU14" s="50"/>
+      <c r="AV14" s="50"/>
+      <c r="AW14" s="50"/>
+      <c r="AX14" s="50"/>
+      <c r="AY14" s="50"/>
+      <c r="AZ14" s="50"/>
+      <c r="BA14" s="50"/>
+      <c r="BB14" s="50"/>
+      <c r="BC14" s="50"/>
       <c r="BD14" s="3"/>
       <c r="BE14" s="3"/>
       <c r="CP14" s="3"/>
@@ -20590,61 +20588,61 @@
       <c r="HJ14" s="3"/>
     </row>
     <row r="15" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="64"/>
-      <c r="Y15" s="64"/>
-      <c r="Z15" s="64"/>
-      <c r="AA15" s="64"/>
-      <c r="AB15" s="64"/>
-      <c r="AC15" s="64"/>
-      <c r="AD15" s="64"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="66"/>
-      <c r="AK15" s="66"/>
-      <c r="AL15" s="66"/>
-      <c r="AM15" s="66"/>
-      <c r="AN15" s="66"/>
-      <c r="AO15" s="66"/>
-      <c r="AP15" s="66"/>
-      <c r="AQ15" s="66"/>
-      <c r="AR15" s="66"/>
-      <c r="AS15" s="66"/>
-      <c r="AT15" s="66"/>
-      <c r="AU15" s="66"/>
-      <c r="AV15" s="66"/>
-      <c r="AW15" s="66"/>
-      <c r="AX15" s="66"/>
-      <c r="AY15" s="66"/>
-      <c r="AZ15" s="66"/>
-      <c r="BA15" s="66"/>
-      <c r="BB15" s="66"/>
-      <c r="BC15" s="66"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="52"/>
+      <c r="AD15" s="52"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="50"/>
+      <c r="AI15" s="50"/>
+      <c r="AJ15" s="50"/>
+      <c r="AK15" s="50"/>
+      <c r="AL15" s="50"/>
+      <c r="AM15" s="50"/>
+      <c r="AN15" s="50"/>
+      <c r="AO15" s="50"/>
+      <c r="AP15" s="50"/>
+      <c r="AQ15" s="50"/>
+      <c r="AR15" s="50"/>
+      <c r="AS15" s="50"/>
+      <c r="AT15" s="50"/>
+      <c r="AU15" s="50"/>
+      <c r="AV15" s="50"/>
+      <c r="AW15" s="50"/>
+      <c r="AX15" s="50"/>
+      <c r="AY15" s="50"/>
+      <c r="AZ15" s="50"/>
+      <c r="BA15" s="50"/>
+      <c r="BB15" s="50"/>
+      <c r="BC15" s="50"/>
       <c r="BD15" s="3"/>
       <c r="BE15" s="3"/>
       <c r="CP15" s="3"/>
@@ -20958,69 +20956,69 @@
       <c r="HJ16" s="3"/>
     </row>
     <row r="17" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="46" t="s">
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="45" t="s">
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="45"/>
-      <c r="AB17" s="45"/>
-      <c r="AC17" s="46" t="s">
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="AD17" s="46"/>
-      <c r="AE17" s="46"/>
-      <c r="AF17" s="46"/>
-      <c r="AG17" s="46"/>
-      <c r="AH17" s="46"/>
-      <c r="AI17" s="46"/>
-      <c r="AJ17" s="46"/>
-      <c r="AK17" s="46"/>
-      <c r="AL17" s="46"/>
-      <c r="AM17" s="46"/>
-      <c r="AN17" s="46"/>
-      <c r="AO17" s="46"/>
-      <c r="AP17" s="46"/>
-      <c r="AQ17" s="46"/>
-      <c r="AR17" s="46"/>
-      <c r="AS17" s="46"/>
-      <c r="AT17" s="46"/>
-      <c r="AU17" s="46"/>
-      <c r="AV17" s="46"/>
-      <c r="AW17" s="46"/>
-      <c r="AX17" s="46"/>
-      <c r="AY17" s="46"/>
-      <c r="AZ17" s="46"/>
-      <c r="BA17" s="46"/>
-      <c r="BB17" s="46"/>
-      <c r="BC17" s="46"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="39"/>
+      <c r="AF17" s="39"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="39"/>
+      <c r="AJ17" s="39"/>
+      <c r="AK17" s="39"/>
+      <c r="AL17" s="39"/>
+      <c r="AM17" s="39"/>
+      <c r="AN17" s="39"/>
+      <c r="AO17" s="39"/>
+      <c r="AP17" s="39"/>
+      <c r="AQ17" s="39"/>
+      <c r="AR17" s="39"/>
+      <c r="AS17" s="39"/>
+      <c r="AT17" s="39"/>
+      <c r="AU17" s="39"/>
+      <c r="AV17" s="39"/>
+      <c r="AW17" s="39"/>
+      <c r="AX17" s="39"/>
+      <c r="AY17" s="39"/>
+      <c r="AZ17" s="39"/>
+      <c r="BA17" s="39"/>
+      <c r="BB17" s="39"/>
+      <c r="BC17" s="39"/>
       <c r="BD17" s="3"/>
       <c r="BE17" s="3"/>
       <c r="CP17" s="3"/>
@@ -21150,61 +21148,61 @@
       <c r="HJ17" s="3"/>
     </row>
     <row r="18" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="45"/>
-      <c r="AB18" s="45"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="46"/>
-      <c r="AI18" s="46"/>
-      <c r="AJ18" s="46"/>
-      <c r="AK18" s="46"/>
-      <c r="AL18" s="46"/>
-      <c r="AM18" s="46"/>
-      <c r="AN18" s="46"/>
-      <c r="AO18" s="46"/>
-      <c r="AP18" s="46"/>
-      <c r="AQ18" s="46"/>
-      <c r="AR18" s="46"/>
-      <c r="AS18" s="46"/>
-      <c r="AT18" s="46"/>
-      <c r="AU18" s="46"/>
-      <c r="AV18" s="46"/>
-      <c r="AW18" s="46"/>
-      <c r="AX18" s="46"/>
-      <c r="AY18" s="46"/>
-      <c r="AZ18" s="46"/>
-      <c r="BA18" s="46"/>
-      <c r="BB18" s="46"/>
-      <c r="BC18" s="46"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="39"/>
+      <c r="AJ18" s="39"/>
+      <c r="AK18" s="39"/>
+      <c r="AL18" s="39"/>
+      <c r="AM18" s="39"/>
+      <c r="AN18" s="39"/>
+      <c r="AO18" s="39"/>
+      <c r="AP18" s="39"/>
+      <c r="AQ18" s="39"/>
+      <c r="AR18" s="39"/>
+      <c r="AS18" s="39"/>
+      <c r="AT18" s="39"/>
+      <c r="AU18" s="39"/>
+      <c r="AV18" s="39"/>
+      <c r="AW18" s="39"/>
+      <c r="AX18" s="39"/>
+      <c r="AY18" s="39"/>
+      <c r="AZ18" s="39"/>
+      <c r="BA18" s="39"/>
+      <c r="BB18" s="39"/>
+      <c r="BC18" s="39"/>
       <c r="BD18" s="3"/>
       <c r="BE18" s="3"/>
       <c r="CP18" s="3"/>
@@ -21518,71 +21516,71 @@
       <c r="HJ19" s="3"/>
     </row>
     <row r="20" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45" t="s">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45" t="s">
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45" t="s">
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="45" t="s">
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="45"/>
-      <c r="AM20" s="45"/>
-      <c r="AN20" s="45"/>
-      <c r="AO20" s="45"/>
-      <c r="AP20" s="45"/>
-      <c r="AQ20" s="45"/>
-      <c r="AR20" s="45"/>
-      <c r="AS20" s="45"/>
-      <c r="AT20" s="45"/>
-      <c r="AU20" s="45"/>
-      <c r="AV20" s="45"/>
-      <c r="AW20" s="45"/>
-      <c r="AX20" s="45"/>
-      <c r="AY20" s="45"/>
-      <c r="AZ20" s="45"/>
-      <c r="BA20" s="45"/>
-      <c r="BB20" s="45"/>
-      <c r="BC20" s="45"/>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="38"/>
+      <c r="AI20" s="38"/>
+      <c r="AJ20" s="38"/>
+      <c r="AK20" s="38"/>
+      <c r="AL20" s="38"/>
+      <c r="AM20" s="38"/>
+      <c r="AN20" s="38"/>
+      <c r="AO20" s="38"/>
+      <c r="AP20" s="38"/>
+      <c r="AQ20" s="38"/>
+      <c r="AR20" s="38"/>
+      <c r="AS20" s="38"/>
+      <c r="AT20" s="38"/>
+      <c r="AU20" s="38"/>
+      <c r="AV20" s="38"/>
+      <c r="AW20" s="38"/>
+      <c r="AX20" s="38"/>
+      <c r="AY20" s="38"/>
+      <c r="AZ20" s="38"/>
+      <c r="BA20" s="38"/>
+      <c r="BB20" s="38"/>
+      <c r="BC20" s="38"/>
       <c r="BD20" s="3"/>
       <c r="BE20" s="3"/>
       <c r="CP20" s="3"/>
@@ -21712,61 +21710,61 @@
       <c r="HJ20" s="3"/>
     </row>
     <row r="21" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="45"/>
-      <c r="AI21" s="45"/>
-      <c r="AJ21" s="45"/>
-      <c r="AK21" s="45"/>
-      <c r="AL21" s="45"/>
-      <c r="AM21" s="45"/>
-      <c r="AN21" s="45"/>
-      <c r="AO21" s="45"/>
-      <c r="AP21" s="45"/>
-      <c r="AQ21" s="45"/>
-      <c r="AR21" s="45"/>
-      <c r="AS21" s="45"/>
-      <c r="AT21" s="45"/>
-      <c r="AU21" s="45"/>
-      <c r="AV21" s="45"/>
-      <c r="AW21" s="45"/>
-      <c r="AX21" s="45"/>
-      <c r="AY21" s="45"/>
-      <c r="AZ21" s="45"/>
-      <c r="BA21" s="45"/>
-      <c r="BB21" s="45"/>
-      <c r="BC21" s="45"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="38"/>
+      <c r="AJ21" s="38"/>
+      <c r="AK21" s="38"/>
+      <c r="AL21" s="38"/>
+      <c r="AM21" s="38"/>
+      <c r="AN21" s="38"/>
+      <c r="AO21" s="38"/>
+      <c r="AP21" s="38"/>
+      <c r="AQ21" s="38"/>
+      <c r="AR21" s="38"/>
+      <c r="AS21" s="38"/>
+      <c r="AT21" s="38"/>
+      <c r="AU21" s="38"/>
+      <c r="AV21" s="38"/>
+      <c r="AW21" s="38"/>
+      <c r="AX21" s="38"/>
+      <c r="AY21" s="38"/>
+      <c r="AZ21" s="38"/>
+      <c r="BA21" s="38"/>
+      <c r="BB21" s="38"/>
+      <c r="BC21" s="38"/>
       <c r="BD21" s="3"/>
       <c r="BE21" s="3"/>
       <c r="CP21" s="3"/>
@@ -21896,71 +21894,71 @@
       <c r="HJ21" s="3"/>
     </row>
     <row r="22" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="52" t="s">
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="52" t="s">
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="R22" s="63"/>
-      <c r="S22" s="63"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="63"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="64" t="s">
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="X22" s="64"/>
-      <c r="Y22" s="64"/>
-      <c r="Z22" s="64"/>
-      <c r="AA22" s="64"/>
-      <c r="AB22" s="64"/>
-      <c r="AC22" s="64"/>
-      <c r="AD22" s="64"/>
-      <c r="AE22" s="65" t="s">
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="52"/>
+      <c r="AD22" s="52"/>
+      <c r="AE22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="AF22" s="66"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="66"/>
-      <c r="AI22" s="66"/>
-      <c r="AJ22" s="66"/>
-      <c r="AK22" s="66"/>
-      <c r="AL22" s="66"/>
-      <c r="AM22" s="66"/>
-      <c r="AN22" s="66"/>
-      <c r="AO22" s="66"/>
-      <c r="AP22" s="66"/>
-      <c r="AQ22" s="66"/>
-      <c r="AR22" s="66"/>
-      <c r="AS22" s="66"/>
-      <c r="AT22" s="66"/>
-      <c r="AU22" s="66"/>
-      <c r="AV22" s="66"/>
-      <c r="AW22" s="66"/>
-      <c r="AX22" s="66"/>
-      <c r="AY22" s="66"/>
-      <c r="AZ22" s="66"/>
-      <c r="BA22" s="66"/>
-      <c r="BB22" s="66"/>
-      <c r="BC22" s="66"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="50"/>
+      <c r="AH22" s="50"/>
+      <c r="AI22" s="50"/>
+      <c r="AJ22" s="50"/>
+      <c r="AK22" s="50"/>
+      <c r="AL22" s="50"/>
+      <c r="AM22" s="50"/>
+      <c r="AN22" s="50"/>
+      <c r="AO22" s="50"/>
+      <c r="AP22" s="50"/>
+      <c r="AQ22" s="50"/>
+      <c r="AR22" s="50"/>
+      <c r="AS22" s="50"/>
+      <c r="AT22" s="50"/>
+      <c r="AU22" s="50"/>
+      <c r="AV22" s="50"/>
+      <c r="AW22" s="50"/>
+      <c r="AX22" s="50"/>
+      <c r="AY22" s="50"/>
+      <c r="AZ22" s="50"/>
+      <c r="BA22" s="50"/>
+      <c r="BB22" s="50"/>
+      <c r="BC22" s="50"/>
       <c r="BD22" s="3"/>
       <c r="BE22" s="3"/>
       <c r="CP22" s="3"/>
@@ -22090,71 +22088,71 @@
       <c r="HJ22" s="3"/>
     </row>
     <row r="23" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="52" t="s">
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="52" t="s">
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="R23" s="63"/>
-      <c r="S23" s="63"/>
-      <c r="T23" s="63"/>
-      <c r="U23" s="63"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="64" t="s">
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="X23" s="64"/>
-      <c r="Y23" s="64"/>
-      <c r="Z23" s="64"/>
-      <c r="AA23" s="64"/>
-      <c r="AB23" s="64"/>
-      <c r="AC23" s="64"/>
-      <c r="AD23" s="64"/>
-      <c r="AE23" s="65" t="s">
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="52"/>
+      <c r="AD23" s="52"/>
+      <c r="AE23" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="AF23" s="66"/>
-      <c r="AG23" s="66"/>
-      <c r="AH23" s="66"/>
-      <c r="AI23" s="66"/>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="66"/>
-      <c r="AL23" s="66"/>
-      <c r="AM23" s="66"/>
-      <c r="AN23" s="66"/>
-      <c r="AO23" s="66"/>
-      <c r="AP23" s="66"/>
-      <c r="AQ23" s="66"/>
-      <c r="AR23" s="66"/>
-      <c r="AS23" s="66"/>
-      <c r="AT23" s="66"/>
-      <c r="AU23" s="66"/>
-      <c r="AV23" s="66"/>
-      <c r="AW23" s="66"/>
-      <c r="AX23" s="66"/>
-      <c r="AY23" s="66"/>
-      <c r="AZ23" s="66"/>
-      <c r="BA23" s="66"/>
-      <c r="BB23" s="66"/>
-      <c r="BC23" s="66"/>
+      <c r="AF23" s="50"/>
+      <c r="AG23" s="50"/>
+      <c r="AH23" s="50"/>
+      <c r="AI23" s="50"/>
+      <c r="AJ23" s="50"/>
+      <c r="AK23" s="50"/>
+      <c r="AL23" s="50"/>
+      <c r="AM23" s="50"/>
+      <c r="AN23" s="50"/>
+      <c r="AO23" s="50"/>
+      <c r="AP23" s="50"/>
+      <c r="AQ23" s="50"/>
+      <c r="AR23" s="50"/>
+      <c r="AS23" s="50"/>
+      <c r="AT23" s="50"/>
+      <c r="AU23" s="50"/>
+      <c r="AV23" s="50"/>
+      <c r="AW23" s="50"/>
+      <c r="AX23" s="50"/>
+      <c r="AY23" s="50"/>
+      <c r="AZ23" s="50"/>
+      <c r="BA23" s="50"/>
+      <c r="BB23" s="50"/>
+      <c r="BC23" s="50"/>
       <c r="BD23" s="3"/>
       <c r="BE23" s="3"/>
       <c r="CP23" s="3"/>
@@ -22284,71 +22282,71 @@
       <c r="HJ23" s="3"/>
     </row>
     <row r="24" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="52" t="s">
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="52" t="s">
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="R24" s="63"/>
-      <c r="S24" s="63"/>
-      <c r="T24" s="63"/>
-      <c r="U24" s="63"/>
-      <c r="V24" s="63"/>
-      <c r="W24" s="64" t="s">
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="X24" s="64"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="64"/>
-      <c r="AA24" s="64"/>
-      <c r="AB24" s="64"/>
-      <c r="AC24" s="64"/>
-      <c r="AD24" s="64"/>
-      <c r="AE24" s="65" t="s">
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="52"/>
+      <c r="AB24" s="52"/>
+      <c r="AC24" s="52"/>
+      <c r="AD24" s="52"/>
+      <c r="AE24" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="AF24" s="66"/>
-      <c r="AG24" s="66"/>
-      <c r="AH24" s="66"/>
-      <c r="AI24" s="66"/>
-      <c r="AJ24" s="66"/>
-      <c r="AK24" s="66"/>
-      <c r="AL24" s="66"/>
-      <c r="AM24" s="66"/>
-      <c r="AN24" s="66"/>
-      <c r="AO24" s="66"/>
-      <c r="AP24" s="66"/>
-      <c r="AQ24" s="66"/>
-      <c r="AR24" s="66"/>
-      <c r="AS24" s="66"/>
-      <c r="AT24" s="66"/>
-      <c r="AU24" s="66"/>
-      <c r="AV24" s="66"/>
-      <c r="AW24" s="66"/>
-      <c r="AX24" s="66"/>
-      <c r="AY24" s="66"/>
-      <c r="AZ24" s="66"/>
-      <c r="BA24" s="66"/>
-      <c r="BB24" s="66"/>
-      <c r="BC24" s="66"/>
+      <c r="AF24" s="50"/>
+      <c r="AG24" s="50"/>
+      <c r="AH24" s="50"/>
+      <c r="AI24" s="50"/>
+      <c r="AJ24" s="50"/>
+      <c r="AK24" s="50"/>
+      <c r="AL24" s="50"/>
+      <c r="AM24" s="50"/>
+      <c r="AN24" s="50"/>
+      <c r="AO24" s="50"/>
+      <c r="AP24" s="50"/>
+      <c r="AQ24" s="50"/>
+      <c r="AR24" s="50"/>
+      <c r="AS24" s="50"/>
+      <c r="AT24" s="50"/>
+      <c r="AU24" s="50"/>
+      <c r="AV24" s="50"/>
+      <c r="AW24" s="50"/>
+      <c r="AX24" s="50"/>
+      <c r="AY24" s="50"/>
+      <c r="AZ24" s="50"/>
+      <c r="BA24" s="50"/>
+      <c r="BB24" s="50"/>
+      <c r="BC24" s="50"/>
       <c r="BD24" s="3"/>
       <c r="BE24" s="3"/>
       <c r="CP24" s="3"/>
@@ -22478,71 +22476,71 @@
       <c r="HJ24" s="3"/>
     </row>
     <row r="25" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="52" t="s">
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="52" t="s">
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="R25" s="63"/>
-      <c r="S25" s="63"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="63"/>
-      <c r="V25" s="63"/>
-      <c r="W25" s="64" t="s">
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="X25" s="64"/>
-      <c r="Y25" s="64"/>
-      <c r="Z25" s="64"/>
-      <c r="AA25" s="64"/>
-      <c r="AB25" s="64"/>
-      <c r="AC25" s="64"/>
-      <c r="AD25" s="64"/>
-      <c r="AE25" s="65" t="s">
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="AF25" s="66"/>
-      <c r="AG25" s="66"/>
-      <c r="AH25" s="66"/>
-      <c r="AI25" s="66"/>
-      <c r="AJ25" s="66"/>
-      <c r="AK25" s="66"/>
-      <c r="AL25" s="66"/>
-      <c r="AM25" s="66"/>
-      <c r="AN25" s="66"/>
-      <c r="AO25" s="66"/>
-      <c r="AP25" s="66"/>
-      <c r="AQ25" s="66"/>
-      <c r="AR25" s="66"/>
-      <c r="AS25" s="66"/>
-      <c r="AT25" s="66"/>
-      <c r="AU25" s="66"/>
-      <c r="AV25" s="66"/>
-      <c r="AW25" s="66"/>
-      <c r="AX25" s="66"/>
-      <c r="AY25" s="66"/>
-      <c r="AZ25" s="66"/>
-      <c r="BA25" s="66"/>
-      <c r="BB25" s="66"/>
-      <c r="BC25" s="66"/>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="50"/>
+      <c r="AH25" s="50"/>
+      <c r="AI25" s="50"/>
+      <c r="AJ25" s="50"/>
+      <c r="AK25" s="50"/>
+      <c r="AL25" s="50"/>
+      <c r="AM25" s="50"/>
+      <c r="AN25" s="50"/>
+      <c r="AO25" s="50"/>
+      <c r="AP25" s="50"/>
+      <c r="AQ25" s="50"/>
+      <c r="AR25" s="50"/>
+      <c r="AS25" s="50"/>
+      <c r="AT25" s="50"/>
+      <c r="AU25" s="50"/>
+      <c r="AV25" s="50"/>
+      <c r="AW25" s="50"/>
+      <c r="AX25" s="50"/>
+      <c r="AY25" s="50"/>
+      <c r="AZ25" s="50"/>
+      <c r="BA25" s="50"/>
+      <c r="BB25" s="50"/>
+      <c r="BC25" s="50"/>
       <c r="BD25" s="3"/>
       <c r="BE25" s="3"/>
       <c r="CP25" s="3"/>
@@ -22672,71 +22670,71 @@
       <c r="HJ25" s="3"/>
     </row>
     <row r="26" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="52" t="s">
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63" t="s">
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="R26" s="63"/>
-      <c r="S26" s="63"/>
-      <c r="T26" s="63"/>
-      <c r="U26" s="63"/>
-      <c r="V26" s="63"/>
-      <c r="W26" s="64" t="s">
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="X26" s="64"/>
-      <c r="Y26" s="64"/>
-      <c r="Z26" s="64"/>
-      <c r="AA26" s="64"/>
-      <c r="AB26" s="64"/>
-      <c r="AC26" s="64"/>
-      <c r="AD26" s="64"/>
-      <c r="AE26" s="65" t="s">
+      <c r="X26" s="52"/>
+      <c r="Y26" s="52"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="52"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="52"/>
+      <c r="AD26" s="52"/>
+      <c r="AE26" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="AF26" s="66"/>
-      <c r="AG26" s="66"/>
-      <c r="AH26" s="66"/>
-      <c r="AI26" s="66"/>
-      <c r="AJ26" s="66"/>
-      <c r="AK26" s="66"/>
-      <c r="AL26" s="66"/>
-      <c r="AM26" s="66"/>
-      <c r="AN26" s="66"/>
-      <c r="AO26" s="66"/>
-      <c r="AP26" s="66"/>
-      <c r="AQ26" s="66"/>
-      <c r="AR26" s="66"/>
-      <c r="AS26" s="66"/>
-      <c r="AT26" s="66"/>
-      <c r="AU26" s="66"/>
-      <c r="AV26" s="66"/>
-      <c r="AW26" s="66"/>
-      <c r="AX26" s="66"/>
-      <c r="AY26" s="66"/>
-      <c r="AZ26" s="66"/>
-      <c r="BA26" s="66"/>
-      <c r="BB26" s="66"/>
-      <c r="BC26" s="66"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="50"/>
+      <c r="AK26" s="50"/>
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="50"/>
+      <c r="AN26" s="50"/>
+      <c r="AO26" s="50"/>
+      <c r="AP26" s="50"/>
+      <c r="AQ26" s="50"/>
+      <c r="AR26" s="50"/>
+      <c r="AS26" s="50"/>
+      <c r="AT26" s="50"/>
+      <c r="AU26" s="50"/>
+      <c r="AV26" s="50"/>
+      <c r="AW26" s="50"/>
+      <c r="AX26" s="50"/>
+      <c r="AY26" s="50"/>
+      <c r="AZ26" s="50"/>
+      <c r="BA26" s="50"/>
+      <c r="BB26" s="50"/>
+      <c r="BC26" s="50"/>
       <c r="BD26" s="3"/>
       <c r="BE26" s="3"/>
       <c r="CP26" s="3"/>
@@ -22865,266 +22863,266 @@
       <c r="HI26" s="3"/>
       <c r="HJ26" s="3"/>
     </row>
-    <row r="27" spans="1:218" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="73" t="s">
+    <row r="27" spans="1:218" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="73" t="s">
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="73" t="s">
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="R27" s="74"/>
-      <c r="S27" s="74"/>
-      <c r="T27" s="74"/>
-      <c r="U27" s="74"/>
-      <c r="V27" s="75"/>
-      <c r="W27" s="70" t="s">
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="X27" s="71"/>
-      <c r="Y27" s="71"/>
-      <c r="Z27" s="71"/>
-      <c r="AA27" s="71"/>
-      <c r="AB27" s="71"/>
-      <c r="AC27" s="71"/>
-      <c r="AD27" s="72"/>
-      <c r="AE27" s="67" t="s">
+      <c r="X27" s="69"/>
+      <c r="Y27" s="69"/>
+      <c r="Z27" s="69"/>
+      <c r="AA27" s="69"/>
+      <c r="AB27" s="69"/>
+      <c r="AC27" s="69"/>
+      <c r="AD27" s="70"/>
+      <c r="AE27" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="AF27" s="68"/>
-      <c r="AG27" s="68"/>
-      <c r="AH27" s="68"/>
-      <c r="AI27" s="68"/>
-      <c r="AJ27" s="68"/>
-      <c r="AK27" s="68"/>
-      <c r="AL27" s="68"/>
-      <c r="AM27" s="68"/>
-      <c r="AN27" s="68"/>
-      <c r="AO27" s="68"/>
-      <c r="AP27" s="68"/>
-      <c r="AQ27" s="68"/>
-      <c r="AR27" s="68"/>
-      <c r="AS27" s="68"/>
-      <c r="AT27" s="68"/>
-      <c r="AU27" s="68"/>
-      <c r="AV27" s="68"/>
-      <c r="AW27" s="68"/>
-      <c r="AX27" s="68"/>
-      <c r="AY27" s="68"/>
-      <c r="AZ27" s="68"/>
-      <c r="BA27" s="68"/>
-      <c r="BB27" s="68"/>
-      <c r="BC27" s="69"/>
-      <c r="BD27" s="35"/>
-      <c r="BE27" s="35"/>
-      <c r="CP27" s="35"/>
-      <c r="CQ27" s="35"/>
-      <c r="CR27" s="35"/>
-      <c r="CS27" s="35"/>
-      <c r="CT27" s="35"/>
-      <c r="CU27" s="35"/>
-      <c r="CV27" s="35"/>
-      <c r="CW27" s="35"/>
-      <c r="CX27" s="35"/>
-      <c r="CY27" s="35"/>
-      <c r="CZ27" s="35"/>
-      <c r="DA27" s="35"/>
-      <c r="DB27" s="35"/>
-      <c r="DC27" s="35"/>
-      <c r="DD27" s="35"/>
-      <c r="DE27" s="35"/>
-      <c r="DF27" s="35"/>
-      <c r="DG27" s="35"/>
-      <c r="DH27" s="35"/>
-      <c r="DI27" s="35"/>
-      <c r="DJ27" s="35"/>
-      <c r="DK27" s="35"/>
-      <c r="DL27" s="35"/>
-      <c r="DM27" s="35"/>
-      <c r="DN27" s="35"/>
-      <c r="DO27" s="35"/>
-      <c r="DP27" s="35"/>
-      <c r="DQ27" s="35"/>
-      <c r="DR27" s="35"/>
-      <c r="DS27" s="35"/>
-      <c r="DT27" s="35"/>
-      <c r="DU27" s="35"/>
-      <c r="DV27" s="35"/>
-      <c r="DW27" s="35"/>
-      <c r="DX27" s="35"/>
-      <c r="DY27" s="35"/>
-      <c r="DZ27" s="35"/>
-      <c r="EA27" s="35"/>
-      <c r="EB27" s="35"/>
-      <c r="EC27" s="35"/>
-      <c r="ED27" s="35"/>
-      <c r="EE27" s="35"/>
-      <c r="EF27" s="35"/>
-      <c r="EG27" s="35"/>
-      <c r="EH27" s="35"/>
-      <c r="EI27" s="35"/>
-      <c r="EJ27" s="35"/>
-      <c r="EK27" s="35"/>
-      <c r="EL27" s="35"/>
-      <c r="EM27" s="35"/>
-      <c r="EN27" s="35"/>
-      <c r="EO27" s="35"/>
-      <c r="EP27" s="35"/>
-      <c r="EQ27" s="35"/>
-      <c r="ER27" s="35"/>
-      <c r="ES27" s="35"/>
-      <c r="ET27" s="35"/>
-      <c r="EU27" s="35"/>
-      <c r="EV27" s="35"/>
-      <c r="EW27" s="35"/>
-      <c r="EX27" s="35"/>
-      <c r="EY27" s="35"/>
-      <c r="EZ27" s="35"/>
-      <c r="FA27" s="35"/>
-      <c r="FB27" s="35"/>
-      <c r="FC27" s="35"/>
-      <c r="FD27" s="35"/>
-      <c r="FE27" s="35"/>
-      <c r="FF27" s="35"/>
-      <c r="FG27" s="35"/>
-      <c r="FH27" s="35"/>
-      <c r="FI27" s="35"/>
-      <c r="FJ27" s="35"/>
-      <c r="FK27" s="35"/>
-      <c r="FL27" s="35"/>
-      <c r="FM27" s="35"/>
-      <c r="FN27" s="35"/>
-      <c r="FO27" s="35"/>
-      <c r="FP27" s="35"/>
-      <c r="FQ27" s="35"/>
-      <c r="FR27" s="35"/>
-      <c r="FS27" s="35"/>
-      <c r="FT27" s="35"/>
-      <c r="FU27" s="35"/>
-      <c r="FV27" s="35"/>
-      <c r="FW27" s="35"/>
-      <c r="FX27" s="35"/>
-      <c r="FY27" s="35"/>
-      <c r="FZ27" s="35"/>
-      <c r="GA27" s="35"/>
-      <c r="GB27" s="35"/>
-      <c r="GC27" s="35"/>
-      <c r="GD27" s="35"/>
-      <c r="GE27" s="35"/>
-      <c r="GF27" s="35"/>
-      <c r="GG27" s="35"/>
-      <c r="GH27" s="35"/>
-      <c r="GI27" s="35"/>
-      <c r="GJ27" s="35"/>
-      <c r="GK27" s="35"/>
-      <c r="GL27" s="35"/>
-      <c r="GM27" s="35"/>
-      <c r="GN27" s="35"/>
-      <c r="GO27" s="35"/>
-      <c r="GP27" s="35"/>
-      <c r="GQ27" s="35"/>
-      <c r="GR27" s="35"/>
-      <c r="GS27" s="35"/>
-      <c r="GT27" s="35"/>
-      <c r="GU27" s="35"/>
-      <c r="GV27" s="35"/>
-      <c r="GW27" s="35"/>
-      <c r="GX27" s="35"/>
-      <c r="GY27" s="35"/>
-      <c r="GZ27" s="35"/>
-      <c r="HA27" s="35"/>
-      <c r="HB27" s="35"/>
-      <c r="HC27" s="35"/>
-      <c r="HD27" s="35"/>
-      <c r="HE27" s="35"/>
-      <c r="HF27" s="35"/>
-      <c r="HG27" s="35"/>
-      <c r="HH27" s="35"/>
-      <c r="HI27" s="35"/>
-      <c r="HJ27" s="35"/>
+      <c r="AF27" s="72"/>
+      <c r="AG27" s="72"/>
+      <c r="AH27" s="72"/>
+      <c r="AI27" s="72"/>
+      <c r="AJ27" s="72"/>
+      <c r="AK27" s="72"/>
+      <c r="AL27" s="72"/>
+      <c r="AM27" s="72"/>
+      <c r="AN27" s="72"/>
+      <c r="AO27" s="72"/>
+      <c r="AP27" s="72"/>
+      <c r="AQ27" s="72"/>
+      <c r="AR27" s="72"/>
+      <c r="AS27" s="72"/>
+      <c r="AT27" s="72"/>
+      <c r="AU27" s="72"/>
+      <c r="AV27" s="72"/>
+      <c r="AW27" s="72"/>
+      <c r="AX27" s="72"/>
+      <c r="AY27" s="72"/>
+      <c r="AZ27" s="72"/>
+      <c r="BA27" s="72"/>
+      <c r="BB27" s="72"/>
+      <c r="BC27" s="73"/>
+      <c r="BD27" s="74"/>
+      <c r="BE27" s="74"/>
+      <c r="CP27" s="74"/>
+      <c r="CQ27" s="74"/>
+      <c r="CR27" s="74"/>
+      <c r="CS27" s="74"/>
+      <c r="CT27" s="74"/>
+      <c r="CU27" s="74"/>
+      <c r="CV27" s="74"/>
+      <c r="CW27" s="74"/>
+      <c r="CX27" s="74"/>
+      <c r="CY27" s="74"/>
+      <c r="CZ27" s="74"/>
+      <c r="DA27" s="74"/>
+      <c r="DB27" s="74"/>
+      <c r="DC27" s="74"/>
+      <c r="DD27" s="74"/>
+      <c r="DE27" s="74"/>
+      <c r="DF27" s="74"/>
+      <c r="DG27" s="74"/>
+      <c r="DH27" s="74"/>
+      <c r="DI27" s="74"/>
+      <c r="DJ27" s="74"/>
+      <c r="DK27" s="74"/>
+      <c r="DL27" s="74"/>
+      <c r="DM27" s="74"/>
+      <c r="DN27" s="74"/>
+      <c r="DO27" s="74"/>
+      <c r="DP27" s="74"/>
+      <c r="DQ27" s="74"/>
+      <c r="DR27" s="74"/>
+      <c r="DS27" s="74"/>
+      <c r="DT27" s="74"/>
+      <c r="DU27" s="74"/>
+      <c r="DV27" s="74"/>
+      <c r="DW27" s="74"/>
+      <c r="DX27" s="74"/>
+      <c r="DY27" s="74"/>
+      <c r="DZ27" s="74"/>
+      <c r="EA27" s="74"/>
+      <c r="EB27" s="74"/>
+      <c r="EC27" s="74"/>
+      <c r="ED27" s="74"/>
+      <c r="EE27" s="74"/>
+      <c r="EF27" s="74"/>
+      <c r="EG27" s="74"/>
+      <c r="EH27" s="74"/>
+      <c r="EI27" s="74"/>
+      <c r="EJ27" s="74"/>
+      <c r="EK27" s="74"/>
+      <c r="EL27" s="74"/>
+      <c r="EM27" s="74"/>
+      <c r="EN27" s="74"/>
+      <c r="EO27" s="74"/>
+      <c r="EP27" s="74"/>
+      <c r="EQ27" s="74"/>
+      <c r="ER27" s="74"/>
+      <c r="ES27" s="74"/>
+      <c r="ET27" s="74"/>
+      <c r="EU27" s="74"/>
+      <c r="EV27" s="74"/>
+      <c r="EW27" s="74"/>
+      <c r="EX27" s="74"/>
+      <c r="EY27" s="74"/>
+      <c r="EZ27" s="74"/>
+      <c r="FA27" s="74"/>
+      <c r="FB27" s="74"/>
+      <c r="FC27" s="74"/>
+      <c r="FD27" s="74"/>
+      <c r="FE27" s="74"/>
+      <c r="FF27" s="74"/>
+      <c r="FG27" s="74"/>
+      <c r="FH27" s="74"/>
+      <c r="FI27" s="74"/>
+      <c r="FJ27" s="74"/>
+      <c r="FK27" s="74"/>
+      <c r="FL27" s="74"/>
+      <c r="FM27" s="74"/>
+      <c r="FN27" s="74"/>
+      <c r="FO27" s="74"/>
+      <c r="FP27" s="74"/>
+      <c r="FQ27" s="74"/>
+      <c r="FR27" s="74"/>
+      <c r="FS27" s="74"/>
+      <c r="FT27" s="74"/>
+      <c r="FU27" s="74"/>
+      <c r="FV27" s="74"/>
+      <c r="FW27" s="74"/>
+      <c r="FX27" s="74"/>
+      <c r="FY27" s="74"/>
+      <c r="FZ27" s="74"/>
+      <c r="GA27" s="74"/>
+      <c r="GB27" s="74"/>
+      <c r="GC27" s="74"/>
+      <c r="GD27" s="74"/>
+      <c r="GE27" s="74"/>
+      <c r="GF27" s="74"/>
+      <c r="GG27" s="74"/>
+      <c r="GH27" s="74"/>
+      <c r="GI27" s="74"/>
+      <c r="GJ27" s="74"/>
+      <c r="GK27" s="74"/>
+      <c r="GL27" s="74"/>
+      <c r="GM27" s="74"/>
+      <c r="GN27" s="74"/>
+      <c r="GO27" s="74"/>
+      <c r="GP27" s="74"/>
+      <c r="GQ27" s="74"/>
+      <c r="GR27" s="74"/>
+      <c r="GS27" s="74"/>
+      <c r="GT27" s="74"/>
+      <c r="GU27" s="74"/>
+      <c r="GV27" s="74"/>
+      <c r="GW27" s="74"/>
+      <c r="GX27" s="74"/>
+      <c r="GY27" s="74"/>
+      <c r="GZ27" s="74"/>
+      <c r="HA27" s="74"/>
+      <c r="HB27" s="74"/>
+      <c r="HC27" s="74"/>
+      <c r="HD27" s="74"/>
+      <c r="HE27" s="74"/>
+      <c r="HF27" s="74"/>
+      <c r="HG27" s="74"/>
+      <c r="HH27" s="74"/>
+      <c r="HI27" s="74"/>
+      <c r="HJ27" s="74"/>
     </row>
     <row r="28" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="52" t="s">
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63" t="s">
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="R28" s="63"/>
-      <c r="S28" s="63"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="63"/>
-      <c r="V28" s="63"/>
-      <c r="W28" s="64" t="s">
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="64"/>
-      <c r="Z28" s="64"/>
-      <c r="AA28" s="64"/>
-      <c r="AB28" s="64"/>
-      <c r="AC28" s="64"/>
-      <c r="AD28" s="64"/>
-      <c r="AE28" s="65" t="s">
+      <c r="X28" s="52"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="52"/>
+      <c r="AD28" s="52"/>
+      <c r="AE28" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="AF28" s="66"/>
-      <c r="AG28" s="66"/>
-      <c r="AH28" s="66"/>
-      <c r="AI28" s="66"/>
-      <c r="AJ28" s="66"/>
-      <c r="AK28" s="66"/>
-      <c r="AL28" s="66"/>
-      <c r="AM28" s="66"/>
-      <c r="AN28" s="66"/>
-      <c r="AO28" s="66"/>
-      <c r="AP28" s="66"/>
-      <c r="AQ28" s="66"/>
-      <c r="AR28" s="66"/>
-      <c r="AS28" s="66"/>
-      <c r="AT28" s="66"/>
-      <c r="AU28" s="66"/>
-      <c r="AV28" s="66"/>
-      <c r="AW28" s="66"/>
-      <c r="AX28" s="66"/>
-      <c r="AY28" s="66"/>
-      <c r="AZ28" s="66"/>
-      <c r="BA28" s="66"/>
-      <c r="BB28" s="66"/>
-      <c r="BC28" s="66"/>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="50"/>
+      <c r="AH28" s="50"/>
+      <c r="AI28" s="50"/>
+      <c r="AJ28" s="50"/>
+      <c r="AK28" s="50"/>
+      <c r="AL28" s="50"/>
+      <c r="AM28" s="50"/>
+      <c r="AN28" s="50"/>
+      <c r="AO28" s="50"/>
+      <c r="AP28" s="50"/>
+      <c r="AQ28" s="50"/>
+      <c r="AR28" s="50"/>
+      <c r="AS28" s="50"/>
+      <c r="AT28" s="50"/>
+      <c r="AU28" s="50"/>
+      <c r="AV28" s="50"/>
+      <c r="AW28" s="50"/>
+      <c r="AX28" s="50"/>
+      <c r="AY28" s="50"/>
+      <c r="AZ28" s="50"/>
+      <c r="BA28" s="50"/>
+      <c r="BB28" s="50"/>
+      <c r="BC28" s="50"/>
       <c r="BD28" s="3"/>
       <c r="BE28" s="3"/>
       <c r="CP28" s="3"/>
@@ -23254,69 +23252,69 @@
       <c r="HJ28" s="3"/>
     </row>
     <row r="29" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="52" t="s">
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="63" t="s">
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="R29" s="63"/>
-      <c r="S29" s="63"/>
-      <c r="T29" s="63"/>
-      <c r="U29" s="63"/>
-      <c r="V29" s="63"/>
-      <c r="W29" s="53" t="s">
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="64"/>
-      <c r="Z29" s="64"/>
-      <c r="AA29" s="64"/>
-      <c r="AB29" s="64"/>
-      <c r="AC29" s="64"/>
-      <c r="AD29" s="64"/>
-      <c r="AE29" s="65"/>
-      <c r="AF29" s="66"/>
-      <c r="AG29" s="66"/>
-      <c r="AH29" s="66"/>
-      <c r="AI29" s="66"/>
-      <c r="AJ29" s="66"/>
-      <c r="AK29" s="66"/>
-      <c r="AL29" s="66"/>
-      <c r="AM29" s="66"/>
-      <c r="AN29" s="66"/>
-      <c r="AO29" s="66"/>
-      <c r="AP29" s="66"/>
-      <c r="AQ29" s="66"/>
-      <c r="AR29" s="66"/>
-      <c r="AS29" s="66"/>
-      <c r="AT29" s="66"/>
-      <c r="AU29" s="66"/>
-      <c r="AV29" s="66"/>
-      <c r="AW29" s="66"/>
-      <c r="AX29" s="66"/>
-      <c r="AY29" s="66"/>
-      <c r="AZ29" s="66"/>
-      <c r="BA29" s="66"/>
-      <c r="BB29" s="66"/>
-      <c r="BC29" s="66"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="52"/>
+      <c r="AA29" s="52"/>
+      <c r="AB29" s="52"/>
+      <c r="AC29" s="52"/>
+      <c r="AD29" s="52"/>
+      <c r="AE29" s="49"/>
+      <c r="AF29" s="50"/>
+      <c r="AG29" s="50"/>
+      <c r="AH29" s="50"/>
+      <c r="AI29" s="50"/>
+      <c r="AJ29" s="50"/>
+      <c r="AK29" s="50"/>
+      <c r="AL29" s="50"/>
+      <c r="AM29" s="50"/>
+      <c r="AN29" s="50"/>
+      <c r="AO29" s="50"/>
+      <c r="AP29" s="50"/>
+      <c r="AQ29" s="50"/>
+      <c r="AR29" s="50"/>
+      <c r="AS29" s="50"/>
+      <c r="AT29" s="50"/>
+      <c r="AU29" s="50"/>
+      <c r="AV29" s="50"/>
+      <c r="AW29" s="50"/>
+      <c r="AX29" s="50"/>
+      <c r="AY29" s="50"/>
+      <c r="AZ29" s="50"/>
+      <c r="BA29" s="50"/>
+      <c r="BB29" s="50"/>
+      <c r="BC29" s="50"/>
       <c r="BD29" s="3"/>
       <c r="BE29" s="3"/>
       <c r="CP29" s="3"/>
@@ -23630,79 +23628,79 @@
       <c r="HJ30" s="3"/>
     </row>
     <row r="31" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="48" t="s">
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="49" t="s">
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="48" t="s">
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="48"/>
-      <c r="AB31" s="49" t="s">
+      <c r="Y31" s="47"/>
+      <c r="Z31" s="47"/>
+      <c r="AA31" s="47"/>
+      <c r="AB31" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AC31" s="49"/>
-      <c r="AD31" s="49"/>
-      <c r="AE31" s="49"/>
-      <c r="AF31" s="49"/>
-      <c r="AG31" s="49"/>
-      <c r="AH31" s="49"/>
-      <c r="AI31" s="49"/>
-      <c r="AJ31" s="49"/>
-      <c r="AK31" s="48" t="s">
+      <c r="AC31" s="48"/>
+      <c r="AD31" s="48"/>
+      <c r="AE31" s="48"/>
+      <c r="AF31" s="48"/>
+      <c r="AG31" s="48"/>
+      <c r="AH31" s="48"/>
+      <c r="AI31" s="48"/>
+      <c r="AJ31" s="48"/>
+      <c r="AK31" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="AL31" s="48"/>
-      <c r="AM31" s="48"/>
-      <c r="AN31" s="49" t="s">
+      <c r="AL31" s="47"/>
+      <c r="AM31" s="47"/>
+      <c r="AN31" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="AO31" s="49"/>
-      <c r="AP31" s="49"/>
-      <c r="AQ31" s="49"/>
-      <c r="AR31" s="49"/>
-      <c r="AS31" s="49"/>
-      <c r="AT31" s="49"/>
-      <c r="AU31" s="48" t="s">
+      <c r="AO31" s="48"/>
+      <c r="AP31" s="48"/>
+      <c r="AQ31" s="48"/>
+      <c r="AR31" s="48"/>
+      <c r="AS31" s="48"/>
+      <c r="AT31" s="48"/>
+      <c r="AU31" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AV31" s="48"/>
-      <c r="AW31" s="48"/>
-      <c r="AX31" s="50" t="s">
+      <c r="AV31" s="47"/>
+      <c r="AW31" s="47"/>
+      <c r="AX31" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="AY31" s="50"/>
-      <c r="AZ31" s="50"/>
-      <c r="BA31" s="50"/>
-      <c r="BB31" s="50"/>
-      <c r="BC31" s="50"/>
+      <c r="AY31" s="36"/>
+      <c r="AZ31" s="36"/>
+      <c r="BA31" s="36"/>
+      <c r="BB31" s="36"/>
+      <c r="BC31" s="36"/>
       <c r="BD31" s="3"/>
       <c r="BE31" s="3"/>
       <c r="CP31" s="3"/>
@@ -23832,65 +23830,65 @@
       <c r="HJ31" s="3"/>
     </row>
     <row r="32" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="49"/>
-      <c r="U32" s="49"/>
-      <c r="V32" s="49"/>
-      <c r="W32" s="49"/>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="48"/>
-      <c r="AA32" s="48"/>
-      <c r="AB32" s="49"/>
-      <c r="AC32" s="49"/>
-      <c r="AD32" s="49"/>
-      <c r="AE32" s="49"/>
-      <c r="AF32" s="49"/>
-      <c r="AG32" s="49"/>
-      <c r="AH32" s="49"/>
-      <c r="AI32" s="49"/>
-      <c r="AJ32" s="49"/>
-      <c r="AK32" s="48" t="s">
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="47"/>
+      <c r="AA32" s="47"/>
+      <c r="AB32" s="48"/>
+      <c r="AC32" s="48"/>
+      <c r="AD32" s="48"/>
+      <c r="AE32" s="48"/>
+      <c r="AF32" s="48"/>
+      <c r="AG32" s="48"/>
+      <c r="AH32" s="48"/>
+      <c r="AI32" s="48"/>
+      <c r="AJ32" s="48"/>
+      <c r="AK32" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AL32" s="48"/>
-      <c r="AM32" s="48"/>
-      <c r="AN32" s="49"/>
-      <c r="AO32" s="49"/>
-      <c r="AP32" s="49"/>
-      <c r="AQ32" s="49"/>
-      <c r="AR32" s="49"/>
-      <c r="AS32" s="49"/>
-      <c r="AT32" s="49"/>
-      <c r="AU32" s="48" t="s">
+      <c r="AL32" s="47"/>
+      <c r="AM32" s="47"/>
+      <c r="AN32" s="48"/>
+      <c r="AO32" s="48"/>
+      <c r="AP32" s="48"/>
+      <c r="AQ32" s="48"/>
+      <c r="AR32" s="48"/>
+      <c r="AS32" s="48"/>
+      <c r="AT32" s="48"/>
+      <c r="AU32" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AV32" s="48"/>
-      <c r="AW32" s="48"/>
-      <c r="AX32" s="50"/>
-      <c r="AY32" s="50"/>
-      <c r="AZ32" s="50"/>
-      <c r="BA32" s="50"/>
-      <c r="BB32" s="50"/>
-      <c r="BC32" s="50"/>
+      <c r="AV32" s="47"/>
+      <c r="AW32" s="47"/>
+      <c r="AX32" s="36"/>
+      <c r="AY32" s="36"/>
+      <c r="AZ32" s="36"/>
+      <c r="BA32" s="36"/>
+      <c r="BB32" s="36"/>
+      <c r="BC32" s="36"/>
     </row>
     <row r="33" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
@@ -23950,126 +23948,126 @@
       <c r="BC33" s="5"/>
     </row>
     <row r="34" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="59" t="s">
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="59"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="61" t="s">
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="55"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="55"/>
+      <c r="W34" s="55"/>
+      <c r="X34" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="Y34" s="61"/>
-      <c r="Z34" s="61"/>
-      <c r="AA34" s="61"/>
-      <c r="AB34" s="61"/>
-      <c r="AC34" s="59" t="s">
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="57"/>
+      <c r="AA34" s="57"/>
+      <c r="AB34" s="57"/>
+      <c r="AC34" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="AD34" s="59"/>
-      <c r="AE34" s="59"/>
-      <c r="AF34" s="59"/>
-      <c r="AG34" s="59"/>
-      <c r="AH34" s="59"/>
-      <c r="AI34" s="59"/>
-      <c r="AJ34" s="59"/>
-      <c r="AK34" s="59"/>
-      <c r="AL34" s="59"/>
-      <c r="AM34" s="59"/>
-      <c r="AN34" s="59"/>
-      <c r="AO34" s="59"/>
-      <c r="AP34" s="59"/>
-      <c r="AQ34" s="59"/>
-      <c r="AR34" s="59"/>
-      <c r="AS34" s="59"/>
-      <c r="AT34" s="59"/>
-      <c r="AU34" s="59"/>
-      <c r="AV34" s="59"/>
-      <c r="AW34" s="59"/>
-      <c r="AX34" s="59"/>
-      <c r="AY34" s="59"/>
-      <c r="AZ34" s="59"/>
-      <c r="BA34" s="59"/>
-      <c r="BB34" s="59"/>
-      <c r="BC34" s="59"/>
+      <c r="AD34" s="55"/>
+      <c r="AE34" s="55"/>
+      <c r="AF34" s="55"/>
+      <c r="AG34" s="55"/>
+      <c r="AH34" s="55"/>
+      <c r="AI34" s="55"/>
+      <c r="AJ34" s="55"/>
+      <c r="AK34" s="55"/>
+      <c r="AL34" s="55"/>
+      <c r="AM34" s="55"/>
+      <c r="AN34" s="55"/>
+      <c r="AO34" s="55"/>
+      <c r="AP34" s="55"/>
+      <c r="AQ34" s="55"/>
+      <c r="AR34" s="55"/>
+      <c r="AS34" s="55"/>
+      <c r="AT34" s="55"/>
+      <c r="AU34" s="55"/>
+      <c r="AV34" s="55"/>
+      <c r="AW34" s="55"/>
+      <c r="AX34" s="55"/>
+      <c r="AY34" s="55"/>
+      <c r="AZ34" s="55"/>
+      <c r="BA34" s="55"/>
+      <c r="BB34" s="55"/>
+      <c r="BC34" s="55"/>
     </row>
     <row r="35" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="58"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="60"/>
-      <c r="U35" s="60"/>
-      <c r="V35" s="60"/>
-      <c r="W35" s="60"/>
-      <c r="X35" s="62"/>
-      <c r="Y35" s="62"/>
-      <c r="Z35" s="62"/>
-      <c r="AA35" s="62"/>
-      <c r="AB35" s="62"/>
-      <c r="AC35" s="60"/>
-      <c r="AD35" s="60"/>
-      <c r="AE35" s="60"/>
-      <c r="AF35" s="60"/>
-      <c r="AG35" s="60"/>
-      <c r="AH35" s="60"/>
-      <c r="AI35" s="60"/>
-      <c r="AJ35" s="60"/>
-      <c r="AK35" s="60"/>
-      <c r="AL35" s="60"/>
-      <c r="AM35" s="60"/>
-      <c r="AN35" s="60"/>
-      <c r="AO35" s="60"/>
-      <c r="AP35" s="60"/>
-      <c r="AQ35" s="60"/>
-      <c r="AR35" s="60"/>
-      <c r="AS35" s="60"/>
-      <c r="AT35" s="60"/>
-      <c r="AU35" s="60"/>
-      <c r="AV35" s="60"/>
-      <c r="AW35" s="60"/>
-      <c r="AX35" s="60"/>
-      <c r="AY35" s="60"/>
-      <c r="AZ35" s="60"/>
-      <c r="BA35" s="60"/>
-      <c r="BB35" s="60"/>
-      <c r="BC35" s="60"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="58"/>
+      <c r="Y35" s="58"/>
+      <c r="Z35" s="58"/>
+      <c r="AA35" s="58"/>
+      <c r="AB35" s="58"/>
+      <c r="AC35" s="56"/>
+      <c r="AD35" s="56"/>
+      <c r="AE35" s="56"/>
+      <c r="AF35" s="56"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="56"/>
+      <c r="AI35" s="56"/>
+      <c r="AJ35" s="56"/>
+      <c r="AK35" s="56"/>
+      <c r="AL35" s="56"/>
+      <c r="AM35" s="56"/>
+      <c r="AN35" s="56"/>
+      <c r="AO35" s="56"/>
+      <c r="AP35" s="56"/>
+      <c r="AQ35" s="56"/>
+      <c r="AR35" s="56"/>
+      <c r="AS35" s="56"/>
+      <c r="AT35" s="56"/>
+      <c r="AU35" s="56"/>
+      <c r="AV35" s="56"/>
+      <c r="AW35" s="56"/>
+      <c r="AX35" s="56"/>
+      <c r="AY35" s="56"/>
+      <c r="AZ35" s="56"/>
+      <c r="BA35" s="56"/>
+      <c r="BB35" s="56"/>
+      <c r="BC35" s="56"/>
     </row>
     <row r="36" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
@@ -24129,530 +24127,530 @@
       <c r="BC36" s="8"/>
     </row>
     <row r="37" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44" t="s">
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="44" t="s">
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R37" s="44"/>
-      <c r="S37" s="44"/>
-      <c r="T37" s="44"/>
-      <c r="U37" s="44"/>
-      <c r="V37" s="44"/>
-      <c r="W37" s="45" t="s">
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="X37" s="45"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="45"/>
-      <c r="AC37" s="45"/>
-      <c r="AD37" s="45"/>
-      <c r="AE37" s="44" t="s">
+      <c r="X37" s="38"/>
+      <c r="Y37" s="38"/>
+      <c r="Z37" s="38"/>
+      <c r="AA37" s="38"/>
+      <c r="AB37" s="38"/>
+      <c r="AC37" s="38"/>
+      <c r="AD37" s="38"/>
+      <c r="AE37" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="AF37" s="44"/>
-      <c r="AG37" s="44"/>
-      <c r="AH37" s="44"/>
-      <c r="AI37" s="44"/>
-      <c r="AJ37" s="44"/>
-      <c r="AK37" s="44"/>
-      <c r="AL37" s="44"/>
-      <c r="AM37" s="44"/>
-      <c r="AN37" s="44"/>
-      <c r="AO37" s="44"/>
-      <c r="AP37" s="44"/>
-      <c r="AQ37" s="44"/>
-      <c r="AR37" s="44"/>
-      <c r="AS37" s="44"/>
-      <c r="AT37" s="44"/>
-      <c r="AU37" s="44"/>
-      <c r="AV37" s="44"/>
-      <c r="AW37" s="44"/>
-      <c r="AX37" s="44"/>
-      <c r="AY37" s="44"/>
-      <c r="AZ37" s="44"/>
-      <c r="BA37" s="44"/>
-      <c r="BB37" s="44"/>
-      <c r="BC37" s="44"/>
+      <c r="AF37" s="37"/>
+      <c r="AG37" s="37"/>
+      <c r="AH37" s="37"/>
+      <c r="AI37" s="37"/>
+      <c r="AJ37" s="37"/>
+      <c r="AK37" s="37"/>
+      <c r="AL37" s="37"/>
+      <c r="AM37" s="37"/>
+      <c r="AN37" s="37"/>
+      <c r="AO37" s="37"/>
+      <c r="AP37" s="37"/>
+      <c r="AQ37" s="37"/>
+      <c r="AR37" s="37"/>
+      <c r="AS37" s="37"/>
+      <c r="AT37" s="37"/>
+      <c r="AU37" s="37"/>
+      <c r="AV37" s="37"/>
+      <c r="AW37" s="37"/>
+      <c r="AX37" s="37"/>
+      <c r="AY37" s="37"/>
+      <c r="AZ37" s="37"/>
+      <c r="BA37" s="37"/>
+      <c r="BB37" s="37"/>
+      <c r="BC37" s="37"/>
     </row>
     <row r="38" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="44"/>
-      <c r="T38" s="44"/>
-      <c r="U38" s="44"/>
-      <c r="V38" s="44"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="45"/>
-      <c r="Y38" s="45"/>
-      <c r="Z38" s="45"/>
-      <c r="AA38" s="45"/>
-      <c r="AB38" s="45"/>
-      <c r="AC38" s="45"/>
-      <c r="AD38" s="45"/>
-      <c r="AE38" s="44"/>
-      <c r="AF38" s="44"/>
-      <c r="AG38" s="44"/>
-      <c r="AH38" s="44"/>
-      <c r="AI38" s="44"/>
-      <c r="AJ38" s="44"/>
-      <c r="AK38" s="44"/>
-      <c r="AL38" s="44"/>
-      <c r="AM38" s="44"/>
-      <c r="AN38" s="44"/>
-      <c r="AO38" s="44"/>
-      <c r="AP38" s="44"/>
-      <c r="AQ38" s="44"/>
-      <c r="AR38" s="44"/>
-      <c r="AS38" s="44"/>
-      <c r="AT38" s="44"/>
-      <c r="AU38" s="44"/>
-      <c r="AV38" s="44"/>
-      <c r="AW38" s="44"/>
-      <c r="AX38" s="44"/>
-      <c r="AY38" s="44"/>
-      <c r="AZ38" s="44"/>
-      <c r="BA38" s="44"/>
-      <c r="BB38" s="44"/>
-      <c r="BC38" s="44"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="38"/>
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="38"/>
+      <c r="AB38" s="38"/>
+      <c r="AC38" s="38"/>
+      <c r="AD38" s="38"/>
+      <c r="AE38" s="37"/>
+      <c r="AF38" s="37"/>
+      <c r="AG38" s="37"/>
+      <c r="AH38" s="37"/>
+      <c r="AI38" s="37"/>
+      <c r="AJ38" s="37"/>
+      <c r="AK38" s="37"/>
+      <c r="AL38" s="37"/>
+      <c r="AM38" s="37"/>
+      <c r="AN38" s="37"/>
+      <c r="AO38" s="37"/>
+      <c r="AP38" s="37"/>
+      <c r="AQ38" s="37"/>
+      <c r="AR38" s="37"/>
+      <c r="AS38" s="37"/>
+      <c r="AT38" s="37"/>
+      <c r="AU38" s="37"/>
+      <c r="AV38" s="37"/>
+      <c r="AW38" s="37"/>
+      <c r="AX38" s="37"/>
+      <c r="AY38" s="37"/>
+      <c r="AZ38" s="37"/>
+      <c r="BA38" s="37"/>
+      <c r="BB38" s="37"/>
+      <c r="BC38" s="37"/>
     </row>
     <row r="39" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="52" t="s">
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52" t="s">
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="53" t="s">
+      <c r="R39" s="53"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="53"/>
+      <c r="W39" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="X39" s="53"/>
-      <c r="Y39" s="53"/>
-      <c r="Z39" s="53"/>
-      <c r="AA39" s="53"/>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="53"/>
-      <c r="AD39" s="53"/>
-      <c r="AE39" s="54" t="s">
+      <c r="X39" s="54"/>
+      <c r="Y39" s="54"/>
+      <c r="Z39" s="54"/>
+      <c r="AA39" s="54"/>
+      <c r="AB39" s="54"/>
+      <c r="AC39" s="54"/>
+      <c r="AD39" s="54"/>
+      <c r="AE39" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="AF39" s="54"/>
-      <c r="AG39" s="54"/>
-      <c r="AH39" s="54"/>
-      <c r="AI39" s="54"/>
-      <c r="AJ39" s="54"/>
-      <c r="AK39" s="54"/>
-      <c r="AL39" s="54"/>
-      <c r="AM39" s="54"/>
-      <c r="AN39" s="54"/>
-      <c r="AO39" s="54"/>
-      <c r="AP39" s="54"/>
-      <c r="AQ39" s="54"/>
-      <c r="AR39" s="54"/>
-      <c r="AS39" s="54"/>
-      <c r="AT39" s="54"/>
-      <c r="AU39" s="54"/>
-      <c r="AV39" s="54"/>
-      <c r="AW39" s="54"/>
-      <c r="AX39" s="54"/>
-      <c r="AY39" s="54"/>
-      <c r="AZ39" s="54"/>
-      <c r="BA39" s="54"/>
-      <c r="BB39" s="54"/>
-      <c r="BC39" s="54"/>
+      <c r="AF39" s="62"/>
+      <c r="AG39" s="62"/>
+      <c r="AH39" s="62"/>
+      <c r="AI39" s="62"/>
+      <c r="AJ39" s="62"/>
+      <c r="AK39" s="62"/>
+      <c r="AL39" s="62"/>
+      <c r="AM39" s="62"/>
+      <c r="AN39" s="62"/>
+      <c r="AO39" s="62"/>
+      <c r="AP39" s="62"/>
+      <c r="AQ39" s="62"/>
+      <c r="AR39" s="62"/>
+      <c r="AS39" s="62"/>
+      <c r="AT39" s="62"/>
+      <c r="AU39" s="62"/>
+      <c r="AV39" s="62"/>
+      <c r="AW39" s="62"/>
+      <c r="AX39" s="62"/>
+      <c r="AY39" s="62"/>
+      <c r="AZ39" s="62"/>
+      <c r="BA39" s="62"/>
+      <c r="BB39" s="62"/>
+      <c r="BC39" s="62"/>
     </row>
     <row r="40" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="52" t="s">
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52" t="s">
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="53" t="s">
+      <c r="R40" s="53"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="53"/>
+      <c r="U40" s="53"/>
+      <c r="V40" s="53"/>
+      <c r="W40" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="X40" s="53"/>
-      <c r="Y40" s="53"/>
-      <c r="Z40" s="53"/>
-      <c r="AA40" s="53"/>
-      <c r="AB40" s="53"/>
-      <c r="AC40" s="53"/>
-      <c r="AD40" s="53"/>
-      <c r="AE40" s="54" t="s">
+      <c r="X40" s="54"/>
+      <c r="Y40" s="54"/>
+      <c r="Z40" s="54"/>
+      <c r="AA40" s="54"/>
+      <c r="AB40" s="54"/>
+      <c r="AC40" s="54"/>
+      <c r="AD40" s="54"/>
+      <c r="AE40" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="AF40" s="54"/>
-      <c r="AG40" s="54"/>
-      <c r="AH40" s="54"/>
-      <c r="AI40" s="54"/>
-      <c r="AJ40" s="54"/>
-      <c r="AK40" s="54"/>
-      <c r="AL40" s="54"/>
-      <c r="AM40" s="54"/>
-      <c r="AN40" s="54"/>
-      <c r="AO40" s="54"/>
-      <c r="AP40" s="54"/>
-      <c r="AQ40" s="54"/>
-      <c r="AR40" s="54"/>
-      <c r="AS40" s="54"/>
-      <c r="AT40" s="54"/>
-      <c r="AU40" s="54"/>
-      <c r="AV40" s="54"/>
-      <c r="AW40" s="54"/>
-      <c r="AX40" s="54"/>
-      <c r="AY40" s="54"/>
-      <c r="AZ40" s="54"/>
-      <c r="BA40" s="54"/>
-      <c r="BB40" s="54"/>
-      <c r="BC40" s="54"/>
+      <c r="AF40" s="62"/>
+      <c r="AG40" s="62"/>
+      <c r="AH40" s="62"/>
+      <c r="AI40" s="62"/>
+      <c r="AJ40" s="62"/>
+      <c r="AK40" s="62"/>
+      <c r="AL40" s="62"/>
+      <c r="AM40" s="62"/>
+      <c r="AN40" s="62"/>
+      <c r="AO40" s="62"/>
+      <c r="AP40" s="62"/>
+      <c r="AQ40" s="62"/>
+      <c r="AR40" s="62"/>
+      <c r="AS40" s="62"/>
+      <c r="AT40" s="62"/>
+      <c r="AU40" s="62"/>
+      <c r="AV40" s="62"/>
+      <c r="AW40" s="62"/>
+      <c r="AX40" s="62"/>
+      <c r="AY40" s="62"/>
+      <c r="AZ40" s="62"/>
+      <c r="BA40" s="62"/>
+      <c r="BB40" s="62"/>
+      <c r="BC40" s="62"/>
     </row>
     <row r="41" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="52" t="s">
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52" t="s">
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="52"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="53" t="s">
+      <c r="R41" s="53"/>
+      <c r="S41" s="53"/>
+      <c r="T41" s="53"/>
+      <c r="U41" s="53"/>
+      <c r="V41" s="53"/>
+      <c r="W41" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="X41" s="53"/>
-      <c r="Y41" s="53"/>
-      <c r="Z41" s="53"/>
-      <c r="AA41" s="53"/>
-      <c r="AB41" s="53"/>
-      <c r="AC41" s="53"/>
-      <c r="AD41" s="53"/>
-      <c r="AE41" s="54" t="s">
+      <c r="X41" s="54"/>
+      <c r="Y41" s="54"/>
+      <c r="Z41" s="54"/>
+      <c r="AA41" s="54"/>
+      <c r="AB41" s="54"/>
+      <c r="AC41" s="54"/>
+      <c r="AD41" s="54"/>
+      <c r="AE41" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="AF41" s="54"/>
-      <c r="AG41" s="54"/>
-      <c r="AH41" s="54"/>
-      <c r="AI41" s="54"/>
-      <c r="AJ41" s="54"/>
-      <c r="AK41" s="54"/>
-      <c r="AL41" s="54"/>
-      <c r="AM41" s="54"/>
-      <c r="AN41" s="54"/>
-      <c r="AO41" s="54"/>
-      <c r="AP41" s="54"/>
-      <c r="AQ41" s="54"/>
-      <c r="AR41" s="54"/>
-      <c r="AS41" s="54"/>
-      <c r="AT41" s="54"/>
-      <c r="AU41" s="54"/>
-      <c r="AV41" s="54"/>
-      <c r="AW41" s="54"/>
-      <c r="AX41" s="54"/>
-      <c r="AY41" s="54"/>
-      <c r="AZ41" s="54"/>
-      <c r="BA41" s="54"/>
-      <c r="BB41" s="54"/>
-      <c r="BC41" s="54"/>
+      <c r="AF41" s="62"/>
+      <c r="AG41" s="62"/>
+      <c r="AH41" s="62"/>
+      <c r="AI41" s="62"/>
+      <c r="AJ41" s="62"/>
+      <c r="AK41" s="62"/>
+      <c r="AL41" s="62"/>
+      <c r="AM41" s="62"/>
+      <c r="AN41" s="62"/>
+      <c r="AO41" s="62"/>
+      <c r="AP41" s="62"/>
+      <c r="AQ41" s="62"/>
+      <c r="AR41" s="62"/>
+      <c r="AS41" s="62"/>
+      <c r="AT41" s="62"/>
+      <c r="AU41" s="62"/>
+      <c r="AV41" s="62"/>
+      <c r="AW41" s="62"/>
+      <c r="AX41" s="62"/>
+      <c r="AY41" s="62"/>
+      <c r="AZ41" s="62"/>
+      <c r="BA41" s="62"/>
+      <c r="BB41" s="62"/>
+      <c r="BC41" s="62"/>
     </row>
     <row r="42" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="52" t="s">
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="52" t="s">
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52"/>
-      <c r="T42" s="52"/>
-      <c r="U42" s="52"/>
-      <c r="V42" s="52"/>
-      <c r="W42" s="53" t="s">
+      <c r="R42" s="53"/>
+      <c r="S42" s="53"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="53"/>
+      <c r="V42" s="53"/>
+      <c r="W42" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="X42" s="53"/>
-      <c r="Y42" s="53"/>
-      <c r="Z42" s="53"/>
-      <c r="AA42" s="53"/>
-      <c r="AB42" s="53"/>
-      <c r="AC42" s="53"/>
-      <c r="AD42" s="53"/>
-      <c r="AE42" s="54" t="s">
+      <c r="X42" s="54"/>
+      <c r="Y42" s="54"/>
+      <c r="Z42" s="54"/>
+      <c r="AA42" s="54"/>
+      <c r="AB42" s="54"/>
+      <c r="AC42" s="54"/>
+      <c r="AD42" s="54"/>
+      <c r="AE42" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="AF42" s="54"/>
-      <c r="AG42" s="54"/>
-      <c r="AH42" s="54"/>
-      <c r="AI42" s="54"/>
-      <c r="AJ42" s="54"/>
-      <c r="AK42" s="54"/>
-      <c r="AL42" s="54"/>
-      <c r="AM42" s="54"/>
-      <c r="AN42" s="54"/>
-      <c r="AO42" s="54"/>
-      <c r="AP42" s="54"/>
-      <c r="AQ42" s="54"/>
-      <c r="AR42" s="54"/>
-      <c r="AS42" s="54"/>
-      <c r="AT42" s="54"/>
-      <c r="AU42" s="54"/>
-      <c r="AV42" s="54"/>
-      <c r="AW42" s="54"/>
-      <c r="AX42" s="54"/>
-      <c r="AY42" s="54"/>
-      <c r="AZ42" s="54"/>
-      <c r="BA42" s="54"/>
-      <c r="BB42" s="54"/>
-      <c r="BC42" s="54"/>
+      <c r="AF42" s="62"/>
+      <c r="AG42" s="62"/>
+      <c r="AH42" s="62"/>
+      <c r="AI42" s="62"/>
+      <c r="AJ42" s="62"/>
+      <c r="AK42" s="62"/>
+      <c r="AL42" s="62"/>
+      <c r="AM42" s="62"/>
+      <c r="AN42" s="62"/>
+      <c r="AO42" s="62"/>
+      <c r="AP42" s="62"/>
+      <c r="AQ42" s="62"/>
+      <c r="AR42" s="62"/>
+      <c r="AS42" s="62"/>
+      <c r="AT42" s="62"/>
+      <c r="AU42" s="62"/>
+      <c r="AV42" s="62"/>
+      <c r="AW42" s="62"/>
+      <c r="AX42" s="62"/>
+      <c r="AY42" s="62"/>
+      <c r="AZ42" s="62"/>
+      <c r="BA42" s="62"/>
+      <c r="BB42" s="62"/>
+      <c r="BC42" s="62"/>
     </row>
     <row r="43" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="51" t="s">
+      <c r="A43" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="52" t="s">
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="52"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="52" t="s">
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="52"/>
-      <c r="S43" s="52"/>
-      <c r="T43" s="52"/>
-      <c r="U43" s="52"/>
-      <c r="V43" s="52"/>
-      <c r="W43" s="53" t="s">
+      <c r="R43" s="53"/>
+      <c r="S43" s="53"/>
+      <c r="T43" s="53"/>
+      <c r="U43" s="53"/>
+      <c r="V43" s="53"/>
+      <c r="W43" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="X43" s="53"/>
-      <c r="Y43" s="53"/>
-      <c r="Z43" s="53"/>
-      <c r="AA43" s="53"/>
-      <c r="AB43" s="53"/>
-      <c r="AC43" s="53"/>
-      <c r="AD43" s="53"/>
-      <c r="AE43" s="54" t="s">
+      <c r="X43" s="54"/>
+      <c r="Y43" s="54"/>
+      <c r="Z43" s="54"/>
+      <c r="AA43" s="54"/>
+      <c r="AB43" s="54"/>
+      <c r="AC43" s="54"/>
+      <c r="AD43" s="54"/>
+      <c r="AE43" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="AF43" s="54"/>
-      <c r="AG43" s="54"/>
-      <c r="AH43" s="54"/>
-      <c r="AI43" s="54"/>
-      <c r="AJ43" s="54"/>
-      <c r="AK43" s="54"/>
-      <c r="AL43" s="54"/>
-      <c r="AM43" s="54"/>
-      <c r="AN43" s="54"/>
-      <c r="AO43" s="54"/>
-      <c r="AP43" s="54"/>
-      <c r="AQ43" s="54"/>
-      <c r="AR43" s="54"/>
-      <c r="AS43" s="54"/>
-      <c r="AT43" s="54"/>
-      <c r="AU43" s="54"/>
-      <c r="AV43" s="54"/>
-      <c r="AW43" s="54"/>
-      <c r="AX43" s="54"/>
-      <c r="AY43" s="54"/>
-      <c r="AZ43" s="54"/>
-      <c r="BA43" s="54"/>
-      <c r="BB43" s="54"/>
-      <c r="BC43" s="54"/>
+      <c r="AF43" s="62"/>
+      <c r="AG43" s="62"/>
+      <c r="AH43" s="62"/>
+      <c r="AI43" s="62"/>
+      <c r="AJ43" s="62"/>
+      <c r="AK43" s="62"/>
+      <c r="AL43" s="62"/>
+      <c r="AM43" s="62"/>
+      <c r="AN43" s="62"/>
+      <c r="AO43" s="62"/>
+      <c r="AP43" s="62"/>
+      <c r="AQ43" s="62"/>
+      <c r="AR43" s="62"/>
+      <c r="AS43" s="62"/>
+      <c r="AT43" s="62"/>
+      <c r="AU43" s="62"/>
+      <c r="AV43" s="62"/>
+      <c r="AW43" s="62"/>
+      <c r="AX43" s="62"/>
+      <c r="AY43" s="62"/>
+      <c r="AZ43" s="62"/>
+      <c r="BA43" s="62"/>
+      <c r="BB43" s="62"/>
+      <c r="BC43" s="62"/>
     </row>
     <row r="44" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="52" t="s">
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="52"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="52"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="52"/>
-      <c r="Q44" s="52" t="s">
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="53"/>
+      <c r="Q44" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="R44" s="52"/>
-      <c r="S44" s="52"/>
-      <c r="T44" s="52"/>
-      <c r="U44" s="52"/>
-      <c r="V44" s="52"/>
-      <c r="W44" s="53" t="s">
+      <c r="R44" s="53"/>
+      <c r="S44" s="53"/>
+      <c r="T44" s="53"/>
+      <c r="U44" s="53"/>
+      <c r="V44" s="53"/>
+      <c r="W44" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="X44" s="53"/>
-      <c r="Y44" s="53"/>
-      <c r="Z44" s="53"/>
-      <c r="AA44" s="53"/>
-      <c r="AB44" s="53"/>
-      <c r="AC44" s="53"/>
-      <c r="AD44" s="53"/>
-      <c r="AE44" s="54" t="s">
+      <c r="X44" s="54"/>
+      <c r="Y44" s="54"/>
+      <c r="Z44" s="54"/>
+      <c r="AA44" s="54"/>
+      <c r="AB44" s="54"/>
+      <c r="AC44" s="54"/>
+      <c r="AD44" s="54"/>
+      <c r="AE44" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="AF44" s="54"/>
-      <c r="AG44" s="54"/>
-      <c r="AH44" s="54"/>
-      <c r="AI44" s="54"/>
-      <c r="AJ44" s="54"/>
-      <c r="AK44" s="54"/>
-      <c r="AL44" s="54"/>
-      <c r="AM44" s="54"/>
-      <c r="AN44" s="54"/>
-      <c r="AO44" s="54"/>
-      <c r="AP44" s="54"/>
-      <c r="AQ44" s="54"/>
-      <c r="AR44" s="54"/>
-      <c r="AS44" s="54"/>
-      <c r="AT44" s="54"/>
-      <c r="AU44" s="54"/>
-      <c r="AV44" s="54"/>
-      <c r="AW44" s="54"/>
-      <c r="AX44" s="54"/>
-      <c r="AY44" s="54"/>
-      <c r="AZ44" s="54"/>
-      <c r="BA44" s="54"/>
-      <c r="BB44" s="54"/>
-      <c r="BC44" s="54"/>
+      <c r="AF44" s="62"/>
+      <c r="AG44" s="62"/>
+      <c r="AH44" s="62"/>
+      <c r="AI44" s="62"/>
+      <c r="AJ44" s="62"/>
+      <c r="AK44" s="62"/>
+      <c r="AL44" s="62"/>
+      <c r="AM44" s="62"/>
+      <c r="AN44" s="62"/>
+      <c r="AO44" s="62"/>
+      <c r="AP44" s="62"/>
+      <c r="AQ44" s="62"/>
+      <c r="AR44" s="62"/>
+      <c r="AS44" s="62"/>
+      <c r="AT44" s="62"/>
+      <c r="AU44" s="62"/>
+      <c r="AV44" s="62"/>
+      <c r="AW44" s="62"/>
+      <c r="AX44" s="62"/>
+      <c r="AY44" s="62"/>
+      <c r="AZ44" s="62"/>
+      <c r="BA44" s="62"/>
+      <c r="BB44" s="62"/>
+      <c r="BC44" s="62"/>
       <c r="BD44" s="6"/>
       <c r="BE44" s="6"/>
       <c r="BF44" s="3"/>
@@ -24797,199 +24795,199 @@
       <c r="GV44" s="3"/>
     </row>
     <row r="45" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="52" t="s">
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="52" t="s">
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="R45" s="52"/>
-      <c r="S45" s="52"/>
-      <c r="T45" s="52"/>
-      <c r="U45" s="52"/>
-      <c r="V45" s="52"/>
-      <c r="W45" s="53" t="s">
+      <c r="R45" s="53"/>
+      <c r="S45" s="53"/>
+      <c r="T45" s="53"/>
+      <c r="U45" s="53"/>
+      <c r="V45" s="53"/>
+      <c r="W45" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="X45" s="53"/>
-      <c r="Y45" s="53"/>
-      <c r="Z45" s="53"/>
-      <c r="AA45" s="53"/>
-      <c r="AB45" s="53"/>
-      <c r="AC45" s="53"/>
-      <c r="AD45" s="53"/>
-      <c r="AE45" s="54" t="s">
+      <c r="X45" s="54"/>
+      <c r="Y45" s="54"/>
+      <c r="Z45" s="54"/>
+      <c r="AA45" s="54"/>
+      <c r="AB45" s="54"/>
+      <c r="AC45" s="54"/>
+      <c r="AD45" s="54"/>
+      <c r="AE45" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="AF45" s="54"/>
-      <c r="AG45" s="54"/>
-      <c r="AH45" s="54"/>
-      <c r="AI45" s="54"/>
-      <c r="AJ45" s="54"/>
-      <c r="AK45" s="54"/>
-      <c r="AL45" s="54"/>
-      <c r="AM45" s="54"/>
-      <c r="AN45" s="54"/>
-      <c r="AO45" s="54"/>
-      <c r="AP45" s="54"/>
-      <c r="AQ45" s="54"/>
-      <c r="AR45" s="54"/>
-      <c r="AS45" s="54"/>
-      <c r="AT45" s="54"/>
-      <c r="AU45" s="54"/>
-      <c r="AV45" s="54"/>
-      <c r="AW45" s="54"/>
-      <c r="AX45" s="54"/>
-      <c r="AY45" s="54"/>
-      <c r="AZ45" s="54"/>
-      <c r="BA45" s="54"/>
-      <c r="BB45" s="54"/>
-      <c r="BC45" s="54"/>
+      <c r="AF45" s="62"/>
+      <c r="AG45" s="62"/>
+      <c r="AH45" s="62"/>
+      <c r="AI45" s="62"/>
+      <c r="AJ45" s="62"/>
+      <c r="AK45" s="62"/>
+      <c r="AL45" s="62"/>
+      <c r="AM45" s="62"/>
+      <c r="AN45" s="62"/>
+      <c r="AO45" s="62"/>
+      <c r="AP45" s="62"/>
+      <c r="AQ45" s="62"/>
+      <c r="AR45" s="62"/>
+      <c r="AS45" s="62"/>
+      <c r="AT45" s="62"/>
+      <c r="AU45" s="62"/>
+      <c r="AV45" s="62"/>
+      <c r="AW45" s="62"/>
+      <c r="AX45" s="62"/>
+      <c r="AY45" s="62"/>
+      <c r="AZ45" s="62"/>
+      <c r="BA45" s="62"/>
+      <c r="BB45" s="62"/>
+      <c r="BC45" s="62"/>
       <c r="BD45" s="7"/>
       <c r="BE45" s="7"/>
     </row>
     <row r="46" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="52" t="s">
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="52"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="52"/>
-      <c r="Q46" s="52" t="s">
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="R46" s="52"/>
-      <c r="S46" s="52"/>
-      <c r="T46" s="52"/>
-      <c r="U46" s="52"/>
-      <c r="V46" s="52"/>
-      <c r="W46" s="53" t="s">
+      <c r="R46" s="53"/>
+      <c r="S46" s="53"/>
+      <c r="T46" s="53"/>
+      <c r="U46" s="53"/>
+      <c r="V46" s="53"/>
+      <c r="W46" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="X46" s="53"/>
-      <c r="Y46" s="53"/>
-      <c r="Z46" s="53"/>
-      <c r="AA46" s="53"/>
-      <c r="AB46" s="53"/>
-      <c r="AC46" s="53"/>
-      <c r="AD46" s="53"/>
-      <c r="AE46" s="54" t="s">
+      <c r="X46" s="54"/>
+      <c r="Y46" s="54"/>
+      <c r="Z46" s="54"/>
+      <c r="AA46" s="54"/>
+      <c r="AB46" s="54"/>
+      <c r="AC46" s="54"/>
+      <c r="AD46" s="54"/>
+      <c r="AE46" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="AF46" s="54"/>
-      <c r="AG46" s="54"/>
-      <c r="AH46" s="54"/>
-      <c r="AI46" s="54"/>
-      <c r="AJ46" s="54"/>
-      <c r="AK46" s="54"/>
-      <c r="AL46" s="54"/>
-      <c r="AM46" s="54"/>
-      <c r="AN46" s="54"/>
-      <c r="AO46" s="54"/>
-      <c r="AP46" s="54"/>
-      <c r="AQ46" s="54"/>
-      <c r="AR46" s="54"/>
-      <c r="AS46" s="54"/>
-      <c r="AT46" s="54"/>
-      <c r="AU46" s="54"/>
-      <c r="AV46" s="54"/>
-      <c r="AW46" s="54"/>
-      <c r="AX46" s="54"/>
-      <c r="AY46" s="54"/>
-      <c r="AZ46" s="54"/>
-      <c r="BA46" s="54"/>
-      <c r="BB46" s="54"/>
-      <c r="BC46" s="54"/>
+      <c r="AF46" s="62"/>
+      <c r="AG46" s="62"/>
+      <c r="AH46" s="62"/>
+      <c r="AI46" s="62"/>
+      <c r="AJ46" s="62"/>
+      <c r="AK46" s="62"/>
+      <c r="AL46" s="62"/>
+      <c r="AM46" s="62"/>
+      <c r="AN46" s="62"/>
+      <c r="AO46" s="62"/>
+      <c r="AP46" s="62"/>
+      <c r="AQ46" s="62"/>
+      <c r="AR46" s="62"/>
+      <c r="AS46" s="62"/>
+      <c r="AT46" s="62"/>
+      <c r="AU46" s="62"/>
+      <c r="AV46" s="62"/>
+      <c r="AW46" s="62"/>
+      <c r="AX46" s="62"/>
+      <c r="AY46" s="62"/>
+      <c r="AZ46" s="62"/>
+      <c r="BA46" s="62"/>
+      <c r="BB46" s="62"/>
+      <c r="BC46" s="62"/>
       <c r="BD46" s="7"/>
       <c r="BE46" s="7"/>
     </row>
     <row r="47" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="55"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="56"/>
-      <c r="P47" s="56"/>
-      <c r="Q47" s="52"/>
-      <c r="R47" s="52"/>
-      <c r="S47" s="52"/>
-      <c r="T47" s="52"/>
-      <c r="U47" s="52"/>
-      <c r="V47" s="52"/>
-      <c r="W47" s="53"/>
-      <c r="X47" s="53"/>
-      <c r="Y47" s="53"/>
-      <c r="Z47" s="53"/>
-      <c r="AA47" s="53"/>
-      <c r="AB47" s="53"/>
-      <c r="AC47" s="53"/>
-      <c r="AD47" s="53"/>
-      <c r="AE47" s="54"/>
-      <c r="AF47" s="54"/>
-      <c r="AG47" s="54"/>
-      <c r="AH47" s="54"/>
-      <c r="AI47" s="54"/>
-      <c r="AJ47" s="54"/>
-      <c r="AK47" s="54"/>
-      <c r="AL47" s="54"/>
-      <c r="AM47" s="54"/>
-      <c r="AN47" s="54"/>
-      <c r="AO47" s="54"/>
-      <c r="AP47" s="54"/>
-      <c r="AQ47" s="54"/>
-      <c r="AR47" s="54"/>
-      <c r="AS47" s="54"/>
-      <c r="AT47" s="54"/>
-      <c r="AU47" s="54"/>
-      <c r="AV47" s="54"/>
-      <c r="AW47" s="54"/>
-      <c r="AX47" s="54"/>
-      <c r="AY47" s="54"/>
-      <c r="AZ47" s="54"/>
-      <c r="BA47" s="54"/>
-      <c r="BB47" s="54"/>
-      <c r="BC47" s="54"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="64"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="53"/>
+      <c r="S47" s="53"/>
+      <c r="T47" s="53"/>
+      <c r="U47" s="53"/>
+      <c r="V47" s="53"/>
+      <c r="W47" s="54"/>
+      <c r="X47" s="54"/>
+      <c r="Y47" s="54"/>
+      <c r="Z47" s="54"/>
+      <c r="AA47" s="54"/>
+      <c r="AB47" s="54"/>
+      <c r="AC47" s="54"/>
+      <c r="AD47" s="54"/>
+      <c r="AE47" s="62"/>
+      <c r="AF47" s="62"/>
+      <c r="AG47" s="62"/>
+      <c r="AH47" s="62"/>
+      <c r="AI47" s="62"/>
+      <c r="AJ47" s="62"/>
+      <c r="AK47" s="62"/>
+      <c r="AL47" s="62"/>
+      <c r="AM47" s="62"/>
+      <c r="AN47" s="62"/>
+      <c r="AO47" s="62"/>
+      <c r="AP47" s="62"/>
+      <c r="AQ47" s="62"/>
+      <c r="AR47" s="62"/>
+      <c r="AS47" s="62"/>
+      <c r="AT47" s="62"/>
+      <c r="AU47" s="62"/>
+      <c r="AV47" s="62"/>
+      <c r="AW47" s="62"/>
+      <c r="AX47" s="62"/>
+      <c r="AY47" s="62"/>
+      <c r="AZ47" s="62"/>
+      <c r="BA47" s="62"/>
+      <c r="BB47" s="62"/>
+      <c r="BC47" s="62"/>
       <c r="BD47" s="7"/>
       <c r="BE47" s="7"/>
     </row>
@@ -25371,28 +25369,139 @@
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="AE27:BC27"/>
-    <mergeCell ref="W27:AD27"/>
-    <mergeCell ref="Q27:V27"/>
-    <mergeCell ref="I27:P27"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="AE14:BC14"/>
-    <mergeCell ref="AE15:BC15"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="W14:AD14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="I15:P15"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="W15:AD15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I14:P14"/>
-    <mergeCell ref="A20:H21"/>
-    <mergeCell ref="I20:P21"/>
-    <mergeCell ref="Q20:V21"/>
-    <mergeCell ref="W20:AD21"/>
-    <mergeCell ref="AE20:BC21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="I22:P22"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="I44:P44"/>
+    <mergeCell ref="Q44:V44"/>
+    <mergeCell ref="W44:AD44"/>
+    <mergeCell ref="AE44:BC44"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="I47:P47"/>
+    <mergeCell ref="Q47:V47"/>
+    <mergeCell ref="W47:AD47"/>
+    <mergeCell ref="AE47:BC47"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="I45:P45"/>
+    <mergeCell ref="Q45:V45"/>
+    <mergeCell ref="W45:AD45"/>
+    <mergeCell ref="AE45:BC45"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="I46:P46"/>
+    <mergeCell ref="Q46:V46"/>
+    <mergeCell ref="W46:AD46"/>
+    <mergeCell ref="AE46:BC46"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="I42:P42"/>
+    <mergeCell ref="Q42:V42"/>
+    <mergeCell ref="W42:AD42"/>
+    <mergeCell ref="AE42:BC42"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="I43:P43"/>
+    <mergeCell ref="Q43:V43"/>
+    <mergeCell ref="W43:AD43"/>
+    <mergeCell ref="AE43:BC43"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="I40:P40"/>
+    <mergeCell ref="Q40:V40"/>
+    <mergeCell ref="W40:AD40"/>
+    <mergeCell ref="AE40:BC40"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="I41:P41"/>
+    <mergeCell ref="Q41:V41"/>
+    <mergeCell ref="W41:AD41"/>
+    <mergeCell ref="AE41:BC41"/>
+    <mergeCell ref="A37:H38"/>
+    <mergeCell ref="I37:P38"/>
+    <mergeCell ref="Q37:V38"/>
+    <mergeCell ref="W37:AD38"/>
+    <mergeCell ref="AE37:BC38"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="I39:P39"/>
+    <mergeCell ref="Q39:V39"/>
+    <mergeCell ref="W39:AD39"/>
+    <mergeCell ref="AE39:BC39"/>
+    <mergeCell ref="A34:E35"/>
+    <mergeCell ref="F34:W35"/>
+    <mergeCell ref="X34:AB35"/>
+    <mergeCell ref="AC34:BC35"/>
+    <mergeCell ref="A31:J32"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="O31:W31"/>
+    <mergeCell ref="X31:AA31"/>
+    <mergeCell ref="AB31:AJ31"/>
+    <mergeCell ref="AK31:AM31"/>
+    <mergeCell ref="AN31:AT31"/>
+    <mergeCell ref="AU31:AW31"/>
+    <mergeCell ref="AX31:BC31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:W32"/>
+    <mergeCell ref="X32:AA32"/>
+    <mergeCell ref="AB32:AJ32"/>
+    <mergeCell ref="AK32:AM32"/>
+    <mergeCell ref="AN32:AT32"/>
+    <mergeCell ref="AU32:AW32"/>
+    <mergeCell ref="AX32:BC32"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="Q28:V28"/>
+    <mergeCell ref="W28:AD28"/>
+    <mergeCell ref="AE28:BC28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:P29"/>
+    <mergeCell ref="Q29:V29"/>
+    <mergeCell ref="W29:AD29"/>
+    <mergeCell ref="AE29:BC29"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="I25:P25"/>
+    <mergeCell ref="Q25:V25"/>
+    <mergeCell ref="W25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="I26:P26"/>
+    <mergeCell ref="Q26:V26"/>
+    <mergeCell ref="W26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="I23:P23"/>
+    <mergeCell ref="Q23:V23"/>
+    <mergeCell ref="W23:AD23"/>
+    <mergeCell ref="AE23:BC23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="I24:P24"/>
+    <mergeCell ref="Q24:V24"/>
+    <mergeCell ref="W24:AD24"/>
+    <mergeCell ref="AE24:BC24"/>
+    <mergeCell ref="X17:AB18"/>
+    <mergeCell ref="AC17:BC18"/>
+    <mergeCell ref="W12:AD12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="I13:P13"/>
+    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="W13:AD13"/>
+    <mergeCell ref="Q22:V22"/>
+    <mergeCell ref="W22:AD22"/>
+    <mergeCell ref="AE22:BC22"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A4:E5"/>
+    <mergeCell ref="AC4:BC5"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:W1"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="W9:AD9"/>
+    <mergeCell ref="AE9:BC9"/>
+    <mergeCell ref="AE7:BC8"/>
+    <mergeCell ref="AN1:AT1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AX1:BC1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AJ2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AN2:AT2"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AX2:BC2"/>
     <mergeCell ref="X1:AA1"/>
     <mergeCell ref="AB1:AJ1"/>
     <mergeCell ref="AE10:BC10"/>
@@ -25417,141 +25526,30 @@
     <mergeCell ref="I7:P8"/>
     <mergeCell ref="Q7:V8"/>
     <mergeCell ref="W7:AD8"/>
-    <mergeCell ref="AE7:BC8"/>
-    <mergeCell ref="AN1:AT1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AX1:BC1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AJ2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AN2:AT2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AX2:BC2"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A4:E5"/>
-    <mergeCell ref="AC4:BC5"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:W1"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="Q9:V9"/>
-    <mergeCell ref="W9:AD9"/>
-    <mergeCell ref="AE9:BC9"/>
+    <mergeCell ref="AE27:BC27"/>
+    <mergeCell ref="W27:AD27"/>
+    <mergeCell ref="Q27:V27"/>
+    <mergeCell ref="I27:P27"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="AE14:BC14"/>
+    <mergeCell ref="AE15:BC15"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="W14:AD14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="I15:P15"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="W15:AD15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I14:P14"/>
+    <mergeCell ref="A20:H21"/>
+    <mergeCell ref="I20:P21"/>
+    <mergeCell ref="Q20:V21"/>
+    <mergeCell ref="W20:AD21"/>
+    <mergeCell ref="AE20:BC21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="I22:P22"/>
     <mergeCell ref="A17:E18"/>
     <mergeCell ref="F17:W18"/>
-    <mergeCell ref="X17:AB18"/>
-    <mergeCell ref="AC17:BC18"/>
-    <mergeCell ref="W12:AD12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="I13:P13"/>
-    <mergeCell ref="Q13:V13"/>
-    <mergeCell ref="W13:AD13"/>
-    <mergeCell ref="Q22:V22"/>
-    <mergeCell ref="W22:AD22"/>
-    <mergeCell ref="AE22:BC22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="I23:P23"/>
-    <mergeCell ref="Q23:V23"/>
-    <mergeCell ref="W23:AD23"/>
-    <mergeCell ref="AE23:BC23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="I24:P24"/>
-    <mergeCell ref="Q24:V24"/>
-    <mergeCell ref="W24:AD24"/>
-    <mergeCell ref="AE24:BC24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="I25:P25"/>
-    <mergeCell ref="Q25:V25"/>
-    <mergeCell ref="W25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="I26:P26"/>
-    <mergeCell ref="Q26:V26"/>
-    <mergeCell ref="W26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I28:P28"/>
-    <mergeCell ref="Q28:V28"/>
-    <mergeCell ref="W28:AD28"/>
-    <mergeCell ref="AE28:BC28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:P29"/>
-    <mergeCell ref="Q29:V29"/>
-    <mergeCell ref="W29:AD29"/>
-    <mergeCell ref="AE29:BC29"/>
-    <mergeCell ref="A34:E35"/>
-    <mergeCell ref="F34:W35"/>
-    <mergeCell ref="X34:AB35"/>
-    <mergeCell ref="AC34:BC35"/>
-    <mergeCell ref="A31:J32"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="O31:W31"/>
-    <mergeCell ref="X31:AA31"/>
-    <mergeCell ref="AB31:AJ31"/>
-    <mergeCell ref="AK31:AM31"/>
-    <mergeCell ref="AN31:AT31"/>
-    <mergeCell ref="AU31:AW31"/>
-    <mergeCell ref="AX31:BC31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O32:W32"/>
-    <mergeCell ref="X32:AA32"/>
-    <mergeCell ref="AB32:AJ32"/>
-    <mergeCell ref="AK32:AM32"/>
-    <mergeCell ref="AN32:AT32"/>
-    <mergeCell ref="AU32:AW32"/>
-    <mergeCell ref="AX32:BC32"/>
-    <mergeCell ref="A37:H38"/>
-    <mergeCell ref="I37:P38"/>
-    <mergeCell ref="Q37:V38"/>
-    <mergeCell ref="W37:AD38"/>
-    <mergeCell ref="AE37:BC38"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="I39:P39"/>
-    <mergeCell ref="Q39:V39"/>
-    <mergeCell ref="W39:AD39"/>
-    <mergeCell ref="AE39:BC39"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="I40:P40"/>
-    <mergeCell ref="Q40:V40"/>
-    <mergeCell ref="W40:AD40"/>
-    <mergeCell ref="AE40:BC40"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="I41:P41"/>
-    <mergeCell ref="Q41:V41"/>
-    <mergeCell ref="W41:AD41"/>
-    <mergeCell ref="AE41:BC41"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="I42:P42"/>
-    <mergeCell ref="Q42:V42"/>
-    <mergeCell ref="W42:AD42"/>
-    <mergeCell ref="AE42:BC42"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="I43:P43"/>
-    <mergeCell ref="Q43:V43"/>
-    <mergeCell ref="W43:AD43"/>
-    <mergeCell ref="AE43:BC43"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="I44:P44"/>
-    <mergeCell ref="Q44:V44"/>
-    <mergeCell ref="W44:AD44"/>
-    <mergeCell ref="AE44:BC44"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="I47:P47"/>
-    <mergeCell ref="Q47:V47"/>
-    <mergeCell ref="W47:AD47"/>
-    <mergeCell ref="AE47:BC47"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="I45:P45"/>
-    <mergeCell ref="Q45:V45"/>
-    <mergeCell ref="W45:AD45"/>
-    <mergeCell ref="AE45:BC45"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="I46:P46"/>
-    <mergeCell ref="Q46:V46"/>
-    <mergeCell ref="W46:AD46"/>
-    <mergeCell ref="AE46:BC46"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -25600,7 +25598,7 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="35" t="s">
         <v>84</v>
       </c>
     </row>
@@ -25636,6 +25634,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -25767,22 +25780,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1772C4F8-7E90-48A5-BA69-025DEF3B94A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB350337-5F8D-43AC-A85C-B7B1DB45F08B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{779E7F19-D7BB-4605-A5DA-30EE80C7B0F0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25798,21 +25813,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB350337-5F8D-43AC-A85C-B7B1DB45F08B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1772C4F8-7E90-48A5-BA69-025DEF3B94A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/010-外部設計/014-画面レイアウト_画面入出力項目一覧/014-1-外部設計書(画面・帳票仕様)_ショッピング_商品検索.xlsx
+++ b/010-外部設計/014-画面レイアウト_画面入出力項目一覧/014-1-外部設計書(画面・帳票仕様)_ショッピング_商品検索.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE4B5EE-D2B6-4151-9E8F-86DA68A9C602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4840914-0E94-4892-A54E-D028FEA6280F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面レイアウト図" sheetId="2" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="90">
   <si>
     <t>業務</t>
   </si>
@@ -657,6 +657,22 @@
   <si>
     <t>セレクトボックス</t>
   </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -665,7 +681,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -732,6 +748,13 @@
     </font>
     <font>
       <sz val="10.5"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1012,7 +1035,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1121,8 +1144,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1160,23 +1186,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1190,11 +1201,65 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1207,39 +1272,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1267,23 +1299,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>83127</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>193963</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>183761</xdr:rowOff>
+      <xdr:rowOff>84801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>146870</xdr:colOff>
+      <xdr:colOff>164160</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>55418</xdr:rowOff>
+      <xdr:rowOff>65315</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C482A06D-51D4-4395-A375-34ADE026F470}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1291,50 +1323,24 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect b="9383"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="498763" y="1347543"/>
-          <a:ext cx="10662471" cy="5302639"/>
+          <a:off x="400792" y="1260458"/>
+          <a:ext cx="10725282" cy="5466914"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF">
-            <a:shade val="85000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="88900" cap="sq">
+        <a:ln w="38100">
           <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="40000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="twoPt" dir="t">
-            <a:rot lat="0" lon="0" rev="7200000"/>
-          </a:lightRig>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT w="25400" h="19050"/>
-          <a:contourClr>
-            <a:srgbClr val="FFFFFF"/>
-          </a:contourClr>
-        </a:sp3d>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1816,8 +1822,8 @@
   </sheetPr>
   <dimension ref="A1:IT151"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="AD73" sqref="AD73:AL73"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1826,81 +1832,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="47" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="48" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="47" t="s">
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="48" t="s">
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="47" t="s">
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="48" t="s">
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="48"/>
-      <c r="AR1" s="48"/>
-      <c r="AS1" s="48"/>
-      <c r="AT1" s="48"/>
-      <c r="AU1" s="48"/>
-      <c r="AV1" s="48"/>
-      <c r="AW1" s="47" t="s">
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="36" t="s">
+      <c r="AX1" s="48"/>
+      <c r="AY1" s="48"/>
+      <c r="AZ1" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="BA1" s="36"/>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="36"/>
-      <c r="BD1" s="36"/>
-      <c r="BE1" s="36"/>
+      <c r="BA1" s="50"/>
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="50"/>
+      <c r="BD1" s="50"/>
+      <c r="BE1" s="50"/>
       <c r="BF1" s="8"/>
       <c r="BG1" s="8"/>
       <c r="BH1" s="8"/>
@@ -2100,67 +2106,67 @@
       <c r="IT1" s="8"/>
     </row>
     <row r="2" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="47" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="48"/>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="48"/>
-      <c r="AS2" s="48"/>
-      <c r="AT2" s="48"/>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="47" t="s">
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="36"/>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="36"/>
-      <c r="BE2" s="36"/>
+      <c r="AX2" s="48"/>
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="50"/>
+      <c r="BA2" s="50"/>
+      <c r="BB2" s="50"/>
+      <c r="BC2" s="50"/>
+      <c r="BD2" s="50"/>
+      <c r="BE2" s="50"/>
       <c r="BF2" s="8"/>
       <c r="BG2" s="8"/>
       <c r="BH2" s="8"/>
@@ -2616,71 +2622,71 @@
       <c r="IT3" s="8"/>
     </row>
     <row r="4" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="38" t="s">
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="39" t="s">
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="40"/>
-      <c r="AQ4" s="40"/>
-      <c r="AR4" s="40"/>
-      <c r="AS4" s="40"/>
-      <c r="AT4" s="40"/>
-      <c r="AU4" s="40"/>
-      <c r="AV4" s="40"/>
-      <c r="AW4" s="40"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="40"/>
-      <c r="AZ4" s="40"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="40"/>
-      <c r="BC4" s="40"/>
-      <c r="BD4" s="40"/>
-      <c r="BE4" s="40"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="41"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="41"/>
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="41"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="41"/>
+      <c r="BD4" s="41"/>
+      <c r="BE4" s="41"/>
       <c r="BF4" s="8"/>
       <c r="BG4" s="8"/>
       <c r="BH4" s="8"/>
@@ -2880,63 +2886,63 @@
       <c r="IT4" s="8"/>
     </row>
     <row r="5" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="40"/>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="40"/>
-      <c r="AM5" s="40"/>
-      <c r="AN5" s="40"/>
-      <c r="AO5" s="40"/>
-      <c r="AP5" s="40"/>
-      <c r="AQ5" s="40"/>
-      <c r="AR5" s="40"/>
-      <c r="AS5" s="40"/>
-      <c r="AT5" s="40"/>
-      <c r="AU5" s="40"/>
-      <c r="AV5" s="40"/>
-      <c r="AW5" s="40"/>
-      <c r="AX5" s="40"/>
-      <c r="AY5" s="40"/>
-      <c r="AZ5" s="40"/>
-      <c r="BA5" s="40"/>
-      <c r="BB5" s="40"/>
-      <c r="BC5" s="40"/>
-      <c r="BD5" s="40"/>
-      <c r="BE5" s="40"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="41"/>
+      <c r="AO5" s="41"/>
+      <c r="AP5" s="41"/>
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="41"/>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="41"/>
+      <c r="AU5" s="41"/>
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="41"/>
+      <c r="AX5" s="41"/>
+      <c r="AY5" s="41"/>
+      <c r="AZ5" s="41"/>
+      <c r="BA5" s="41"/>
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="41"/>
+      <c r="BD5" s="41"/>
+      <c r="BE5" s="41"/>
       <c r="BF5" s="8"/>
       <c r="BG5" s="8"/>
       <c r="BH5" s="8"/>
@@ -8469,81 +8475,81 @@
       <c r="BE35" s="24"/>
     </row>
     <row r="36" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="47" t="s">
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="48" t="s">
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="R36" s="48"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="48"/>
-      <c r="U36" s="48"/>
-      <c r="V36" s="48"/>
-      <c r="W36" s="48"/>
-      <c r="X36" s="48"/>
-      <c r="Y36" s="48"/>
-      <c r="Z36" s="47" t="s">
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="AA36" s="47"/>
-      <c r="AB36" s="47"/>
-      <c r="AC36" s="47"/>
-      <c r="AD36" s="48" t="s">
+      <c r="AA36" s="48"/>
+      <c r="AB36" s="48"/>
+      <c r="AC36" s="48"/>
+      <c r="AD36" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="AE36" s="48"/>
-      <c r="AF36" s="48"/>
-      <c r="AG36" s="48"/>
-      <c r="AH36" s="48"/>
-      <c r="AI36" s="48"/>
-      <c r="AJ36" s="48"/>
-      <c r="AK36" s="48"/>
-      <c r="AL36" s="48"/>
-      <c r="AM36" s="47" t="s">
+      <c r="AE36" s="49"/>
+      <c r="AF36" s="49"/>
+      <c r="AG36" s="49"/>
+      <c r="AH36" s="49"/>
+      <c r="AI36" s="49"/>
+      <c r="AJ36" s="49"/>
+      <c r="AK36" s="49"/>
+      <c r="AL36" s="49"/>
+      <c r="AM36" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="AN36" s="47"/>
-      <c r="AO36" s="47"/>
-      <c r="AP36" s="48" t="s">
+      <c r="AN36" s="48"/>
+      <c r="AO36" s="48"/>
+      <c r="AP36" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="AQ36" s="48"/>
-      <c r="AR36" s="48"/>
-      <c r="AS36" s="48"/>
-      <c r="AT36" s="48"/>
-      <c r="AU36" s="48"/>
-      <c r="AV36" s="48"/>
-      <c r="AW36" s="47" t="s">
+      <c r="AQ36" s="49"/>
+      <c r="AR36" s="49"/>
+      <c r="AS36" s="49"/>
+      <c r="AT36" s="49"/>
+      <c r="AU36" s="49"/>
+      <c r="AV36" s="49"/>
+      <c r="AW36" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AX36" s="47"/>
-      <c r="AY36" s="47"/>
-      <c r="AZ36" s="36" t="s">
+      <c r="AX36" s="48"/>
+      <c r="AY36" s="48"/>
+      <c r="AZ36" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="BA36" s="36"/>
-      <c r="BB36" s="36"/>
-      <c r="BC36" s="36"/>
-      <c r="BD36" s="36"/>
-      <c r="BE36" s="36"/>
+      <c r="BA36" s="50"/>
+      <c r="BB36" s="50"/>
+      <c r="BC36" s="50"/>
+      <c r="BD36" s="50"/>
+      <c r="BE36" s="50"/>
       <c r="BF36" s="8"/>
       <c r="BG36" s="8"/>
       <c r="BH36" s="8"/>
@@ -8743,67 +8749,67 @@
       <c r="IT36" s="8"/>
     </row>
     <row r="37" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="48"/>
-      <c r="W37" s="48"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="48"/>
-      <c r="Z37" s="47"/>
-      <c r="AA37" s="47"/>
-      <c r="AB37" s="47"/>
-      <c r="AC37" s="47"/>
-      <c r="AD37" s="48"/>
-      <c r="AE37" s="48"/>
-      <c r="AF37" s="48"/>
-      <c r="AG37" s="48"/>
-      <c r="AH37" s="48"/>
-      <c r="AI37" s="48"/>
-      <c r="AJ37" s="48"/>
-      <c r="AK37" s="48"/>
-      <c r="AL37" s="48"/>
-      <c r="AM37" s="47" t="s">
+      <c r="A37" s="45"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="48"/>
+      <c r="AA37" s="48"/>
+      <c r="AB37" s="48"/>
+      <c r="AC37" s="48"/>
+      <c r="AD37" s="49"/>
+      <c r="AE37" s="49"/>
+      <c r="AF37" s="49"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="49"/>
+      <c r="AI37" s="49"/>
+      <c r="AJ37" s="49"/>
+      <c r="AK37" s="49"/>
+      <c r="AL37" s="49"/>
+      <c r="AM37" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="AN37" s="47"/>
-      <c r="AO37" s="47"/>
-      <c r="AP37" s="48"/>
-      <c r="AQ37" s="48"/>
-      <c r="AR37" s="48"/>
-      <c r="AS37" s="48"/>
-      <c r="AT37" s="48"/>
-      <c r="AU37" s="48"/>
-      <c r="AV37" s="48"/>
-      <c r="AW37" s="47" t="s">
+      <c r="AN37" s="48"/>
+      <c r="AO37" s="48"/>
+      <c r="AP37" s="49"/>
+      <c r="AQ37" s="49"/>
+      <c r="AR37" s="49"/>
+      <c r="AS37" s="49"/>
+      <c r="AT37" s="49"/>
+      <c r="AU37" s="49"/>
+      <c r="AV37" s="49"/>
+      <c r="AW37" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AX37" s="47"/>
-      <c r="AY37" s="47"/>
-      <c r="AZ37" s="36"/>
-      <c r="BA37" s="36"/>
-      <c r="BB37" s="36"/>
-      <c r="BC37" s="36"/>
-      <c r="BD37" s="36"/>
-      <c r="BE37" s="36"/>
+      <c r="AX37" s="48"/>
+      <c r="AY37" s="48"/>
+      <c r="AZ37" s="50"/>
+      <c r="BA37" s="50"/>
+      <c r="BB37" s="50"/>
+      <c r="BC37" s="50"/>
+      <c r="BD37" s="50"/>
+      <c r="BE37" s="50"/>
       <c r="BF37" s="8"/>
       <c r="BG37" s="8"/>
       <c r="BH37" s="8"/>
@@ -9259,71 +9265,71 @@
       <c r="IT38" s="8"/>
     </row>
     <row r="39" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="39" t="s">
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="40"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
-      <c r="W39" s="40"/>
-      <c r="X39" s="38" t="s">
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="Y39" s="38"/>
-      <c r="Z39" s="38"/>
-      <c r="AA39" s="38"/>
-      <c r="AB39" s="38"/>
-      <c r="AC39" s="39" t="s">
+      <c r="Y39" s="39"/>
+      <c r="Z39" s="39"/>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="39"/>
+      <c r="AC39" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="AD39" s="40"/>
-      <c r="AE39" s="40"/>
-      <c r="AF39" s="40"/>
-      <c r="AG39" s="40"/>
-      <c r="AH39" s="40"/>
-      <c r="AI39" s="40"/>
-      <c r="AJ39" s="40"/>
-      <c r="AK39" s="40"/>
-      <c r="AL39" s="40"/>
-      <c r="AM39" s="40"/>
-      <c r="AN39" s="40"/>
-      <c r="AO39" s="40"/>
-      <c r="AP39" s="40"/>
-      <c r="AQ39" s="40"/>
-      <c r="AR39" s="40"/>
-      <c r="AS39" s="40"/>
-      <c r="AT39" s="40"/>
-      <c r="AU39" s="40"/>
-      <c r="AV39" s="40"/>
-      <c r="AW39" s="40"/>
-      <c r="AX39" s="40"/>
-      <c r="AY39" s="40"/>
-      <c r="AZ39" s="40"/>
-      <c r="BA39" s="40"/>
-      <c r="BB39" s="40"/>
-      <c r="BC39" s="40"/>
-      <c r="BD39" s="40"/>
-      <c r="BE39" s="40"/>
+      <c r="AD39" s="41"/>
+      <c r="AE39" s="41"/>
+      <c r="AF39" s="41"/>
+      <c r="AG39" s="41"/>
+      <c r="AH39" s="41"/>
+      <c r="AI39" s="41"/>
+      <c r="AJ39" s="41"/>
+      <c r="AK39" s="41"/>
+      <c r="AL39" s="41"/>
+      <c r="AM39" s="41"/>
+      <c r="AN39" s="41"/>
+      <c r="AO39" s="41"/>
+      <c r="AP39" s="41"/>
+      <c r="AQ39" s="41"/>
+      <c r="AR39" s="41"/>
+      <c r="AS39" s="41"/>
+      <c r="AT39" s="41"/>
+      <c r="AU39" s="41"/>
+      <c r="AV39" s="41"/>
+      <c r="AW39" s="41"/>
+      <c r="AX39" s="41"/>
+      <c r="AY39" s="41"/>
+      <c r="AZ39" s="41"/>
+      <c r="BA39" s="41"/>
+      <c r="BB39" s="41"/>
+      <c r="BC39" s="41"/>
+      <c r="BD39" s="41"/>
+      <c r="BE39" s="41"/>
       <c r="BF39" s="8"/>
       <c r="BG39" s="8"/>
       <c r="BH39" s="8"/>
@@ -9523,63 +9529,63 @@
       <c r="IT39" s="8"/>
     </row>
     <row r="40" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="40"/>
-      <c r="U40" s="40"/>
-      <c r="V40" s="40"/>
-      <c r="W40" s="40"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="38"/>
-      <c r="Z40" s="38"/>
-      <c r="AA40" s="38"/>
-      <c r="AB40" s="38"/>
-      <c r="AC40" s="40"/>
-      <c r="AD40" s="40"/>
-      <c r="AE40" s="40"/>
-      <c r="AF40" s="40"/>
-      <c r="AG40" s="40"/>
-      <c r="AH40" s="40"/>
-      <c r="AI40" s="40"/>
-      <c r="AJ40" s="40"/>
-      <c r="AK40" s="40"/>
-      <c r="AL40" s="40"/>
-      <c r="AM40" s="40"/>
-      <c r="AN40" s="40"/>
-      <c r="AO40" s="40"/>
-      <c r="AP40" s="40"/>
-      <c r="AQ40" s="40"/>
-      <c r="AR40" s="40"/>
-      <c r="AS40" s="40"/>
-      <c r="AT40" s="40"/>
-      <c r="AU40" s="40"/>
-      <c r="AV40" s="40"/>
-      <c r="AW40" s="40"/>
-      <c r="AX40" s="40"/>
-      <c r="AY40" s="40"/>
-      <c r="AZ40" s="40"/>
-      <c r="BA40" s="40"/>
-      <c r="BB40" s="40"/>
-      <c r="BC40" s="40"/>
-      <c r="BD40" s="40"/>
-      <c r="BE40" s="40"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="41"/>
+      <c r="X40" s="39"/>
+      <c r="Y40" s="39"/>
+      <c r="Z40" s="39"/>
+      <c r="AA40" s="39"/>
+      <c r="AB40" s="39"/>
+      <c r="AC40" s="41"/>
+      <c r="AD40" s="41"/>
+      <c r="AE40" s="41"/>
+      <c r="AF40" s="41"/>
+      <c r="AG40" s="41"/>
+      <c r="AH40" s="41"/>
+      <c r="AI40" s="41"/>
+      <c r="AJ40" s="41"/>
+      <c r="AK40" s="41"/>
+      <c r="AL40" s="41"/>
+      <c r="AM40" s="41"/>
+      <c r="AN40" s="41"/>
+      <c r="AO40" s="41"/>
+      <c r="AP40" s="41"/>
+      <c r="AQ40" s="41"/>
+      <c r="AR40" s="41"/>
+      <c r="AS40" s="41"/>
+      <c r="AT40" s="41"/>
+      <c r="AU40" s="41"/>
+      <c r="AV40" s="41"/>
+      <c r="AW40" s="41"/>
+      <c r="AX40" s="41"/>
+      <c r="AY40" s="41"/>
+      <c r="AZ40" s="41"/>
+      <c r="BA40" s="41"/>
+      <c r="BB40" s="41"/>
+      <c r="BC40" s="41"/>
+      <c r="BD40" s="41"/>
+      <c r="BE40" s="41"/>
       <c r="BF40" s="8"/>
       <c r="BG40" s="8"/>
       <c r="BH40" s="8"/>
@@ -15368,144 +15374,144 @@
       <c r="BE71" s="24"/>
     </row>
     <row r="72" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="41" t="s">
+      <c r="A72" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
-      <c r="L72" s="43"/>
-      <c r="M72" s="47" t="s">
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="N72" s="47"/>
-      <c r="O72" s="47"/>
-      <c r="P72" s="47"/>
-      <c r="Q72" s="48" t="s">
+      <c r="N72" s="48"/>
+      <c r="O72" s="48"/>
+      <c r="P72" s="48"/>
+      <c r="Q72" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="R72" s="48"/>
-      <c r="S72" s="48"/>
-      <c r="T72" s="48"/>
-      <c r="U72" s="48"/>
-      <c r="V72" s="48"/>
-      <c r="W72" s="48"/>
-      <c r="X72" s="48"/>
-      <c r="Y72" s="48"/>
-      <c r="Z72" s="47" t="s">
+      <c r="R72" s="49"/>
+      <c r="S72" s="49"/>
+      <c r="T72" s="49"/>
+      <c r="U72" s="49"/>
+      <c r="V72" s="49"/>
+      <c r="W72" s="49"/>
+      <c r="X72" s="49"/>
+      <c r="Y72" s="49"/>
+      <c r="Z72" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="AA72" s="47"/>
-      <c r="AB72" s="47"/>
-      <c r="AC72" s="47"/>
-      <c r="AD72" s="48" t="s">
+      <c r="AA72" s="48"/>
+      <c r="AB72" s="48"/>
+      <c r="AC72" s="48"/>
+      <c r="AD72" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="AE72" s="48"/>
-      <c r="AF72" s="48"/>
-      <c r="AG72" s="48"/>
-      <c r="AH72" s="48"/>
-      <c r="AI72" s="48"/>
-      <c r="AJ72" s="48"/>
-      <c r="AK72" s="48"/>
-      <c r="AL72" s="48"/>
-      <c r="AM72" s="47" t="s">
+      <c r="AE72" s="49"/>
+      <c r="AF72" s="49"/>
+      <c r="AG72" s="49"/>
+      <c r="AH72" s="49"/>
+      <c r="AI72" s="49"/>
+      <c r="AJ72" s="49"/>
+      <c r="AK72" s="49"/>
+      <c r="AL72" s="49"/>
+      <c r="AM72" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="AN72" s="47"/>
-      <c r="AO72" s="47"/>
-      <c r="AP72" s="48" t="s">
+      <c r="AN72" s="48"/>
+      <c r="AO72" s="48"/>
+      <c r="AP72" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="AQ72" s="48"/>
-      <c r="AR72" s="48"/>
-      <c r="AS72" s="48"/>
-      <c r="AT72" s="48"/>
-      <c r="AU72" s="48"/>
-      <c r="AV72" s="48"/>
-      <c r="AW72" s="47" t="s">
+      <c r="AQ72" s="49"/>
+      <c r="AR72" s="49"/>
+      <c r="AS72" s="49"/>
+      <c r="AT72" s="49"/>
+      <c r="AU72" s="49"/>
+      <c r="AV72" s="49"/>
+      <c r="AW72" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AX72" s="47"/>
-      <c r="AY72" s="47"/>
-      <c r="AZ72" s="36" t="s">
+      <c r="AX72" s="48"/>
+      <c r="AY72" s="48"/>
+      <c r="AZ72" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="BA72" s="36"/>
-      <c r="BB72" s="36"/>
-      <c r="BC72" s="36"/>
-      <c r="BD72" s="36"/>
-      <c r="BE72" s="36"/>
+      <c r="BA72" s="50"/>
+      <c r="BB72" s="50"/>
+      <c r="BC72" s="50"/>
+      <c r="BD72" s="50"/>
+      <c r="BE72" s="50"/>
     </row>
     <row r="73" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="44"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="45"/>
-      <c r="J73" s="45"/>
-      <c r="K73" s="45"/>
-      <c r="L73" s="46"/>
-      <c r="M73" s="47"/>
-      <c r="N73" s="47"/>
-      <c r="O73" s="47"/>
-      <c r="P73" s="47"/>
-      <c r="Q73" s="48"/>
-      <c r="R73" s="48"/>
-      <c r="S73" s="48"/>
-      <c r="T73" s="48"/>
-      <c r="U73" s="48"/>
-      <c r="V73" s="48"/>
-      <c r="W73" s="48"/>
-      <c r="X73" s="48"/>
-      <c r="Y73" s="48"/>
-      <c r="Z73" s="47"/>
-      <c r="AA73" s="47"/>
-      <c r="AB73" s="47"/>
-      <c r="AC73" s="47"/>
-      <c r="AD73" s="48"/>
-      <c r="AE73" s="48"/>
-      <c r="AF73" s="48"/>
-      <c r="AG73" s="48"/>
-      <c r="AH73" s="48"/>
-      <c r="AI73" s="48"/>
-      <c r="AJ73" s="48"/>
-      <c r="AK73" s="48"/>
-      <c r="AL73" s="48"/>
-      <c r="AM73" s="47" t="s">
+      <c r="A73" s="45"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="47"/>
+      <c r="M73" s="48"/>
+      <c r="N73" s="48"/>
+      <c r="O73" s="48"/>
+      <c r="P73" s="48"/>
+      <c r="Q73" s="49"/>
+      <c r="R73" s="49"/>
+      <c r="S73" s="49"/>
+      <c r="T73" s="49"/>
+      <c r="U73" s="49"/>
+      <c r="V73" s="49"/>
+      <c r="W73" s="49"/>
+      <c r="X73" s="49"/>
+      <c r="Y73" s="49"/>
+      <c r="Z73" s="48"/>
+      <c r="AA73" s="48"/>
+      <c r="AB73" s="48"/>
+      <c r="AC73" s="48"/>
+      <c r="AD73" s="49"/>
+      <c r="AE73" s="49"/>
+      <c r="AF73" s="49"/>
+      <c r="AG73" s="49"/>
+      <c r="AH73" s="49"/>
+      <c r="AI73" s="49"/>
+      <c r="AJ73" s="49"/>
+      <c r="AK73" s="49"/>
+      <c r="AL73" s="49"/>
+      <c r="AM73" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="AN73" s="47"/>
-      <c r="AO73" s="47"/>
-      <c r="AP73" s="48"/>
-      <c r="AQ73" s="48"/>
-      <c r="AR73" s="48"/>
-      <c r="AS73" s="48"/>
-      <c r="AT73" s="48"/>
-      <c r="AU73" s="48"/>
-      <c r="AV73" s="48"/>
-      <c r="AW73" s="47" t="s">
+      <c r="AN73" s="48"/>
+      <c r="AO73" s="48"/>
+      <c r="AP73" s="49"/>
+      <c r="AQ73" s="49"/>
+      <c r="AR73" s="49"/>
+      <c r="AS73" s="49"/>
+      <c r="AT73" s="49"/>
+      <c r="AU73" s="49"/>
+      <c r="AV73" s="49"/>
+      <c r="AW73" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AX73" s="47"/>
-      <c r="AY73" s="47"/>
-      <c r="AZ73" s="36"/>
-      <c r="BA73" s="36"/>
-      <c r="BB73" s="36"/>
-      <c r="BC73" s="36"/>
-      <c r="BD73" s="36"/>
-      <c r="BE73" s="36"/>
+      <c r="AX73" s="48"/>
+      <c r="AY73" s="48"/>
+      <c r="AZ73" s="50"/>
+      <c r="BA73" s="50"/>
+      <c r="BB73" s="50"/>
+      <c r="BC73" s="50"/>
+      <c r="BD73" s="50"/>
+      <c r="BE73" s="50"/>
     </row>
     <row r="74" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
@@ -15567,130 +15573,130 @@
       <c r="BE74" s="5"/>
     </row>
     <row r="75" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="37"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="39" t="s">
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="G75" s="39"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="39"/>
-      <c r="J75" s="39"/>
-      <c r="K75" s="39"/>
-      <c r="L75" s="39"/>
-      <c r="M75" s="39"/>
-      <c r="N75" s="39"/>
-      <c r="O75" s="39"/>
-      <c r="P75" s="39"/>
-      <c r="Q75" s="39"/>
-      <c r="R75" s="39"/>
-      <c r="S75" s="39"/>
-      <c r="T75" s="39"/>
-      <c r="U75" s="39"/>
-      <c r="V75" s="39"/>
-      <c r="W75" s="39"/>
-      <c r="X75" s="37" t="s">
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="40"/>
+      <c r="L75" s="40"/>
+      <c r="M75" s="40"/>
+      <c r="N75" s="40"/>
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="40"/>
+      <c r="R75" s="40"/>
+      <c r="S75" s="40"/>
+      <c r="T75" s="40"/>
+      <c r="U75" s="40"/>
+      <c r="V75" s="40"/>
+      <c r="W75" s="40"/>
+      <c r="X75" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="Y75" s="37"/>
-      <c r="Z75" s="37"/>
-      <c r="AA75" s="37"/>
-      <c r="AB75" s="37"/>
-      <c r="AC75" s="39" t="s">
+      <c r="Y75" s="38"/>
+      <c r="Z75" s="38"/>
+      <c r="AA75" s="38"/>
+      <c r="AB75" s="38"/>
+      <c r="AC75" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AD75" s="39"/>
-      <c r="AE75" s="39"/>
-      <c r="AF75" s="39"/>
-      <c r="AG75" s="39"/>
-      <c r="AH75" s="39"/>
-      <c r="AI75" s="39"/>
-      <c r="AJ75" s="39"/>
-      <c r="AK75" s="39"/>
-      <c r="AL75" s="39"/>
-      <c r="AM75" s="39"/>
-      <c r="AN75" s="39"/>
-      <c r="AO75" s="39"/>
-      <c r="AP75" s="39"/>
-      <c r="AQ75" s="39"/>
-      <c r="AR75" s="39"/>
-      <c r="AS75" s="39"/>
-      <c r="AT75" s="39"/>
-      <c r="AU75" s="39"/>
-      <c r="AV75" s="39"/>
-      <c r="AW75" s="39"/>
-      <c r="AX75" s="39"/>
-      <c r="AY75" s="39"/>
-      <c r="AZ75" s="39"/>
-      <c r="BA75" s="39"/>
-      <c r="BB75" s="39"/>
-      <c r="BC75" s="39"/>
-      <c r="BD75" s="39"/>
-      <c r="BE75" s="39"/>
+      <c r="AD75" s="40"/>
+      <c r="AE75" s="40"/>
+      <c r="AF75" s="40"/>
+      <c r="AG75" s="40"/>
+      <c r="AH75" s="40"/>
+      <c r="AI75" s="40"/>
+      <c r="AJ75" s="40"/>
+      <c r="AK75" s="40"/>
+      <c r="AL75" s="40"/>
+      <c r="AM75" s="40"/>
+      <c r="AN75" s="40"/>
+      <c r="AO75" s="40"/>
+      <c r="AP75" s="40"/>
+      <c r="AQ75" s="40"/>
+      <c r="AR75" s="40"/>
+      <c r="AS75" s="40"/>
+      <c r="AT75" s="40"/>
+      <c r="AU75" s="40"/>
+      <c r="AV75" s="40"/>
+      <c r="AW75" s="40"/>
+      <c r="AX75" s="40"/>
+      <c r="AY75" s="40"/>
+      <c r="AZ75" s="40"/>
+      <c r="BA75" s="40"/>
+      <c r="BB75" s="40"/>
+      <c r="BC75" s="40"/>
+      <c r="BD75" s="40"/>
+      <c r="BE75" s="40"/>
     </row>
     <row r="76" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A76" s="37"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="39"/>
-      <c r="J76" s="39"/>
-      <c r="K76" s="39"/>
-      <c r="L76" s="39"/>
-      <c r="M76" s="39"/>
-      <c r="N76" s="39"/>
-      <c r="O76" s="39"/>
-      <c r="P76" s="39"/>
-      <c r="Q76" s="39"/>
-      <c r="R76" s="39"/>
-      <c r="S76" s="39"/>
-      <c r="T76" s="39"/>
-      <c r="U76" s="39"/>
-      <c r="V76" s="39"/>
-      <c r="W76" s="39"/>
-      <c r="X76" s="37"/>
-      <c r="Y76" s="37"/>
-      <c r="Z76" s="37"/>
-      <c r="AA76" s="37"/>
-      <c r="AB76" s="37"/>
-      <c r="AC76" s="39"/>
-      <c r="AD76" s="39"/>
-      <c r="AE76" s="39"/>
-      <c r="AF76" s="39"/>
-      <c r="AG76" s="39"/>
-      <c r="AH76" s="39"/>
-      <c r="AI76" s="39"/>
-      <c r="AJ76" s="39"/>
-      <c r="AK76" s="39"/>
-      <c r="AL76" s="39"/>
-      <c r="AM76" s="39"/>
-      <c r="AN76" s="39"/>
-      <c r="AO76" s="39"/>
-      <c r="AP76" s="39"/>
-      <c r="AQ76" s="39"/>
-      <c r="AR76" s="39"/>
-      <c r="AS76" s="39"/>
-      <c r="AT76" s="39"/>
-      <c r="AU76" s="39"/>
-      <c r="AV76" s="39"/>
-      <c r="AW76" s="39"/>
-      <c r="AX76" s="39"/>
-      <c r="AY76" s="39"/>
-      <c r="AZ76" s="39"/>
-      <c r="BA76" s="39"/>
-      <c r="BB76" s="39"/>
-      <c r="BC76" s="39"/>
-      <c r="BD76" s="39"/>
-      <c r="BE76" s="39"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="40"/>
+      <c r="R76" s="40"/>
+      <c r="S76" s="40"/>
+      <c r="T76" s="40"/>
+      <c r="U76" s="40"/>
+      <c r="V76" s="40"/>
+      <c r="W76" s="40"/>
+      <c r="X76" s="38"/>
+      <c r="Y76" s="38"/>
+      <c r="Z76" s="38"/>
+      <c r="AA76" s="38"/>
+      <c r="AB76" s="38"/>
+      <c r="AC76" s="40"/>
+      <c r="AD76" s="40"/>
+      <c r="AE76" s="40"/>
+      <c r="AF76" s="40"/>
+      <c r="AG76" s="40"/>
+      <c r="AH76" s="40"/>
+      <c r="AI76" s="40"/>
+      <c r="AJ76" s="40"/>
+      <c r="AK76" s="40"/>
+      <c r="AL76" s="40"/>
+      <c r="AM76" s="40"/>
+      <c r="AN76" s="40"/>
+      <c r="AO76" s="40"/>
+      <c r="AP76" s="40"/>
+      <c r="AQ76" s="40"/>
+      <c r="AR76" s="40"/>
+      <c r="AS76" s="40"/>
+      <c r="AT76" s="40"/>
+      <c r="AU76" s="40"/>
+      <c r="AV76" s="40"/>
+      <c r="AW76" s="40"/>
+      <c r="AX76" s="40"/>
+      <c r="AY76" s="40"/>
+      <c r="AZ76" s="40"/>
+      <c r="BA76" s="40"/>
+      <c r="BB76" s="40"/>
+      <c r="BC76" s="40"/>
+      <c r="BD76" s="40"/>
+      <c r="BE76" s="40"/>
     </row>
     <row r="77" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A77" s="9"/>
@@ -17527,6 +17533,8 @@
     <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="Q37:Y37"/>
+    <mergeCell ref="AZ37:BE37"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="A4:E5"/>
     <mergeCell ref="A75:E76"/>
@@ -17541,9 +17549,6 @@
     <mergeCell ref="Q2:Y2"/>
     <mergeCell ref="A72:L73"/>
     <mergeCell ref="M73:P73"/>
-    <mergeCell ref="Q73:Y73"/>
-    <mergeCell ref="Z73:AC73"/>
-    <mergeCell ref="AP37:AV37"/>
     <mergeCell ref="AM72:AO72"/>
     <mergeCell ref="AP72:AV72"/>
     <mergeCell ref="F75:W76"/>
@@ -17557,7 +17562,8 @@
     <mergeCell ref="AD73:AL73"/>
     <mergeCell ref="AM73:AO73"/>
     <mergeCell ref="AP73:AV73"/>
-    <mergeCell ref="Q37:Y37"/>
+    <mergeCell ref="Q73:Y73"/>
+    <mergeCell ref="Z73:AC73"/>
     <mergeCell ref="Q1:Y1"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="AD1:AL1"/>
@@ -17574,7 +17580,6 @@
     <mergeCell ref="AP1:AV1"/>
     <mergeCell ref="AW37:AY37"/>
     <mergeCell ref="AM37:AO37"/>
-    <mergeCell ref="AZ37:BE37"/>
     <mergeCell ref="A39:E40"/>
     <mergeCell ref="F39:W40"/>
     <mergeCell ref="X39:AB40"/>
@@ -17590,6 +17595,7 @@
     <mergeCell ref="AZ36:BE36"/>
     <mergeCell ref="M37:P37"/>
     <mergeCell ref="Z37:AC37"/>
+    <mergeCell ref="AP37:AV37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -17611,7 +17617,7 @@
   </sheetPr>
   <dimension ref="A1:HY82"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
@@ -17621,79 +17627,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="47" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="48" t="s">
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="47" t="s">
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="48" t="s">
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="47" t="s">
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="48" t="s">
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="48"/>
-      <c r="AQ1" s="48"/>
-      <c r="AR1" s="48"/>
-      <c r="AS1" s="48"/>
-      <c r="AT1" s="48"/>
-      <c r="AU1" s="47" t="s">
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="36" t="s">
+      <c r="AV1" s="48"/>
+      <c r="AW1" s="48"/>
+      <c r="AX1" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="36"/>
-      <c r="BA1" s="36"/>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="36"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="50"/>
+      <c r="BA1" s="50"/>
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="50"/>
       <c r="BD1" s="3"/>
       <c r="BE1" s="3"/>
       <c r="BF1" s="3"/>
@@ -17874,65 +17880,65 @@
       <c r="HY1" s="3"/>
     </row>
     <row r="2" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="47" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="48"/>
-      <c r="AP2" s="48"/>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="48"/>
-      <c r="AS2" s="48"/>
-      <c r="AT2" s="48"/>
-      <c r="AU2" s="47" t="s">
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="36"/>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="50"/>
+      <c r="BA2" s="50"/>
+      <c r="BB2" s="50"/>
+      <c r="BC2" s="50"/>
       <c r="BD2" s="3"/>
       <c r="BE2" s="3"/>
       <c r="BF2" s="3"/>
@@ -18348,69 +18354,69 @@
       <c r="HY3" s="3"/>
     </row>
     <row r="4" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="55" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="57" t="s">
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="55" t="s">
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="55"/>
-      <c r="AH4" s="55"/>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="55"/>
-      <c r="AK4" s="55"/>
-      <c r="AL4" s="55"/>
-      <c r="AM4" s="55"/>
-      <c r="AN4" s="55"/>
-      <c r="AO4" s="55"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="55"/>
-      <c r="AR4" s="55"/>
-      <c r="AS4" s="55"/>
-      <c r="AT4" s="55"/>
-      <c r="AU4" s="55"/>
-      <c r="AV4" s="55"/>
-      <c r="AW4" s="55"/>
-      <c r="AX4" s="55"/>
-      <c r="AY4" s="55"/>
-      <c r="AZ4" s="55"/>
-      <c r="BA4" s="55"/>
-      <c r="BB4" s="55"/>
-      <c r="BC4" s="55"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="51"/>
+      <c r="AK4" s="51"/>
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="51"/>
+      <c r="AP4" s="51"/>
+      <c r="AQ4" s="51"/>
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="51"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="51"/>
+      <c r="BC4" s="51"/>
       <c r="BD4" s="3"/>
       <c r="BE4" s="3"/>
       <c r="BF4" s="3"/>
@@ -18591,61 +18597,61 @@
       <c r="HY4" s="3"/>
     </row>
     <row r="5" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="58"/>
-      <c r="Z5" s="58"/>
-      <c r="AA5" s="58"/>
-      <c r="AB5" s="58"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="56"/>
-      <c r="AQ5" s="56"/>
-      <c r="AR5" s="56"/>
-      <c r="AS5" s="56"/>
-      <c r="AT5" s="56"/>
-      <c r="AU5" s="56"/>
-      <c r="AV5" s="56"/>
-      <c r="AW5" s="56"/>
-      <c r="AX5" s="56"/>
-      <c r="AY5" s="56"/>
-      <c r="AZ5" s="56"/>
-      <c r="BA5" s="56"/>
-      <c r="BB5" s="56"/>
-      <c r="BC5" s="56"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="52"/>
+      <c r="AK5" s="52"/>
+      <c r="AL5" s="52"/>
+      <c r="AM5" s="52"/>
+      <c r="AN5" s="52"/>
+      <c r="AO5" s="52"/>
+      <c r="AP5" s="52"/>
+      <c r="AQ5" s="52"/>
+      <c r="AR5" s="52"/>
+      <c r="AS5" s="52"/>
+      <c r="AT5" s="52"/>
+      <c r="AU5" s="52"/>
+      <c r="AV5" s="52"/>
+      <c r="AW5" s="52"/>
+      <c r="AX5" s="52"/>
+      <c r="AY5" s="52"/>
+      <c r="AZ5" s="52"/>
+      <c r="BA5" s="52"/>
+      <c r="BB5" s="52"/>
+      <c r="BC5" s="52"/>
       <c r="BD5" s="3"/>
       <c r="BE5" s="3"/>
       <c r="BF5" s="3"/>
@@ -19046,71 +19052,71 @@
       <c r="HR6" s="3"/>
     </row>
     <row r="7" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38" t="s">
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38" t="s">
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38" t="s">
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="38"/>
-      <c r="AQ7" s="38"/>
-      <c r="AR7" s="38"/>
-      <c r="AS7" s="38"/>
-      <c r="AT7" s="38"/>
-      <c r="AU7" s="38"/>
-      <c r="AV7" s="38"/>
-      <c r="AW7" s="38"/>
-      <c r="AX7" s="38"/>
-      <c r="AY7" s="38"/>
-      <c r="AZ7" s="38"/>
-      <c r="BA7" s="38"/>
-      <c r="BB7" s="38"/>
-      <c r="BC7" s="38"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="39"/>
+      <c r="AP7" s="39"/>
+      <c r="AQ7" s="39"/>
+      <c r="AR7" s="39"/>
+      <c r="AS7" s="39"/>
+      <c r="AT7" s="39"/>
+      <c r="AU7" s="39"/>
+      <c r="AV7" s="39"/>
+      <c r="AW7" s="39"/>
+      <c r="AX7" s="39"/>
+      <c r="AY7" s="39"/>
+      <c r="AZ7" s="39"/>
+      <c r="BA7" s="39"/>
+      <c r="BB7" s="39"/>
+      <c r="BC7" s="39"/>
       <c r="BD7" s="3"/>
       <c r="BE7" s="3"/>
       <c r="CP7" s="3"/>
@@ -19240,61 +19246,61 @@
       <c r="HJ7" s="3"/>
     </row>
     <row r="8" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="38"/>
-      <c r="AI8" s="38"/>
-      <c r="AJ8" s="38"/>
-      <c r="AK8" s="38"/>
-      <c r="AL8" s="38"/>
-      <c r="AM8" s="38"/>
-      <c r="AN8" s="38"/>
-      <c r="AO8" s="38"/>
-      <c r="AP8" s="38"/>
-      <c r="AQ8" s="38"/>
-      <c r="AR8" s="38"/>
-      <c r="AS8" s="38"/>
-      <c r="AT8" s="38"/>
-      <c r="AU8" s="38"/>
-      <c r="AV8" s="38"/>
-      <c r="AW8" s="38"/>
-      <c r="AX8" s="38"/>
-      <c r="AY8" s="38"/>
-      <c r="AZ8" s="38"/>
-      <c r="BA8" s="38"/>
-      <c r="BB8" s="38"/>
-      <c r="BC8" s="38"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="39"/>
+      <c r="AL8" s="39"/>
+      <c r="AM8" s="39"/>
+      <c r="AN8" s="39"/>
+      <c r="AO8" s="39"/>
+      <c r="AP8" s="39"/>
+      <c r="AQ8" s="39"/>
+      <c r="AR8" s="39"/>
+      <c r="AS8" s="39"/>
+      <c r="AT8" s="39"/>
+      <c r="AU8" s="39"/>
+      <c r="AV8" s="39"/>
+      <c r="AW8" s="39"/>
+      <c r="AX8" s="39"/>
+      <c r="AY8" s="39"/>
+      <c r="AZ8" s="39"/>
+      <c r="BA8" s="39"/>
+      <c r="BB8" s="39"/>
+      <c r="BC8" s="39"/>
       <c r="BD8" s="3"/>
       <c r="BE8" s="3"/>
       <c r="CP8" s="3"/>
@@ -19424,71 +19430,71 @@
       <c r="HJ8" s="3"/>
     </row>
     <row r="9" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="53" t="s">
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="53" t="s">
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="52" t="s">
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="49" t="s">
+      <c r="X9" s="68"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
-      <c r="AH9" s="50"/>
-      <c r="AI9" s="50"/>
-      <c r="AJ9" s="50"/>
-      <c r="AK9" s="50"/>
-      <c r="AL9" s="50"/>
-      <c r="AM9" s="50"/>
-      <c r="AN9" s="50"/>
-      <c r="AO9" s="50"/>
-      <c r="AP9" s="50"/>
-      <c r="AQ9" s="50"/>
-      <c r="AR9" s="50"/>
-      <c r="AS9" s="50"/>
-      <c r="AT9" s="50"/>
-      <c r="AU9" s="50"/>
-      <c r="AV9" s="50"/>
-      <c r="AW9" s="50"/>
-      <c r="AX9" s="50"/>
-      <c r="AY9" s="50"/>
-      <c r="AZ9" s="50"/>
-      <c r="BA9" s="50"/>
-      <c r="BB9" s="50"/>
-      <c r="BC9" s="50"/>
+      <c r="AF9" s="65"/>
+      <c r="AG9" s="65"/>
+      <c r="AH9" s="65"/>
+      <c r="AI9" s="65"/>
+      <c r="AJ9" s="65"/>
+      <c r="AK9" s="65"/>
+      <c r="AL9" s="65"/>
+      <c r="AM9" s="65"/>
+      <c r="AN9" s="65"/>
+      <c r="AO9" s="65"/>
+      <c r="AP9" s="65"/>
+      <c r="AQ9" s="65"/>
+      <c r="AR9" s="65"/>
+      <c r="AS9" s="65"/>
+      <c r="AT9" s="65"/>
+      <c r="AU9" s="65"/>
+      <c r="AV9" s="65"/>
+      <c r="AW9" s="65"/>
+      <c r="AX9" s="65"/>
+      <c r="AY9" s="65"/>
+      <c r="AZ9" s="65"/>
+      <c r="BA9" s="65"/>
+      <c r="BB9" s="65"/>
+      <c r="BC9" s="65"/>
       <c r="BD9" s="3"/>
       <c r="BE9" s="3"/>
       <c r="CP9" s="3"/>
@@ -19618,71 +19624,71 @@
       <c r="HJ9" s="3"/>
     </row>
     <row r="10" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="53" t="s">
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51" t="s">
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="52" t="s">
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="52"/>
-      <c r="AD10" s="52"/>
-      <c r="AE10" s="49" t="s">
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="68"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
-      <c r="AH10" s="50"/>
-      <c r="AI10" s="50"/>
-      <c r="AJ10" s="50"/>
-      <c r="AK10" s="50"/>
-      <c r="AL10" s="50"/>
-      <c r="AM10" s="50"/>
-      <c r="AN10" s="50"/>
-      <c r="AO10" s="50"/>
-      <c r="AP10" s="50"/>
-      <c r="AQ10" s="50"/>
-      <c r="AR10" s="50"/>
-      <c r="AS10" s="50"/>
-      <c r="AT10" s="50"/>
-      <c r="AU10" s="50"/>
-      <c r="AV10" s="50"/>
-      <c r="AW10" s="50"/>
-      <c r="AX10" s="50"/>
-      <c r="AY10" s="50"/>
-      <c r="AZ10" s="50"/>
-      <c r="BA10" s="50"/>
-      <c r="BB10" s="50"/>
-      <c r="BC10" s="50"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="65"/>
+      <c r="AM10" s="65"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="65"/>
+      <c r="AS10" s="65"/>
+      <c r="AT10" s="65"/>
+      <c r="AU10" s="65"/>
+      <c r="AV10" s="65"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="65"/>
+      <c r="AY10" s="65"/>
+      <c r="AZ10" s="65"/>
+      <c r="BA10" s="65"/>
+      <c r="BB10" s="65"/>
+      <c r="BC10" s="65"/>
       <c r="BD10" s="3"/>
       <c r="BE10" s="3"/>
       <c r="CP10" s="3"/>
@@ -19812,71 +19818,71 @@
       <c r="HJ10" s="3"/>
     </row>
     <row r="11" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="53" t="s">
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51" t="s">
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="52" t="s">
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="52"/>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="49" t="s">
+      <c r="X11" s="68"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="68"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
-      <c r="AH11" s="50"/>
-      <c r="AI11" s="50"/>
-      <c r="AJ11" s="50"/>
-      <c r="AK11" s="50"/>
-      <c r="AL11" s="50"/>
-      <c r="AM11" s="50"/>
-      <c r="AN11" s="50"/>
-      <c r="AO11" s="50"/>
-      <c r="AP11" s="50"/>
-      <c r="AQ11" s="50"/>
-      <c r="AR11" s="50"/>
-      <c r="AS11" s="50"/>
-      <c r="AT11" s="50"/>
-      <c r="AU11" s="50"/>
-      <c r="AV11" s="50"/>
-      <c r="AW11" s="50"/>
-      <c r="AX11" s="50"/>
-      <c r="AY11" s="50"/>
-      <c r="AZ11" s="50"/>
-      <c r="BA11" s="50"/>
-      <c r="BB11" s="50"/>
-      <c r="BC11" s="50"/>
+      <c r="AF11" s="65"/>
+      <c r="AG11" s="65"/>
+      <c r="AH11" s="65"/>
+      <c r="AI11" s="65"/>
+      <c r="AJ11" s="65"/>
+      <c r="AK11" s="65"/>
+      <c r="AL11" s="65"/>
+      <c r="AM11" s="65"/>
+      <c r="AN11" s="65"/>
+      <c r="AO11" s="65"/>
+      <c r="AP11" s="65"/>
+      <c r="AQ11" s="65"/>
+      <c r="AR11" s="65"/>
+      <c r="AS11" s="65"/>
+      <c r="AT11" s="65"/>
+      <c r="AU11" s="65"/>
+      <c r="AV11" s="65"/>
+      <c r="AW11" s="65"/>
+      <c r="AX11" s="65"/>
+      <c r="AY11" s="65"/>
+      <c r="AZ11" s="65"/>
+      <c r="BA11" s="65"/>
+      <c r="BB11" s="65"/>
+      <c r="BC11" s="65"/>
       <c r="BD11" s="3"/>
       <c r="BE11" s="3"/>
       <c r="CP11" s="3"/>
@@ -20006,71 +20012,71 @@
       <c r="HJ11" s="3"/>
     </row>
     <row r="12" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="53" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51" t="s">
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="52" t="s">
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="49" t="s">
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="50"/>
-      <c r="AH12" s="50"/>
-      <c r="AI12" s="50"/>
-      <c r="AJ12" s="50"/>
-      <c r="AK12" s="50"/>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="50"/>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="50"/>
-      <c r="AP12" s="50"/>
-      <c r="AQ12" s="50"/>
-      <c r="AR12" s="50"/>
-      <c r="AS12" s="50"/>
-      <c r="AT12" s="50"/>
-      <c r="AU12" s="50"/>
-      <c r="AV12" s="50"/>
-      <c r="AW12" s="50"/>
-      <c r="AX12" s="50"/>
-      <c r="AY12" s="50"/>
-      <c r="AZ12" s="50"/>
-      <c r="BA12" s="50"/>
-      <c r="BB12" s="50"/>
-      <c r="BC12" s="50"/>
+      <c r="AF12" s="65"/>
+      <c r="AG12" s="65"/>
+      <c r="AH12" s="65"/>
+      <c r="AI12" s="65"/>
+      <c r="AJ12" s="65"/>
+      <c r="AK12" s="65"/>
+      <c r="AL12" s="65"/>
+      <c r="AM12" s="65"/>
+      <c r="AN12" s="65"/>
+      <c r="AO12" s="65"/>
+      <c r="AP12" s="65"/>
+      <c r="AQ12" s="65"/>
+      <c r="AR12" s="65"/>
+      <c r="AS12" s="65"/>
+      <c r="AT12" s="65"/>
+      <c r="AU12" s="65"/>
+      <c r="AV12" s="65"/>
+      <c r="AW12" s="65"/>
+      <c r="AX12" s="65"/>
+      <c r="AY12" s="65"/>
+      <c r="AZ12" s="65"/>
+      <c r="BA12" s="65"/>
+      <c r="BB12" s="65"/>
+      <c r="BC12" s="65"/>
       <c r="BD12" s="3"/>
       <c r="BE12" s="3"/>
       <c r="CP12" s="3"/>
@@ -20200,71 +20206,71 @@
       <c r="HJ12" s="3"/>
     </row>
     <row r="13" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="53" t="s">
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51" t="s">
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="52" t="s">
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="52"/>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="49" t="s">
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
-      <c r="AH13" s="50"/>
-      <c r="AI13" s="50"/>
-      <c r="AJ13" s="50"/>
-      <c r="AK13" s="50"/>
-      <c r="AL13" s="50"/>
-      <c r="AM13" s="50"/>
-      <c r="AN13" s="50"/>
-      <c r="AO13" s="50"/>
-      <c r="AP13" s="50"/>
-      <c r="AQ13" s="50"/>
-      <c r="AR13" s="50"/>
-      <c r="AS13" s="50"/>
-      <c r="AT13" s="50"/>
-      <c r="AU13" s="50"/>
-      <c r="AV13" s="50"/>
-      <c r="AW13" s="50"/>
-      <c r="AX13" s="50"/>
-      <c r="AY13" s="50"/>
-      <c r="AZ13" s="50"/>
-      <c r="BA13" s="50"/>
-      <c r="BB13" s="50"/>
-      <c r="BC13" s="50"/>
+      <c r="AF13" s="65"/>
+      <c r="AG13" s="65"/>
+      <c r="AH13" s="65"/>
+      <c r="AI13" s="65"/>
+      <c r="AJ13" s="65"/>
+      <c r="AK13" s="65"/>
+      <c r="AL13" s="65"/>
+      <c r="AM13" s="65"/>
+      <c r="AN13" s="65"/>
+      <c r="AO13" s="65"/>
+      <c r="AP13" s="65"/>
+      <c r="AQ13" s="65"/>
+      <c r="AR13" s="65"/>
+      <c r="AS13" s="65"/>
+      <c r="AT13" s="65"/>
+      <c r="AU13" s="65"/>
+      <c r="AV13" s="65"/>
+      <c r="AW13" s="65"/>
+      <c r="AX13" s="65"/>
+      <c r="AY13" s="65"/>
+      <c r="AZ13" s="65"/>
+      <c r="BA13" s="65"/>
+      <c r="BB13" s="65"/>
+      <c r="BC13" s="65"/>
       <c r="BD13" s="3"/>
       <c r="BE13" s="3"/>
       <c r="CP13" s="3"/>
@@ -20394,71 +20400,71 @@
       <c r="HJ13" s="3"/>
     </row>
     <row r="14" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="53" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51" t="s">
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="52" t="s">
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="52"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="52"/>
-      <c r="AD14" s="52"/>
-      <c r="AE14" s="49" t="s">
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="AF14" s="50"/>
-      <c r="AG14" s="50"/>
-      <c r="AH14" s="50"/>
-      <c r="AI14" s="50"/>
-      <c r="AJ14" s="50"/>
-      <c r="AK14" s="50"/>
-      <c r="AL14" s="50"/>
-      <c r="AM14" s="50"/>
-      <c r="AN14" s="50"/>
-      <c r="AO14" s="50"/>
-      <c r="AP14" s="50"/>
-      <c r="AQ14" s="50"/>
-      <c r="AR14" s="50"/>
-      <c r="AS14" s="50"/>
-      <c r="AT14" s="50"/>
-      <c r="AU14" s="50"/>
-      <c r="AV14" s="50"/>
-      <c r="AW14" s="50"/>
-      <c r="AX14" s="50"/>
-      <c r="AY14" s="50"/>
-      <c r="AZ14" s="50"/>
-      <c r="BA14" s="50"/>
-      <c r="BB14" s="50"/>
-      <c r="BC14" s="50"/>
+      <c r="AF14" s="65"/>
+      <c r="AG14" s="65"/>
+      <c r="AH14" s="65"/>
+      <c r="AI14" s="65"/>
+      <c r="AJ14" s="65"/>
+      <c r="AK14" s="65"/>
+      <c r="AL14" s="65"/>
+      <c r="AM14" s="65"/>
+      <c r="AN14" s="65"/>
+      <c r="AO14" s="65"/>
+      <c r="AP14" s="65"/>
+      <c r="AQ14" s="65"/>
+      <c r="AR14" s="65"/>
+      <c r="AS14" s="65"/>
+      <c r="AT14" s="65"/>
+      <c r="AU14" s="65"/>
+      <c r="AV14" s="65"/>
+      <c r="AW14" s="65"/>
+      <c r="AX14" s="65"/>
+      <c r="AY14" s="65"/>
+      <c r="AZ14" s="65"/>
+      <c r="BA14" s="65"/>
+      <c r="BB14" s="65"/>
+      <c r="BC14" s="65"/>
       <c r="BD14" s="3"/>
       <c r="BE14" s="3"/>
       <c r="CP14" s="3"/>
@@ -20588,61 +20594,71 @@
       <c r="HJ14" s="3"/>
     </row>
     <row r="15" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="52"/>
-      <c r="AD15" s="52"/>
-      <c r="AE15" s="49"/>
-      <c r="AF15" s="50"/>
-      <c r="AG15" s="50"/>
-      <c r="AH15" s="50"/>
-      <c r="AI15" s="50"/>
-      <c r="AJ15" s="50"/>
-      <c r="AK15" s="50"/>
-      <c r="AL15" s="50"/>
-      <c r="AM15" s="50"/>
-      <c r="AN15" s="50"/>
-      <c r="AO15" s="50"/>
-      <c r="AP15" s="50"/>
-      <c r="AQ15" s="50"/>
-      <c r="AR15" s="50"/>
-      <c r="AS15" s="50"/>
-      <c r="AT15" s="50"/>
-      <c r="AU15" s="50"/>
-      <c r="AV15" s="50"/>
-      <c r="AW15" s="50"/>
-      <c r="AX15" s="50"/>
-      <c r="AY15" s="50"/>
-      <c r="AZ15" s="50"/>
-      <c r="BA15" s="50"/>
-      <c r="BB15" s="50"/>
-      <c r="BC15" s="50"/>
+      <c r="A15" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="70"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="70"/>
+      <c r="AD15" s="70"/>
+      <c r="AE15" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF15" s="66"/>
+      <c r="AG15" s="66"/>
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="66"/>
+      <c r="AK15" s="66"/>
+      <c r="AL15" s="66"/>
+      <c r="AM15" s="66"/>
+      <c r="AN15" s="66"/>
+      <c r="AO15" s="66"/>
+      <c r="AP15" s="66"/>
+      <c r="AQ15" s="66"/>
+      <c r="AR15" s="66"/>
+      <c r="AS15" s="66"/>
+      <c r="AT15" s="66"/>
+      <c r="AU15" s="66"/>
+      <c r="AV15" s="66"/>
+      <c r="AW15" s="66"/>
+      <c r="AX15" s="66"/>
+      <c r="AY15" s="66"/>
+      <c r="AZ15" s="66"/>
+      <c r="BA15" s="66"/>
+      <c r="BB15" s="66"/>
+      <c r="BC15" s="66"/>
       <c r="BD15" s="3"/>
       <c r="BE15" s="3"/>
       <c r="CP15" s="3"/>
@@ -20956,69 +20972,69 @@
       <c r="HJ16" s="3"/>
     </row>
     <row r="17" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="39" t="s">
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="38" t="s">
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="39" t="s">
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="39"/>
-      <c r="AF17" s="39"/>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="39"/>
-      <c r="AI17" s="39"/>
-      <c r="AJ17" s="39"/>
-      <c r="AK17" s="39"/>
-      <c r="AL17" s="39"/>
-      <c r="AM17" s="39"/>
-      <c r="AN17" s="39"/>
-      <c r="AO17" s="39"/>
-      <c r="AP17" s="39"/>
-      <c r="AQ17" s="39"/>
-      <c r="AR17" s="39"/>
-      <c r="AS17" s="39"/>
-      <c r="AT17" s="39"/>
-      <c r="AU17" s="39"/>
-      <c r="AV17" s="39"/>
-      <c r="AW17" s="39"/>
-      <c r="AX17" s="39"/>
-      <c r="AY17" s="39"/>
-      <c r="AZ17" s="39"/>
-      <c r="BA17" s="39"/>
-      <c r="BB17" s="39"/>
-      <c r="BC17" s="39"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="40"/>
+      <c r="AG17" s="40"/>
+      <c r="AH17" s="40"/>
+      <c r="AI17" s="40"/>
+      <c r="AJ17" s="40"/>
+      <c r="AK17" s="40"/>
+      <c r="AL17" s="40"/>
+      <c r="AM17" s="40"/>
+      <c r="AN17" s="40"/>
+      <c r="AO17" s="40"/>
+      <c r="AP17" s="40"/>
+      <c r="AQ17" s="40"/>
+      <c r="AR17" s="40"/>
+      <c r="AS17" s="40"/>
+      <c r="AT17" s="40"/>
+      <c r="AU17" s="40"/>
+      <c r="AV17" s="40"/>
+      <c r="AW17" s="40"/>
+      <c r="AX17" s="40"/>
+      <c r="AY17" s="40"/>
+      <c r="AZ17" s="40"/>
+      <c r="BA17" s="40"/>
+      <c r="BB17" s="40"/>
+      <c r="BC17" s="40"/>
       <c r="BD17" s="3"/>
       <c r="BE17" s="3"/>
       <c r="CP17" s="3"/>
@@ -21148,61 +21164,61 @@
       <c r="HJ17" s="3"/>
     </row>
     <row r="18" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="39"/>
-      <c r="AE18" s="39"/>
-      <c r="AF18" s="39"/>
-      <c r="AG18" s="39"/>
-      <c r="AH18" s="39"/>
-      <c r="AI18" s="39"/>
-      <c r="AJ18" s="39"/>
-      <c r="AK18" s="39"/>
-      <c r="AL18" s="39"/>
-      <c r="AM18" s="39"/>
-      <c r="AN18" s="39"/>
-      <c r="AO18" s="39"/>
-      <c r="AP18" s="39"/>
-      <c r="AQ18" s="39"/>
-      <c r="AR18" s="39"/>
-      <c r="AS18" s="39"/>
-      <c r="AT18" s="39"/>
-      <c r="AU18" s="39"/>
-      <c r="AV18" s="39"/>
-      <c r="AW18" s="39"/>
-      <c r="AX18" s="39"/>
-      <c r="AY18" s="39"/>
-      <c r="AZ18" s="39"/>
-      <c r="BA18" s="39"/>
-      <c r="BB18" s="39"/>
-      <c r="BC18" s="39"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="40"/>
+      <c r="AG18" s="40"/>
+      <c r="AH18" s="40"/>
+      <c r="AI18" s="40"/>
+      <c r="AJ18" s="40"/>
+      <c r="AK18" s="40"/>
+      <c r="AL18" s="40"/>
+      <c r="AM18" s="40"/>
+      <c r="AN18" s="40"/>
+      <c r="AO18" s="40"/>
+      <c r="AP18" s="40"/>
+      <c r="AQ18" s="40"/>
+      <c r="AR18" s="40"/>
+      <c r="AS18" s="40"/>
+      <c r="AT18" s="40"/>
+      <c r="AU18" s="40"/>
+      <c r="AV18" s="40"/>
+      <c r="AW18" s="40"/>
+      <c r="AX18" s="40"/>
+      <c r="AY18" s="40"/>
+      <c r="AZ18" s="40"/>
+      <c r="BA18" s="40"/>
+      <c r="BB18" s="40"/>
+      <c r="BC18" s="40"/>
       <c r="BD18" s="3"/>
       <c r="BE18" s="3"/>
       <c r="CP18" s="3"/>
@@ -21516,71 +21532,71 @@
       <c r="HJ19" s="3"/>
     </row>
     <row r="20" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38" t="s">
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38" t="s">
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38" t="s">
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="38" t="s">
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="AF20" s="38"/>
-      <c r="AG20" s="38"/>
-      <c r="AH20" s="38"/>
-      <c r="AI20" s="38"/>
-      <c r="AJ20" s="38"/>
-      <c r="AK20" s="38"/>
-      <c r="AL20" s="38"/>
-      <c r="AM20" s="38"/>
-      <c r="AN20" s="38"/>
-      <c r="AO20" s="38"/>
-      <c r="AP20" s="38"/>
-      <c r="AQ20" s="38"/>
-      <c r="AR20" s="38"/>
-      <c r="AS20" s="38"/>
-      <c r="AT20" s="38"/>
-      <c r="AU20" s="38"/>
-      <c r="AV20" s="38"/>
-      <c r="AW20" s="38"/>
-      <c r="AX20" s="38"/>
-      <c r="AY20" s="38"/>
-      <c r="AZ20" s="38"/>
-      <c r="BA20" s="38"/>
-      <c r="BB20" s="38"/>
-      <c r="BC20" s="38"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="39"/>
+      <c r="AI20" s="39"/>
+      <c r="AJ20" s="39"/>
+      <c r="AK20" s="39"/>
+      <c r="AL20" s="39"/>
+      <c r="AM20" s="39"/>
+      <c r="AN20" s="39"/>
+      <c r="AO20" s="39"/>
+      <c r="AP20" s="39"/>
+      <c r="AQ20" s="39"/>
+      <c r="AR20" s="39"/>
+      <c r="AS20" s="39"/>
+      <c r="AT20" s="39"/>
+      <c r="AU20" s="39"/>
+      <c r="AV20" s="39"/>
+      <c r="AW20" s="39"/>
+      <c r="AX20" s="39"/>
+      <c r="AY20" s="39"/>
+      <c r="AZ20" s="39"/>
+      <c r="BA20" s="39"/>
+      <c r="BB20" s="39"/>
+      <c r="BC20" s="39"/>
       <c r="BD20" s="3"/>
       <c r="BE20" s="3"/>
       <c r="CP20" s="3"/>
@@ -21710,61 +21726,61 @@
       <c r="HJ20" s="3"/>
     </row>
     <row r="21" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="38"/>
-      <c r="AF21" s="38"/>
-      <c r="AG21" s="38"/>
-      <c r="AH21" s="38"/>
-      <c r="AI21" s="38"/>
-      <c r="AJ21" s="38"/>
-      <c r="AK21" s="38"/>
-      <c r="AL21" s="38"/>
-      <c r="AM21" s="38"/>
-      <c r="AN21" s="38"/>
-      <c r="AO21" s="38"/>
-      <c r="AP21" s="38"/>
-      <c r="AQ21" s="38"/>
-      <c r="AR21" s="38"/>
-      <c r="AS21" s="38"/>
-      <c r="AT21" s="38"/>
-      <c r="AU21" s="38"/>
-      <c r="AV21" s="38"/>
-      <c r="AW21" s="38"/>
-      <c r="AX21" s="38"/>
-      <c r="AY21" s="38"/>
-      <c r="AZ21" s="38"/>
-      <c r="BA21" s="38"/>
-      <c r="BB21" s="38"/>
-      <c r="BC21" s="38"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="39"/>
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="39"/>
+      <c r="AL21" s="39"/>
+      <c r="AM21" s="39"/>
+      <c r="AN21" s="39"/>
+      <c r="AO21" s="39"/>
+      <c r="AP21" s="39"/>
+      <c r="AQ21" s="39"/>
+      <c r="AR21" s="39"/>
+      <c r="AS21" s="39"/>
+      <c r="AT21" s="39"/>
+      <c r="AU21" s="39"/>
+      <c r="AV21" s="39"/>
+      <c r="AW21" s="39"/>
+      <c r="AX21" s="39"/>
+      <c r="AY21" s="39"/>
+      <c r="AZ21" s="39"/>
+      <c r="BA21" s="39"/>
+      <c r="BB21" s="39"/>
+      <c r="BC21" s="39"/>
       <c r="BD21" s="3"/>
       <c r="BE21" s="3"/>
       <c r="CP21" s="3"/>
@@ -21894,71 +21910,71 @@
       <c r="HJ21" s="3"/>
     </row>
     <row r="22" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="53" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="53" t="s">
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="52" t="s">
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="52"/>
-      <c r="AA22" s="52"/>
-      <c r="AB22" s="52"/>
-      <c r="AC22" s="52"/>
-      <c r="AD22" s="52"/>
-      <c r="AE22" s="49" t="s">
+      <c r="X22" s="68"/>
+      <c r="Y22" s="68"/>
+      <c r="Z22" s="68"/>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="68"/>
+      <c r="AC22" s="68"/>
+      <c r="AD22" s="68"/>
+      <c r="AE22" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AF22" s="50"/>
-      <c r="AG22" s="50"/>
-      <c r="AH22" s="50"/>
-      <c r="AI22" s="50"/>
-      <c r="AJ22" s="50"/>
-      <c r="AK22" s="50"/>
-      <c r="AL22" s="50"/>
-      <c r="AM22" s="50"/>
-      <c r="AN22" s="50"/>
-      <c r="AO22" s="50"/>
-      <c r="AP22" s="50"/>
-      <c r="AQ22" s="50"/>
-      <c r="AR22" s="50"/>
-      <c r="AS22" s="50"/>
-      <c r="AT22" s="50"/>
-      <c r="AU22" s="50"/>
-      <c r="AV22" s="50"/>
-      <c r="AW22" s="50"/>
-      <c r="AX22" s="50"/>
-      <c r="AY22" s="50"/>
-      <c r="AZ22" s="50"/>
-      <c r="BA22" s="50"/>
-      <c r="BB22" s="50"/>
-      <c r="BC22" s="50"/>
+      <c r="AF22" s="65"/>
+      <c r="AG22" s="65"/>
+      <c r="AH22" s="65"/>
+      <c r="AI22" s="65"/>
+      <c r="AJ22" s="65"/>
+      <c r="AK22" s="65"/>
+      <c r="AL22" s="65"/>
+      <c r="AM22" s="65"/>
+      <c r="AN22" s="65"/>
+      <c r="AO22" s="65"/>
+      <c r="AP22" s="65"/>
+      <c r="AQ22" s="65"/>
+      <c r="AR22" s="65"/>
+      <c r="AS22" s="65"/>
+      <c r="AT22" s="65"/>
+      <c r="AU22" s="65"/>
+      <c r="AV22" s="65"/>
+      <c r="AW22" s="65"/>
+      <c r="AX22" s="65"/>
+      <c r="AY22" s="65"/>
+      <c r="AZ22" s="65"/>
+      <c r="BA22" s="65"/>
+      <c r="BB22" s="65"/>
+      <c r="BC22" s="65"/>
       <c r="BD22" s="3"/>
       <c r="BE22" s="3"/>
       <c r="CP22" s="3"/>
@@ -22088,71 +22104,71 @@
       <c r="HJ22" s="3"/>
     </row>
     <row r="23" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="53" t="s">
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="53" t="s">
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="52" t="s">
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="52"/>
-      <c r="AC23" s="52"/>
-      <c r="AD23" s="52"/>
-      <c r="AE23" s="49" t="s">
+      <c r="X23" s="68"/>
+      <c r="Y23" s="68"/>
+      <c r="Z23" s="68"/>
+      <c r="AA23" s="68"/>
+      <c r="AB23" s="68"/>
+      <c r="AC23" s="68"/>
+      <c r="AD23" s="68"/>
+      <c r="AE23" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AF23" s="50"/>
-      <c r="AG23" s="50"/>
-      <c r="AH23" s="50"/>
-      <c r="AI23" s="50"/>
-      <c r="AJ23" s="50"/>
-      <c r="AK23" s="50"/>
-      <c r="AL23" s="50"/>
-      <c r="AM23" s="50"/>
-      <c r="AN23" s="50"/>
-      <c r="AO23" s="50"/>
-      <c r="AP23" s="50"/>
-      <c r="AQ23" s="50"/>
-      <c r="AR23" s="50"/>
-      <c r="AS23" s="50"/>
-      <c r="AT23" s="50"/>
-      <c r="AU23" s="50"/>
-      <c r="AV23" s="50"/>
-      <c r="AW23" s="50"/>
-      <c r="AX23" s="50"/>
-      <c r="AY23" s="50"/>
-      <c r="AZ23" s="50"/>
-      <c r="BA23" s="50"/>
-      <c r="BB23" s="50"/>
-      <c r="BC23" s="50"/>
+      <c r="AF23" s="65"/>
+      <c r="AG23" s="65"/>
+      <c r="AH23" s="65"/>
+      <c r="AI23" s="65"/>
+      <c r="AJ23" s="65"/>
+      <c r="AK23" s="65"/>
+      <c r="AL23" s="65"/>
+      <c r="AM23" s="65"/>
+      <c r="AN23" s="65"/>
+      <c r="AO23" s="65"/>
+      <c r="AP23" s="65"/>
+      <c r="AQ23" s="65"/>
+      <c r="AR23" s="65"/>
+      <c r="AS23" s="65"/>
+      <c r="AT23" s="65"/>
+      <c r="AU23" s="65"/>
+      <c r="AV23" s="65"/>
+      <c r="AW23" s="65"/>
+      <c r="AX23" s="65"/>
+      <c r="AY23" s="65"/>
+      <c r="AZ23" s="65"/>
+      <c r="BA23" s="65"/>
+      <c r="BB23" s="65"/>
+      <c r="BC23" s="65"/>
       <c r="BD23" s="3"/>
       <c r="BE23" s="3"/>
       <c r="CP23" s="3"/>
@@ -22282,71 +22298,71 @@
       <c r="HJ23" s="3"/>
     </row>
     <row r="24" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="53" t="s">
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="53" t="s">
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="52" t="s">
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="52"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="49" t="s">
+      <c r="X24" s="68"/>
+      <c r="Y24" s="68"/>
+      <c r="Z24" s="68"/>
+      <c r="AA24" s="68"/>
+      <c r="AB24" s="68"/>
+      <c r="AC24" s="68"/>
+      <c r="AD24" s="68"/>
+      <c r="AE24" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AF24" s="50"/>
-      <c r="AG24" s="50"/>
-      <c r="AH24" s="50"/>
-      <c r="AI24" s="50"/>
-      <c r="AJ24" s="50"/>
-      <c r="AK24" s="50"/>
-      <c r="AL24" s="50"/>
-      <c r="AM24" s="50"/>
-      <c r="AN24" s="50"/>
-      <c r="AO24" s="50"/>
-      <c r="AP24" s="50"/>
-      <c r="AQ24" s="50"/>
-      <c r="AR24" s="50"/>
-      <c r="AS24" s="50"/>
-      <c r="AT24" s="50"/>
-      <c r="AU24" s="50"/>
-      <c r="AV24" s="50"/>
-      <c r="AW24" s="50"/>
-      <c r="AX24" s="50"/>
-      <c r="AY24" s="50"/>
-      <c r="AZ24" s="50"/>
-      <c r="BA24" s="50"/>
-      <c r="BB24" s="50"/>
-      <c r="BC24" s="50"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="65"/>
+      <c r="AH24" s="65"/>
+      <c r="AI24" s="65"/>
+      <c r="AJ24" s="65"/>
+      <c r="AK24" s="65"/>
+      <c r="AL24" s="65"/>
+      <c r="AM24" s="65"/>
+      <c r="AN24" s="65"/>
+      <c r="AO24" s="65"/>
+      <c r="AP24" s="65"/>
+      <c r="AQ24" s="65"/>
+      <c r="AR24" s="65"/>
+      <c r="AS24" s="65"/>
+      <c r="AT24" s="65"/>
+      <c r="AU24" s="65"/>
+      <c r="AV24" s="65"/>
+      <c r="AW24" s="65"/>
+      <c r="AX24" s="65"/>
+      <c r="AY24" s="65"/>
+      <c r="AZ24" s="65"/>
+      <c r="BA24" s="65"/>
+      <c r="BB24" s="65"/>
+      <c r="BC24" s="65"/>
       <c r="BD24" s="3"/>
       <c r="BE24" s="3"/>
       <c r="CP24" s="3"/>
@@ -22476,71 +22492,71 @@
       <c r="HJ24" s="3"/>
     </row>
     <row r="25" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="53" t="s">
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="53" t="s">
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="52" t="s">
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="49" t="s">
+      <c r="X25" s="68"/>
+      <c r="Y25" s="68"/>
+      <c r="Z25" s="68"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="68"/>
+      <c r="AC25" s="68"/>
+      <c r="AD25" s="68"/>
+      <c r="AE25" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="AF25" s="50"/>
-      <c r="AG25" s="50"/>
-      <c r="AH25" s="50"/>
-      <c r="AI25" s="50"/>
-      <c r="AJ25" s="50"/>
-      <c r="AK25" s="50"/>
-      <c r="AL25" s="50"/>
-      <c r="AM25" s="50"/>
-      <c r="AN25" s="50"/>
-      <c r="AO25" s="50"/>
-      <c r="AP25" s="50"/>
-      <c r="AQ25" s="50"/>
-      <c r="AR25" s="50"/>
-      <c r="AS25" s="50"/>
-      <c r="AT25" s="50"/>
-      <c r="AU25" s="50"/>
-      <c r="AV25" s="50"/>
-      <c r="AW25" s="50"/>
-      <c r="AX25" s="50"/>
-      <c r="AY25" s="50"/>
-      <c r="AZ25" s="50"/>
-      <c r="BA25" s="50"/>
-      <c r="BB25" s="50"/>
-      <c r="BC25" s="50"/>
+      <c r="AF25" s="65"/>
+      <c r="AG25" s="65"/>
+      <c r="AH25" s="65"/>
+      <c r="AI25" s="65"/>
+      <c r="AJ25" s="65"/>
+      <c r="AK25" s="65"/>
+      <c r="AL25" s="65"/>
+      <c r="AM25" s="65"/>
+      <c r="AN25" s="65"/>
+      <c r="AO25" s="65"/>
+      <c r="AP25" s="65"/>
+      <c r="AQ25" s="65"/>
+      <c r="AR25" s="65"/>
+      <c r="AS25" s="65"/>
+      <c r="AT25" s="65"/>
+      <c r="AU25" s="65"/>
+      <c r="AV25" s="65"/>
+      <c r="AW25" s="65"/>
+      <c r="AX25" s="65"/>
+      <c r="AY25" s="65"/>
+      <c r="AZ25" s="65"/>
+      <c r="BA25" s="65"/>
+      <c r="BB25" s="65"/>
+      <c r="BC25" s="65"/>
       <c r="BD25" s="3"/>
       <c r="BE25" s="3"/>
       <c r="CP25" s="3"/>
@@ -22670,71 +22686,71 @@
       <c r="HJ25" s="3"/>
     </row>
     <row r="26" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="53" t="s">
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51" t="s">
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="52" t="s">
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="52"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="52"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="49" t="s">
+      <c r="X26" s="68"/>
+      <c r="Y26" s="68"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="68"/>
+      <c r="AB26" s="68"/>
+      <c r="AC26" s="68"/>
+      <c r="AD26" s="68"/>
+      <c r="AE26" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="50"/>
-      <c r="AH26" s="50"/>
-      <c r="AI26" s="50"/>
-      <c r="AJ26" s="50"/>
-      <c r="AK26" s="50"/>
-      <c r="AL26" s="50"/>
-      <c r="AM26" s="50"/>
-      <c r="AN26" s="50"/>
-      <c r="AO26" s="50"/>
-      <c r="AP26" s="50"/>
-      <c r="AQ26" s="50"/>
-      <c r="AR26" s="50"/>
-      <c r="AS26" s="50"/>
-      <c r="AT26" s="50"/>
-      <c r="AU26" s="50"/>
-      <c r="AV26" s="50"/>
-      <c r="AW26" s="50"/>
-      <c r="AX26" s="50"/>
-      <c r="AY26" s="50"/>
-      <c r="AZ26" s="50"/>
-      <c r="BA26" s="50"/>
-      <c r="BB26" s="50"/>
-      <c r="BC26" s="50"/>
+      <c r="AF26" s="65"/>
+      <c r="AG26" s="65"/>
+      <c r="AH26" s="65"/>
+      <c r="AI26" s="65"/>
+      <c r="AJ26" s="65"/>
+      <c r="AK26" s="65"/>
+      <c r="AL26" s="65"/>
+      <c r="AM26" s="65"/>
+      <c r="AN26" s="65"/>
+      <c r="AO26" s="65"/>
+      <c r="AP26" s="65"/>
+      <c r="AQ26" s="65"/>
+      <c r="AR26" s="65"/>
+      <c r="AS26" s="65"/>
+      <c r="AT26" s="65"/>
+      <c r="AU26" s="65"/>
+      <c r="AV26" s="65"/>
+      <c r="AW26" s="65"/>
+      <c r="AX26" s="65"/>
+      <c r="AY26" s="65"/>
+      <c r="AZ26" s="65"/>
+      <c r="BA26" s="65"/>
+      <c r="BB26" s="65"/>
+      <c r="BC26" s="65"/>
       <c r="BD26" s="3"/>
       <c r="BE26" s="3"/>
       <c r="CP26" s="3"/>
@@ -22863,266 +22879,266 @@
       <c r="HI26" s="3"/>
       <c r="HJ26" s="3"/>
     </row>
-    <row r="27" spans="1:218" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="65" t="s">
+    <row r="27" spans="1:218" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="65" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="65" t="s">
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="68" t="s">
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="69"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="69"/>
-      <c r="AC27" s="69"/>
-      <c r="AD27" s="70"/>
-      <c r="AE27" s="71" t="s">
+      <c r="X27" s="59"/>
+      <c r="Y27" s="59"/>
+      <c r="Z27" s="59"/>
+      <c r="AA27" s="59"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="60"/>
+      <c r="AE27" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="AF27" s="72"/>
-      <c r="AG27" s="72"/>
-      <c r="AH27" s="72"/>
-      <c r="AI27" s="72"/>
-      <c r="AJ27" s="72"/>
-      <c r="AK27" s="72"/>
-      <c r="AL27" s="72"/>
-      <c r="AM27" s="72"/>
-      <c r="AN27" s="72"/>
-      <c r="AO27" s="72"/>
-      <c r="AP27" s="72"/>
-      <c r="AQ27" s="72"/>
-      <c r="AR27" s="72"/>
-      <c r="AS27" s="72"/>
-      <c r="AT27" s="72"/>
-      <c r="AU27" s="72"/>
-      <c r="AV27" s="72"/>
-      <c r="AW27" s="72"/>
-      <c r="AX27" s="72"/>
-      <c r="AY27" s="72"/>
-      <c r="AZ27" s="72"/>
-      <c r="BA27" s="72"/>
-      <c r="BB27" s="72"/>
-      <c r="BC27" s="73"/>
-      <c r="BD27" s="74"/>
-      <c r="BE27" s="74"/>
-      <c r="CP27" s="74"/>
-      <c r="CQ27" s="74"/>
-      <c r="CR27" s="74"/>
-      <c r="CS27" s="74"/>
-      <c r="CT27" s="74"/>
-      <c r="CU27" s="74"/>
-      <c r="CV27" s="74"/>
-      <c r="CW27" s="74"/>
-      <c r="CX27" s="74"/>
-      <c r="CY27" s="74"/>
-      <c r="CZ27" s="74"/>
-      <c r="DA27" s="74"/>
-      <c r="DB27" s="74"/>
-      <c r="DC27" s="74"/>
-      <c r="DD27" s="74"/>
-      <c r="DE27" s="74"/>
-      <c r="DF27" s="74"/>
-      <c r="DG27" s="74"/>
-      <c r="DH27" s="74"/>
-      <c r="DI27" s="74"/>
-      <c r="DJ27" s="74"/>
-      <c r="DK27" s="74"/>
-      <c r="DL27" s="74"/>
-      <c r="DM27" s="74"/>
-      <c r="DN27" s="74"/>
-      <c r="DO27" s="74"/>
-      <c r="DP27" s="74"/>
-      <c r="DQ27" s="74"/>
-      <c r="DR27" s="74"/>
-      <c r="DS27" s="74"/>
-      <c r="DT27" s="74"/>
-      <c r="DU27" s="74"/>
-      <c r="DV27" s="74"/>
-      <c r="DW27" s="74"/>
-      <c r="DX27" s="74"/>
-      <c r="DY27" s="74"/>
-      <c r="DZ27" s="74"/>
-      <c r="EA27" s="74"/>
-      <c r="EB27" s="74"/>
-      <c r="EC27" s="74"/>
-      <c r="ED27" s="74"/>
-      <c r="EE27" s="74"/>
-      <c r="EF27" s="74"/>
-      <c r="EG27" s="74"/>
-      <c r="EH27" s="74"/>
-      <c r="EI27" s="74"/>
-      <c r="EJ27" s="74"/>
-      <c r="EK27" s="74"/>
-      <c r="EL27" s="74"/>
-      <c r="EM27" s="74"/>
-      <c r="EN27" s="74"/>
-      <c r="EO27" s="74"/>
-      <c r="EP27" s="74"/>
-      <c r="EQ27" s="74"/>
-      <c r="ER27" s="74"/>
-      <c r="ES27" s="74"/>
-      <c r="ET27" s="74"/>
-      <c r="EU27" s="74"/>
-      <c r="EV27" s="74"/>
-      <c r="EW27" s="74"/>
-      <c r="EX27" s="74"/>
-      <c r="EY27" s="74"/>
-      <c r="EZ27" s="74"/>
-      <c r="FA27" s="74"/>
-      <c r="FB27" s="74"/>
-      <c r="FC27" s="74"/>
-      <c r="FD27" s="74"/>
-      <c r="FE27" s="74"/>
-      <c r="FF27" s="74"/>
-      <c r="FG27" s="74"/>
-      <c r="FH27" s="74"/>
-      <c r="FI27" s="74"/>
-      <c r="FJ27" s="74"/>
-      <c r="FK27" s="74"/>
-      <c r="FL27" s="74"/>
-      <c r="FM27" s="74"/>
-      <c r="FN27" s="74"/>
-      <c r="FO27" s="74"/>
-      <c r="FP27" s="74"/>
-      <c r="FQ27" s="74"/>
-      <c r="FR27" s="74"/>
-      <c r="FS27" s="74"/>
-      <c r="FT27" s="74"/>
-      <c r="FU27" s="74"/>
-      <c r="FV27" s="74"/>
-      <c r="FW27" s="74"/>
-      <c r="FX27" s="74"/>
-      <c r="FY27" s="74"/>
-      <c r="FZ27" s="74"/>
-      <c r="GA27" s="74"/>
-      <c r="GB27" s="74"/>
-      <c r="GC27" s="74"/>
-      <c r="GD27" s="74"/>
-      <c r="GE27" s="74"/>
-      <c r="GF27" s="74"/>
-      <c r="GG27" s="74"/>
-      <c r="GH27" s="74"/>
-      <c r="GI27" s="74"/>
-      <c r="GJ27" s="74"/>
-      <c r="GK27" s="74"/>
-      <c r="GL27" s="74"/>
-      <c r="GM27" s="74"/>
-      <c r="GN27" s="74"/>
-      <c r="GO27" s="74"/>
-      <c r="GP27" s="74"/>
-      <c r="GQ27" s="74"/>
-      <c r="GR27" s="74"/>
-      <c r="GS27" s="74"/>
-      <c r="GT27" s="74"/>
-      <c r="GU27" s="74"/>
-      <c r="GV27" s="74"/>
-      <c r="GW27" s="74"/>
-      <c r="GX27" s="74"/>
-      <c r="GY27" s="74"/>
-      <c r="GZ27" s="74"/>
-      <c r="HA27" s="74"/>
-      <c r="HB27" s="74"/>
-      <c r="HC27" s="74"/>
-      <c r="HD27" s="74"/>
-      <c r="HE27" s="74"/>
-      <c r="HF27" s="74"/>
-      <c r="HG27" s="74"/>
-      <c r="HH27" s="74"/>
-      <c r="HI27" s="74"/>
-      <c r="HJ27" s="74"/>
+      <c r="AF27" s="56"/>
+      <c r="AG27" s="56"/>
+      <c r="AH27" s="56"/>
+      <c r="AI27" s="56"/>
+      <c r="AJ27" s="56"/>
+      <c r="AK27" s="56"/>
+      <c r="AL27" s="56"/>
+      <c r="AM27" s="56"/>
+      <c r="AN27" s="56"/>
+      <c r="AO27" s="56"/>
+      <c r="AP27" s="56"/>
+      <c r="AQ27" s="56"/>
+      <c r="AR27" s="56"/>
+      <c r="AS27" s="56"/>
+      <c r="AT27" s="56"/>
+      <c r="AU27" s="56"/>
+      <c r="AV27" s="56"/>
+      <c r="AW27" s="56"/>
+      <c r="AX27" s="56"/>
+      <c r="AY27" s="56"/>
+      <c r="AZ27" s="56"/>
+      <c r="BA27" s="56"/>
+      <c r="BB27" s="56"/>
+      <c r="BC27" s="57"/>
+      <c r="BD27" s="36"/>
+      <c r="BE27" s="36"/>
+      <c r="CP27" s="36"/>
+      <c r="CQ27" s="36"/>
+      <c r="CR27" s="36"/>
+      <c r="CS27" s="36"/>
+      <c r="CT27" s="36"/>
+      <c r="CU27" s="36"/>
+      <c r="CV27" s="36"/>
+      <c r="CW27" s="36"/>
+      <c r="CX27" s="36"/>
+      <c r="CY27" s="36"/>
+      <c r="CZ27" s="36"/>
+      <c r="DA27" s="36"/>
+      <c r="DB27" s="36"/>
+      <c r="DC27" s="36"/>
+      <c r="DD27" s="36"/>
+      <c r="DE27" s="36"/>
+      <c r="DF27" s="36"/>
+      <c r="DG27" s="36"/>
+      <c r="DH27" s="36"/>
+      <c r="DI27" s="36"/>
+      <c r="DJ27" s="36"/>
+      <c r="DK27" s="36"/>
+      <c r="DL27" s="36"/>
+      <c r="DM27" s="36"/>
+      <c r="DN27" s="36"/>
+      <c r="DO27" s="36"/>
+      <c r="DP27" s="36"/>
+      <c r="DQ27" s="36"/>
+      <c r="DR27" s="36"/>
+      <c r="DS27" s="36"/>
+      <c r="DT27" s="36"/>
+      <c r="DU27" s="36"/>
+      <c r="DV27" s="36"/>
+      <c r="DW27" s="36"/>
+      <c r="DX27" s="36"/>
+      <c r="DY27" s="36"/>
+      <c r="DZ27" s="36"/>
+      <c r="EA27" s="36"/>
+      <c r="EB27" s="36"/>
+      <c r="EC27" s="36"/>
+      <c r="ED27" s="36"/>
+      <c r="EE27" s="36"/>
+      <c r="EF27" s="36"/>
+      <c r="EG27" s="36"/>
+      <c r="EH27" s="36"/>
+      <c r="EI27" s="36"/>
+      <c r="EJ27" s="36"/>
+      <c r="EK27" s="36"/>
+      <c r="EL27" s="36"/>
+      <c r="EM27" s="36"/>
+      <c r="EN27" s="36"/>
+      <c r="EO27" s="36"/>
+      <c r="EP27" s="36"/>
+      <c r="EQ27" s="36"/>
+      <c r="ER27" s="36"/>
+      <c r="ES27" s="36"/>
+      <c r="ET27" s="36"/>
+      <c r="EU27" s="36"/>
+      <c r="EV27" s="36"/>
+      <c r="EW27" s="36"/>
+      <c r="EX27" s="36"/>
+      <c r="EY27" s="36"/>
+      <c r="EZ27" s="36"/>
+      <c r="FA27" s="36"/>
+      <c r="FB27" s="36"/>
+      <c r="FC27" s="36"/>
+      <c r="FD27" s="36"/>
+      <c r="FE27" s="36"/>
+      <c r="FF27" s="36"/>
+      <c r="FG27" s="36"/>
+      <c r="FH27" s="36"/>
+      <c r="FI27" s="36"/>
+      <c r="FJ27" s="36"/>
+      <c r="FK27" s="36"/>
+      <c r="FL27" s="36"/>
+      <c r="FM27" s="36"/>
+      <c r="FN27" s="36"/>
+      <c r="FO27" s="36"/>
+      <c r="FP27" s="36"/>
+      <c r="FQ27" s="36"/>
+      <c r="FR27" s="36"/>
+      <c r="FS27" s="36"/>
+      <c r="FT27" s="36"/>
+      <c r="FU27" s="36"/>
+      <c r="FV27" s="36"/>
+      <c r="FW27" s="36"/>
+      <c r="FX27" s="36"/>
+      <c r="FY27" s="36"/>
+      <c r="FZ27" s="36"/>
+      <c r="GA27" s="36"/>
+      <c r="GB27" s="36"/>
+      <c r="GC27" s="36"/>
+      <c r="GD27" s="36"/>
+      <c r="GE27" s="36"/>
+      <c r="GF27" s="36"/>
+      <c r="GG27" s="36"/>
+      <c r="GH27" s="36"/>
+      <c r="GI27" s="36"/>
+      <c r="GJ27" s="36"/>
+      <c r="GK27" s="36"/>
+      <c r="GL27" s="36"/>
+      <c r="GM27" s="36"/>
+      <c r="GN27" s="36"/>
+      <c r="GO27" s="36"/>
+      <c r="GP27" s="36"/>
+      <c r="GQ27" s="36"/>
+      <c r="GR27" s="36"/>
+      <c r="GS27" s="36"/>
+      <c r="GT27" s="36"/>
+      <c r="GU27" s="36"/>
+      <c r="GV27" s="36"/>
+      <c r="GW27" s="36"/>
+      <c r="GX27" s="36"/>
+      <c r="GY27" s="36"/>
+      <c r="GZ27" s="36"/>
+      <c r="HA27" s="36"/>
+      <c r="HB27" s="36"/>
+      <c r="HC27" s="36"/>
+      <c r="HD27" s="36"/>
+      <c r="HE27" s="36"/>
+      <c r="HF27" s="36"/>
+      <c r="HG27" s="36"/>
+      <c r="HH27" s="36"/>
+      <c r="HI27" s="36"/>
+      <c r="HJ27" s="36"/>
     </row>
     <row r="28" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="53" t="s">
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51" t="s">
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="52" t="s">
+      <c r="R28" s="67"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="67"/>
+      <c r="V28" s="67"/>
+      <c r="W28" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="52"/>
-      <c r="AA28" s="52"/>
-      <c r="AB28" s="52"/>
-      <c r="AC28" s="52"/>
-      <c r="AD28" s="52"/>
-      <c r="AE28" s="49" t="s">
+      <c r="X28" s="68"/>
+      <c r="Y28" s="68"/>
+      <c r="Z28" s="68"/>
+      <c r="AA28" s="68"/>
+      <c r="AB28" s="68"/>
+      <c r="AC28" s="68"/>
+      <c r="AD28" s="68"/>
+      <c r="AE28" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="AF28" s="50"/>
-      <c r="AG28" s="50"/>
-      <c r="AH28" s="50"/>
-      <c r="AI28" s="50"/>
-      <c r="AJ28" s="50"/>
-      <c r="AK28" s="50"/>
-      <c r="AL28" s="50"/>
-      <c r="AM28" s="50"/>
-      <c r="AN28" s="50"/>
-      <c r="AO28" s="50"/>
-      <c r="AP28" s="50"/>
-      <c r="AQ28" s="50"/>
-      <c r="AR28" s="50"/>
-      <c r="AS28" s="50"/>
-      <c r="AT28" s="50"/>
-      <c r="AU28" s="50"/>
-      <c r="AV28" s="50"/>
-      <c r="AW28" s="50"/>
-      <c r="AX28" s="50"/>
-      <c r="AY28" s="50"/>
-      <c r="AZ28" s="50"/>
-      <c r="BA28" s="50"/>
-      <c r="BB28" s="50"/>
-      <c r="BC28" s="50"/>
+      <c r="AF28" s="65"/>
+      <c r="AG28" s="65"/>
+      <c r="AH28" s="65"/>
+      <c r="AI28" s="65"/>
+      <c r="AJ28" s="65"/>
+      <c r="AK28" s="65"/>
+      <c r="AL28" s="65"/>
+      <c r="AM28" s="65"/>
+      <c r="AN28" s="65"/>
+      <c r="AO28" s="65"/>
+      <c r="AP28" s="65"/>
+      <c r="AQ28" s="65"/>
+      <c r="AR28" s="65"/>
+      <c r="AS28" s="65"/>
+      <c r="AT28" s="65"/>
+      <c r="AU28" s="65"/>
+      <c r="AV28" s="65"/>
+      <c r="AW28" s="65"/>
+      <c r="AX28" s="65"/>
+      <c r="AY28" s="65"/>
+      <c r="AZ28" s="65"/>
+      <c r="BA28" s="65"/>
+      <c r="BB28" s="65"/>
+      <c r="BC28" s="65"/>
       <c r="BD28" s="3"/>
       <c r="BE28" s="3"/>
       <c r="CP28" s="3"/>
@@ -23252,69 +23268,69 @@
       <c r="HJ28" s="3"/>
     </row>
     <row r="29" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="53" t="s">
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="51" t="s">
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="54" t="s">
+      <c r="R29" s="67"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="67"/>
+      <c r="V29" s="67"/>
+      <c r="W29" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="52"/>
-      <c r="AA29" s="52"/>
-      <c r="AB29" s="52"/>
-      <c r="AC29" s="52"/>
-      <c r="AD29" s="52"/>
-      <c r="AE29" s="49"/>
-      <c r="AF29" s="50"/>
-      <c r="AG29" s="50"/>
-      <c r="AH29" s="50"/>
-      <c r="AI29" s="50"/>
-      <c r="AJ29" s="50"/>
-      <c r="AK29" s="50"/>
-      <c r="AL29" s="50"/>
-      <c r="AM29" s="50"/>
-      <c r="AN29" s="50"/>
-      <c r="AO29" s="50"/>
-      <c r="AP29" s="50"/>
-      <c r="AQ29" s="50"/>
-      <c r="AR29" s="50"/>
-      <c r="AS29" s="50"/>
-      <c r="AT29" s="50"/>
-      <c r="AU29" s="50"/>
-      <c r="AV29" s="50"/>
-      <c r="AW29" s="50"/>
-      <c r="AX29" s="50"/>
-      <c r="AY29" s="50"/>
-      <c r="AZ29" s="50"/>
-      <c r="BA29" s="50"/>
-      <c r="BB29" s="50"/>
-      <c r="BC29" s="50"/>
+      <c r="X29" s="68"/>
+      <c r="Y29" s="68"/>
+      <c r="Z29" s="68"/>
+      <c r="AA29" s="68"/>
+      <c r="AB29" s="68"/>
+      <c r="AC29" s="68"/>
+      <c r="AD29" s="68"/>
+      <c r="AE29" s="64"/>
+      <c r="AF29" s="65"/>
+      <c r="AG29" s="65"/>
+      <c r="AH29" s="65"/>
+      <c r="AI29" s="65"/>
+      <c r="AJ29" s="65"/>
+      <c r="AK29" s="65"/>
+      <c r="AL29" s="65"/>
+      <c r="AM29" s="65"/>
+      <c r="AN29" s="65"/>
+      <c r="AO29" s="65"/>
+      <c r="AP29" s="65"/>
+      <c r="AQ29" s="65"/>
+      <c r="AR29" s="65"/>
+      <c r="AS29" s="65"/>
+      <c r="AT29" s="65"/>
+      <c r="AU29" s="65"/>
+      <c r="AV29" s="65"/>
+      <c r="AW29" s="65"/>
+      <c r="AX29" s="65"/>
+      <c r="AY29" s="65"/>
+      <c r="AZ29" s="65"/>
+      <c r="BA29" s="65"/>
+      <c r="BB29" s="65"/>
+      <c r="BC29" s="65"/>
       <c r="BD29" s="3"/>
       <c r="BE29" s="3"/>
       <c r="CP29" s="3"/>
@@ -23628,79 +23644,79 @@
       <c r="HJ30" s="3"/>
     </row>
     <row r="31" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="47" t="s">
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="48" t="s">
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="47" t="s">
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="Y31" s="47"/>
-      <c r="Z31" s="47"/>
-      <c r="AA31" s="47"/>
-      <c r="AB31" s="48" t="s">
+      <c r="Y31" s="48"/>
+      <c r="Z31" s="48"/>
+      <c r="AA31" s="48"/>
+      <c r="AB31" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="AC31" s="48"/>
-      <c r="AD31" s="48"/>
-      <c r="AE31" s="48"/>
-      <c r="AF31" s="48"/>
-      <c r="AG31" s="48"/>
-      <c r="AH31" s="48"/>
-      <c r="AI31" s="48"/>
-      <c r="AJ31" s="48"/>
-      <c r="AK31" s="47" t="s">
+      <c r="AC31" s="49"/>
+      <c r="AD31" s="49"/>
+      <c r="AE31" s="49"/>
+      <c r="AF31" s="49"/>
+      <c r="AG31" s="49"/>
+      <c r="AH31" s="49"/>
+      <c r="AI31" s="49"/>
+      <c r="AJ31" s="49"/>
+      <c r="AK31" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="AL31" s="47"/>
-      <c r="AM31" s="47"/>
-      <c r="AN31" s="48" t="s">
+      <c r="AL31" s="48"/>
+      <c r="AM31" s="48"/>
+      <c r="AN31" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="AO31" s="48"/>
-      <c r="AP31" s="48"/>
-      <c r="AQ31" s="48"/>
-      <c r="AR31" s="48"/>
-      <c r="AS31" s="48"/>
-      <c r="AT31" s="48"/>
-      <c r="AU31" s="47" t="s">
+      <c r="AO31" s="49"/>
+      <c r="AP31" s="49"/>
+      <c r="AQ31" s="49"/>
+      <c r="AR31" s="49"/>
+      <c r="AS31" s="49"/>
+      <c r="AT31" s="49"/>
+      <c r="AU31" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AV31" s="47"/>
-      <c r="AW31" s="47"/>
-      <c r="AX31" s="36" t="s">
+      <c r="AV31" s="48"/>
+      <c r="AW31" s="48"/>
+      <c r="AX31" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AY31" s="36"/>
-      <c r="AZ31" s="36"/>
-      <c r="BA31" s="36"/>
-      <c r="BB31" s="36"/>
-      <c r="BC31" s="36"/>
+      <c r="AY31" s="50"/>
+      <c r="AZ31" s="50"/>
+      <c r="BA31" s="50"/>
+      <c r="BB31" s="50"/>
+      <c r="BC31" s="50"/>
       <c r="BD31" s="3"/>
       <c r="BE31" s="3"/>
       <c r="CP31" s="3"/>
@@ -23830,65 +23846,65 @@
       <c r="HJ31" s="3"/>
     </row>
     <row r="32" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="47"/>
-      <c r="Y32" s="47"/>
-      <c r="Z32" s="47"/>
-      <c r="AA32" s="47"/>
-      <c r="AB32" s="48"/>
-      <c r="AC32" s="48"/>
-      <c r="AD32" s="48"/>
-      <c r="AE32" s="48"/>
-      <c r="AF32" s="48"/>
-      <c r="AG32" s="48"/>
-      <c r="AH32" s="48"/>
-      <c r="AI32" s="48"/>
-      <c r="AJ32" s="48"/>
-      <c r="AK32" s="47" t="s">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="48"/>
+      <c r="AB32" s="49"/>
+      <c r="AC32" s="49"/>
+      <c r="AD32" s="49"/>
+      <c r="AE32" s="49"/>
+      <c r="AF32" s="49"/>
+      <c r="AG32" s="49"/>
+      <c r="AH32" s="49"/>
+      <c r="AI32" s="49"/>
+      <c r="AJ32" s="49"/>
+      <c r="AK32" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="AL32" s="47"/>
-      <c r="AM32" s="47"/>
-      <c r="AN32" s="48"/>
-      <c r="AO32" s="48"/>
-      <c r="AP32" s="48"/>
-      <c r="AQ32" s="48"/>
-      <c r="AR32" s="48"/>
-      <c r="AS32" s="48"/>
-      <c r="AT32" s="48"/>
-      <c r="AU32" s="47" t="s">
+      <c r="AL32" s="48"/>
+      <c r="AM32" s="48"/>
+      <c r="AN32" s="49"/>
+      <c r="AO32" s="49"/>
+      <c r="AP32" s="49"/>
+      <c r="AQ32" s="49"/>
+      <c r="AR32" s="49"/>
+      <c r="AS32" s="49"/>
+      <c r="AT32" s="49"/>
+      <c r="AU32" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AV32" s="47"/>
-      <c r="AW32" s="47"/>
-      <c r="AX32" s="36"/>
-      <c r="AY32" s="36"/>
-      <c r="AZ32" s="36"/>
-      <c r="BA32" s="36"/>
-      <c r="BB32" s="36"/>
-      <c r="BC32" s="36"/>
+      <c r="AV32" s="48"/>
+      <c r="AW32" s="48"/>
+      <c r="AX32" s="50"/>
+      <c r="AY32" s="50"/>
+      <c r="AZ32" s="50"/>
+      <c r="BA32" s="50"/>
+      <c r="BB32" s="50"/>
+      <c r="BC32" s="50"/>
     </row>
     <row r="33" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
@@ -23948,126 +23964,126 @@
       <c r="BC33" s="5"/>
     </row>
     <row r="34" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="55" t="s">
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="55"/>
-      <c r="S34" s="55"/>
-      <c r="T34" s="55"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="55"/>
-      <c r="W34" s="55"/>
-      <c r="X34" s="57" t="s">
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="Y34" s="57"/>
-      <c r="Z34" s="57"/>
-      <c r="AA34" s="57"/>
-      <c r="AB34" s="57"/>
-      <c r="AC34" s="55" t="s">
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="53"/>
+      <c r="AA34" s="53"/>
+      <c r="AB34" s="53"/>
+      <c r="AC34" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="AD34" s="55"/>
-      <c r="AE34" s="55"/>
-      <c r="AF34" s="55"/>
-      <c r="AG34" s="55"/>
-      <c r="AH34" s="55"/>
-      <c r="AI34" s="55"/>
-      <c r="AJ34" s="55"/>
-      <c r="AK34" s="55"/>
-      <c r="AL34" s="55"/>
-      <c r="AM34" s="55"/>
-      <c r="AN34" s="55"/>
-      <c r="AO34" s="55"/>
-      <c r="AP34" s="55"/>
-      <c r="AQ34" s="55"/>
-      <c r="AR34" s="55"/>
-      <c r="AS34" s="55"/>
-      <c r="AT34" s="55"/>
-      <c r="AU34" s="55"/>
-      <c r="AV34" s="55"/>
-      <c r="AW34" s="55"/>
-      <c r="AX34" s="55"/>
-      <c r="AY34" s="55"/>
-      <c r="AZ34" s="55"/>
-      <c r="BA34" s="55"/>
-      <c r="BB34" s="55"/>
-      <c r="BC34" s="55"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="51"/>
+      <c r="AF34" s="51"/>
+      <c r="AG34" s="51"/>
+      <c r="AH34" s="51"/>
+      <c r="AI34" s="51"/>
+      <c r="AJ34" s="51"/>
+      <c r="AK34" s="51"/>
+      <c r="AL34" s="51"/>
+      <c r="AM34" s="51"/>
+      <c r="AN34" s="51"/>
+      <c r="AO34" s="51"/>
+      <c r="AP34" s="51"/>
+      <c r="AQ34" s="51"/>
+      <c r="AR34" s="51"/>
+      <c r="AS34" s="51"/>
+      <c r="AT34" s="51"/>
+      <c r="AU34" s="51"/>
+      <c r="AV34" s="51"/>
+      <c r="AW34" s="51"/>
+      <c r="AX34" s="51"/>
+      <c r="AY34" s="51"/>
+      <c r="AZ34" s="51"/>
+      <c r="BA34" s="51"/>
+      <c r="BB34" s="51"/>
+      <c r="BC34" s="51"/>
     </row>
     <row r="35" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="58"/>
-      <c r="Y35" s="58"/>
-      <c r="Z35" s="58"/>
-      <c r="AA35" s="58"/>
-      <c r="AB35" s="58"/>
-      <c r="AC35" s="56"/>
-      <c r="AD35" s="56"/>
-      <c r="AE35" s="56"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="56"/>
-      <c r="AH35" s="56"/>
-      <c r="AI35" s="56"/>
-      <c r="AJ35" s="56"/>
-      <c r="AK35" s="56"/>
-      <c r="AL35" s="56"/>
-      <c r="AM35" s="56"/>
-      <c r="AN35" s="56"/>
-      <c r="AO35" s="56"/>
-      <c r="AP35" s="56"/>
-      <c r="AQ35" s="56"/>
-      <c r="AR35" s="56"/>
-      <c r="AS35" s="56"/>
-      <c r="AT35" s="56"/>
-      <c r="AU35" s="56"/>
-      <c r="AV35" s="56"/>
-      <c r="AW35" s="56"/>
-      <c r="AX35" s="56"/>
-      <c r="AY35" s="56"/>
-      <c r="AZ35" s="56"/>
-      <c r="BA35" s="56"/>
-      <c r="BB35" s="56"/>
-      <c r="BC35" s="56"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="54"/>
+      <c r="Y35" s="54"/>
+      <c r="Z35" s="54"/>
+      <c r="AA35" s="54"/>
+      <c r="AB35" s="54"/>
+      <c r="AC35" s="52"/>
+      <c r="AD35" s="52"/>
+      <c r="AE35" s="52"/>
+      <c r="AF35" s="52"/>
+      <c r="AG35" s="52"/>
+      <c r="AH35" s="52"/>
+      <c r="AI35" s="52"/>
+      <c r="AJ35" s="52"/>
+      <c r="AK35" s="52"/>
+      <c r="AL35" s="52"/>
+      <c r="AM35" s="52"/>
+      <c r="AN35" s="52"/>
+      <c r="AO35" s="52"/>
+      <c r="AP35" s="52"/>
+      <c r="AQ35" s="52"/>
+      <c r="AR35" s="52"/>
+      <c r="AS35" s="52"/>
+      <c r="AT35" s="52"/>
+      <c r="AU35" s="52"/>
+      <c r="AV35" s="52"/>
+      <c r="AW35" s="52"/>
+      <c r="AX35" s="52"/>
+      <c r="AY35" s="52"/>
+      <c r="AZ35" s="52"/>
+      <c r="BA35" s="52"/>
+      <c r="BB35" s="52"/>
+      <c r="BC35" s="52"/>
     </row>
     <row r="36" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
@@ -24127,530 +24143,530 @@
       <c r="BC36" s="8"/>
     </row>
     <row r="37" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37" t="s">
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37" t="s">
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="38" t="s">
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="38"/>
-      <c r="AA37" s="38"/>
-      <c r="AB37" s="38"/>
-      <c r="AC37" s="38"/>
-      <c r="AD37" s="38"/>
-      <c r="AE37" s="37" t="s">
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="39"/>
+      <c r="AC37" s="39"/>
+      <c r="AD37" s="39"/>
+      <c r="AE37" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="AF37" s="37"/>
-      <c r="AG37" s="37"/>
-      <c r="AH37" s="37"/>
-      <c r="AI37" s="37"/>
-      <c r="AJ37" s="37"/>
-      <c r="AK37" s="37"/>
-      <c r="AL37" s="37"/>
-      <c r="AM37" s="37"/>
-      <c r="AN37" s="37"/>
-      <c r="AO37" s="37"/>
-      <c r="AP37" s="37"/>
-      <c r="AQ37" s="37"/>
-      <c r="AR37" s="37"/>
-      <c r="AS37" s="37"/>
-      <c r="AT37" s="37"/>
-      <c r="AU37" s="37"/>
-      <c r="AV37" s="37"/>
-      <c r="AW37" s="37"/>
-      <c r="AX37" s="37"/>
-      <c r="AY37" s="37"/>
-      <c r="AZ37" s="37"/>
-      <c r="BA37" s="37"/>
-      <c r="BB37" s="37"/>
-      <c r="BC37" s="37"/>
+      <c r="AF37" s="38"/>
+      <c r="AG37" s="38"/>
+      <c r="AH37" s="38"/>
+      <c r="AI37" s="38"/>
+      <c r="AJ37" s="38"/>
+      <c r="AK37" s="38"/>
+      <c r="AL37" s="38"/>
+      <c r="AM37" s="38"/>
+      <c r="AN37" s="38"/>
+      <c r="AO37" s="38"/>
+      <c r="AP37" s="38"/>
+      <c r="AQ37" s="38"/>
+      <c r="AR37" s="38"/>
+      <c r="AS37" s="38"/>
+      <c r="AT37" s="38"/>
+      <c r="AU37" s="38"/>
+      <c r="AV37" s="38"/>
+      <c r="AW37" s="38"/>
+      <c r="AX37" s="38"/>
+      <c r="AY37" s="38"/>
+      <c r="AZ37" s="38"/>
+      <c r="BA37" s="38"/>
+      <c r="BB37" s="38"/>
+      <c r="BC37" s="38"/>
     </row>
     <row r="38" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="38"/>
-      <c r="X38" s="38"/>
-      <c r="Y38" s="38"/>
-      <c r="Z38" s="38"/>
-      <c r="AA38" s="38"/>
-      <c r="AB38" s="38"/>
-      <c r="AC38" s="38"/>
-      <c r="AD38" s="38"/>
-      <c r="AE38" s="37"/>
-      <c r="AF38" s="37"/>
-      <c r="AG38" s="37"/>
-      <c r="AH38" s="37"/>
-      <c r="AI38" s="37"/>
-      <c r="AJ38" s="37"/>
-      <c r="AK38" s="37"/>
-      <c r="AL38" s="37"/>
-      <c r="AM38" s="37"/>
-      <c r="AN38" s="37"/>
-      <c r="AO38" s="37"/>
-      <c r="AP38" s="37"/>
-      <c r="AQ38" s="37"/>
-      <c r="AR38" s="37"/>
-      <c r="AS38" s="37"/>
-      <c r="AT38" s="37"/>
-      <c r="AU38" s="37"/>
-      <c r="AV38" s="37"/>
-      <c r="AW38" s="37"/>
-      <c r="AX38" s="37"/>
-      <c r="AY38" s="37"/>
-      <c r="AZ38" s="37"/>
-      <c r="BA38" s="37"/>
-      <c r="BB38" s="37"/>
-      <c r="BC38" s="37"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="39"/>
+      <c r="AA38" s="39"/>
+      <c r="AB38" s="39"/>
+      <c r="AC38" s="39"/>
+      <c r="AD38" s="39"/>
+      <c r="AE38" s="38"/>
+      <c r="AF38" s="38"/>
+      <c r="AG38" s="38"/>
+      <c r="AH38" s="38"/>
+      <c r="AI38" s="38"/>
+      <c r="AJ38" s="38"/>
+      <c r="AK38" s="38"/>
+      <c r="AL38" s="38"/>
+      <c r="AM38" s="38"/>
+      <c r="AN38" s="38"/>
+      <c r="AO38" s="38"/>
+      <c r="AP38" s="38"/>
+      <c r="AQ38" s="38"/>
+      <c r="AR38" s="38"/>
+      <c r="AS38" s="38"/>
+      <c r="AT38" s="38"/>
+      <c r="AU38" s="38"/>
+      <c r="AV38" s="38"/>
+      <c r="AW38" s="38"/>
+      <c r="AX38" s="38"/>
+      <c r="AY38" s="38"/>
+      <c r="AZ38" s="38"/>
+      <c r="BA38" s="38"/>
+      <c r="BB38" s="38"/>
+      <c r="BC38" s="38"/>
     </row>
     <row r="39" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="61" t="s">
+      <c r="A39" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="53" t="s">
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53" t="s">
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="R39" s="53"/>
-      <c r="S39" s="53"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="53"/>
-      <c r="V39" s="53"/>
-      <c r="W39" s="54" t="s">
+      <c r="R39" s="71"/>
+      <c r="S39" s="71"/>
+      <c r="T39" s="71"/>
+      <c r="U39" s="71"/>
+      <c r="V39" s="71"/>
+      <c r="W39" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="X39" s="54"/>
-      <c r="Y39" s="54"/>
-      <c r="Z39" s="54"/>
-      <c r="AA39" s="54"/>
-      <c r="AB39" s="54"/>
-      <c r="AC39" s="54"/>
-      <c r="AD39" s="54"/>
-      <c r="AE39" s="62" t="s">
+      <c r="X39" s="74"/>
+      <c r="Y39" s="74"/>
+      <c r="Z39" s="74"/>
+      <c r="AA39" s="74"/>
+      <c r="AB39" s="74"/>
+      <c r="AC39" s="74"/>
+      <c r="AD39" s="74"/>
+      <c r="AE39" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="AF39" s="62"/>
-      <c r="AG39" s="62"/>
-      <c r="AH39" s="62"/>
-      <c r="AI39" s="62"/>
-      <c r="AJ39" s="62"/>
-      <c r="AK39" s="62"/>
-      <c r="AL39" s="62"/>
-      <c r="AM39" s="62"/>
-      <c r="AN39" s="62"/>
-      <c r="AO39" s="62"/>
-      <c r="AP39" s="62"/>
-      <c r="AQ39" s="62"/>
-      <c r="AR39" s="62"/>
-      <c r="AS39" s="62"/>
-      <c r="AT39" s="62"/>
-      <c r="AU39" s="62"/>
-      <c r="AV39" s="62"/>
-      <c r="AW39" s="62"/>
-      <c r="AX39" s="62"/>
-      <c r="AY39" s="62"/>
-      <c r="AZ39" s="62"/>
-      <c r="BA39" s="62"/>
-      <c r="BB39" s="62"/>
-      <c r="BC39" s="62"/>
+      <c r="AF39" s="76"/>
+      <c r="AG39" s="76"/>
+      <c r="AH39" s="76"/>
+      <c r="AI39" s="76"/>
+      <c r="AJ39" s="76"/>
+      <c r="AK39" s="76"/>
+      <c r="AL39" s="76"/>
+      <c r="AM39" s="76"/>
+      <c r="AN39" s="76"/>
+      <c r="AO39" s="76"/>
+      <c r="AP39" s="76"/>
+      <c r="AQ39" s="76"/>
+      <c r="AR39" s="76"/>
+      <c r="AS39" s="76"/>
+      <c r="AT39" s="76"/>
+      <c r="AU39" s="76"/>
+      <c r="AV39" s="76"/>
+      <c r="AW39" s="76"/>
+      <c r="AX39" s="76"/>
+      <c r="AY39" s="76"/>
+      <c r="AZ39" s="76"/>
+      <c r="BA39" s="76"/>
+      <c r="BB39" s="76"/>
+      <c r="BC39" s="76"/>
     </row>
     <row r="40" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="61" t="s">
+      <c r="A40" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="53" t="s">
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53" t="s">
+      <c r="J40" s="71"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="71"/>
+      <c r="Q40" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="R40" s="53"/>
-      <c r="S40" s="53"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="53"/>
-      <c r="V40" s="53"/>
-      <c r="W40" s="54" t="s">
+      <c r="R40" s="71"/>
+      <c r="S40" s="71"/>
+      <c r="T40" s="71"/>
+      <c r="U40" s="71"/>
+      <c r="V40" s="71"/>
+      <c r="W40" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="X40" s="54"/>
-      <c r="Y40" s="54"/>
-      <c r="Z40" s="54"/>
-      <c r="AA40" s="54"/>
-      <c r="AB40" s="54"/>
-      <c r="AC40" s="54"/>
-      <c r="AD40" s="54"/>
-      <c r="AE40" s="62" t="s">
+      <c r="X40" s="74"/>
+      <c r="Y40" s="74"/>
+      <c r="Z40" s="74"/>
+      <c r="AA40" s="74"/>
+      <c r="AB40" s="74"/>
+      <c r="AC40" s="74"/>
+      <c r="AD40" s="74"/>
+      <c r="AE40" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="AF40" s="62"/>
-      <c r="AG40" s="62"/>
-      <c r="AH40" s="62"/>
-      <c r="AI40" s="62"/>
-      <c r="AJ40" s="62"/>
-      <c r="AK40" s="62"/>
-      <c r="AL40" s="62"/>
-      <c r="AM40" s="62"/>
-      <c r="AN40" s="62"/>
-      <c r="AO40" s="62"/>
-      <c r="AP40" s="62"/>
-      <c r="AQ40" s="62"/>
-      <c r="AR40" s="62"/>
-      <c r="AS40" s="62"/>
-      <c r="AT40" s="62"/>
-      <c r="AU40" s="62"/>
-      <c r="AV40" s="62"/>
-      <c r="AW40" s="62"/>
-      <c r="AX40" s="62"/>
-      <c r="AY40" s="62"/>
-      <c r="AZ40" s="62"/>
-      <c r="BA40" s="62"/>
-      <c r="BB40" s="62"/>
-      <c r="BC40" s="62"/>
+      <c r="AF40" s="76"/>
+      <c r="AG40" s="76"/>
+      <c r="AH40" s="76"/>
+      <c r="AI40" s="76"/>
+      <c r="AJ40" s="76"/>
+      <c r="AK40" s="76"/>
+      <c r="AL40" s="76"/>
+      <c r="AM40" s="76"/>
+      <c r="AN40" s="76"/>
+      <c r="AO40" s="76"/>
+      <c r="AP40" s="76"/>
+      <c r="AQ40" s="76"/>
+      <c r="AR40" s="76"/>
+      <c r="AS40" s="76"/>
+      <c r="AT40" s="76"/>
+      <c r="AU40" s="76"/>
+      <c r="AV40" s="76"/>
+      <c r="AW40" s="76"/>
+      <c r="AX40" s="76"/>
+      <c r="AY40" s="76"/>
+      <c r="AZ40" s="76"/>
+      <c r="BA40" s="76"/>
+      <c r="BB40" s="76"/>
+      <c r="BC40" s="76"/>
     </row>
     <row r="41" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="61" t="s">
+      <c r="A41" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="53" t="s">
+      <c r="B41" s="75"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53" t="s">
+      <c r="J41" s="71"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="R41" s="53"/>
-      <c r="S41" s="53"/>
-      <c r="T41" s="53"/>
-      <c r="U41" s="53"/>
-      <c r="V41" s="53"/>
-      <c r="W41" s="54" t="s">
+      <c r="R41" s="71"/>
+      <c r="S41" s="71"/>
+      <c r="T41" s="71"/>
+      <c r="U41" s="71"/>
+      <c r="V41" s="71"/>
+      <c r="W41" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="X41" s="54"/>
-      <c r="Y41" s="54"/>
-      <c r="Z41" s="54"/>
-      <c r="AA41" s="54"/>
-      <c r="AB41" s="54"/>
-      <c r="AC41" s="54"/>
-      <c r="AD41" s="54"/>
-      <c r="AE41" s="62" t="s">
+      <c r="X41" s="74"/>
+      <c r="Y41" s="74"/>
+      <c r="Z41" s="74"/>
+      <c r="AA41" s="74"/>
+      <c r="AB41" s="74"/>
+      <c r="AC41" s="74"/>
+      <c r="AD41" s="74"/>
+      <c r="AE41" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="AF41" s="62"/>
-      <c r="AG41" s="62"/>
-      <c r="AH41" s="62"/>
-      <c r="AI41" s="62"/>
-      <c r="AJ41" s="62"/>
-      <c r="AK41" s="62"/>
-      <c r="AL41" s="62"/>
-      <c r="AM41" s="62"/>
-      <c r="AN41" s="62"/>
-      <c r="AO41" s="62"/>
-      <c r="AP41" s="62"/>
-      <c r="AQ41" s="62"/>
-      <c r="AR41" s="62"/>
-      <c r="AS41" s="62"/>
-      <c r="AT41" s="62"/>
-      <c r="AU41" s="62"/>
-      <c r="AV41" s="62"/>
-      <c r="AW41" s="62"/>
-      <c r="AX41" s="62"/>
-      <c r="AY41" s="62"/>
-      <c r="AZ41" s="62"/>
-      <c r="BA41" s="62"/>
-      <c r="BB41" s="62"/>
-      <c r="BC41" s="62"/>
+      <c r="AF41" s="76"/>
+      <c r="AG41" s="76"/>
+      <c r="AH41" s="76"/>
+      <c r="AI41" s="76"/>
+      <c r="AJ41" s="76"/>
+      <c r="AK41" s="76"/>
+      <c r="AL41" s="76"/>
+      <c r="AM41" s="76"/>
+      <c r="AN41" s="76"/>
+      <c r="AO41" s="76"/>
+      <c r="AP41" s="76"/>
+      <c r="AQ41" s="76"/>
+      <c r="AR41" s="76"/>
+      <c r="AS41" s="76"/>
+      <c r="AT41" s="76"/>
+      <c r="AU41" s="76"/>
+      <c r="AV41" s="76"/>
+      <c r="AW41" s="76"/>
+      <c r="AX41" s="76"/>
+      <c r="AY41" s="76"/>
+      <c r="AZ41" s="76"/>
+      <c r="BA41" s="76"/>
+      <c r="BB41" s="76"/>
+      <c r="BC41" s="76"/>
     </row>
     <row r="42" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="61" t="s">
+      <c r="A42" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="53" t="s">
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53" t="s">
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="71"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="R42" s="53"/>
-      <c r="S42" s="53"/>
-      <c r="T42" s="53"/>
-      <c r="U42" s="53"/>
-      <c r="V42" s="53"/>
-      <c r="W42" s="54" t="s">
+      <c r="R42" s="71"/>
+      <c r="S42" s="71"/>
+      <c r="T42" s="71"/>
+      <c r="U42" s="71"/>
+      <c r="V42" s="71"/>
+      <c r="W42" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="X42" s="54"/>
-      <c r="Y42" s="54"/>
-      <c r="Z42" s="54"/>
-      <c r="AA42" s="54"/>
-      <c r="AB42" s="54"/>
-      <c r="AC42" s="54"/>
-      <c r="AD42" s="54"/>
-      <c r="AE42" s="62" t="s">
+      <c r="X42" s="74"/>
+      <c r="Y42" s="74"/>
+      <c r="Z42" s="74"/>
+      <c r="AA42" s="74"/>
+      <c r="AB42" s="74"/>
+      <c r="AC42" s="74"/>
+      <c r="AD42" s="74"/>
+      <c r="AE42" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="AF42" s="62"/>
-      <c r="AG42" s="62"/>
-      <c r="AH42" s="62"/>
-      <c r="AI42" s="62"/>
-      <c r="AJ42" s="62"/>
-      <c r="AK42" s="62"/>
-      <c r="AL42" s="62"/>
-      <c r="AM42" s="62"/>
-      <c r="AN42" s="62"/>
-      <c r="AO42" s="62"/>
-      <c r="AP42" s="62"/>
-      <c r="AQ42" s="62"/>
-      <c r="AR42" s="62"/>
-      <c r="AS42" s="62"/>
-      <c r="AT42" s="62"/>
-      <c r="AU42" s="62"/>
-      <c r="AV42" s="62"/>
-      <c r="AW42" s="62"/>
-      <c r="AX42" s="62"/>
-      <c r="AY42" s="62"/>
-      <c r="AZ42" s="62"/>
-      <c r="BA42" s="62"/>
-      <c r="BB42" s="62"/>
-      <c r="BC42" s="62"/>
+      <c r="AF42" s="76"/>
+      <c r="AG42" s="76"/>
+      <c r="AH42" s="76"/>
+      <c r="AI42" s="76"/>
+      <c r="AJ42" s="76"/>
+      <c r="AK42" s="76"/>
+      <c r="AL42" s="76"/>
+      <c r="AM42" s="76"/>
+      <c r="AN42" s="76"/>
+      <c r="AO42" s="76"/>
+      <c r="AP42" s="76"/>
+      <c r="AQ42" s="76"/>
+      <c r="AR42" s="76"/>
+      <c r="AS42" s="76"/>
+      <c r="AT42" s="76"/>
+      <c r="AU42" s="76"/>
+      <c r="AV42" s="76"/>
+      <c r="AW42" s="76"/>
+      <c r="AX42" s="76"/>
+      <c r="AY42" s="76"/>
+      <c r="AZ42" s="76"/>
+      <c r="BA42" s="76"/>
+      <c r="BB42" s="76"/>
+      <c r="BC42" s="76"/>
     </row>
     <row r="43" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="61" t="s">
+      <c r="A43" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="53" t="s">
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53" t="s">
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="71"/>
+      <c r="Q43" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="53"/>
-      <c r="S43" s="53"/>
-      <c r="T43" s="53"/>
-      <c r="U43" s="53"/>
-      <c r="V43" s="53"/>
-      <c r="W43" s="54" t="s">
+      <c r="R43" s="71"/>
+      <c r="S43" s="71"/>
+      <c r="T43" s="71"/>
+      <c r="U43" s="71"/>
+      <c r="V43" s="71"/>
+      <c r="W43" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="X43" s="54"/>
-      <c r="Y43" s="54"/>
-      <c r="Z43" s="54"/>
-      <c r="AA43" s="54"/>
-      <c r="AB43" s="54"/>
-      <c r="AC43" s="54"/>
-      <c r="AD43" s="54"/>
-      <c r="AE43" s="62" t="s">
+      <c r="X43" s="74"/>
+      <c r="Y43" s="74"/>
+      <c r="Z43" s="74"/>
+      <c r="AA43" s="74"/>
+      <c r="AB43" s="74"/>
+      <c r="AC43" s="74"/>
+      <c r="AD43" s="74"/>
+      <c r="AE43" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="AF43" s="62"/>
-      <c r="AG43" s="62"/>
-      <c r="AH43" s="62"/>
-      <c r="AI43" s="62"/>
-      <c r="AJ43" s="62"/>
-      <c r="AK43" s="62"/>
-      <c r="AL43" s="62"/>
-      <c r="AM43" s="62"/>
-      <c r="AN43" s="62"/>
-      <c r="AO43" s="62"/>
-      <c r="AP43" s="62"/>
-      <c r="AQ43" s="62"/>
-      <c r="AR43" s="62"/>
-      <c r="AS43" s="62"/>
-      <c r="AT43" s="62"/>
-      <c r="AU43" s="62"/>
-      <c r="AV43" s="62"/>
-      <c r="AW43" s="62"/>
-      <c r="AX43" s="62"/>
-      <c r="AY43" s="62"/>
-      <c r="AZ43" s="62"/>
-      <c r="BA43" s="62"/>
-      <c r="BB43" s="62"/>
-      <c r="BC43" s="62"/>
+      <c r="AF43" s="76"/>
+      <c r="AG43" s="76"/>
+      <c r="AH43" s="76"/>
+      <c r="AI43" s="76"/>
+      <c r="AJ43" s="76"/>
+      <c r="AK43" s="76"/>
+      <c r="AL43" s="76"/>
+      <c r="AM43" s="76"/>
+      <c r="AN43" s="76"/>
+      <c r="AO43" s="76"/>
+      <c r="AP43" s="76"/>
+      <c r="AQ43" s="76"/>
+      <c r="AR43" s="76"/>
+      <c r="AS43" s="76"/>
+      <c r="AT43" s="76"/>
+      <c r="AU43" s="76"/>
+      <c r="AV43" s="76"/>
+      <c r="AW43" s="76"/>
+      <c r="AX43" s="76"/>
+      <c r="AY43" s="76"/>
+      <c r="AZ43" s="76"/>
+      <c r="BA43" s="76"/>
+      <c r="BB43" s="76"/>
+      <c r="BC43" s="76"/>
     </row>
     <row r="44" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="61" t="s">
+      <c r="A44" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="53" t="s">
+      <c r="B44" s="75"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="53" t="s">
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="R44" s="53"/>
-      <c r="S44" s="53"/>
-      <c r="T44" s="53"/>
-      <c r="U44" s="53"/>
-      <c r="V44" s="53"/>
-      <c r="W44" s="54" t="s">
+      <c r="R44" s="71"/>
+      <c r="S44" s="71"/>
+      <c r="T44" s="71"/>
+      <c r="U44" s="71"/>
+      <c r="V44" s="71"/>
+      <c r="W44" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="X44" s="54"/>
-      <c r="Y44" s="54"/>
-      <c r="Z44" s="54"/>
-      <c r="AA44" s="54"/>
-      <c r="AB44" s="54"/>
-      <c r="AC44" s="54"/>
-      <c r="AD44" s="54"/>
-      <c r="AE44" s="62" t="s">
+      <c r="X44" s="74"/>
+      <c r="Y44" s="74"/>
+      <c r="Z44" s="74"/>
+      <c r="AA44" s="74"/>
+      <c r="AB44" s="74"/>
+      <c r="AC44" s="74"/>
+      <c r="AD44" s="74"/>
+      <c r="AE44" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="AF44" s="62"/>
-      <c r="AG44" s="62"/>
-      <c r="AH44" s="62"/>
-      <c r="AI44" s="62"/>
-      <c r="AJ44" s="62"/>
-      <c r="AK44" s="62"/>
-      <c r="AL44" s="62"/>
-      <c r="AM44" s="62"/>
-      <c r="AN44" s="62"/>
-      <c r="AO44" s="62"/>
-      <c r="AP44" s="62"/>
-      <c r="AQ44" s="62"/>
-      <c r="AR44" s="62"/>
-      <c r="AS44" s="62"/>
-      <c r="AT44" s="62"/>
-      <c r="AU44" s="62"/>
-      <c r="AV44" s="62"/>
-      <c r="AW44" s="62"/>
-      <c r="AX44" s="62"/>
-      <c r="AY44" s="62"/>
-      <c r="AZ44" s="62"/>
-      <c r="BA44" s="62"/>
-      <c r="BB44" s="62"/>
-      <c r="BC44" s="62"/>
+      <c r="AF44" s="76"/>
+      <c r="AG44" s="76"/>
+      <c r="AH44" s="76"/>
+      <c r="AI44" s="76"/>
+      <c r="AJ44" s="76"/>
+      <c r="AK44" s="76"/>
+      <c r="AL44" s="76"/>
+      <c r="AM44" s="76"/>
+      <c r="AN44" s="76"/>
+      <c r="AO44" s="76"/>
+      <c r="AP44" s="76"/>
+      <c r="AQ44" s="76"/>
+      <c r="AR44" s="76"/>
+      <c r="AS44" s="76"/>
+      <c r="AT44" s="76"/>
+      <c r="AU44" s="76"/>
+      <c r="AV44" s="76"/>
+      <c r="AW44" s="76"/>
+      <c r="AX44" s="76"/>
+      <c r="AY44" s="76"/>
+      <c r="AZ44" s="76"/>
+      <c r="BA44" s="76"/>
+      <c r="BB44" s="76"/>
+      <c r="BC44" s="76"/>
       <c r="BD44" s="6"/>
       <c r="BE44" s="6"/>
       <c r="BF44" s="3"/>
@@ -24795,199 +24811,199 @@
       <c r="GV44" s="3"/>
     </row>
     <row r="45" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="61" t="s">
+      <c r="A45" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="53" t="s">
+      <c r="B45" s="75"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="53" t="s">
+      <c r="J45" s="71"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="71"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="71"/>
+      <c r="Q45" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="R45" s="53"/>
-      <c r="S45" s="53"/>
-      <c r="T45" s="53"/>
-      <c r="U45" s="53"/>
-      <c r="V45" s="53"/>
-      <c r="W45" s="54" t="s">
+      <c r="R45" s="71"/>
+      <c r="S45" s="71"/>
+      <c r="T45" s="71"/>
+      <c r="U45" s="71"/>
+      <c r="V45" s="71"/>
+      <c r="W45" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="X45" s="54"/>
-      <c r="Y45" s="54"/>
-      <c r="Z45" s="54"/>
-      <c r="AA45" s="54"/>
-      <c r="AB45" s="54"/>
-      <c r="AC45" s="54"/>
-      <c r="AD45" s="54"/>
-      <c r="AE45" s="62" t="s">
+      <c r="X45" s="74"/>
+      <c r="Y45" s="74"/>
+      <c r="Z45" s="74"/>
+      <c r="AA45" s="74"/>
+      <c r="AB45" s="74"/>
+      <c r="AC45" s="74"/>
+      <c r="AD45" s="74"/>
+      <c r="AE45" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="AF45" s="62"/>
-      <c r="AG45" s="62"/>
-      <c r="AH45" s="62"/>
-      <c r="AI45" s="62"/>
-      <c r="AJ45" s="62"/>
-      <c r="AK45" s="62"/>
-      <c r="AL45" s="62"/>
-      <c r="AM45" s="62"/>
-      <c r="AN45" s="62"/>
-      <c r="AO45" s="62"/>
-      <c r="AP45" s="62"/>
-      <c r="AQ45" s="62"/>
-      <c r="AR45" s="62"/>
-      <c r="AS45" s="62"/>
-      <c r="AT45" s="62"/>
-      <c r="AU45" s="62"/>
-      <c r="AV45" s="62"/>
-      <c r="AW45" s="62"/>
-      <c r="AX45" s="62"/>
-      <c r="AY45" s="62"/>
-      <c r="AZ45" s="62"/>
-      <c r="BA45" s="62"/>
-      <c r="BB45" s="62"/>
-      <c r="BC45" s="62"/>
+      <c r="AF45" s="76"/>
+      <c r="AG45" s="76"/>
+      <c r="AH45" s="76"/>
+      <c r="AI45" s="76"/>
+      <c r="AJ45" s="76"/>
+      <c r="AK45" s="76"/>
+      <c r="AL45" s="76"/>
+      <c r="AM45" s="76"/>
+      <c r="AN45" s="76"/>
+      <c r="AO45" s="76"/>
+      <c r="AP45" s="76"/>
+      <c r="AQ45" s="76"/>
+      <c r="AR45" s="76"/>
+      <c r="AS45" s="76"/>
+      <c r="AT45" s="76"/>
+      <c r="AU45" s="76"/>
+      <c r="AV45" s="76"/>
+      <c r="AW45" s="76"/>
+      <c r="AX45" s="76"/>
+      <c r="AY45" s="76"/>
+      <c r="AZ45" s="76"/>
+      <c r="BA45" s="76"/>
+      <c r="BB45" s="76"/>
+      <c r="BC45" s="76"/>
       <c r="BD45" s="7"/>
       <c r="BE45" s="7"/>
     </row>
     <row r="46" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="61" t="s">
+      <c r="A46" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="53" t="s">
+      <c r="B46" s="75"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="53" t="s">
+      <c r="J46" s="71"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="R46" s="53"/>
-      <c r="S46" s="53"/>
-      <c r="T46" s="53"/>
-      <c r="U46" s="53"/>
-      <c r="V46" s="53"/>
-      <c r="W46" s="54" t="s">
+      <c r="R46" s="71"/>
+      <c r="S46" s="71"/>
+      <c r="T46" s="71"/>
+      <c r="U46" s="71"/>
+      <c r="V46" s="71"/>
+      <c r="W46" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="X46" s="54"/>
-      <c r="Y46" s="54"/>
-      <c r="Z46" s="54"/>
-      <c r="AA46" s="54"/>
-      <c r="AB46" s="54"/>
-      <c r="AC46" s="54"/>
-      <c r="AD46" s="54"/>
-      <c r="AE46" s="62" t="s">
+      <c r="X46" s="74"/>
+      <c r="Y46" s="74"/>
+      <c r="Z46" s="74"/>
+      <c r="AA46" s="74"/>
+      <c r="AB46" s="74"/>
+      <c r="AC46" s="74"/>
+      <c r="AD46" s="74"/>
+      <c r="AE46" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="AF46" s="62"/>
-      <c r="AG46" s="62"/>
-      <c r="AH46" s="62"/>
-      <c r="AI46" s="62"/>
-      <c r="AJ46" s="62"/>
-      <c r="AK46" s="62"/>
-      <c r="AL46" s="62"/>
-      <c r="AM46" s="62"/>
-      <c r="AN46" s="62"/>
-      <c r="AO46" s="62"/>
-      <c r="AP46" s="62"/>
-      <c r="AQ46" s="62"/>
-      <c r="AR46" s="62"/>
-      <c r="AS46" s="62"/>
-      <c r="AT46" s="62"/>
-      <c r="AU46" s="62"/>
-      <c r="AV46" s="62"/>
-      <c r="AW46" s="62"/>
-      <c r="AX46" s="62"/>
-      <c r="AY46" s="62"/>
-      <c r="AZ46" s="62"/>
-      <c r="BA46" s="62"/>
-      <c r="BB46" s="62"/>
-      <c r="BC46" s="62"/>
+      <c r="AF46" s="76"/>
+      <c r="AG46" s="76"/>
+      <c r="AH46" s="76"/>
+      <c r="AI46" s="76"/>
+      <c r="AJ46" s="76"/>
+      <c r="AK46" s="76"/>
+      <c r="AL46" s="76"/>
+      <c r="AM46" s="76"/>
+      <c r="AN46" s="76"/>
+      <c r="AO46" s="76"/>
+      <c r="AP46" s="76"/>
+      <c r="AQ46" s="76"/>
+      <c r="AR46" s="76"/>
+      <c r="AS46" s="76"/>
+      <c r="AT46" s="76"/>
+      <c r="AU46" s="76"/>
+      <c r="AV46" s="76"/>
+      <c r="AW46" s="76"/>
+      <c r="AX46" s="76"/>
+      <c r="AY46" s="76"/>
+      <c r="AZ46" s="76"/>
+      <c r="BA46" s="76"/>
+      <c r="BB46" s="76"/>
+      <c r="BC46" s="76"/>
       <c r="BD46" s="7"/>
       <c r="BE46" s="7"/>
     </row>
     <row r="47" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="63"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="64"/>
-      <c r="N47" s="64"/>
-      <c r="O47" s="64"/>
-      <c r="P47" s="64"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="53"/>
-      <c r="S47" s="53"/>
-      <c r="T47" s="53"/>
-      <c r="U47" s="53"/>
-      <c r="V47" s="53"/>
-      <c r="W47" s="54"/>
-      <c r="X47" s="54"/>
-      <c r="Y47" s="54"/>
-      <c r="Z47" s="54"/>
-      <c r="AA47" s="54"/>
-      <c r="AB47" s="54"/>
-      <c r="AC47" s="54"/>
-      <c r="AD47" s="54"/>
-      <c r="AE47" s="62"/>
-      <c r="AF47" s="62"/>
-      <c r="AG47" s="62"/>
-      <c r="AH47" s="62"/>
-      <c r="AI47" s="62"/>
-      <c r="AJ47" s="62"/>
-      <c r="AK47" s="62"/>
-      <c r="AL47" s="62"/>
-      <c r="AM47" s="62"/>
-      <c r="AN47" s="62"/>
-      <c r="AO47" s="62"/>
-      <c r="AP47" s="62"/>
-      <c r="AQ47" s="62"/>
-      <c r="AR47" s="62"/>
-      <c r="AS47" s="62"/>
-      <c r="AT47" s="62"/>
-      <c r="AU47" s="62"/>
-      <c r="AV47" s="62"/>
-      <c r="AW47" s="62"/>
-      <c r="AX47" s="62"/>
-      <c r="AY47" s="62"/>
-      <c r="AZ47" s="62"/>
-      <c r="BA47" s="62"/>
-      <c r="BB47" s="62"/>
-      <c r="BC47" s="62"/>
+      <c r="A47" s="77"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="78"/>
+      <c r="L47" s="78"/>
+      <c r="M47" s="78"/>
+      <c r="N47" s="78"/>
+      <c r="O47" s="78"/>
+      <c r="P47" s="78"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="71"/>
+      <c r="T47" s="71"/>
+      <c r="U47" s="71"/>
+      <c r="V47" s="71"/>
+      <c r="W47" s="74"/>
+      <c r="X47" s="74"/>
+      <c r="Y47" s="74"/>
+      <c r="Z47" s="74"/>
+      <c r="AA47" s="74"/>
+      <c r="AB47" s="74"/>
+      <c r="AC47" s="74"/>
+      <c r="AD47" s="74"/>
+      <c r="AE47" s="76"/>
+      <c r="AF47" s="76"/>
+      <c r="AG47" s="76"/>
+      <c r="AH47" s="76"/>
+      <c r="AI47" s="76"/>
+      <c r="AJ47" s="76"/>
+      <c r="AK47" s="76"/>
+      <c r="AL47" s="76"/>
+      <c r="AM47" s="76"/>
+      <c r="AN47" s="76"/>
+      <c r="AO47" s="76"/>
+      <c r="AP47" s="76"/>
+      <c r="AQ47" s="76"/>
+      <c r="AR47" s="76"/>
+      <c r="AS47" s="76"/>
+      <c r="AT47" s="76"/>
+      <c r="AU47" s="76"/>
+      <c r="AV47" s="76"/>
+      <c r="AW47" s="76"/>
+      <c r="AX47" s="76"/>
+      <c r="AY47" s="76"/>
+      <c r="AZ47" s="76"/>
+      <c r="BA47" s="76"/>
+      <c r="BB47" s="76"/>
+      <c r="BC47" s="76"/>
       <c r="BD47" s="7"/>
       <c r="BE47" s="7"/>
     </row>
@@ -25480,6 +25496,13 @@
     <mergeCell ref="Q22:V22"/>
     <mergeCell ref="W22:AD22"/>
     <mergeCell ref="AE22:BC22"/>
+    <mergeCell ref="Q20:V21"/>
+    <mergeCell ref="W20:AD21"/>
+    <mergeCell ref="AE20:BC21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="I22:P22"/>
+    <mergeCell ref="A17:E18"/>
+    <mergeCell ref="F17:W18"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="A4:E5"/>
     <mergeCell ref="AC4:BC5"/>
@@ -25543,13 +25566,6 @@
     <mergeCell ref="I14:P14"/>
     <mergeCell ref="A20:H21"/>
     <mergeCell ref="I20:P21"/>
-    <mergeCell ref="Q20:V21"/>
-    <mergeCell ref="W20:AD21"/>
-    <mergeCell ref="AE20:BC21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="I22:P22"/>
-    <mergeCell ref="A17:E18"/>
-    <mergeCell ref="F17:W18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">

--- a/010-外部設計/014-画面レイアウト_画面入出力項目一覧/014-1-外部設計書(画面・帳票仕様)_ショッピング_商品検索.xlsx
+++ b/010-外部設計/014-画面レイアウト_画面入出力項目一覧/014-1-外部設計書(画面・帳票仕様)_ショッピング_商品検索.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4840914-0E94-4892-A54E-D028FEA6280F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFBCEA2-DA8E-4B2B-BD58-14F010A1E544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面レイアウト図" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">画面レイアウト図!$A$1:$BE$106</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">画面入出力項目一覧!$A$1:$BC$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">画面入出力項目一覧!$A$1:$BC$49</definedName>
     <definedName name="部品種別">OFFSET('（データリスト）'!$A$1,0,0,COUNTA('（データリスト）'!$A:$A),1)</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="W38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="90">
   <si>
     <t>業務</t>
   </si>
@@ -681,7 +681,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -742,18 +742,27 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF0070C0"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10.5"/>
+      <color rgb="FF0070C0"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <color rgb="FF00B050"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
@@ -1141,26 +1150,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1180,6 +1183,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1187,6 +1202,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1200,6 +1233,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1228,50 +1273,14 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1299,23 +1308,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>193963</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>83127</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>84801</xdr:rowOff>
+      <xdr:rowOff>183761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>164160</xdr:colOff>
+      <xdr:colOff>146870</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>65315</xdr:rowOff>
+      <xdr:rowOff>55418</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C482A06D-51D4-4395-A375-34ADE026F470}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1323,24 +1332,50 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect b="9383"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="400792" y="1260458"/>
-          <a:ext cx="10725282" cy="5466914"/>
+          <a:off x="496784" y="1359418"/>
+          <a:ext cx="10612000" cy="5358057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="38100">
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:srgbClr val="FFFFFF"/>
           </a:solidFill>
+          <a:miter lim="800000"/>
         </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1489,6 +1524,150 @@
             <a:srgbClr val="FFFFFF"/>
           </a:contourClr>
         </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>83127</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>183762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>32212</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C36707-F330-4A85-8C87-6CFBED097A2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect b="11027"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="496784" y="1359419"/>
+          <a:ext cx="10704171" cy="5357068"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>43542</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95FB4E24-4685-4D1C-9AD1-B992569BA4E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect b="12187"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="413657" y="15283543"/>
+          <a:ext cx="10798628" cy="5334000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>43542</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>98962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>54596</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{654C322A-0843-41DE-A38E-7818620C645A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect b="7735"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457199" y="8132619"/>
+          <a:ext cx="10766140" cy="5583381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1822,7 +2001,7 @@
   </sheetPr>
   <dimension ref="A1:IT151"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
@@ -1832,81 +2011,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="48" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="49" t="s">
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="48" t="s">
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="49" t="s">
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="48" t="s">
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="49" t="s">
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="48" t="s">
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AX1" s="48"/>
-      <c r="AY1" s="48"/>
-      <c r="AZ1" s="50" t="s">
+      <c r="AX1" s="50"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="50"/>
-      <c r="BE1" s="50"/>
+      <c r="BA1" s="52"/>
+      <c r="BB1" s="52"/>
+      <c r="BC1" s="52"/>
+      <c r="BD1" s="52"/>
+      <c r="BE1" s="52"/>
       <c r="BF1" s="8"/>
       <c r="BG1" s="8"/>
       <c r="BH1" s="8"/>
@@ -2106,67 +2285,67 @@
       <c r="IT1" s="8"/>
     </row>
     <row r="2" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="48" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="48"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="48" t="s">
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="50"/>
-      <c r="BD2" s="50"/>
-      <c r="BE2" s="50"/>
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="52"/>
+      <c r="BA2" s="52"/>
+      <c r="BB2" s="52"/>
+      <c r="BC2" s="52"/>
+      <c r="BD2" s="52"/>
+      <c r="BE2" s="52"/>
       <c r="BF2" s="8"/>
       <c r="BG2" s="8"/>
       <c r="BH2" s="8"/>
@@ -2622,71 +2801,71 @@
       <c r="IT3" s="8"/>
     </row>
     <row r="4" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="39" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="40" t="s">
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="41"/>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="41"/>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="41"/>
-      <c r="AX4" s="41"/>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="41"/>
-      <c r="BA4" s="41"/>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="41"/>
-      <c r="BD4" s="41"/>
-      <c r="BE4" s="41"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="49"/>
+      <c r="AL4" s="49"/>
+      <c r="AM4" s="49"/>
+      <c r="AN4" s="49"/>
+      <c r="AO4" s="49"/>
+      <c r="AP4" s="49"/>
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="49"/>
+      <c r="AS4" s="49"/>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49"/>
+      <c r="AW4" s="49"/>
+      <c r="AX4" s="49"/>
+      <c r="AY4" s="49"/>
+      <c r="AZ4" s="49"/>
+      <c r="BA4" s="49"/>
+      <c r="BB4" s="49"/>
+      <c r="BC4" s="49"/>
+      <c r="BD4" s="49"/>
+      <c r="BE4" s="49"/>
       <c r="BF4" s="8"/>
       <c r="BG4" s="8"/>
       <c r="BH4" s="8"/>
@@ -2886,63 +3065,63 @@
       <c r="IT4" s="8"/>
     </row>
     <row r="5" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="41"/>
-      <c r="AO5" s="41"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="41"/>
-      <c r="AU5" s="41"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="41"/>
-      <c r="AX5" s="41"/>
-      <c r="AY5" s="41"/>
-      <c r="AZ5" s="41"/>
-      <c r="BA5" s="41"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="41"/>
-      <c r="BD5" s="41"/>
-      <c r="BE5" s="41"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="49"/>
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="49"/>
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="49"/>
+      <c r="AP5" s="49"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="49"/>
+      <c r="AS5" s="49"/>
+      <c r="AT5" s="49"/>
+      <c r="AU5" s="49"/>
+      <c r="AV5" s="49"/>
+      <c r="AW5" s="49"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="49"/>
+      <c r="AZ5" s="49"/>
+      <c r="BA5" s="49"/>
+      <c r="BB5" s="49"/>
+      <c r="BC5" s="49"/>
+      <c r="BD5" s="49"/>
+      <c r="BE5" s="49"/>
       <c r="BF5" s="8"/>
       <c r="BG5" s="8"/>
       <c r="BH5" s="8"/>
@@ -8475,81 +8654,81 @@
       <c r="BE35" s="24"/>
     </row>
     <row r="36" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="48" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="49" t="s">
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="R36" s="49"/>
-      <c r="S36" s="49"/>
-      <c r="T36" s="49"/>
-      <c r="U36" s="49"/>
-      <c r="V36" s="49"/>
-      <c r="W36" s="49"/>
-      <c r="X36" s="49"/>
-      <c r="Y36" s="49"/>
-      <c r="Z36" s="48" t="s">
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="51"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="AA36" s="48"/>
-      <c r="AB36" s="48"/>
-      <c r="AC36" s="48"/>
-      <c r="AD36" s="49" t="s">
+      <c r="AA36" s="50"/>
+      <c r="AB36" s="50"/>
+      <c r="AC36" s="50"/>
+      <c r="AD36" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="AE36" s="49"/>
-      <c r="AF36" s="49"/>
-      <c r="AG36" s="49"/>
-      <c r="AH36" s="49"/>
-      <c r="AI36" s="49"/>
-      <c r="AJ36" s="49"/>
-      <c r="AK36" s="49"/>
-      <c r="AL36" s="49"/>
-      <c r="AM36" s="48" t="s">
+      <c r="AE36" s="51"/>
+      <c r="AF36" s="51"/>
+      <c r="AG36" s="51"/>
+      <c r="AH36" s="51"/>
+      <c r="AI36" s="51"/>
+      <c r="AJ36" s="51"/>
+      <c r="AK36" s="51"/>
+      <c r="AL36" s="51"/>
+      <c r="AM36" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="AN36" s="48"/>
-      <c r="AO36" s="48"/>
-      <c r="AP36" s="49" t="s">
+      <c r="AN36" s="50"/>
+      <c r="AO36" s="50"/>
+      <c r="AP36" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AQ36" s="49"/>
-      <c r="AR36" s="49"/>
-      <c r="AS36" s="49"/>
-      <c r="AT36" s="49"/>
-      <c r="AU36" s="49"/>
-      <c r="AV36" s="49"/>
-      <c r="AW36" s="48" t="s">
+      <c r="AQ36" s="51"/>
+      <c r="AR36" s="51"/>
+      <c r="AS36" s="51"/>
+      <c r="AT36" s="51"/>
+      <c r="AU36" s="51"/>
+      <c r="AV36" s="51"/>
+      <c r="AW36" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AX36" s="48"/>
-      <c r="AY36" s="48"/>
-      <c r="AZ36" s="50" t="s">
+      <c r="AX36" s="50"/>
+      <c r="AY36" s="50"/>
+      <c r="AZ36" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="BA36" s="50"/>
-      <c r="BB36" s="50"/>
-      <c r="BC36" s="50"/>
-      <c r="BD36" s="50"/>
-      <c r="BE36" s="50"/>
+      <c r="BA36" s="52"/>
+      <c r="BB36" s="52"/>
+      <c r="BC36" s="52"/>
+      <c r="BD36" s="52"/>
+      <c r="BE36" s="52"/>
       <c r="BF36" s="8"/>
       <c r="BG36" s="8"/>
       <c r="BH36" s="8"/>
@@ -8749,67 +8928,67 @@
       <c r="IT36" s="8"/>
     </row>
     <row r="37" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="45"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="49"/>
-      <c r="V37" s="49"/>
-      <c r="W37" s="49"/>
-      <c r="X37" s="49"/>
-      <c r="Y37" s="49"/>
-      <c r="Z37" s="48"/>
-      <c r="AA37" s="48"/>
-      <c r="AB37" s="48"/>
-      <c r="AC37" s="48"/>
-      <c r="AD37" s="49"/>
-      <c r="AE37" s="49"/>
-      <c r="AF37" s="49"/>
-      <c r="AG37" s="49"/>
-      <c r="AH37" s="49"/>
-      <c r="AI37" s="49"/>
-      <c r="AJ37" s="49"/>
-      <c r="AK37" s="49"/>
-      <c r="AL37" s="49"/>
-      <c r="AM37" s="48" t="s">
+      <c r="A37" s="43"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="51"/>
+      <c r="V37" s="51"/>
+      <c r="W37" s="51"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="51"/>
+      <c r="AE37" s="51"/>
+      <c r="AF37" s="51"/>
+      <c r="AG37" s="51"/>
+      <c r="AH37" s="51"/>
+      <c r="AI37" s="51"/>
+      <c r="AJ37" s="51"/>
+      <c r="AK37" s="51"/>
+      <c r="AL37" s="51"/>
+      <c r="AM37" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AN37" s="48"/>
-      <c r="AO37" s="48"/>
-      <c r="AP37" s="49"/>
-      <c r="AQ37" s="49"/>
-      <c r="AR37" s="49"/>
-      <c r="AS37" s="49"/>
-      <c r="AT37" s="49"/>
-      <c r="AU37" s="49"/>
-      <c r="AV37" s="49"/>
-      <c r="AW37" s="48" t="s">
+      <c r="AN37" s="50"/>
+      <c r="AO37" s="50"/>
+      <c r="AP37" s="51"/>
+      <c r="AQ37" s="51"/>
+      <c r="AR37" s="51"/>
+      <c r="AS37" s="51"/>
+      <c r="AT37" s="51"/>
+      <c r="AU37" s="51"/>
+      <c r="AV37" s="51"/>
+      <c r="AW37" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AX37" s="48"/>
-      <c r="AY37" s="48"/>
-      <c r="AZ37" s="50"/>
-      <c r="BA37" s="50"/>
-      <c r="BB37" s="50"/>
-      <c r="BC37" s="50"/>
-      <c r="BD37" s="50"/>
-      <c r="BE37" s="50"/>
+      <c r="AX37" s="50"/>
+      <c r="AY37" s="50"/>
+      <c r="AZ37" s="52"/>
+      <c r="BA37" s="52"/>
+      <c r="BB37" s="52"/>
+      <c r="BC37" s="52"/>
+      <c r="BD37" s="52"/>
+      <c r="BE37" s="52"/>
       <c r="BF37" s="8"/>
       <c r="BG37" s="8"/>
       <c r="BH37" s="8"/>
@@ -9265,71 +9444,71 @@
       <c r="IT38" s="8"/>
     </row>
     <row r="39" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="40" t="s">
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="39" t="s">
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="49"/>
+      <c r="V39" s="49"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="Y39" s="39"/>
-      <c r="Z39" s="39"/>
-      <c r="AA39" s="39"/>
-      <c r="AB39" s="39"/>
-      <c r="AC39" s="40" t="s">
+      <c r="Y39" s="47"/>
+      <c r="Z39" s="47"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="AD39" s="41"/>
-      <c r="AE39" s="41"/>
-      <c r="AF39" s="41"/>
-      <c r="AG39" s="41"/>
-      <c r="AH39" s="41"/>
-      <c r="AI39" s="41"/>
-      <c r="AJ39" s="41"/>
-      <c r="AK39" s="41"/>
-      <c r="AL39" s="41"/>
-      <c r="AM39" s="41"/>
-      <c r="AN39" s="41"/>
-      <c r="AO39" s="41"/>
-      <c r="AP39" s="41"/>
-      <c r="AQ39" s="41"/>
-      <c r="AR39" s="41"/>
-      <c r="AS39" s="41"/>
-      <c r="AT39" s="41"/>
-      <c r="AU39" s="41"/>
-      <c r="AV39" s="41"/>
-      <c r="AW39" s="41"/>
-      <c r="AX39" s="41"/>
-      <c r="AY39" s="41"/>
-      <c r="AZ39" s="41"/>
-      <c r="BA39" s="41"/>
-      <c r="BB39" s="41"/>
-      <c r="BC39" s="41"/>
-      <c r="BD39" s="41"/>
-      <c r="BE39" s="41"/>
+      <c r="AD39" s="49"/>
+      <c r="AE39" s="49"/>
+      <c r="AF39" s="49"/>
+      <c r="AG39" s="49"/>
+      <c r="AH39" s="49"/>
+      <c r="AI39" s="49"/>
+      <c r="AJ39" s="49"/>
+      <c r="AK39" s="49"/>
+      <c r="AL39" s="49"/>
+      <c r="AM39" s="49"/>
+      <c r="AN39" s="49"/>
+      <c r="AO39" s="49"/>
+      <c r="AP39" s="49"/>
+      <c r="AQ39" s="49"/>
+      <c r="AR39" s="49"/>
+      <c r="AS39" s="49"/>
+      <c r="AT39" s="49"/>
+      <c r="AU39" s="49"/>
+      <c r="AV39" s="49"/>
+      <c r="AW39" s="49"/>
+      <c r="AX39" s="49"/>
+      <c r="AY39" s="49"/>
+      <c r="AZ39" s="49"/>
+      <c r="BA39" s="49"/>
+      <c r="BB39" s="49"/>
+      <c r="BC39" s="49"/>
+      <c r="BD39" s="49"/>
+      <c r="BE39" s="49"/>
       <c r="BF39" s="8"/>
       <c r="BG39" s="8"/>
       <c r="BH39" s="8"/>
@@ -9529,63 +9708,63 @@
       <c r="IT39" s="8"/>
     </row>
     <row r="40" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="41"/>
-      <c r="V40" s="41"/>
-      <c r="W40" s="41"/>
-      <c r="X40" s="39"/>
-      <c r="Y40" s="39"/>
-      <c r="Z40" s="39"/>
-      <c r="AA40" s="39"/>
-      <c r="AB40" s="39"/>
-      <c r="AC40" s="41"/>
-      <c r="AD40" s="41"/>
-      <c r="AE40" s="41"/>
-      <c r="AF40" s="41"/>
-      <c r="AG40" s="41"/>
-      <c r="AH40" s="41"/>
-      <c r="AI40" s="41"/>
-      <c r="AJ40" s="41"/>
-      <c r="AK40" s="41"/>
-      <c r="AL40" s="41"/>
-      <c r="AM40" s="41"/>
-      <c r="AN40" s="41"/>
-      <c r="AO40" s="41"/>
-      <c r="AP40" s="41"/>
-      <c r="AQ40" s="41"/>
-      <c r="AR40" s="41"/>
-      <c r="AS40" s="41"/>
-      <c r="AT40" s="41"/>
-      <c r="AU40" s="41"/>
-      <c r="AV40" s="41"/>
-      <c r="AW40" s="41"/>
-      <c r="AX40" s="41"/>
-      <c r="AY40" s="41"/>
-      <c r="AZ40" s="41"/>
-      <c r="BA40" s="41"/>
-      <c r="BB40" s="41"/>
-      <c r="BC40" s="41"/>
-      <c r="BD40" s="41"/>
-      <c r="BE40" s="41"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="49"/>
+      <c r="U40" s="49"/>
+      <c r="V40" s="49"/>
+      <c r="W40" s="49"/>
+      <c r="X40" s="47"/>
+      <c r="Y40" s="47"/>
+      <c r="Z40" s="47"/>
+      <c r="AA40" s="47"/>
+      <c r="AB40" s="47"/>
+      <c r="AC40" s="49"/>
+      <c r="AD40" s="49"/>
+      <c r="AE40" s="49"/>
+      <c r="AF40" s="49"/>
+      <c r="AG40" s="49"/>
+      <c r="AH40" s="49"/>
+      <c r="AI40" s="49"/>
+      <c r="AJ40" s="49"/>
+      <c r="AK40" s="49"/>
+      <c r="AL40" s="49"/>
+      <c r="AM40" s="49"/>
+      <c r="AN40" s="49"/>
+      <c r="AO40" s="49"/>
+      <c r="AP40" s="49"/>
+      <c r="AQ40" s="49"/>
+      <c r="AR40" s="49"/>
+      <c r="AS40" s="49"/>
+      <c r="AT40" s="49"/>
+      <c r="AU40" s="49"/>
+      <c r="AV40" s="49"/>
+      <c r="AW40" s="49"/>
+      <c r="AX40" s="49"/>
+      <c r="AY40" s="49"/>
+      <c r="AZ40" s="49"/>
+      <c r="BA40" s="49"/>
+      <c r="BB40" s="49"/>
+      <c r="BC40" s="49"/>
+      <c r="BD40" s="49"/>
+      <c r="BE40" s="49"/>
       <c r="BF40" s="8"/>
       <c r="BG40" s="8"/>
       <c r="BH40" s="8"/>
@@ -15374,144 +15553,144 @@
       <c r="BE71" s="24"/>
     </row>
     <row r="72" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="42" t="s">
+      <c r="A72" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="43"/>
-      <c r="L72" s="44"/>
-      <c r="M72" s="48" t="s">
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="N72" s="48"/>
-      <c r="O72" s="48"/>
-      <c r="P72" s="48"/>
-      <c r="Q72" s="49" t="s">
+      <c r="N72" s="50"/>
+      <c r="O72" s="50"/>
+      <c r="P72" s="50"/>
+      <c r="Q72" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="R72" s="49"/>
-      <c r="S72" s="49"/>
-      <c r="T72" s="49"/>
-      <c r="U72" s="49"/>
-      <c r="V72" s="49"/>
-      <c r="W72" s="49"/>
-      <c r="X72" s="49"/>
-      <c r="Y72" s="49"/>
-      <c r="Z72" s="48" t="s">
+      <c r="R72" s="51"/>
+      <c r="S72" s="51"/>
+      <c r="T72" s="51"/>
+      <c r="U72" s="51"/>
+      <c r="V72" s="51"/>
+      <c r="W72" s="51"/>
+      <c r="X72" s="51"/>
+      <c r="Y72" s="51"/>
+      <c r="Z72" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="AA72" s="48"/>
-      <c r="AB72" s="48"/>
-      <c r="AC72" s="48"/>
-      <c r="AD72" s="49" t="s">
+      <c r="AA72" s="50"/>
+      <c r="AB72" s="50"/>
+      <c r="AC72" s="50"/>
+      <c r="AD72" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="AE72" s="49"/>
-      <c r="AF72" s="49"/>
-      <c r="AG72" s="49"/>
-      <c r="AH72" s="49"/>
-      <c r="AI72" s="49"/>
-      <c r="AJ72" s="49"/>
-      <c r="AK72" s="49"/>
-      <c r="AL72" s="49"/>
-      <c r="AM72" s="48" t="s">
+      <c r="AE72" s="51"/>
+      <c r="AF72" s="51"/>
+      <c r="AG72" s="51"/>
+      <c r="AH72" s="51"/>
+      <c r="AI72" s="51"/>
+      <c r="AJ72" s="51"/>
+      <c r="AK72" s="51"/>
+      <c r="AL72" s="51"/>
+      <c r="AM72" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="AN72" s="48"/>
-      <c r="AO72" s="48"/>
-      <c r="AP72" s="49" t="s">
+      <c r="AN72" s="50"/>
+      <c r="AO72" s="50"/>
+      <c r="AP72" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AQ72" s="49"/>
-      <c r="AR72" s="49"/>
-      <c r="AS72" s="49"/>
-      <c r="AT72" s="49"/>
-      <c r="AU72" s="49"/>
-      <c r="AV72" s="49"/>
-      <c r="AW72" s="48" t="s">
+      <c r="AQ72" s="51"/>
+      <c r="AR72" s="51"/>
+      <c r="AS72" s="51"/>
+      <c r="AT72" s="51"/>
+      <c r="AU72" s="51"/>
+      <c r="AV72" s="51"/>
+      <c r="AW72" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AX72" s="48"/>
-      <c r="AY72" s="48"/>
-      <c r="AZ72" s="50" t="s">
+      <c r="AX72" s="50"/>
+      <c r="AY72" s="50"/>
+      <c r="AZ72" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="BA72" s="50"/>
-      <c r="BB72" s="50"/>
-      <c r="BC72" s="50"/>
-      <c r="BD72" s="50"/>
-      <c r="BE72" s="50"/>
+      <c r="BA72" s="52"/>
+      <c r="BB72" s="52"/>
+      <c r="BC72" s="52"/>
+      <c r="BD72" s="52"/>
+      <c r="BE72" s="52"/>
     </row>
     <row r="73" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="45"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="46"/>
-      <c r="K73" s="46"/>
-      <c r="L73" s="47"/>
-      <c r="M73" s="48"/>
-      <c r="N73" s="48"/>
-      <c r="O73" s="48"/>
-      <c r="P73" s="48"/>
-      <c r="Q73" s="49"/>
-      <c r="R73" s="49"/>
-      <c r="S73" s="49"/>
-      <c r="T73" s="49"/>
-      <c r="U73" s="49"/>
-      <c r="V73" s="49"/>
-      <c r="W73" s="49"/>
-      <c r="X73" s="49"/>
-      <c r="Y73" s="49"/>
-      <c r="Z73" s="48"/>
-      <c r="AA73" s="48"/>
-      <c r="AB73" s="48"/>
-      <c r="AC73" s="48"/>
-      <c r="AD73" s="49"/>
-      <c r="AE73" s="49"/>
-      <c r="AF73" s="49"/>
-      <c r="AG73" s="49"/>
-      <c r="AH73" s="49"/>
-      <c r="AI73" s="49"/>
-      <c r="AJ73" s="49"/>
-      <c r="AK73" s="49"/>
-      <c r="AL73" s="49"/>
-      <c r="AM73" s="48" t="s">
+      <c r="A73" s="43"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="44"/>
+      <c r="L73" s="45"/>
+      <c r="M73" s="50"/>
+      <c r="N73" s="50"/>
+      <c r="O73" s="50"/>
+      <c r="P73" s="50"/>
+      <c r="Q73" s="51"/>
+      <c r="R73" s="51"/>
+      <c r="S73" s="51"/>
+      <c r="T73" s="51"/>
+      <c r="U73" s="51"/>
+      <c r="V73" s="51"/>
+      <c r="W73" s="51"/>
+      <c r="X73" s="51"/>
+      <c r="Y73" s="51"/>
+      <c r="Z73" s="50"/>
+      <c r="AA73" s="50"/>
+      <c r="AB73" s="50"/>
+      <c r="AC73" s="50"/>
+      <c r="AD73" s="51"/>
+      <c r="AE73" s="51"/>
+      <c r="AF73" s="51"/>
+      <c r="AG73" s="51"/>
+      <c r="AH73" s="51"/>
+      <c r="AI73" s="51"/>
+      <c r="AJ73" s="51"/>
+      <c r="AK73" s="51"/>
+      <c r="AL73" s="51"/>
+      <c r="AM73" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AN73" s="48"/>
-      <c r="AO73" s="48"/>
-      <c r="AP73" s="49"/>
-      <c r="AQ73" s="49"/>
-      <c r="AR73" s="49"/>
-      <c r="AS73" s="49"/>
-      <c r="AT73" s="49"/>
-      <c r="AU73" s="49"/>
-      <c r="AV73" s="49"/>
-      <c r="AW73" s="48" t="s">
+      <c r="AN73" s="50"/>
+      <c r="AO73" s="50"/>
+      <c r="AP73" s="51"/>
+      <c r="AQ73" s="51"/>
+      <c r="AR73" s="51"/>
+      <c r="AS73" s="51"/>
+      <c r="AT73" s="51"/>
+      <c r="AU73" s="51"/>
+      <c r="AV73" s="51"/>
+      <c r="AW73" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AX73" s="48"/>
-      <c r="AY73" s="48"/>
-      <c r="AZ73" s="50"/>
-      <c r="BA73" s="50"/>
-      <c r="BB73" s="50"/>
-      <c r="BC73" s="50"/>
-      <c r="BD73" s="50"/>
-      <c r="BE73" s="50"/>
+      <c r="AX73" s="50"/>
+      <c r="AY73" s="50"/>
+      <c r="AZ73" s="52"/>
+      <c r="BA73" s="52"/>
+      <c r="BB73" s="52"/>
+      <c r="BC73" s="52"/>
+      <c r="BD73" s="52"/>
+      <c r="BE73" s="52"/>
     </row>
     <row r="74" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
@@ -15573,130 +15752,130 @@
       <c r="BE74" s="5"/>
     </row>
     <row r="75" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A75" s="38" t="s">
+      <c r="A75" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="38"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="40" t="s">
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="40"/>
-      <c r="L75" s="40"/>
-      <c r="M75" s="40"/>
-      <c r="N75" s="40"/>
-      <c r="O75" s="40"/>
-      <c r="P75" s="40"/>
-      <c r="Q75" s="40"/>
-      <c r="R75" s="40"/>
-      <c r="S75" s="40"/>
-      <c r="T75" s="40"/>
-      <c r="U75" s="40"/>
-      <c r="V75" s="40"/>
-      <c r="W75" s="40"/>
-      <c r="X75" s="38" t="s">
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="48"/>
+      <c r="K75" s="48"/>
+      <c r="L75" s="48"/>
+      <c r="M75" s="48"/>
+      <c r="N75" s="48"/>
+      <c r="O75" s="48"/>
+      <c r="P75" s="48"/>
+      <c r="Q75" s="48"/>
+      <c r="R75" s="48"/>
+      <c r="S75" s="48"/>
+      <c r="T75" s="48"/>
+      <c r="U75" s="48"/>
+      <c r="V75" s="48"/>
+      <c r="W75" s="48"/>
+      <c r="X75" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="Y75" s="38"/>
-      <c r="Z75" s="38"/>
-      <c r="AA75" s="38"/>
-      <c r="AB75" s="38"/>
-      <c r="AC75" s="40" t="s">
+      <c r="Y75" s="46"/>
+      <c r="Z75" s="46"/>
+      <c r="AA75" s="46"/>
+      <c r="AB75" s="46"/>
+      <c r="AC75" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AD75" s="40"/>
-      <c r="AE75" s="40"/>
-      <c r="AF75" s="40"/>
-      <c r="AG75" s="40"/>
-      <c r="AH75" s="40"/>
-      <c r="AI75" s="40"/>
-      <c r="AJ75" s="40"/>
-      <c r="AK75" s="40"/>
-      <c r="AL75" s="40"/>
-      <c r="AM75" s="40"/>
-      <c r="AN75" s="40"/>
-      <c r="AO75" s="40"/>
-      <c r="AP75" s="40"/>
-      <c r="AQ75" s="40"/>
-      <c r="AR75" s="40"/>
-      <c r="AS75" s="40"/>
-      <c r="AT75" s="40"/>
-      <c r="AU75" s="40"/>
-      <c r="AV75" s="40"/>
-      <c r="AW75" s="40"/>
-      <c r="AX75" s="40"/>
-      <c r="AY75" s="40"/>
-      <c r="AZ75" s="40"/>
-      <c r="BA75" s="40"/>
-      <c r="BB75" s="40"/>
-      <c r="BC75" s="40"/>
-      <c r="BD75" s="40"/>
-      <c r="BE75" s="40"/>
+      <c r="AD75" s="48"/>
+      <c r="AE75" s="48"/>
+      <c r="AF75" s="48"/>
+      <c r="AG75" s="48"/>
+      <c r="AH75" s="48"/>
+      <c r="AI75" s="48"/>
+      <c r="AJ75" s="48"/>
+      <c r="AK75" s="48"/>
+      <c r="AL75" s="48"/>
+      <c r="AM75" s="48"/>
+      <c r="AN75" s="48"/>
+      <c r="AO75" s="48"/>
+      <c r="AP75" s="48"/>
+      <c r="AQ75" s="48"/>
+      <c r="AR75" s="48"/>
+      <c r="AS75" s="48"/>
+      <c r="AT75" s="48"/>
+      <c r="AU75" s="48"/>
+      <c r="AV75" s="48"/>
+      <c r="AW75" s="48"/>
+      <c r="AX75" s="48"/>
+      <c r="AY75" s="48"/>
+      <c r="AZ75" s="48"/>
+      <c r="BA75" s="48"/>
+      <c r="BB75" s="48"/>
+      <c r="BC75" s="48"/>
+      <c r="BD75" s="48"/>
+      <c r="BE75" s="48"/>
     </row>
     <row r="76" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A76" s="38"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="40"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="40"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="40"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="40"/>
-      <c r="T76" s="40"/>
-      <c r="U76" s="40"/>
-      <c r="V76" s="40"/>
-      <c r="W76" s="40"/>
-      <c r="X76" s="38"/>
-      <c r="Y76" s="38"/>
-      <c r="Z76" s="38"/>
-      <c r="AA76" s="38"/>
-      <c r="AB76" s="38"/>
-      <c r="AC76" s="40"/>
-      <c r="AD76" s="40"/>
-      <c r="AE76" s="40"/>
-      <c r="AF76" s="40"/>
-      <c r="AG76" s="40"/>
-      <c r="AH76" s="40"/>
-      <c r="AI76" s="40"/>
-      <c r="AJ76" s="40"/>
-      <c r="AK76" s="40"/>
-      <c r="AL76" s="40"/>
-      <c r="AM76" s="40"/>
-      <c r="AN76" s="40"/>
-      <c r="AO76" s="40"/>
-      <c r="AP76" s="40"/>
-      <c r="AQ76" s="40"/>
-      <c r="AR76" s="40"/>
-      <c r="AS76" s="40"/>
-      <c r="AT76" s="40"/>
-      <c r="AU76" s="40"/>
-      <c r="AV76" s="40"/>
-      <c r="AW76" s="40"/>
-      <c r="AX76" s="40"/>
-      <c r="AY76" s="40"/>
-      <c r="AZ76" s="40"/>
-      <c r="BA76" s="40"/>
-      <c r="BB76" s="40"/>
-      <c r="BC76" s="40"/>
-      <c r="BD76" s="40"/>
-      <c r="BE76" s="40"/>
+      <c r="A76" s="46"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="48"/>
+      <c r="J76" s="48"/>
+      <c r="K76" s="48"/>
+      <c r="L76" s="48"/>
+      <c r="M76" s="48"/>
+      <c r="N76" s="48"/>
+      <c r="O76" s="48"/>
+      <c r="P76" s="48"/>
+      <c r="Q76" s="48"/>
+      <c r="R76" s="48"/>
+      <c r="S76" s="48"/>
+      <c r="T76" s="48"/>
+      <c r="U76" s="48"/>
+      <c r="V76" s="48"/>
+      <c r="W76" s="48"/>
+      <c r="X76" s="46"/>
+      <c r="Y76" s="46"/>
+      <c r="Z76" s="46"/>
+      <c r="AA76" s="46"/>
+      <c r="AB76" s="46"/>
+      <c r="AC76" s="48"/>
+      <c r="AD76" s="48"/>
+      <c r="AE76" s="48"/>
+      <c r="AF76" s="48"/>
+      <c r="AG76" s="48"/>
+      <c r="AH76" s="48"/>
+      <c r="AI76" s="48"/>
+      <c r="AJ76" s="48"/>
+      <c r="AK76" s="48"/>
+      <c r="AL76" s="48"/>
+      <c r="AM76" s="48"/>
+      <c r="AN76" s="48"/>
+      <c r="AO76" s="48"/>
+      <c r="AP76" s="48"/>
+      <c r="AQ76" s="48"/>
+      <c r="AR76" s="48"/>
+      <c r="AS76" s="48"/>
+      <c r="AT76" s="48"/>
+      <c r="AU76" s="48"/>
+      <c r="AV76" s="48"/>
+      <c r="AW76" s="48"/>
+      <c r="AX76" s="48"/>
+      <c r="AY76" s="48"/>
+      <c r="AZ76" s="48"/>
+      <c r="BA76" s="48"/>
+      <c r="BB76" s="48"/>
+      <c r="BC76" s="48"/>
+      <c r="BD76" s="48"/>
+      <c r="BE76" s="48"/>
     </row>
     <row r="77" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A77" s="9"/>
@@ -17533,6 +17712,51 @@
     <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="A39:E40"/>
+    <mergeCell ref="F39:W40"/>
+    <mergeCell ref="X39:AB40"/>
+    <mergeCell ref="AC39:BE40"/>
+    <mergeCell ref="A36:L37"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="Q36:Y36"/>
+    <mergeCell ref="Z36:AC36"/>
+    <mergeCell ref="AD36:AL36"/>
+    <mergeCell ref="AM36:AO36"/>
+    <mergeCell ref="AP36:AV36"/>
+    <mergeCell ref="AW36:AY36"/>
+    <mergeCell ref="AZ36:BE36"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="Z37:AC37"/>
+    <mergeCell ref="Q1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AD1:AL1"/>
+    <mergeCell ref="AD37:AL37"/>
+    <mergeCell ref="AC4:BE5"/>
+    <mergeCell ref="AW1:AY1"/>
+    <mergeCell ref="AZ1:BE1"/>
+    <mergeCell ref="AW2:AY2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="AD2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AV2"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AV1"/>
+    <mergeCell ref="AW37:AY37"/>
+    <mergeCell ref="AM37:AO37"/>
+    <mergeCell ref="AP37:AV37"/>
+    <mergeCell ref="AM72:AO72"/>
+    <mergeCell ref="AP72:AV72"/>
+    <mergeCell ref="F75:W76"/>
+    <mergeCell ref="X75:AB76"/>
+    <mergeCell ref="AC75:BE76"/>
+    <mergeCell ref="AD72:AL72"/>
+    <mergeCell ref="AW72:AY72"/>
+    <mergeCell ref="AZ72:BE72"/>
+    <mergeCell ref="AW73:AY73"/>
+    <mergeCell ref="AZ73:BE73"/>
+    <mergeCell ref="AD73:AL73"/>
+    <mergeCell ref="AM73:AO73"/>
+    <mergeCell ref="AP73:AV73"/>
     <mergeCell ref="Q37:Y37"/>
     <mergeCell ref="AZ37:BE37"/>
     <mergeCell ref="A1:L2"/>
@@ -17549,53 +17773,8 @@
     <mergeCell ref="Q2:Y2"/>
     <mergeCell ref="A72:L73"/>
     <mergeCell ref="M73:P73"/>
-    <mergeCell ref="AM72:AO72"/>
-    <mergeCell ref="AP72:AV72"/>
-    <mergeCell ref="F75:W76"/>
-    <mergeCell ref="X75:AB76"/>
-    <mergeCell ref="AC75:BE76"/>
-    <mergeCell ref="AD72:AL72"/>
-    <mergeCell ref="AW72:AY72"/>
-    <mergeCell ref="AZ72:BE72"/>
-    <mergeCell ref="AW73:AY73"/>
-    <mergeCell ref="AZ73:BE73"/>
-    <mergeCell ref="AD73:AL73"/>
-    <mergeCell ref="AM73:AO73"/>
-    <mergeCell ref="AP73:AV73"/>
     <mergeCell ref="Q73:Y73"/>
     <mergeCell ref="Z73:AC73"/>
-    <mergeCell ref="Q1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="AD1:AL1"/>
-    <mergeCell ref="AD37:AL37"/>
-    <mergeCell ref="AC4:BE5"/>
-    <mergeCell ref="AW1:AY1"/>
-    <mergeCell ref="AZ1:BE1"/>
-    <mergeCell ref="AW2:AY2"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="AD2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AV2"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AV1"/>
-    <mergeCell ref="AW37:AY37"/>
-    <mergeCell ref="AM37:AO37"/>
-    <mergeCell ref="A39:E40"/>
-    <mergeCell ref="F39:W40"/>
-    <mergeCell ref="X39:AB40"/>
-    <mergeCell ref="AC39:BE40"/>
-    <mergeCell ref="A36:L37"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="Q36:Y36"/>
-    <mergeCell ref="Z36:AC36"/>
-    <mergeCell ref="AD36:AL36"/>
-    <mergeCell ref="AM36:AO36"/>
-    <mergeCell ref="AP36:AV36"/>
-    <mergeCell ref="AW36:AY36"/>
-    <mergeCell ref="AZ36:BE36"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="Z37:AC37"/>
-    <mergeCell ref="AP37:AV37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -17615,9 +17794,9 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:HY82"/>
+  <dimension ref="A1:HY83"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
@@ -17627,79 +17806,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="48" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="49" t="s">
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="48" t="s">
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="49" t="s">
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="48" t="s">
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="49" t="s">
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="48" t="s">
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="48"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="50" t="s">
+      <c r="AV1" s="50"/>
+      <c r="AW1" s="50"/>
+      <c r="AX1" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="52"/>
+      <c r="BB1" s="52"/>
+      <c r="BC1" s="52"/>
       <c r="BD1" s="3"/>
       <c r="BE1" s="3"/>
       <c r="BF1" s="3"/>
@@ -17880,65 +18059,65 @@
       <c r="HY1" s="3"/>
     </row>
     <row r="2" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="48" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="48" t="s">
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="50"/>
+      <c r="AV2" s="50"/>
+      <c r="AW2" s="50"/>
+      <c r="AX2" s="52"/>
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="52"/>
+      <c r="BA2" s="52"/>
+      <c r="BB2" s="52"/>
+      <c r="BC2" s="52"/>
       <c r="BD2" s="3"/>
       <c r="BE2" s="3"/>
       <c r="BF2" s="3"/>
@@ -18354,69 +18533,69 @@
       <c r="HY3" s="3"/>
     </row>
     <row r="4" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="51" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="53" t="s">
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="51" t="s">
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="51"/>
-      <c r="AK4" s="51"/>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="51"/>
-      <c r="AO4" s="51"/>
-      <c r="AP4" s="51"/>
-      <c r="AQ4" s="51"/>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="51"/>
-      <c r="AV4" s="51"/>
-      <c r="AW4" s="51"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="51"/>
-      <c r="AZ4" s="51"/>
-      <c r="BA4" s="51"/>
-      <c r="BB4" s="51"/>
-      <c r="BC4" s="51"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="59"/>
+      <c r="AO4" s="59"/>
+      <c r="AP4" s="59"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="59"/>
+      <c r="AS4" s="59"/>
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="59"/>
+      <c r="AV4" s="59"/>
+      <c r="AW4" s="59"/>
+      <c r="AX4" s="59"/>
+      <c r="AY4" s="59"/>
+      <c r="AZ4" s="59"/>
+      <c r="BA4" s="59"/>
+      <c r="BB4" s="59"/>
+      <c r="BC4" s="59"/>
       <c r="BD4" s="3"/>
       <c r="BE4" s="3"/>
       <c r="BF4" s="3"/>
@@ -18597,61 +18776,61 @@
       <c r="HY4" s="3"/>
     </row>
     <row r="5" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="52"/>
-      <c r="AO5" s="52"/>
-      <c r="AP5" s="52"/>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="52"/>
-      <c r="AS5" s="52"/>
-      <c r="AT5" s="52"/>
-      <c r="AU5" s="52"/>
-      <c r="AV5" s="52"/>
-      <c r="AW5" s="52"/>
-      <c r="AX5" s="52"/>
-      <c r="AY5" s="52"/>
-      <c r="AZ5" s="52"/>
-      <c r="BA5" s="52"/>
-      <c r="BB5" s="52"/>
-      <c r="BC5" s="52"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="60"/>
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="60"/>
+      <c r="AJ5" s="60"/>
+      <c r="AK5" s="60"/>
+      <c r="AL5" s="60"/>
+      <c r="AM5" s="60"/>
+      <c r="AN5" s="60"/>
+      <c r="AO5" s="60"/>
+      <c r="AP5" s="60"/>
+      <c r="AQ5" s="60"/>
+      <c r="AR5" s="60"/>
+      <c r="AS5" s="60"/>
+      <c r="AT5" s="60"/>
+      <c r="AU5" s="60"/>
+      <c r="AV5" s="60"/>
+      <c r="AW5" s="60"/>
+      <c r="AX5" s="60"/>
+      <c r="AY5" s="60"/>
+      <c r="AZ5" s="60"/>
+      <c r="BA5" s="60"/>
+      <c r="BB5" s="60"/>
+      <c r="BC5" s="60"/>
       <c r="BD5" s="3"/>
       <c r="BE5" s="3"/>
       <c r="BF5" s="3"/>
@@ -19052,71 +19231,71 @@
       <c r="HR6" s="3"/>
     </row>
     <row r="7" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39" t="s">
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39" t="s">
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39" t="s">
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="39"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="39"/>
-      <c r="AQ7" s="39"/>
-      <c r="AR7" s="39"/>
-      <c r="AS7" s="39"/>
-      <c r="AT7" s="39"/>
-      <c r="AU7" s="39"/>
-      <c r="AV7" s="39"/>
-      <c r="AW7" s="39"/>
-      <c r="AX7" s="39"/>
-      <c r="AY7" s="39"/>
-      <c r="AZ7" s="39"/>
-      <c r="BA7" s="39"/>
-      <c r="BB7" s="39"/>
-      <c r="BC7" s="39"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="47"/>
+      <c r="AK7" s="47"/>
+      <c r="AL7" s="47"/>
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="47"/>
+      <c r="AO7" s="47"/>
+      <c r="AP7" s="47"/>
+      <c r="AQ7" s="47"/>
+      <c r="AR7" s="47"/>
+      <c r="AS7" s="47"/>
+      <c r="AT7" s="47"/>
+      <c r="AU7" s="47"/>
+      <c r="AV7" s="47"/>
+      <c r="AW7" s="47"/>
+      <c r="AX7" s="47"/>
+      <c r="AY7" s="47"/>
+      <c r="AZ7" s="47"/>
+      <c r="BA7" s="47"/>
+      <c r="BB7" s="47"/>
+      <c r="BC7" s="47"/>
       <c r="BD7" s="3"/>
       <c r="BE7" s="3"/>
       <c r="CP7" s="3"/>
@@ -19246,61 +19425,61 @@
       <c r="HJ7" s="3"/>
     </row>
     <row r="8" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="39"/>
-      <c r="AG8" s="39"/>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="39"/>
-      <c r="AJ8" s="39"/>
-      <c r="AK8" s="39"/>
-      <c r="AL8" s="39"/>
-      <c r="AM8" s="39"/>
-      <c r="AN8" s="39"/>
-      <c r="AO8" s="39"/>
-      <c r="AP8" s="39"/>
-      <c r="AQ8" s="39"/>
-      <c r="AR8" s="39"/>
-      <c r="AS8" s="39"/>
-      <c r="AT8" s="39"/>
-      <c r="AU8" s="39"/>
-      <c r="AV8" s="39"/>
-      <c r="AW8" s="39"/>
-      <c r="AX8" s="39"/>
-      <c r="AY8" s="39"/>
-      <c r="AZ8" s="39"/>
-      <c r="BA8" s="39"/>
-      <c r="BB8" s="39"/>
-      <c r="BC8" s="39"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="47"/>
+      <c r="AJ8" s="47"/>
+      <c r="AK8" s="47"/>
+      <c r="AL8" s="47"/>
+      <c r="AM8" s="47"/>
+      <c r="AN8" s="47"/>
+      <c r="AO8" s="47"/>
+      <c r="AP8" s="47"/>
+      <c r="AQ8" s="47"/>
+      <c r="AR8" s="47"/>
+      <c r="AS8" s="47"/>
+      <c r="AT8" s="47"/>
+      <c r="AU8" s="47"/>
+      <c r="AV8" s="47"/>
+      <c r="AW8" s="47"/>
+      <c r="AX8" s="47"/>
+      <c r="AY8" s="47"/>
+      <c r="AZ8" s="47"/>
+      <c r="BA8" s="47"/>
+      <c r="BB8" s="47"/>
+      <c r="BC8" s="47"/>
       <c r="BD8" s="3"/>
       <c r="BE8" s="3"/>
       <c r="CP8" s="3"/>
@@ -19430,71 +19609,71 @@
       <c r="HJ8" s="3"/>
     </row>
     <row r="9" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="71" t="s">
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="71" t="s">
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="68" t="s">
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="68"/>
-      <c r="AB9" s="68"/>
-      <c r="AC9" s="68"/>
-      <c r="AD9" s="68"/>
-      <c r="AE9" s="64" t="s">
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="65"/>
-      <c r="AI9" s="65"/>
-      <c r="AJ9" s="65"/>
-      <c r="AK9" s="65"/>
-      <c r="AL9" s="65"/>
-      <c r="AM9" s="65"/>
-      <c r="AN9" s="65"/>
-      <c r="AO9" s="65"/>
-      <c r="AP9" s="65"/>
-      <c r="AQ9" s="65"/>
-      <c r="AR9" s="65"/>
-      <c r="AS9" s="65"/>
-      <c r="AT9" s="65"/>
-      <c r="AU9" s="65"/>
-      <c r="AV9" s="65"/>
-      <c r="AW9" s="65"/>
-      <c r="AX9" s="65"/>
-      <c r="AY9" s="65"/>
-      <c r="AZ9" s="65"/>
-      <c r="BA9" s="65"/>
-      <c r="BB9" s="65"/>
-      <c r="BC9" s="65"/>
+      <c r="AF9" s="66"/>
+      <c r="AG9" s="66"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="66"/>
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="66"/>
+      <c r="AL9" s="66"/>
+      <c r="AM9" s="66"/>
+      <c r="AN9" s="66"/>
+      <c r="AO9" s="66"/>
+      <c r="AP9" s="66"/>
+      <c r="AQ9" s="66"/>
+      <c r="AR9" s="66"/>
+      <c r="AS9" s="66"/>
+      <c r="AT9" s="66"/>
+      <c r="AU9" s="66"/>
+      <c r="AV9" s="66"/>
+      <c r="AW9" s="66"/>
+      <c r="AX9" s="66"/>
+      <c r="AY9" s="66"/>
+      <c r="AZ9" s="66"/>
+      <c r="BA9" s="66"/>
+      <c r="BB9" s="66"/>
+      <c r="BC9" s="66"/>
       <c r="BD9" s="3"/>
       <c r="BE9" s="3"/>
       <c r="CP9" s="3"/>
@@ -19624,71 +19803,71 @@
       <c r="HJ9" s="3"/>
     </row>
     <row r="10" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="71" t="s">
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67" t="s">
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="68" t="s">
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="X10" s="68"/>
-      <c r="Y10" s="68"/>
-      <c r="Z10" s="68"/>
-      <c r="AA10" s="68"/>
-      <c r="AB10" s="68"/>
-      <c r="AC10" s="68"/>
-      <c r="AD10" s="68"/>
-      <c r="AE10" s="64" t="s">
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="65"/>
-      <c r="AM10" s="65"/>
-      <c r="AN10" s="65"/>
-      <c r="AO10" s="65"/>
-      <c r="AP10" s="65"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="65"/>
-      <c r="AS10" s="65"/>
-      <c r="AT10" s="65"/>
-      <c r="AU10" s="65"/>
-      <c r="AV10" s="65"/>
-      <c r="AW10" s="65"/>
-      <c r="AX10" s="65"/>
-      <c r="AY10" s="65"/>
-      <c r="AZ10" s="65"/>
-      <c r="BA10" s="65"/>
-      <c r="BB10" s="65"/>
-      <c r="BC10" s="65"/>
+      <c r="AF10" s="66"/>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="66"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="66"/>
+      <c r="AL10" s="66"/>
+      <c r="AM10" s="66"/>
+      <c r="AN10" s="66"/>
+      <c r="AO10" s="66"/>
+      <c r="AP10" s="66"/>
+      <c r="AQ10" s="66"/>
+      <c r="AR10" s="66"/>
+      <c r="AS10" s="66"/>
+      <c r="AT10" s="66"/>
+      <c r="AU10" s="66"/>
+      <c r="AV10" s="66"/>
+      <c r="AW10" s="66"/>
+      <c r="AX10" s="66"/>
+      <c r="AY10" s="66"/>
+      <c r="AZ10" s="66"/>
+      <c r="BA10" s="66"/>
+      <c r="BB10" s="66"/>
+      <c r="BC10" s="66"/>
       <c r="BD10" s="3"/>
       <c r="BE10" s="3"/>
       <c r="CP10" s="3"/>
@@ -19818,71 +19997,71 @@
       <c r="HJ10" s="3"/>
     </row>
     <row r="11" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="71" t="s">
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67" t="s">
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="68" t="s">
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="68"/>
-      <c r="AC11" s="68"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="64" t="s">
+      <c r="X11" s="64"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="64"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="AF11" s="65"/>
-      <c r="AG11" s="65"/>
-      <c r="AH11" s="65"/>
-      <c r="AI11" s="65"/>
-      <c r="AJ11" s="65"/>
-      <c r="AK11" s="65"/>
-      <c r="AL11" s="65"/>
-      <c r="AM11" s="65"/>
-      <c r="AN11" s="65"/>
-      <c r="AO11" s="65"/>
-      <c r="AP11" s="65"/>
-      <c r="AQ11" s="65"/>
-      <c r="AR11" s="65"/>
-      <c r="AS11" s="65"/>
-      <c r="AT11" s="65"/>
-      <c r="AU11" s="65"/>
-      <c r="AV11" s="65"/>
-      <c r="AW11" s="65"/>
-      <c r="AX11" s="65"/>
-      <c r="AY11" s="65"/>
-      <c r="AZ11" s="65"/>
-      <c r="BA11" s="65"/>
-      <c r="BB11" s="65"/>
-      <c r="BC11" s="65"/>
+      <c r="AF11" s="66"/>
+      <c r="AG11" s="66"/>
+      <c r="AH11" s="66"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="66"/>
+      <c r="AK11" s="66"/>
+      <c r="AL11" s="66"/>
+      <c r="AM11" s="66"/>
+      <c r="AN11" s="66"/>
+      <c r="AO11" s="66"/>
+      <c r="AP11" s="66"/>
+      <c r="AQ11" s="66"/>
+      <c r="AR11" s="66"/>
+      <c r="AS11" s="66"/>
+      <c r="AT11" s="66"/>
+      <c r="AU11" s="66"/>
+      <c r="AV11" s="66"/>
+      <c r="AW11" s="66"/>
+      <c r="AX11" s="66"/>
+      <c r="AY11" s="66"/>
+      <c r="AZ11" s="66"/>
+      <c r="BA11" s="66"/>
+      <c r="BB11" s="66"/>
+      <c r="BC11" s="66"/>
       <c r="BD11" s="3"/>
       <c r="BE11" s="3"/>
       <c r="CP11" s="3"/>
@@ -20012,71 +20191,71 @@
       <c r="HJ11" s="3"/>
     </row>
     <row r="12" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="71" t="s">
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67" t="s">
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="68" t="s">
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="68"/>
-      <c r="AE12" s="64" t="s">
+      <c r="X12" s="64"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="64"/>
+      <c r="AD12" s="64"/>
+      <c r="AE12" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="AF12" s="65"/>
-      <c r="AG12" s="65"/>
-      <c r="AH12" s="65"/>
-      <c r="AI12" s="65"/>
-      <c r="AJ12" s="65"/>
-      <c r="AK12" s="65"/>
-      <c r="AL12" s="65"/>
-      <c r="AM12" s="65"/>
-      <c r="AN12" s="65"/>
-      <c r="AO12" s="65"/>
-      <c r="AP12" s="65"/>
-      <c r="AQ12" s="65"/>
-      <c r="AR12" s="65"/>
-      <c r="AS12" s="65"/>
-      <c r="AT12" s="65"/>
-      <c r="AU12" s="65"/>
-      <c r="AV12" s="65"/>
-      <c r="AW12" s="65"/>
-      <c r="AX12" s="65"/>
-      <c r="AY12" s="65"/>
-      <c r="AZ12" s="65"/>
-      <c r="BA12" s="65"/>
-      <c r="BB12" s="65"/>
-      <c r="BC12" s="65"/>
+      <c r="AF12" s="66"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="66"/>
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="66"/>
+      <c r="AL12" s="66"/>
+      <c r="AM12" s="66"/>
+      <c r="AN12" s="66"/>
+      <c r="AO12" s="66"/>
+      <c r="AP12" s="66"/>
+      <c r="AQ12" s="66"/>
+      <c r="AR12" s="66"/>
+      <c r="AS12" s="66"/>
+      <c r="AT12" s="66"/>
+      <c r="AU12" s="66"/>
+      <c r="AV12" s="66"/>
+      <c r="AW12" s="66"/>
+      <c r="AX12" s="66"/>
+      <c r="AY12" s="66"/>
+      <c r="AZ12" s="66"/>
+      <c r="BA12" s="66"/>
+      <c r="BB12" s="66"/>
+      <c r="BC12" s="66"/>
       <c r="BD12" s="3"/>
       <c r="BE12" s="3"/>
       <c r="CP12" s="3"/>
@@ -20206,71 +20385,71 @@
       <c r="HJ12" s="3"/>
     </row>
     <row r="13" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="71" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67" t="s">
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="68" t="s">
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="64" t="s">
+      <c r="X13" s="64"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="64"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="64"/>
+      <c r="AE13" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="AF13" s="65"/>
-      <c r="AG13" s="65"/>
-      <c r="AH13" s="65"/>
-      <c r="AI13" s="65"/>
-      <c r="AJ13" s="65"/>
-      <c r="AK13" s="65"/>
-      <c r="AL13" s="65"/>
-      <c r="AM13" s="65"/>
-      <c r="AN13" s="65"/>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="65"/>
-      <c r="AQ13" s="65"/>
-      <c r="AR13" s="65"/>
-      <c r="AS13" s="65"/>
-      <c r="AT13" s="65"/>
-      <c r="AU13" s="65"/>
-      <c r="AV13" s="65"/>
-      <c r="AW13" s="65"/>
-      <c r="AX13" s="65"/>
-      <c r="AY13" s="65"/>
-      <c r="AZ13" s="65"/>
-      <c r="BA13" s="65"/>
-      <c r="BB13" s="65"/>
-      <c r="BC13" s="65"/>
+      <c r="AF13" s="66"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="66"/>
+      <c r="AK13" s="66"/>
+      <c r="AL13" s="66"/>
+      <c r="AM13" s="66"/>
+      <c r="AN13" s="66"/>
+      <c r="AO13" s="66"/>
+      <c r="AP13" s="66"/>
+      <c r="AQ13" s="66"/>
+      <c r="AR13" s="66"/>
+      <c r="AS13" s="66"/>
+      <c r="AT13" s="66"/>
+      <c r="AU13" s="66"/>
+      <c r="AV13" s="66"/>
+      <c r="AW13" s="66"/>
+      <c r="AX13" s="66"/>
+      <c r="AY13" s="66"/>
+      <c r="AZ13" s="66"/>
+      <c r="BA13" s="66"/>
+      <c r="BB13" s="66"/>
+      <c r="BC13" s="66"/>
       <c r="BD13" s="3"/>
       <c r="BE13" s="3"/>
       <c r="CP13" s="3"/>
@@ -20400,71 +20579,71 @@
       <c r="HJ13" s="3"/>
     </row>
     <row r="14" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="71" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67" t="s">
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="68" t="s">
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="68"/>
-      <c r="AC14" s="68"/>
-      <c r="AD14" s="68"/>
-      <c r="AE14" s="64" t="s">
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="64"/>
+      <c r="AC14" s="64"/>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="AF14" s="65"/>
-      <c r="AG14" s="65"/>
-      <c r="AH14" s="65"/>
-      <c r="AI14" s="65"/>
-      <c r="AJ14" s="65"/>
-      <c r="AK14" s="65"/>
-      <c r="AL14" s="65"/>
-      <c r="AM14" s="65"/>
-      <c r="AN14" s="65"/>
-      <c r="AO14" s="65"/>
-      <c r="AP14" s="65"/>
-      <c r="AQ14" s="65"/>
-      <c r="AR14" s="65"/>
-      <c r="AS14" s="65"/>
-      <c r="AT14" s="65"/>
-      <c r="AU14" s="65"/>
-      <c r="AV14" s="65"/>
-      <c r="AW14" s="65"/>
-      <c r="AX14" s="65"/>
-      <c r="AY14" s="65"/>
-      <c r="AZ14" s="65"/>
-      <c r="BA14" s="65"/>
-      <c r="BB14" s="65"/>
-      <c r="BC14" s="65"/>
+      <c r="AF14" s="66"/>
+      <c r="AG14" s="66"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="66"/>
+      <c r="AL14" s="66"/>
+      <c r="AM14" s="66"/>
+      <c r="AN14" s="66"/>
+      <c r="AO14" s="66"/>
+      <c r="AP14" s="66"/>
+      <c r="AQ14" s="66"/>
+      <c r="AR14" s="66"/>
+      <c r="AS14" s="66"/>
+      <c r="AT14" s="66"/>
+      <c r="AU14" s="66"/>
+      <c r="AV14" s="66"/>
+      <c r="AW14" s="66"/>
+      <c r="AX14" s="66"/>
+      <c r="AY14" s="66"/>
+      <c r="AZ14" s="66"/>
+      <c r="BA14" s="66"/>
+      <c r="BB14" s="66"/>
+      <c r="BC14" s="66"/>
       <c r="BD14" s="3"/>
       <c r="BE14" s="3"/>
       <c r="CP14" s="3"/>
@@ -20593,199 +20772,199 @@
       <c r="HI14" s="3"/>
       <c r="HJ14" s="3"/>
     </row>
-    <row r="15" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="69" t="s">
+    <row r="15" spans="1:233" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69" t="s">
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69" t="s">
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="R15" s="69"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="70" t="s">
+      <c r="R15" s="77"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="70"/>
-      <c r="AA15" s="70"/>
-      <c r="AB15" s="70"/>
-      <c r="AC15" s="70"/>
-      <c r="AD15" s="70"/>
-      <c r="AE15" s="66" t="s">
+      <c r="X15" s="78"/>
+      <c r="Y15" s="78"/>
+      <c r="Z15" s="78"/>
+      <c r="AA15" s="78"/>
+      <c r="AB15" s="78"/>
+      <c r="AC15" s="78"/>
+      <c r="AD15" s="78"/>
+      <c r="AE15" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="66"/>
-      <c r="AK15" s="66"/>
-      <c r="AL15" s="66"/>
-      <c r="AM15" s="66"/>
-      <c r="AN15" s="66"/>
-      <c r="AO15" s="66"/>
-      <c r="AP15" s="66"/>
-      <c r="AQ15" s="66"/>
-      <c r="AR15" s="66"/>
-      <c r="AS15" s="66"/>
-      <c r="AT15" s="66"/>
-      <c r="AU15" s="66"/>
-      <c r="AV15" s="66"/>
-      <c r="AW15" s="66"/>
-      <c r="AX15" s="66"/>
-      <c r="AY15" s="66"/>
-      <c r="AZ15" s="66"/>
-      <c r="BA15" s="66"/>
-      <c r="BB15" s="66"/>
-      <c r="BC15" s="66"/>
-      <c r="BD15" s="3"/>
-      <c r="BE15" s="3"/>
-      <c r="CP15" s="3"/>
-      <c r="CQ15" s="3"/>
-      <c r="CR15" s="3"/>
-      <c r="CS15" s="3"/>
-      <c r="CT15" s="3"/>
-      <c r="CU15" s="3"/>
-      <c r="CV15" s="3"/>
-      <c r="CW15" s="3"/>
-      <c r="CX15" s="3"/>
-      <c r="CY15" s="3"/>
-      <c r="CZ15" s="3"/>
-      <c r="DA15" s="3"/>
-      <c r="DB15" s="3"/>
-      <c r="DC15" s="3"/>
-      <c r="DD15" s="3"/>
-      <c r="DE15" s="3"/>
-      <c r="DF15" s="3"/>
-      <c r="DG15" s="3"/>
-      <c r="DH15" s="3"/>
-      <c r="DI15" s="3"/>
-      <c r="DJ15" s="3"/>
-      <c r="DK15" s="3"/>
-      <c r="DL15" s="3"/>
-      <c r="DM15" s="3"/>
-      <c r="DN15" s="3"/>
-      <c r="DO15" s="3"/>
-      <c r="DP15" s="3"/>
-      <c r="DQ15" s="3"/>
-      <c r="DR15" s="3"/>
-      <c r="DS15" s="3"/>
-      <c r="DT15" s="3"/>
-      <c r="DU15" s="3"/>
-      <c r="DV15" s="3"/>
-      <c r="DW15" s="3"/>
-      <c r="DX15" s="3"/>
-      <c r="DY15" s="3"/>
-      <c r="DZ15" s="3"/>
-      <c r="EA15" s="3"/>
-      <c r="EB15" s="3"/>
-      <c r="EC15" s="3"/>
-      <c r="ED15" s="3"/>
-      <c r="EE15" s="3"/>
-      <c r="EF15" s="3"/>
-      <c r="EG15" s="3"/>
-      <c r="EH15" s="3"/>
-      <c r="EI15" s="3"/>
-      <c r="EJ15" s="3"/>
-      <c r="EK15" s="3"/>
-      <c r="EL15" s="3"/>
-      <c r="EM15" s="3"/>
-      <c r="EN15" s="3"/>
-      <c r="EO15" s="3"/>
-      <c r="EP15" s="3"/>
-      <c r="EQ15" s="3"/>
-      <c r="ER15" s="3"/>
-      <c r="ES15" s="3"/>
-      <c r="ET15" s="3"/>
-      <c r="EU15" s="3"/>
-      <c r="EV15" s="3"/>
-      <c r="EW15" s="3"/>
-      <c r="EX15" s="3"/>
-      <c r="EY15" s="3"/>
-      <c r="EZ15" s="3"/>
-      <c r="FA15" s="3"/>
-      <c r="FB15" s="3"/>
-      <c r="FC15" s="3"/>
-      <c r="FD15" s="3"/>
-      <c r="FE15" s="3"/>
-      <c r="FF15" s="3"/>
-      <c r="FG15" s="3"/>
-      <c r="FH15" s="3"/>
-      <c r="FI15" s="3"/>
-      <c r="FJ15" s="3"/>
-      <c r="FK15" s="3"/>
-      <c r="FL15" s="3"/>
-      <c r="FM15" s="3"/>
-      <c r="FN15" s="3"/>
-      <c r="FO15" s="3"/>
-      <c r="FP15" s="3"/>
-      <c r="FQ15" s="3"/>
-      <c r="FR15" s="3"/>
-      <c r="FS15" s="3"/>
-      <c r="FT15" s="3"/>
-      <c r="FU15" s="3"/>
-      <c r="FV15" s="3"/>
-      <c r="FW15" s="3"/>
-      <c r="FX15" s="3"/>
-      <c r="FY15" s="3"/>
-      <c r="FZ15" s="3"/>
-      <c r="GA15" s="3"/>
-      <c r="GB15" s="3"/>
-      <c r="GC15" s="3"/>
-      <c r="GD15" s="3"/>
-      <c r="GE15" s="3"/>
-      <c r="GF15" s="3"/>
-      <c r="GG15" s="3"/>
-      <c r="GH15" s="3"/>
-      <c r="GI15" s="3"/>
-      <c r="GJ15" s="3"/>
-      <c r="GK15" s="3"/>
-      <c r="GL15" s="3"/>
-      <c r="GM15" s="3"/>
-      <c r="GN15" s="3"/>
-      <c r="GO15" s="3"/>
-      <c r="GP15" s="3"/>
-      <c r="GQ15" s="3"/>
-      <c r="GR15" s="3"/>
-      <c r="GS15" s="3"/>
-      <c r="GT15" s="3"/>
-      <c r="GU15" s="3"/>
-      <c r="GV15" s="3"/>
-      <c r="GW15" s="3"/>
-      <c r="GX15" s="3"/>
-      <c r="GY15" s="3"/>
-      <c r="GZ15" s="3"/>
-      <c r="HA15" s="3"/>
-      <c r="HB15" s="3"/>
-      <c r="HC15" s="3"/>
-      <c r="HD15" s="3"/>
-      <c r="HE15" s="3"/>
-      <c r="HF15" s="3"/>
-      <c r="HG15" s="3"/>
-      <c r="HH15" s="3"/>
-      <c r="HI15" s="3"/>
-      <c r="HJ15" s="3"/>
+      <c r="AF15" s="76"/>
+      <c r="AG15" s="76"/>
+      <c r="AH15" s="76"/>
+      <c r="AI15" s="76"/>
+      <c r="AJ15" s="76"/>
+      <c r="AK15" s="76"/>
+      <c r="AL15" s="76"/>
+      <c r="AM15" s="76"/>
+      <c r="AN15" s="76"/>
+      <c r="AO15" s="76"/>
+      <c r="AP15" s="76"/>
+      <c r="AQ15" s="76"/>
+      <c r="AR15" s="76"/>
+      <c r="AS15" s="76"/>
+      <c r="AT15" s="76"/>
+      <c r="AU15" s="76"/>
+      <c r="AV15" s="76"/>
+      <c r="AW15" s="76"/>
+      <c r="AX15" s="76"/>
+      <c r="AY15" s="76"/>
+      <c r="AZ15" s="76"/>
+      <c r="BA15" s="76"/>
+      <c r="BB15" s="76"/>
+      <c r="BC15" s="76"/>
+      <c r="BD15" s="38"/>
+      <c r="BE15" s="38"/>
+      <c r="CP15" s="38"/>
+      <c r="CQ15" s="38"/>
+      <c r="CR15" s="38"/>
+      <c r="CS15" s="38"/>
+      <c r="CT15" s="38"/>
+      <c r="CU15" s="38"/>
+      <c r="CV15" s="38"/>
+      <c r="CW15" s="38"/>
+      <c r="CX15" s="38"/>
+      <c r="CY15" s="38"/>
+      <c r="CZ15" s="38"/>
+      <c r="DA15" s="38"/>
+      <c r="DB15" s="38"/>
+      <c r="DC15" s="38"/>
+      <c r="DD15" s="38"/>
+      <c r="DE15" s="38"/>
+      <c r="DF15" s="38"/>
+      <c r="DG15" s="38"/>
+      <c r="DH15" s="38"/>
+      <c r="DI15" s="38"/>
+      <c r="DJ15" s="38"/>
+      <c r="DK15" s="38"/>
+      <c r="DL15" s="38"/>
+      <c r="DM15" s="38"/>
+      <c r="DN15" s="38"/>
+      <c r="DO15" s="38"/>
+      <c r="DP15" s="38"/>
+      <c r="DQ15" s="38"/>
+      <c r="DR15" s="38"/>
+      <c r="DS15" s="38"/>
+      <c r="DT15" s="38"/>
+      <c r="DU15" s="38"/>
+      <c r="DV15" s="38"/>
+      <c r="DW15" s="38"/>
+      <c r="DX15" s="38"/>
+      <c r="DY15" s="38"/>
+      <c r="DZ15" s="38"/>
+      <c r="EA15" s="38"/>
+      <c r="EB15" s="38"/>
+      <c r="EC15" s="38"/>
+      <c r="ED15" s="38"/>
+      <c r="EE15" s="38"/>
+      <c r="EF15" s="38"/>
+      <c r="EG15" s="38"/>
+      <c r="EH15" s="38"/>
+      <c r="EI15" s="38"/>
+      <c r="EJ15" s="38"/>
+      <c r="EK15" s="38"/>
+      <c r="EL15" s="38"/>
+      <c r="EM15" s="38"/>
+      <c r="EN15" s="38"/>
+      <c r="EO15" s="38"/>
+      <c r="EP15" s="38"/>
+      <c r="EQ15" s="38"/>
+      <c r="ER15" s="38"/>
+      <c r="ES15" s="38"/>
+      <c r="ET15" s="38"/>
+      <c r="EU15" s="38"/>
+      <c r="EV15" s="38"/>
+      <c r="EW15" s="38"/>
+      <c r="EX15" s="38"/>
+      <c r="EY15" s="38"/>
+      <c r="EZ15" s="38"/>
+      <c r="FA15" s="38"/>
+      <c r="FB15" s="38"/>
+      <c r="FC15" s="38"/>
+      <c r="FD15" s="38"/>
+      <c r="FE15" s="38"/>
+      <c r="FF15" s="38"/>
+      <c r="FG15" s="38"/>
+      <c r="FH15" s="38"/>
+      <c r="FI15" s="38"/>
+      <c r="FJ15" s="38"/>
+      <c r="FK15" s="38"/>
+      <c r="FL15" s="38"/>
+      <c r="FM15" s="38"/>
+      <c r="FN15" s="38"/>
+      <c r="FO15" s="38"/>
+      <c r="FP15" s="38"/>
+      <c r="FQ15" s="38"/>
+      <c r="FR15" s="38"/>
+      <c r="FS15" s="38"/>
+      <c r="FT15" s="38"/>
+      <c r="FU15" s="38"/>
+      <c r="FV15" s="38"/>
+      <c r="FW15" s="38"/>
+      <c r="FX15" s="38"/>
+      <c r="FY15" s="38"/>
+      <c r="FZ15" s="38"/>
+      <c r="GA15" s="38"/>
+      <c r="GB15" s="38"/>
+      <c r="GC15" s="38"/>
+      <c r="GD15" s="38"/>
+      <c r="GE15" s="38"/>
+      <c r="GF15" s="38"/>
+      <c r="GG15" s="38"/>
+      <c r="GH15" s="38"/>
+      <c r="GI15" s="38"/>
+      <c r="GJ15" s="38"/>
+      <c r="GK15" s="38"/>
+      <c r="GL15" s="38"/>
+      <c r="GM15" s="38"/>
+      <c r="GN15" s="38"/>
+      <c r="GO15" s="38"/>
+      <c r="GP15" s="38"/>
+      <c r="GQ15" s="38"/>
+      <c r="GR15" s="38"/>
+      <c r="GS15" s="38"/>
+      <c r="GT15" s="38"/>
+      <c r="GU15" s="38"/>
+      <c r="GV15" s="38"/>
+      <c r="GW15" s="38"/>
+      <c r="GX15" s="38"/>
+      <c r="GY15" s="38"/>
+      <c r="GZ15" s="38"/>
+      <c r="HA15" s="38"/>
+      <c r="HB15" s="38"/>
+      <c r="HC15" s="38"/>
+      <c r="HD15" s="38"/>
+      <c r="HE15" s="38"/>
+      <c r="HF15" s="38"/>
+      <c r="HG15" s="38"/>
+      <c r="HH15" s="38"/>
+      <c r="HI15" s="38"/>
+      <c r="HJ15" s="38"/>
     </row>
     <row r="16" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="27"/>
@@ -20972,69 +21151,69 @@
       <c r="HJ16" s="3"/>
     </row>
     <row r="17" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="40" t="s">
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="39" t="s">
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="40" t="s">
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="40"/>
-      <c r="AF17" s="40"/>
-      <c r="AG17" s="40"/>
-      <c r="AH17" s="40"/>
-      <c r="AI17" s="40"/>
-      <c r="AJ17" s="40"/>
-      <c r="AK17" s="40"/>
-      <c r="AL17" s="40"/>
-      <c r="AM17" s="40"/>
-      <c r="AN17" s="40"/>
-      <c r="AO17" s="40"/>
-      <c r="AP17" s="40"/>
-      <c r="AQ17" s="40"/>
-      <c r="AR17" s="40"/>
-      <c r="AS17" s="40"/>
-      <c r="AT17" s="40"/>
-      <c r="AU17" s="40"/>
-      <c r="AV17" s="40"/>
-      <c r="AW17" s="40"/>
-      <c r="AX17" s="40"/>
-      <c r="AY17" s="40"/>
-      <c r="AZ17" s="40"/>
-      <c r="BA17" s="40"/>
-      <c r="BB17" s="40"/>
-      <c r="BC17" s="40"/>
+      <c r="AD17" s="48"/>
+      <c r="AE17" s="48"/>
+      <c r="AF17" s="48"/>
+      <c r="AG17" s="48"/>
+      <c r="AH17" s="48"/>
+      <c r="AI17" s="48"/>
+      <c r="AJ17" s="48"/>
+      <c r="AK17" s="48"/>
+      <c r="AL17" s="48"/>
+      <c r="AM17" s="48"/>
+      <c r="AN17" s="48"/>
+      <c r="AO17" s="48"/>
+      <c r="AP17" s="48"/>
+      <c r="AQ17" s="48"/>
+      <c r="AR17" s="48"/>
+      <c r="AS17" s="48"/>
+      <c r="AT17" s="48"/>
+      <c r="AU17" s="48"/>
+      <c r="AV17" s="48"/>
+      <c r="AW17" s="48"/>
+      <c r="AX17" s="48"/>
+      <c r="AY17" s="48"/>
+      <c r="AZ17" s="48"/>
+      <c r="BA17" s="48"/>
+      <c r="BB17" s="48"/>
+      <c r="BC17" s="48"/>
       <c r="BD17" s="3"/>
       <c r="BE17" s="3"/>
       <c r="CP17" s="3"/>
@@ -21164,61 +21343,61 @@
       <c r="HJ17" s="3"/>
     </row>
     <row r="18" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="39"/>
-      <c r="AB18" s="39"/>
-      <c r="AC18" s="40"/>
-      <c r="AD18" s="40"/>
-      <c r="AE18" s="40"/>
-      <c r="AF18" s="40"/>
-      <c r="AG18" s="40"/>
-      <c r="AH18" s="40"/>
-      <c r="AI18" s="40"/>
-      <c r="AJ18" s="40"/>
-      <c r="AK18" s="40"/>
-      <c r="AL18" s="40"/>
-      <c r="AM18" s="40"/>
-      <c r="AN18" s="40"/>
-      <c r="AO18" s="40"/>
-      <c r="AP18" s="40"/>
-      <c r="AQ18" s="40"/>
-      <c r="AR18" s="40"/>
-      <c r="AS18" s="40"/>
-      <c r="AT18" s="40"/>
-      <c r="AU18" s="40"/>
-      <c r="AV18" s="40"/>
-      <c r="AW18" s="40"/>
-      <c r="AX18" s="40"/>
-      <c r="AY18" s="40"/>
-      <c r="AZ18" s="40"/>
-      <c r="BA18" s="40"/>
-      <c r="BB18" s="40"/>
-      <c r="BC18" s="40"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="47"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="48"/>
+      <c r="AE18" s="48"/>
+      <c r="AF18" s="48"/>
+      <c r="AG18" s="48"/>
+      <c r="AH18" s="48"/>
+      <c r="AI18" s="48"/>
+      <c r="AJ18" s="48"/>
+      <c r="AK18" s="48"/>
+      <c r="AL18" s="48"/>
+      <c r="AM18" s="48"/>
+      <c r="AN18" s="48"/>
+      <c r="AO18" s="48"/>
+      <c r="AP18" s="48"/>
+      <c r="AQ18" s="48"/>
+      <c r="AR18" s="48"/>
+      <c r="AS18" s="48"/>
+      <c r="AT18" s="48"/>
+      <c r="AU18" s="48"/>
+      <c r="AV18" s="48"/>
+      <c r="AW18" s="48"/>
+      <c r="AX18" s="48"/>
+      <c r="AY18" s="48"/>
+      <c r="AZ18" s="48"/>
+      <c r="BA18" s="48"/>
+      <c r="BB18" s="48"/>
+      <c r="BC18" s="48"/>
       <c r="BD18" s="3"/>
       <c r="BE18" s="3"/>
       <c r="CP18" s="3"/>
@@ -21532,71 +21711,71 @@
       <c r="HJ19" s="3"/>
     </row>
     <row r="20" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39" t="s">
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39" t="s">
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39" t="s">
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="39"/>
-      <c r="Z20" s="39"/>
-      <c r="AA20" s="39"/>
-      <c r="AB20" s="39"/>
-      <c r="AC20" s="39"/>
-      <c r="AD20" s="39"/>
-      <c r="AE20" s="39" t="s">
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="AF20" s="39"/>
-      <c r="AG20" s="39"/>
-      <c r="AH20" s="39"/>
-      <c r="AI20" s="39"/>
-      <c r="AJ20" s="39"/>
-      <c r="AK20" s="39"/>
-      <c r="AL20" s="39"/>
-      <c r="AM20" s="39"/>
-      <c r="AN20" s="39"/>
-      <c r="AO20" s="39"/>
-      <c r="AP20" s="39"/>
-      <c r="AQ20" s="39"/>
-      <c r="AR20" s="39"/>
-      <c r="AS20" s="39"/>
-      <c r="AT20" s="39"/>
-      <c r="AU20" s="39"/>
-      <c r="AV20" s="39"/>
-      <c r="AW20" s="39"/>
-      <c r="AX20" s="39"/>
-      <c r="AY20" s="39"/>
-      <c r="AZ20" s="39"/>
-      <c r="BA20" s="39"/>
-      <c r="BB20" s="39"/>
-      <c r="BC20" s="39"/>
+      <c r="AF20" s="47"/>
+      <c r="AG20" s="47"/>
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="47"/>
+      <c r="AJ20" s="47"/>
+      <c r="AK20" s="47"/>
+      <c r="AL20" s="47"/>
+      <c r="AM20" s="47"/>
+      <c r="AN20" s="47"/>
+      <c r="AO20" s="47"/>
+      <c r="AP20" s="47"/>
+      <c r="AQ20" s="47"/>
+      <c r="AR20" s="47"/>
+      <c r="AS20" s="47"/>
+      <c r="AT20" s="47"/>
+      <c r="AU20" s="47"/>
+      <c r="AV20" s="47"/>
+      <c r="AW20" s="47"/>
+      <c r="AX20" s="47"/>
+      <c r="AY20" s="47"/>
+      <c r="AZ20" s="47"/>
+      <c r="BA20" s="47"/>
+      <c r="BB20" s="47"/>
+      <c r="BC20" s="47"/>
       <c r="BD20" s="3"/>
       <c r="BE20" s="3"/>
       <c r="CP20" s="3"/>
@@ -21726,61 +21905,61 @@
       <c r="HJ20" s="3"/>
     </row>
     <row r="21" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="39"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="39"/>
-      <c r="AD21" s="39"/>
-      <c r="AE21" s="39"/>
-      <c r="AF21" s="39"/>
-      <c r="AG21" s="39"/>
-      <c r="AH21" s="39"/>
-      <c r="AI21" s="39"/>
-      <c r="AJ21" s="39"/>
-      <c r="AK21" s="39"/>
-      <c r="AL21" s="39"/>
-      <c r="AM21" s="39"/>
-      <c r="AN21" s="39"/>
-      <c r="AO21" s="39"/>
-      <c r="AP21" s="39"/>
-      <c r="AQ21" s="39"/>
-      <c r="AR21" s="39"/>
-      <c r="AS21" s="39"/>
-      <c r="AT21" s="39"/>
-      <c r="AU21" s="39"/>
-      <c r="AV21" s="39"/>
-      <c r="AW21" s="39"/>
-      <c r="AX21" s="39"/>
-      <c r="AY21" s="39"/>
-      <c r="AZ21" s="39"/>
-      <c r="BA21" s="39"/>
-      <c r="BB21" s="39"/>
-      <c r="BC21" s="39"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="47"/>
+      <c r="AF21" s="47"/>
+      <c r="AG21" s="47"/>
+      <c r="AH21" s="47"/>
+      <c r="AI21" s="47"/>
+      <c r="AJ21" s="47"/>
+      <c r="AK21" s="47"/>
+      <c r="AL21" s="47"/>
+      <c r="AM21" s="47"/>
+      <c r="AN21" s="47"/>
+      <c r="AO21" s="47"/>
+      <c r="AP21" s="47"/>
+      <c r="AQ21" s="47"/>
+      <c r="AR21" s="47"/>
+      <c r="AS21" s="47"/>
+      <c r="AT21" s="47"/>
+      <c r="AU21" s="47"/>
+      <c r="AV21" s="47"/>
+      <c r="AW21" s="47"/>
+      <c r="AX21" s="47"/>
+      <c r="AY21" s="47"/>
+      <c r="AZ21" s="47"/>
+      <c r="BA21" s="47"/>
+      <c r="BB21" s="47"/>
+      <c r="BC21" s="47"/>
       <c r="BD21" s="3"/>
       <c r="BE21" s="3"/>
       <c r="CP21" s="3"/>
@@ -21910,71 +22089,71 @@
       <c r="HJ21" s="3"/>
     </row>
     <row r="22" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="71" t="s">
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="71" t="s">
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="68" t="s">
+      <c r="R22" s="63"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="63"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="X22" s="68"/>
-      <c r="Y22" s="68"/>
-      <c r="Z22" s="68"/>
-      <c r="AA22" s="68"/>
-      <c r="AB22" s="68"/>
-      <c r="AC22" s="68"/>
-      <c r="AD22" s="68"/>
-      <c r="AE22" s="64" t="s">
+      <c r="X22" s="64"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="64"/>
+      <c r="AA22" s="64"/>
+      <c r="AB22" s="64"/>
+      <c r="AC22" s="64"/>
+      <c r="AD22" s="64"/>
+      <c r="AE22" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="AF22" s="65"/>
-      <c r="AG22" s="65"/>
-      <c r="AH22" s="65"/>
-      <c r="AI22" s="65"/>
-      <c r="AJ22" s="65"/>
-      <c r="AK22" s="65"/>
-      <c r="AL22" s="65"/>
-      <c r="AM22" s="65"/>
-      <c r="AN22" s="65"/>
-      <c r="AO22" s="65"/>
-      <c r="AP22" s="65"/>
-      <c r="AQ22" s="65"/>
-      <c r="AR22" s="65"/>
-      <c r="AS22" s="65"/>
-      <c r="AT22" s="65"/>
-      <c r="AU22" s="65"/>
-      <c r="AV22" s="65"/>
-      <c r="AW22" s="65"/>
-      <c r="AX22" s="65"/>
-      <c r="AY22" s="65"/>
-      <c r="AZ22" s="65"/>
-      <c r="BA22" s="65"/>
-      <c r="BB22" s="65"/>
-      <c r="BC22" s="65"/>
+      <c r="AF22" s="66"/>
+      <c r="AG22" s="66"/>
+      <c r="AH22" s="66"/>
+      <c r="AI22" s="66"/>
+      <c r="AJ22" s="66"/>
+      <c r="AK22" s="66"/>
+      <c r="AL22" s="66"/>
+      <c r="AM22" s="66"/>
+      <c r="AN22" s="66"/>
+      <c r="AO22" s="66"/>
+      <c r="AP22" s="66"/>
+      <c r="AQ22" s="66"/>
+      <c r="AR22" s="66"/>
+      <c r="AS22" s="66"/>
+      <c r="AT22" s="66"/>
+      <c r="AU22" s="66"/>
+      <c r="AV22" s="66"/>
+      <c r="AW22" s="66"/>
+      <c r="AX22" s="66"/>
+      <c r="AY22" s="66"/>
+      <c r="AZ22" s="66"/>
+      <c r="BA22" s="66"/>
+      <c r="BB22" s="66"/>
+      <c r="BC22" s="66"/>
       <c r="BD22" s="3"/>
       <c r="BE22" s="3"/>
       <c r="CP22" s="3"/>
@@ -22104,71 +22283,71 @@
       <c r="HJ22" s="3"/>
     </row>
     <row r="23" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="71" t="s">
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="71" t="s">
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="68" t="s">
+      <c r="R23" s="63"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="63"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="X23" s="68"/>
-      <c r="Y23" s="68"/>
-      <c r="Z23" s="68"/>
-      <c r="AA23" s="68"/>
-      <c r="AB23" s="68"/>
-      <c r="AC23" s="68"/>
-      <c r="AD23" s="68"/>
-      <c r="AE23" s="64" t="s">
+      <c r="X23" s="64"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="64"/>
+      <c r="AB23" s="64"/>
+      <c r="AC23" s="64"/>
+      <c r="AD23" s="64"/>
+      <c r="AE23" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="AF23" s="65"/>
-      <c r="AG23" s="65"/>
-      <c r="AH23" s="65"/>
-      <c r="AI23" s="65"/>
-      <c r="AJ23" s="65"/>
-      <c r="AK23" s="65"/>
-      <c r="AL23" s="65"/>
-      <c r="AM23" s="65"/>
-      <c r="AN23" s="65"/>
-      <c r="AO23" s="65"/>
-      <c r="AP23" s="65"/>
-      <c r="AQ23" s="65"/>
-      <c r="AR23" s="65"/>
-      <c r="AS23" s="65"/>
-      <c r="AT23" s="65"/>
-      <c r="AU23" s="65"/>
-      <c r="AV23" s="65"/>
-      <c r="AW23" s="65"/>
-      <c r="AX23" s="65"/>
-      <c r="AY23" s="65"/>
-      <c r="AZ23" s="65"/>
-      <c r="BA23" s="65"/>
-      <c r="BB23" s="65"/>
-      <c r="BC23" s="65"/>
+      <c r="AF23" s="66"/>
+      <c r="AG23" s="66"/>
+      <c r="AH23" s="66"/>
+      <c r="AI23" s="66"/>
+      <c r="AJ23" s="66"/>
+      <c r="AK23" s="66"/>
+      <c r="AL23" s="66"/>
+      <c r="AM23" s="66"/>
+      <c r="AN23" s="66"/>
+      <c r="AO23" s="66"/>
+      <c r="AP23" s="66"/>
+      <c r="AQ23" s="66"/>
+      <c r="AR23" s="66"/>
+      <c r="AS23" s="66"/>
+      <c r="AT23" s="66"/>
+      <c r="AU23" s="66"/>
+      <c r="AV23" s="66"/>
+      <c r="AW23" s="66"/>
+      <c r="AX23" s="66"/>
+      <c r="AY23" s="66"/>
+      <c r="AZ23" s="66"/>
+      <c r="BA23" s="66"/>
+      <c r="BB23" s="66"/>
+      <c r="BC23" s="66"/>
       <c r="BD23" s="3"/>
       <c r="BE23" s="3"/>
       <c r="CP23" s="3"/>
@@ -22298,71 +22477,71 @@
       <c r="HJ23" s="3"/>
     </row>
     <row r="24" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="71" t="s">
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="71" t="s">
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="R24" s="67"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="68" t="s">
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="68"/>
-      <c r="Z24" s="68"/>
-      <c r="AA24" s="68"/>
-      <c r="AB24" s="68"/>
-      <c r="AC24" s="68"/>
-      <c r="AD24" s="68"/>
-      <c r="AE24" s="64" t="s">
+      <c r="X24" s="64"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="64"/>
+      <c r="AA24" s="64"/>
+      <c r="AB24" s="64"/>
+      <c r="AC24" s="64"/>
+      <c r="AD24" s="64"/>
+      <c r="AE24" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="AF24" s="65"/>
-      <c r="AG24" s="65"/>
-      <c r="AH24" s="65"/>
-      <c r="AI24" s="65"/>
-      <c r="AJ24" s="65"/>
-      <c r="AK24" s="65"/>
-      <c r="AL24" s="65"/>
-      <c r="AM24" s="65"/>
-      <c r="AN24" s="65"/>
-      <c r="AO24" s="65"/>
-      <c r="AP24" s="65"/>
-      <c r="AQ24" s="65"/>
-      <c r="AR24" s="65"/>
-      <c r="AS24" s="65"/>
-      <c r="AT24" s="65"/>
-      <c r="AU24" s="65"/>
-      <c r="AV24" s="65"/>
-      <c r="AW24" s="65"/>
-      <c r="AX24" s="65"/>
-      <c r="AY24" s="65"/>
-      <c r="AZ24" s="65"/>
-      <c r="BA24" s="65"/>
-      <c r="BB24" s="65"/>
-      <c r="BC24" s="65"/>
+      <c r="AF24" s="66"/>
+      <c r="AG24" s="66"/>
+      <c r="AH24" s="66"/>
+      <c r="AI24" s="66"/>
+      <c r="AJ24" s="66"/>
+      <c r="AK24" s="66"/>
+      <c r="AL24" s="66"/>
+      <c r="AM24" s="66"/>
+      <c r="AN24" s="66"/>
+      <c r="AO24" s="66"/>
+      <c r="AP24" s="66"/>
+      <c r="AQ24" s="66"/>
+      <c r="AR24" s="66"/>
+      <c r="AS24" s="66"/>
+      <c r="AT24" s="66"/>
+      <c r="AU24" s="66"/>
+      <c r="AV24" s="66"/>
+      <c r="AW24" s="66"/>
+      <c r="AX24" s="66"/>
+      <c r="AY24" s="66"/>
+      <c r="AZ24" s="66"/>
+      <c r="BA24" s="66"/>
+      <c r="BB24" s="66"/>
+      <c r="BC24" s="66"/>
       <c r="BD24" s="3"/>
       <c r="BE24" s="3"/>
       <c r="CP24" s="3"/>
@@ -22492,71 +22671,71 @@
       <c r="HJ24" s="3"/>
     </row>
     <row r="25" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="71" t="s">
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="71" t="s">
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="67"/>
-      <c r="V25" s="67"/>
-      <c r="W25" s="68" t="s">
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="X25" s="68"/>
-      <c r="Y25" s="68"/>
-      <c r="Z25" s="68"/>
-      <c r="AA25" s="68"/>
-      <c r="AB25" s="68"/>
-      <c r="AC25" s="68"/>
-      <c r="AD25" s="68"/>
-      <c r="AE25" s="64" t="s">
+      <c r="X25" s="64"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="64"/>
+      <c r="AB25" s="64"/>
+      <c r="AC25" s="64"/>
+      <c r="AD25" s="64"/>
+      <c r="AE25" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="AF25" s="65"/>
-      <c r="AG25" s="65"/>
-      <c r="AH25" s="65"/>
-      <c r="AI25" s="65"/>
-      <c r="AJ25" s="65"/>
-      <c r="AK25" s="65"/>
-      <c r="AL25" s="65"/>
-      <c r="AM25" s="65"/>
-      <c r="AN25" s="65"/>
-      <c r="AO25" s="65"/>
-      <c r="AP25" s="65"/>
-      <c r="AQ25" s="65"/>
-      <c r="AR25" s="65"/>
-      <c r="AS25" s="65"/>
-      <c r="AT25" s="65"/>
-      <c r="AU25" s="65"/>
-      <c r="AV25" s="65"/>
-      <c r="AW25" s="65"/>
-      <c r="AX25" s="65"/>
-      <c r="AY25" s="65"/>
-      <c r="AZ25" s="65"/>
-      <c r="BA25" s="65"/>
-      <c r="BB25" s="65"/>
-      <c r="BC25" s="65"/>
+      <c r="AF25" s="66"/>
+      <c r="AG25" s="66"/>
+      <c r="AH25" s="66"/>
+      <c r="AI25" s="66"/>
+      <c r="AJ25" s="66"/>
+      <c r="AK25" s="66"/>
+      <c r="AL25" s="66"/>
+      <c r="AM25" s="66"/>
+      <c r="AN25" s="66"/>
+      <c r="AO25" s="66"/>
+      <c r="AP25" s="66"/>
+      <c r="AQ25" s="66"/>
+      <c r="AR25" s="66"/>
+      <c r="AS25" s="66"/>
+      <c r="AT25" s="66"/>
+      <c r="AU25" s="66"/>
+      <c r="AV25" s="66"/>
+      <c r="AW25" s="66"/>
+      <c r="AX25" s="66"/>
+      <c r="AY25" s="66"/>
+      <c r="AZ25" s="66"/>
+      <c r="BA25" s="66"/>
+      <c r="BB25" s="66"/>
+      <c r="BC25" s="66"/>
       <c r="BD25" s="3"/>
       <c r="BE25" s="3"/>
       <c r="CP25" s="3"/>
@@ -22686,71 +22865,71 @@
       <c r="HJ25" s="3"/>
     </row>
     <row r="26" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="71" t="s">
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67" t="s">
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="68" t="s">
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="X26" s="68"/>
-      <c r="Y26" s="68"/>
-      <c r="Z26" s="68"/>
-      <c r="AA26" s="68"/>
-      <c r="AB26" s="68"/>
-      <c r="AC26" s="68"/>
-      <c r="AD26" s="68"/>
-      <c r="AE26" s="64" t="s">
+      <c r="X26" s="64"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="64"/>
+      <c r="AB26" s="64"/>
+      <c r="AC26" s="64"/>
+      <c r="AD26" s="64"/>
+      <c r="AE26" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="AF26" s="65"/>
-      <c r="AG26" s="65"/>
-      <c r="AH26" s="65"/>
-      <c r="AI26" s="65"/>
-      <c r="AJ26" s="65"/>
-      <c r="AK26" s="65"/>
-      <c r="AL26" s="65"/>
-      <c r="AM26" s="65"/>
-      <c r="AN26" s="65"/>
-      <c r="AO26" s="65"/>
-      <c r="AP26" s="65"/>
-      <c r="AQ26" s="65"/>
-      <c r="AR26" s="65"/>
-      <c r="AS26" s="65"/>
-      <c r="AT26" s="65"/>
-      <c r="AU26" s="65"/>
-      <c r="AV26" s="65"/>
-      <c r="AW26" s="65"/>
-      <c r="AX26" s="65"/>
-      <c r="AY26" s="65"/>
-      <c r="AZ26" s="65"/>
-      <c r="BA26" s="65"/>
-      <c r="BB26" s="65"/>
-      <c r="BC26" s="65"/>
+      <c r="AF26" s="66"/>
+      <c r="AG26" s="66"/>
+      <c r="AH26" s="66"/>
+      <c r="AI26" s="66"/>
+      <c r="AJ26" s="66"/>
+      <c r="AK26" s="66"/>
+      <c r="AL26" s="66"/>
+      <c r="AM26" s="66"/>
+      <c r="AN26" s="66"/>
+      <c r="AO26" s="66"/>
+      <c r="AP26" s="66"/>
+      <c r="AQ26" s="66"/>
+      <c r="AR26" s="66"/>
+      <c r="AS26" s="66"/>
+      <c r="AT26" s="66"/>
+      <c r="AU26" s="66"/>
+      <c r="AV26" s="66"/>
+      <c r="AW26" s="66"/>
+      <c r="AX26" s="66"/>
+      <c r="AY26" s="66"/>
+      <c r="AZ26" s="66"/>
+      <c r="BA26" s="66"/>
+      <c r="BB26" s="66"/>
+      <c r="BC26" s="66"/>
       <c r="BD26" s="3"/>
       <c r="BE26" s="3"/>
       <c r="CP26" s="3"/>
@@ -22879,266 +23058,266 @@
       <c r="HI26" s="3"/>
       <c r="HJ26" s="3"/>
     </row>
-    <row r="27" spans="1:218" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="61" t="s">
+    <row r="27" spans="1:218" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="61" t="s">
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="61" t="s">
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="58" t="s">
+      <c r="R27" s="74"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="74"/>
+      <c r="U27" s="74"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="60"/>
-      <c r="AE27" s="55" t="s">
+      <c r="X27" s="71"/>
+      <c r="Y27" s="71"/>
+      <c r="Z27" s="71"/>
+      <c r="AA27" s="71"/>
+      <c r="AB27" s="71"/>
+      <c r="AC27" s="71"/>
+      <c r="AD27" s="72"/>
+      <c r="AE27" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="AF27" s="56"/>
-      <c r="AG27" s="56"/>
-      <c r="AH27" s="56"/>
-      <c r="AI27" s="56"/>
-      <c r="AJ27" s="56"/>
-      <c r="AK27" s="56"/>
-      <c r="AL27" s="56"/>
-      <c r="AM27" s="56"/>
-      <c r="AN27" s="56"/>
-      <c r="AO27" s="56"/>
-      <c r="AP27" s="56"/>
-      <c r="AQ27" s="56"/>
-      <c r="AR27" s="56"/>
-      <c r="AS27" s="56"/>
-      <c r="AT27" s="56"/>
-      <c r="AU27" s="56"/>
-      <c r="AV27" s="56"/>
-      <c r="AW27" s="56"/>
-      <c r="AX27" s="56"/>
-      <c r="AY27" s="56"/>
-      <c r="AZ27" s="56"/>
-      <c r="BA27" s="56"/>
-      <c r="BB27" s="56"/>
-      <c r="BC27" s="57"/>
-      <c r="BD27" s="36"/>
-      <c r="BE27" s="36"/>
-      <c r="CP27" s="36"/>
-      <c r="CQ27" s="36"/>
-      <c r="CR27" s="36"/>
-      <c r="CS27" s="36"/>
-      <c r="CT27" s="36"/>
-      <c r="CU27" s="36"/>
-      <c r="CV27" s="36"/>
-      <c r="CW27" s="36"/>
-      <c r="CX27" s="36"/>
-      <c r="CY27" s="36"/>
-      <c r="CZ27" s="36"/>
-      <c r="DA27" s="36"/>
-      <c r="DB27" s="36"/>
-      <c r="DC27" s="36"/>
-      <c r="DD27" s="36"/>
-      <c r="DE27" s="36"/>
-      <c r="DF27" s="36"/>
-      <c r="DG27" s="36"/>
-      <c r="DH27" s="36"/>
-      <c r="DI27" s="36"/>
-      <c r="DJ27" s="36"/>
-      <c r="DK27" s="36"/>
-      <c r="DL27" s="36"/>
-      <c r="DM27" s="36"/>
-      <c r="DN27" s="36"/>
-      <c r="DO27" s="36"/>
-      <c r="DP27" s="36"/>
-      <c r="DQ27" s="36"/>
-      <c r="DR27" s="36"/>
-      <c r="DS27" s="36"/>
-      <c r="DT27" s="36"/>
-      <c r="DU27" s="36"/>
-      <c r="DV27" s="36"/>
-      <c r="DW27" s="36"/>
-      <c r="DX27" s="36"/>
-      <c r="DY27" s="36"/>
-      <c r="DZ27" s="36"/>
-      <c r="EA27" s="36"/>
-      <c r="EB27" s="36"/>
-      <c r="EC27" s="36"/>
-      <c r="ED27" s="36"/>
-      <c r="EE27" s="36"/>
-      <c r="EF27" s="36"/>
-      <c r="EG27" s="36"/>
-      <c r="EH27" s="36"/>
-      <c r="EI27" s="36"/>
-      <c r="EJ27" s="36"/>
-      <c r="EK27" s="36"/>
-      <c r="EL27" s="36"/>
-      <c r="EM27" s="36"/>
-      <c r="EN27" s="36"/>
-      <c r="EO27" s="36"/>
-      <c r="EP27" s="36"/>
-      <c r="EQ27" s="36"/>
-      <c r="ER27" s="36"/>
-      <c r="ES27" s="36"/>
-      <c r="ET27" s="36"/>
-      <c r="EU27" s="36"/>
-      <c r="EV27" s="36"/>
-      <c r="EW27" s="36"/>
-      <c r="EX27" s="36"/>
-      <c r="EY27" s="36"/>
-      <c r="EZ27" s="36"/>
-      <c r="FA27" s="36"/>
-      <c r="FB27" s="36"/>
-      <c r="FC27" s="36"/>
-      <c r="FD27" s="36"/>
-      <c r="FE27" s="36"/>
-      <c r="FF27" s="36"/>
-      <c r="FG27" s="36"/>
-      <c r="FH27" s="36"/>
-      <c r="FI27" s="36"/>
-      <c r="FJ27" s="36"/>
-      <c r="FK27" s="36"/>
-      <c r="FL27" s="36"/>
-      <c r="FM27" s="36"/>
-      <c r="FN27" s="36"/>
-      <c r="FO27" s="36"/>
-      <c r="FP27" s="36"/>
-      <c r="FQ27" s="36"/>
-      <c r="FR27" s="36"/>
-      <c r="FS27" s="36"/>
-      <c r="FT27" s="36"/>
-      <c r="FU27" s="36"/>
-      <c r="FV27" s="36"/>
-      <c r="FW27" s="36"/>
-      <c r="FX27" s="36"/>
-      <c r="FY27" s="36"/>
-      <c r="FZ27" s="36"/>
-      <c r="GA27" s="36"/>
-      <c r="GB27" s="36"/>
-      <c r="GC27" s="36"/>
-      <c r="GD27" s="36"/>
-      <c r="GE27" s="36"/>
-      <c r="GF27" s="36"/>
-      <c r="GG27" s="36"/>
-      <c r="GH27" s="36"/>
-      <c r="GI27" s="36"/>
-      <c r="GJ27" s="36"/>
-      <c r="GK27" s="36"/>
-      <c r="GL27" s="36"/>
-      <c r="GM27" s="36"/>
-      <c r="GN27" s="36"/>
-      <c r="GO27" s="36"/>
-      <c r="GP27" s="36"/>
-      <c r="GQ27" s="36"/>
-      <c r="GR27" s="36"/>
-      <c r="GS27" s="36"/>
-      <c r="GT27" s="36"/>
-      <c r="GU27" s="36"/>
-      <c r="GV27" s="36"/>
-      <c r="GW27" s="36"/>
-      <c r="GX27" s="36"/>
-      <c r="GY27" s="36"/>
-      <c r="GZ27" s="36"/>
-      <c r="HA27" s="36"/>
-      <c r="HB27" s="36"/>
-      <c r="HC27" s="36"/>
-      <c r="HD27" s="36"/>
-      <c r="HE27" s="36"/>
-      <c r="HF27" s="36"/>
-      <c r="HG27" s="36"/>
-      <c r="HH27" s="36"/>
-      <c r="HI27" s="36"/>
-      <c r="HJ27" s="36"/>
+      <c r="AF27" s="68"/>
+      <c r="AG27" s="68"/>
+      <c r="AH27" s="68"/>
+      <c r="AI27" s="68"/>
+      <c r="AJ27" s="68"/>
+      <c r="AK27" s="68"/>
+      <c r="AL27" s="68"/>
+      <c r="AM27" s="68"/>
+      <c r="AN27" s="68"/>
+      <c r="AO27" s="68"/>
+      <c r="AP27" s="68"/>
+      <c r="AQ27" s="68"/>
+      <c r="AR27" s="68"/>
+      <c r="AS27" s="68"/>
+      <c r="AT27" s="68"/>
+      <c r="AU27" s="68"/>
+      <c r="AV27" s="68"/>
+      <c r="AW27" s="68"/>
+      <c r="AX27" s="68"/>
+      <c r="AY27" s="68"/>
+      <c r="AZ27" s="68"/>
+      <c r="BA27" s="68"/>
+      <c r="BB27" s="68"/>
+      <c r="BC27" s="69"/>
+      <c r="BD27" s="35"/>
+      <c r="BE27" s="35"/>
+      <c r="CP27" s="35"/>
+      <c r="CQ27" s="35"/>
+      <c r="CR27" s="35"/>
+      <c r="CS27" s="35"/>
+      <c r="CT27" s="35"/>
+      <c r="CU27" s="35"/>
+      <c r="CV27" s="35"/>
+      <c r="CW27" s="35"/>
+      <c r="CX27" s="35"/>
+      <c r="CY27" s="35"/>
+      <c r="CZ27" s="35"/>
+      <c r="DA27" s="35"/>
+      <c r="DB27" s="35"/>
+      <c r="DC27" s="35"/>
+      <c r="DD27" s="35"/>
+      <c r="DE27" s="35"/>
+      <c r="DF27" s="35"/>
+      <c r="DG27" s="35"/>
+      <c r="DH27" s="35"/>
+      <c r="DI27" s="35"/>
+      <c r="DJ27" s="35"/>
+      <c r="DK27" s="35"/>
+      <c r="DL27" s="35"/>
+      <c r="DM27" s="35"/>
+      <c r="DN27" s="35"/>
+      <c r="DO27" s="35"/>
+      <c r="DP27" s="35"/>
+      <c r="DQ27" s="35"/>
+      <c r="DR27" s="35"/>
+      <c r="DS27" s="35"/>
+      <c r="DT27" s="35"/>
+      <c r="DU27" s="35"/>
+      <c r="DV27" s="35"/>
+      <c r="DW27" s="35"/>
+      <c r="DX27" s="35"/>
+      <c r="DY27" s="35"/>
+      <c r="DZ27" s="35"/>
+      <c r="EA27" s="35"/>
+      <c r="EB27" s="35"/>
+      <c r="EC27" s="35"/>
+      <c r="ED27" s="35"/>
+      <c r="EE27" s="35"/>
+      <c r="EF27" s="35"/>
+      <c r="EG27" s="35"/>
+      <c r="EH27" s="35"/>
+      <c r="EI27" s="35"/>
+      <c r="EJ27" s="35"/>
+      <c r="EK27" s="35"/>
+      <c r="EL27" s="35"/>
+      <c r="EM27" s="35"/>
+      <c r="EN27" s="35"/>
+      <c r="EO27" s="35"/>
+      <c r="EP27" s="35"/>
+      <c r="EQ27" s="35"/>
+      <c r="ER27" s="35"/>
+      <c r="ES27" s="35"/>
+      <c r="ET27" s="35"/>
+      <c r="EU27" s="35"/>
+      <c r="EV27" s="35"/>
+      <c r="EW27" s="35"/>
+      <c r="EX27" s="35"/>
+      <c r="EY27" s="35"/>
+      <c r="EZ27" s="35"/>
+      <c r="FA27" s="35"/>
+      <c r="FB27" s="35"/>
+      <c r="FC27" s="35"/>
+      <c r="FD27" s="35"/>
+      <c r="FE27" s="35"/>
+      <c r="FF27" s="35"/>
+      <c r="FG27" s="35"/>
+      <c r="FH27" s="35"/>
+      <c r="FI27" s="35"/>
+      <c r="FJ27" s="35"/>
+      <c r="FK27" s="35"/>
+      <c r="FL27" s="35"/>
+      <c r="FM27" s="35"/>
+      <c r="FN27" s="35"/>
+      <c r="FO27" s="35"/>
+      <c r="FP27" s="35"/>
+      <c r="FQ27" s="35"/>
+      <c r="FR27" s="35"/>
+      <c r="FS27" s="35"/>
+      <c r="FT27" s="35"/>
+      <c r="FU27" s="35"/>
+      <c r="FV27" s="35"/>
+      <c r="FW27" s="35"/>
+      <c r="FX27" s="35"/>
+      <c r="FY27" s="35"/>
+      <c r="FZ27" s="35"/>
+      <c r="GA27" s="35"/>
+      <c r="GB27" s="35"/>
+      <c r="GC27" s="35"/>
+      <c r="GD27" s="35"/>
+      <c r="GE27" s="35"/>
+      <c r="GF27" s="35"/>
+      <c r="GG27" s="35"/>
+      <c r="GH27" s="35"/>
+      <c r="GI27" s="35"/>
+      <c r="GJ27" s="35"/>
+      <c r="GK27" s="35"/>
+      <c r="GL27" s="35"/>
+      <c r="GM27" s="35"/>
+      <c r="GN27" s="35"/>
+      <c r="GO27" s="35"/>
+      <c r="GP27" s="35"/>
+      <c r="GQ27" s="35"/>
+      <c r="GR27" s="35"/>
+      <c r="GS27" s="35"/>
+      <c r="GT27" s="35"/>
+      <c r="GU27" s="35"/>
+      <c r="GV27" s="35"/>
+      <c r="GW27" s="35"/>
+      <c r="GX27" s="35"/>
+      <c r="GY27" s="35"/>
+      <c r="GZ27" s="35"/>
+      <c r="HA27" s="35"/>
+      <c r="HB27" s="35"/>
+      <c r="HC27" s="35"/>
+      <c r="HD27" s="35"/>
+      <c r="HE27" s="35"/>
+      <c r="HF27" s="35"/>
+      <c r="HG27" s="35"/>
+      <c r="HH27" s="35"/>
+      <c r="HI27" s="35"/>
+      <c r="HJ27" s="35"/>
     </row>
     <row r="28" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="71" t="s">
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="67" t="s">
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="R28" s="67"/>
-      <c r="S28" s="67"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="67"/>
-      <c r="V28" s="67"/>
-      <c r="W28" s="68" t="s">
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="X28" s="68"/>
-      <c r="Y28" s="68"/>
-      <c r="Z28" s="68"/>
-      <c r="AA28" s="68"/>
-      <c r="AB28" s="68"/>
-      <c r="AC28" s="68"/>
-      <c r="AD28" s="68"/>
-      <c r="AE28" s="64" t="s">
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="64"/>
+      <c r="AC28" s="64"/>
+      <c r="AD28" s="64"/>
+      <c r="AE28" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="AF28" s="65"/>
-      <c r="AG28" s="65"/>
-      <c r="AH28" s="65"/>
-      <c r="AI28" s="65"/>
-      <c r="AJ28" s="65"/>
-      <c r="AK28" s="65"/>
-      <c r="AL28" s="65"/>
-      <c r="AM28" s="65"/>
-      <c r="AN28" s="65"/>
-      <c r="AO28" s="65"/>
-      <c r="AP28" s="65"/>
-      <c r="AQ28" s="65"/>
-      <c r="AR28" s="65"/>
-      <c r="AS28" s="65"/>
-      <c r="AT28" s="65"/>
-      <c r="AU28" s="65"/>
-      <c r="AV28" s="65"/>
-      <c r="AW28" s="65"/>
-      <c r="AX28" s="65"/>
-      <c r="AY28" s="65"/>
-      <c r="AZ28" s="65"/>
-      <c r="BA28" s="65"/>
-      <c r="BB28" s="65"/>
-      <c r="BC28" s="65"/>
+      <c r="AF28" s="66"/>
+      <c r="AG28" s="66"/>
+      <c r="AH28" s="66"/>
+      <c r="AI28" s="66"/>
+      <c r="AJ28" s="66"/>
+      <c r="AK28" s="66"/>
+      <c r="AL28" s="66"/>
+      <c r="AM28" s="66"/>
+      <c r="AN28" s="66"/>
+      <c r="AO28" s="66"/>
+      <c r="AP28" s="66"/>
+      <c r="AQ28" s="66"/>
+      <c r="AR28" s="66"/>
+      <c r="AS28" s="66"/>
+      <c r="AT28" s="66"/>
+      <c r="AU28" s="66"/>
+      <c r="AV28" s="66"/>
+      <c r="AW28" s="66"/>
+      <c r="AX28" s="66"/>
+      <c r="AY28" s="66"/>
+      <c r="AZ28" s="66"/>
+      <c r="BA28" s="66"/>
+      <c r="BB28" s="66"/>
+      <c r="BC28" s="66"/>
       <c r="BD28" s="3"/>
       <c r="BE28" s="3"/>
       <c r="CP28" s="3"/>
@@ -23268,69 +23447,69 @@
       <c r="HJ28" s="3"/>
     </row>
     <row r="29" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="71" t="s">
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="67" t="s">
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="R29" s="67"/>
-      <c r="S29" s="67"/>
-      <c r="T29" s="67"/>
-      <c r="U29" s="67"/>
-      <c r="V29" s="67"/>
-      <c r="W29" s="74" t="s">
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="X29" s="68"/>
-      <c r="Y29" s="68"/>
-      <c r="Z29" s="68"/>
-      <c r="AA29" s="68"/>
-      <c r="AB29" s="68"/>
-      <c r="AC29" s="68"/>
-      <c r="AD29" s="68"/>
-      <c r="AE29" s="64"/>
-      <c r="AF29" s="65"/>
-      <c r="AG29" s="65"/>
-      <c r="AH29" s="65"/>
-      <c r="AI29" s="65"/>
-      <c r="AJ29" s="65"/>
-      <c r="AK29" s="65"/>
-      <c r="AL29" s="65"/>
-      <c r="AM29" s="65"/>
-      <c r="AN29" s="65"/>
-      <c r="AO29" s="65"/>
-      <c r="AP29" s="65"/>
-      <c r="AQ29" s="65"/>
-      <c r="AR29" s="65"/>
-      <c r="AS29" s="65"/>
-      <c r="AT29" s="65"/>
-      <c r="AU29" s="65"/>
-      <c r="AV29" s="65"/>
-      <c r="AW29" s="65"/>
-      <c r="AX29" s="65"/>
-      <c r="AY29" s="65"/>
-      <c r="AZ29" s="65"/>
-      <c r="BA29" s="65"/>
-      <c r="BB29" s="65"/>
-      <c r="BC29" s="65"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="64"/>
+      <c r="AC29" s="64"/>
+      <c r="AD29" s="64"/>
+      <c r="AE29" s="65"/>
+      <c r="AF29" s="66"/>
+      <c r="AG29" s="66"/>
+      <c r="AH29" s="66"/>
+      <c r="AI29" s="66"/>
+      <c r="AJ29" s="66"/>
+      <c r="AK29" s="66"/>
+      <c r="AL29" s="66"/>
+      <c r="AM29" s="66"/>
+      <c r="AN29" s="66"/>
+      <c r="AO29" s="66"/>
+      <c r="AP29" s="66"/>
+      <c r="AQ29" s="66"/>
+      <c r="AR29" s="66"/>
+      <c r="AS29" s="66"/>
+      <c r="AT29" s="66"/>
+      <c r="AU29" s="66"/>
+      <c r="AV29" s="66"/>
+      <c r="AW29" s="66"/>
+      <c r="AX29" s="66"/>
+      <c r="AY29" s="66"/>
+      <c r="AZ29" s="66"/>
+      <c r="BA29" s="66"/>
+      <c r="BB29" s="66"/>
+      <c r="BC29" s="66"/>
       <c r="BD29" s="3"/>
       <c r="BE29" s="3"/>
       <c r="CP29" s="3"/>
@@ -23459,264 +23638,256 @@
       <c r="HI29" s="3"/>
       <c r="HJ29" s="3"/>
     </row>
-    <row r="30" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
-      <c r="AA30" s="30"/>
-      <c r="AB30" s="30"/>
-      <c r="AC30" s="30"/>
-      <c r="AD30" s="30"/>
-      <c r="AE30" s="31"/>
-      <c r="AF30" s="26"/>
-      <c r="AG30" s="26"/>
-      <c r="AH30" s="26"/>
-      <c r="AI30" s="26"/>
-      <c r="AJ30" s="26"/>
-      <c r="AK30" s="26"/>
-      <c r="AL30" s="26"/>
-      <c r="AM30" s="26"/>
-      <c r="AN30" s="26"/>
-      <c r="AO30" s="26"/>
-      <c r="AP30" s="26"/>
-      <c r="AQ30" s="26"/>
-      <c r="AR30" s="26"/>
-      <c r="AS30" s="26"/>
-      <c r="AT30" s="26"/>
-      <c r="AU30" s="26"/>
-      <c r="AV30" s="26"/>
-      <c r="AW30" s="26"/>
-      <c r="AX30" s="26"/>
-      <c r="AY30" s="26"/>
-      <c r="AZ30" s="26"/>
-      <c r="BA30" s="26"/>
-      <c r="BB30" s="26"/>
-      <c r="BC30" s="26"/>
-      <c r="BD30" s="3"/>
-      <c r="BE30" s="3"/>
-      <c r="CP30" s="3"/>
-      <c r="CQ30" s="3"/>
-      <c r="CR30" s="3"/>
-      <c r="CS30" s="3"/>
-      <c r="CT30" s="3"/>
-      <c r="CU30" s="3"/>
-      <c r="CV30" s="3"/>
-      <c r="CW30" s="3"/>
-      <c r="CX30" s="3"/>
-      <c r="CY30" s="3"/>
-      <c r="CZ30" s="3"/>
-      <c r="DA30" s="3"/>
-      <c r="DB30" s="3"/>
-      <c r="DC30" s="3"/>
-      <c r="DD30" s="3"/>
-      <c r="DE30" s="3"/>
-      <c r="DF30" s="3"/>
-      <c r="DG30" s="3"/>
-      <c r="DH30" s="3"/>
-      <c r="DI30" s="3"/>
-      <c r="DJ30" s="3"/>
-      <c r="DK30" s="3"/>
-      <c r="DL30" s="3"/>
-      <c r="DM30" s="3"/>
-      <c r="DN30" s="3"/>
-      <c r="DO30" s="3"/>
-      <c r="DP30" s="3"/>
-      <c r="DQ30" s="3"/>
-      <c r="DR30" s="3"/>
-      <c r="DS30" s="3"/>
-      <c r="DT30" s="3"/>
-      <c r="DU30" s="3"/>
-      <c r="DV30" s="3"/>
-      <c r="DW30" s="3"/>
-      <c r="DX30" s="3"/>
-      <c r="DY30" s="3"/>
-      <c r="DZ30" s="3"/>
-      <c r="EA30" s="3"/>
-      <c r="EB30" s="3"/>
-      <c r="EC30" s="3"/>
-      <c r="ED30" s="3"/>
-      <c r="EE30" s="3"/>
-      <c r="EF30" s="3"/>
-      <c r="EG30" s="3"/>
-      <c r="EH30" s="3"/>
-      <c r="EI30" s="3"/>
-      <c r="EJ30" s="3"/>
-      <c r="EK30" s="3"/>
-      <c r="EL30" s="3"/>
-      <c r="EM30" s="3"/>
-      <c r="EN30" s="3"/>
-      <c r="EO30" s="3"/>
-      <c r="EP30" s="3"/>
-      <c r="EQ30" s="3"/>
-      <c r="ER30" s="3"/>
-      <c r="ES30" s="3"/>
-      <c r="ET30" s="3"/>
-      <c r="EU30" s="3"/>
-      <c r="EV30" s="3"/>
-      <c r="EW30" s="3"/>
-      <c r="EX30" s="3"/>
-      <c r="EY30" s="3"/>
-      <c r="EZ30" s="3"/>
-      <c r="FA30" s="3"/>
-      <c r="FB30" s="3"/>
-      <c r="FC30" s="3"/>
-      <c r="FD30" s="3"/>
-      <c r="FE30" s="3"/>
-      <c r="FF30" s="3"/>
-      <c r="FG30" s="3"/>
-      <c r="FH30" s="3"/>
-      <c r="FI30" s="3"/>
-      <c r="FJ30" s="3"/>
-      <c r="FK30" s="3"/>
-      <c r="FL30" s="3"/>
-      <c r="FM30" s="3"/>
-      <c r="FN30" s="3"/>
-      <c r="FO30" s="3"/>
-      <c r="FP30" s="3"/>
-      <c r="FQ30" s="3"/>
-      <c r="FR30" s="3"/>
-      <c r="FS30" s="3"/>
-      <c r="FT30" s="3"/>
-      <c r="FU30" s="3"/>
-      <c r="FV30" s="3"/>
-      <c r="FW30" s="3"/>
-      <c r="FX30" s="3"/>
-      <c r="FY30" s="3"/>
-      <c r="FZ30" s="3"/>
-      <c r="GA30" s="3"/>
-      <c r="GB30" s="3"/>
-      <c r="GC30" s="3"/>
-      <c r="GD30" s="3"/>
-      <c r="GE30" s="3"/>
-      <c r="GF30" s="3"/>
-      <c r="GG30" s="3"/>
-      <c r="GH30" s="3"/>
-      <c r="GI30" s="3"/>
-      <c r="GJ30" s="3"/>
-      <c r="GK30" s="3"/>
-      <c r="GL30" s="3"/>
-      <c r="GM30" s="3"/>
-      <c r="GN30" s="3"/>
-      <c r="GO30" s="3"/>
-      <c r="GP30" s="3"/>
-      <c r="GQ30" s="3"/>
-      <c r="GR30" s="3"/>
-      <c r="GS30" s="3"/>
-      <c r="GT30" s="3"/>
-      <c r="GU30" s="3"/>
-      <c r="GV30" s="3"/>
-      <c r="GW30" s="3"/>
-      <c r="GX30" s="3"/>
-      <c r="GY30" s="3"/>
-      <c r="GZ30" s="3"/>
-      <c r="HA30" s="3"/>
-      <c r="HB30" s="3"/>
-      <c r="HC30" s="3"/>
-      <c r="HD30" s="3"/>
-      <c r="HE30" s="3"/>
-      <c r="HF30" s="3"/>
-      <c r="HG30" s="3"/>
-      <c r="HH30" s="3"/>
-      <c r="HI30" s="3"/>
-      <c r="HJ30" s="3"/>
+    <row r="30" spans="1:218" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="R30" s="77"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77"/>
+      <c r="U30" s="77"/>
+      <c r="V30" s="77"/>
+      <c r="W30" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="X30" s="78"/>
+      <c r="Y30" s="78"/>
+      <c r="Z30" s="78"/>
+      <c r="AA30" s="78"/>
+      <c r="AB30" s="78"/>
+      <c r="AC30" s="78"/>
+      <c r="AD30" s="78"/>
+      <c r="AE30" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF30" s="76"/>
+      <c r="AG30" s="76"/>
+      <c r="AH30" s="76"/>
+      <c r="AI30" s="76"/>
+      <c r="AJ30" s="76"/>
+      <c r="AK30" s="76"/>
+      <c r="AL30" s="76"/>
+      <c r="AM30" s="76"/>
+      <c r="AN30" s="76"/>
+      <c r="AO30" s="76"/>
+      <c r="AP30" s="76"/>
+      <c r="AQ30" s="76"/>
+      <c r="AR30" s="76"/>
+      <c r="AS30" s="76"/>
+      <c r="AT30" s="76"/>
+      <c r="AU30" s="76"/>
+      <c r="AV30" s="76"/>
+      <c r="AW30" s="76"/>
+      <c r="AX30" s="76"/>
+      <c r="AY30" s="76"/>
+      <c r="AZ30" s="76"/>
+      <c r="BA30" s="76"/>
+      <c r="BB30" s="76"/>
+      <c r="BC30" s="76"/>
+      <c r="BD30" s="38"/>
+      <c r="BE30" s="38"/>
+      <c r="CP30" s="38"/>
+      <c r="CQ30" s="38"/>
+      <c r="CR30" s="38"/>
+      <c r="CS30" s="38"/>
+      <c r="CT30" s="38"/>
+      <c r="CU30" s="38"/>
+      <c r="CV30" s="38"/>
+      <c r="CW30" s="38"/>
+      <c r="CX30" s="38"/>
+      <c r="CY30" s="38"/>
+      <c r="CZ30" s="38"/>
+      <c r="DA30" s="38"/>
+      <c r="DB30" s="38"/>
+      <c r="DC30" s="38"/>
+      <c r="DD30" s="38"/>
+      <c r="DE30" s="38"/>
+      <c r="DF30" s="38"/>
+      <c r="DG30" s="38"/>
+      <c r="DH30" s="38"/>
+      <c r="DI30" s="38"/>
+      <c r="DJ30" s="38"/>
+      <c r="DK30" s="38"/>
+      <c r="DL30" s="38"/>
+      <c r="DM30" s="38"/>
+      <c r="DN30" s="38"/>
+      <c r="DO30" s="38"/>
+      <c r="DP30" s="38"/>
+      <c r="DQ30" s="38"/>
+      <c r="DR30" s="38"/>
+      <c r="DS30" s="38"/>
+      <c r="DT30" s="38"/>
+      <c r="DU30" s="38"/>
+      <c r="DV30" s="38"/>
+      <c r="DW30" s="38"/>
+      <c r="DX30" s="38"/>
+      <c r="DY30" s="38"/>
+      <c r="DZ30" s="38"/>
+      <c r="EA30" s="38"/>
+      <c r="EB30" s="38"/>
+      <c r="EC30" s="38"/>
+      <c r="ED30" s="38"/>
+      <c r="EE30" s="38"/>
+      <c r="EF30" s="38"/>
+      <c r="EG30" s="38"/>
+      <c r="EH30" s="38"/>
+      <c r="EI30" s="38"/>
+      <c r="EJ30" s="38"/>
+      <c r="EK30" s="38"/>
+      <c r="EL30" s="38"/>
+      <c r="EM30" s="38"/>
+      <c r="EN30" s="38"/>
+      <c r="EO30" s="38"/>
+      <c r="EP30" s="38"/>
+      <c r="EQ30" s="38"/>
+      <c r="ER30" s="38"/>
+      <c r="ES30" s="38"/>
+      <c r="ET30" s="38"/>
+      <c r="EU30" s="38"/>
+      <c r="EV30" s="38"/>
+      <c r="EW30" s="38"/>
+      <c r="EX30" s="38"/>
+      <c r="EY30" s="38"/>
+      <c r="EZ30" s="38"/>
+      <c r="FA30" s="38"/>
+      <c r="FB30" s="38"/>
+      <c r="FC30" s="38"/>
+      <c r="FD30" s="38"/>
+      <c r="FE30" s="38"/>
+      <c r="FF30" s="38"/>
+      <c r="FG30" s="38"/>
+      <c r="FH30" s="38"/>
+      <c r="FI30" s="38"/>
+      <c r="FJ30" s="38"/>
+      <c r="FK30" s="38"/>
+      <c r="FL30" s="38"/>
+      <c r="FM30" s="38"/>
+      <c r="FN30" s="38"/>
+      <c r="FO30" s="38"/>
+      <c r="FP30" s="38"/>
+      <c r="FQ30" s="38"/>
+      <c r="FR30" s="38"/>
+      <c r="FS30" s="38"/>
+      <c r="FT30" s="38"/>
+      <c r="FU30" s="38"/>
+      <c r="FV30" s="38"/>
+      <c r="FW30" s="38"/>
+      <c r="FX30" s="38"/>
+      <c r="FY30" s="38"/>
+      <c r="FZ30" s="38"/>
+      <c r="GA30" s="38"/>
+      <c r="GB30" s="38"/>
+      <c r="GC30" s="38"/>
+      <c r="GD30" s="38"/>
+      <c r="GE30" s="38"/>
+      <c r="GF30" s="38"/>
+      <c r="GG30" s="38"/>
+      <c r="GH30" s="38"/>
+      <c r="GI30" s="38"/>
+      <c r="GJ30" s="38"/>
+      <c r="GK30" s="38"/>
+      <c r="GL30" s="38"/>
+      <c r="GM30" s="38"/>
+      <c r="GN30" s="38"/>
+      <c r="GO30" s="38"/>
+      <c r="GP30" s="38"/>
+      <c r="GQ30" s="38"/>
+      <c r="GR30" s="38"/>
+      <c r="GS30" s="38"/>
+      <c r="GT30" s="38"/>
+      <c r="GU30" s="38"/>
+      <c r="GV30" s="38"/>
+      <c r="GW30" s="38"/>
+      <c r="GX30" s="38"/>
+      <c r="GY30" s="38"/>
+      <c r="GZ30" s="38"/>
+      <c r="HA30" s="38"/>
+      <c r="HB30" s="38"/>
+      <c r="HC30" s="38"/>
+      <c r="HD30" s="38"/>
+      <c r="HE30" s="38"/>
+      <c r="HF30" s="38"/>
+      <c r="HG30" s="38"/>
+      <c r="HH30" s="38"/>
+      <c r="HI30" s="38"/>
+      <c r="HJ30" s="38"/>
     </row>
     <row r="31" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="48"/>
-      <c r="AB31" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC31" s="49"/>
-      <c r="AD31" s="49"/>
-      <c r="AE31" s="49"/>
-      <c r="AF31" s="49"/>
-      <c r="AG31" s="49"/>
-      <c r="AH31" s="49"/>
-      <c r="AI31" s="49"/>
-      <c r="AJ31" s="49"/>
-      <c r="AK31" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL31" s="48"/>
-      <c r="AM31" s="48"/>
-      <c r="AN31" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO31" s="49"/>
-      <c r="AP31" s="49"/>
-      <c r="AQ31" s="49"/>
-      <c r="AR31" s="49"/>
-      <c r="AS31" s="49"/>
-      <c r="AT31" s="49"/>
-      <c r="AU31" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV31" s="48"/>
-      <c r="AW31" s="48"/>
-      <c r="AX31" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="AY31" s="50"/>
-      <c r="AZ31" s="50"/>
-      <c r="BA31" s="50"/>
-      <c r="BB31" s="50"/>
-      <c r="BC31" s="50"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="30"/>
+      <c r="AB31" s="30"/>
+      <c r="AC31" s="30"/>
+      <c r="AD31" s="30"/>
+      <c r="AE31" s="31"/>
+      <c r="AF31" s="26"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="26"/>
+      <c r="AI31" s="26"/>
+      <c r="AJ31" s="26"/>
+      <c r="AK31" s="26"/>
+      <c r="AL31" s="26"/>
+      <c r="AM31" s="26"/>
+      <c r="AN31" s="26"/>
+      <c r="AO31" s="26"/>
+      <c r="AP31" s="26"/>
+      <c r="AQ31" s="26"/>
+      <c r="AR31" s="26"/>
+      <c r="AS31" s="26"/>
+      <c r="AT31" s="26"/>
+      <c r="AU31" s="26"/>
+      <c r="AV31" s="26"/>
+      <c r="AW31" s="26"/>
+      <c r="AX31" s="26"/>
+      <c r="AY31" s="26"/>
+      <c r="AZ31" s="26"/>
+      <c r="BA31" s="26"/>
+      <c r="BB31" s="26"/>
+      <c r="BC31" s="26"/>
       <c r="BD31" s="3"/>
       <c r="BE31" s="3"/>
       <c r="CP31" s="3"/>
@@ -23846,1229 +24017,1560 @@
       <c r="HJ31" s="3"/>
     </row>
     <row r="32" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="49"/>
-      <c r="U32" s="49"/>
-      <c r="V32" s="49"/>
-      <c r="W32" s="49"/>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="48"/>
-      <c r="AA32" s="48"/>
-      <c r="AB32" s="49"/>
-      <c r="AC32" s="49"/>
-      <c r="AD32" s="49"/>
-      <c r="AE32" s="49"/>
-      <c r="AF32" s="49"/>
-      <c r="AG32" s="49"/>
-      <c r="AH32" s="49"/>
-      <c r="AI32" s="49"/>
-      <c r="AJ32" s="49"/>
-      <c r="AK32" s="48" t="s">
+      <c r="A32" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y32" s="50"/>
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="50"/>
+      <c r="AB32" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC32" s="51"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="51"/>
+      <c r="AF32" s="51"/>
+      <c r="AG32" s="51"/>
+      <c r="AH32" s="51"/>
+      <c r="AI32" s="51"/>
+      <c r="AJ32" s="51"/>
+      <c r="AK32" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL32" s="50"/>
+      <c r="AM32" s="50"/>
+      <c r="AN32" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO32" s="51"/>
+      <c r="AP32" s="51"/>
+      <c r="AQ32" s="51"/>
+      <c r="AR32" s="51"/>
+      <c r="AS32" s="51"/>
+      <c r="AT32" s="51"/>
+      <c r="AU32" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV32" s="50"/>
+      <c r="AW32" s="50"/>
+      <c r="AX32" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY32" s="52"/>
+      <c r="AZ32" s="52"/>
+      <c r="BA32" s="52"/>
+      <c r="BB32" s="52"/>
+      <c r="BC32" s="52"/>
+      <c r="BD32" s="3"/>
+      <c r="BE32" s="3"/>
+      <c r="CP32" s="3"/>
+      <c r="CQ32" s="3"/>
+      <c r="CR32" s="3"/>
+      <c r="CS32" s="3"/>
+      <c r="CT32" s="3"/>
+      <c r="CU32" s="3"/>
+      <c r="CV32" s="3"/>
+      <c r="CW32" s="3"/>
+      <c r="CX32" s="3"/>
+      <c r="CY32" s="3"/>
+      <c r="CZ32" s="3"/>
+      <c r="DA32" s="3"/>
+      <c r="DB32" s="3"/>
+      <c r="DC32" s="3"/>
+      <c r="DD32" s="3"/>
+      <c r="DE32" s="3"/>
+      <c r="DF32" s="3"/>
+      <c r="DG32" s="3"/>
+      <c r="DH32" s="3"/>
+      <c r="DI32" s="3"/>
+      <c r="DJ32" s="3"/>
+      <c r="DK32" s="3"/>
+      <c r="DL32" s="3"/>
+      <c r="DM32" s="3"/>
+      <c r="DN32" s="3"/>
+      <c r="DO32" s="3"/>
+      <c r="DP32" s="3"/>
+      <c r="DQ32" s="3"/>
+      <c r="DR32" s="3"/>
+      <c r="DS32" s="3"/>
+      <c r="DT32" s="3"/>
+      <c r="DU32" s="3"/>
+      <c r="DV32" s="3"/>
+      <c r="DW32" s="3"/>
+      <c r="DX32" s="3"/>
+      <c r="DY32" s="3"/>
+      <c r="DZ32" s="3"/>
+      <c r="EA32" s="3"/>
+      <c r="EB32" s="3"/>
+      <c r="EC32" s="3"/>
+      <c r="ED32" s="3"/>
+      <c r="EE32" s="3"/>
+      <c r="EF32" s="3"/>
+      <c r="EG32" s="3"/>
+      <c r="EH32" s="3"/>
+      <c r="EI32" s="3"/>
+      <c r="EJ32" s="3"/>
+      <c r="EK32" s="3"/>
+      <c r="EL32" s="3"/>
+      <c r="EM32" s="3"/>
+      <c r="EN32" s="3"/>
+      <c r="EO32" s="3"/>
+      <c r="EP32" s="3"/>
+      <c r="EQ32" s="3"/>
+      <c r="ER32" s="3"/>
+      <c r="ES32" s="3"/>
+      <c r="ET32" s="3"/>
+      <c r="EU32" s="3"/>
+      <c r="EV32" s="3"/>
+      <c r="EW32" s="3"/>
+      <c r="EX32" s="3"/>
+      <c r="EY32" s="3"/>
+      <c r="EZ32" s="3"/>
+      <c r="FA32" s="3"/>
+      <c r="FB32" s="3"/>
+      <c r="FC32" s="3"/>
+      <c r="FD32" s="3"/>
+      <c r="FE32" s="3"/>
+      <c r="FF32" s="3"/>
+      <c r="FG32" s="3"/>
+      <c r="FH32" s="3"/>
+      <c r="FI32" s="3"/>
+      <c r="FJ32" s="3"/>
+      <c r="FK32" s="3"/>
+      <c r="FL32" s="3"/>
+      <c r="FM32" s="3"/>
+      <c r="FN32" s="3"/>
+      <c r="FO32" s="3"/>
+      <c r="FP32" s="3"/>
+      <c r="FQ32" s="3"/>
+      <c r="FR32" s="3"/>
+      <c r="FS32" s="3"/>
+      <c r="FT32" s="3"/>
+      <c r="FU32" s="3"/>
+      <c r="FV32" s="3"/>
+      <c r="FW32" s="3"/>
+      <c r="FX32" s="3"/>
+      <c r="FY32" s="3"/>
+      <c r="FZ32" s="3"/>
+      <c r="GA32" s="3"/>
+      <c r="GB32" s="3"/>
+      <c r="GC32" s="3"/>
+      <c r="GD32" s="3"/>
+      <c r="GE32" s="3"/>
+      <c r="GF32" s="3"/>
+      <c r="GG32" s="3"/>
+      <c r="GH32" s="3"/>
+      <c r="GI32" s="3"/>
+      <c r="GJ32" s="3"/>
+      <c r="GK32" s="3"/>
+      <c r="GL32" s="3"/>
+      <c r="GM32" s="3"/>
+      <c r="GN32" s="3"/>
+      <c r="GO32" s="3"/>
+      <c r="GP32" s="3"/>
+      <c r="GQ32" s="3"/>
+      <c r="GR32" s="3"/>
+      <c r="GS32" s="3"/>
+      <c r="GT32" s="3"/>
+      <c r="GU32" s="3"/>
+      <c r="GV32" s="3"/>
+      <c r="GW32" s="3"/>
+      <c r="GX32" s="3"/>
+      <c r="GY32" s="3"/>
+      <c r="GZ32" s="3"/>
+      <c r="HA32" s="3"/>
+      <c r="HB32" s="3"/>
+      <c r="HC32" s="3"/>
+      <c r="HD32" s="3"/>
+      <c r="HE32" s="3"/>
+      <c r="HF32" s="3"/>
+      <c r="HG32" s="3"/>
+      <c r="HH32" s="3"/>
+      <c r="HI32" s="3"/>
+      <c r="HJ32" s="3"/>
+    </row>
+    <row r="33" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="51"/>
+      <c r="AF33" s="51"/>
+      <c r="AG33" s="51"/>
+      <c r="AH33" s="51"/>
+      <c r="AI33" s="51"/>
+      <c r="AJ33" s="51"/>
+      <c r="AK33" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AL32" s="48"/>
-      <c r="AM32" s="48"/>
-      <c r="AN32" s="49"/>
-      <c r="AO32" s="49"/>
-      <c r="AP32" s="49"/>
-      <c r="AQ32" s="49"/>
-      <c r="AR32" s="49"/>
-      <c r="AS32" s="49"/>
-      <c r="AT32" s="49"/>
-      <c r="AU32" s="48" t="s">
+      <c r="AL33" s="50"/>
+      <c r="AM33" s="50"/>
+      <c r="AN33" s="51"/>
+      <c r="AO33" s="51"/>
+      <c r="AP33" s="51"/>
+      <c r="AQ33" s="51"/>
+      <c r="AR33" s="51"/>
+      <c r="AS33" s="51"/>
+      <c r="AT33" s="51"/>
+      <c r="AU33" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AV32" s="48"/>
-      <c r="AW32" s="48"/>
-      <c r="AX32" s="50"/>
-      <c r="AY32" s="50"/>
-      <c r="AZ32" s="50"/>
-      <c r="BA32" s="50"/>
-      <c r="BB32" s="50"/>
-      <c r="BC32" s="50"/>
+      <c r="AV33" s="50"/>
+      <c r="AW33" s="50"/>
+      <c r="AX33" s="52"/>
+      <c r="AY33" s="52"/>
+      <c r="AZ33" s="52"/>
+      <c r="BA33" s="52"/>
+      <c r="BB33" s="52"/>
+      <c r="BC33" s="52"/>
     </row>
-    <row r="33" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
-      <c r="AO33" s="5"/>
-      <c r="AP33" s="5"/>
-      <c r="AQ33" s="5"/>
-      <c r="AR33" s="5"/>
-      <c r="AS33" s="5"/>
-      <c r="AT33" s="5"/>
-      <c r="AU33" s="5"/>
-      <c r="AV33" s="5"/>
-      <c r="AW33" s="5"/>
-      <c r="AX33" s="5"/>
-      <c r="AY33" s="5"/>
-      <c r="AZ33" s="5"/>
-      <c r="BA33" s="5"/>
-      <c r="BB33" s="5"/>
-      <c r="BC33" s="5"/>
+    <row r="34" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="5"/>
+      <c r="AV34" s="5"/>
+      <c r="AW34" s="5"/>
+      <c r="AX34" s="5"/>
+      <c r="AY34" s="5"/>
+      <c r="AZ34" s="5"/>
+      <c r="BA34" s="5"/>
+      <c r="BB34" s="5"/>
+      <c r="BC34" s="5"/>
     </row>
-    <row r="34" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="72" t="s">
+    <row r="35" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="51" t="s">
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="51"/>
-      <c r="W34" s="51"/>
-      <c r="X34" s="53" t="s">
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="Y34" s="53"/>
-      <c r="Z34" s="53"/>
-      <c r="AA34" s="53"/>
-      <c r="AB34" s="53"/>
-      <c r="AC34" s="51" t="s">
+      <c r="Y35" s="61"/>
+      <c r="Z35" s="61"/>
+      <c r="AA35" s="61"/>
+      <c r="AB35" s="61"/>
+      <c r="AC35" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="51"/>
-      <c r="AF34" s="51"/>
-      <c r="AG34" s="51"/>
-      <c r="AH34" s="51"/>
-      <c r="AI34" s="51"/>
-      <c r="AJ34" s="51"/>
-      <c r="AK34" s="51"/>
-      <c r="AL34" s="51"/>
-      <c r="AM34" s="51"/>
-      <c r="AN34" s="51"/>
-      <c r="AO34" s="51"/>
-      <c r="AP34" s="51"/>
-      <c r="AQ34" s="51"/>
-      <c r="AR34" s="51"/>
-      <c r="AS34" s="51"/>
-      <c r="AT34" s="51"/>
-      <c r="AU34" s="51"/>
-      <c r="AV34" s="51"/>
-      <c r="AW34" s="51"/>
-      <c r="AX34" s="51"/>
-      <c r="AY34" s="51"/>
-      <c r="AZ34" s="51"/>
-      <c r="BA34" s="51"/>
-      <c r="BB34" s="51"/>
-      <c r="BC34" s="51"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="59"/>
+      <c r="AF35" s="59"/>
+      <c r="AG35" s="59"/>
+      <c r="AH35" s="59"/>
+      <c r="AI35" s="59"/>
+      <c r="AJ35" s="59"/>
+      <c r="AK35" s="59"/>
+      <c r="AL35" s="59"/>
+      <c r="AM35" s="59"/>
+      <c r="AN35" s="59"/>
+      <c r="AO35" s="59"/>
+      <c r="AP35" s="59"/>
+      <c r="AQ35" s="59"/>
+      <c r="AR35" s="59"/>
+      <c r="AS35" s="59"/>
+      <c r="AT35" s="59"/>
+      <c r="AU35" s="59"/>
+      <c r="AV35" s="59"/>
+      <c r="AW35" s="59"/>
+      <c r="AX35" s="59"/>
+      <c r="AY35" s="59"/>
+      <c r="AZ35" s="59"/>
+      <c r="BA35" s="59"/>
+      <c r="BB35" s="59"/>
+      <c r="BC35" s="59"/>
     </row>
-    <row r="35" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="73"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="54"/>
-      <c r="Y35" s="54"/>
-      <c r="Z35" s="54"/>
-      <c r="AA35" s="54"/>
-      <c r="AB35" s="54"/>
-      <c r="AC35" s="52"/>
-      <c r="AD35" s="52"/>
-      <c r="AE35" s="52"/>
-      <c r="AF35" s="52"/>
-      <c r="AG35" s="52"/>
-      <c r="AH35" s="52"/>
-      <c r="AI35" s="52"/>
-      <c r="AJ35" s="52"/>
-      <c r="AK35" s="52"/>
-      <c r="AL35" s="52"/>
-      <c r="AM35" s="52"/>
-      <c r="AN35" s="52"/>
-      <c r="AO35" s="52"/>
-      <c r="AP35" s="52"/>
-      <c r="AQ35" s="52"/>
-      <c r="AR35" s="52"/>
-      <c r="AS35" s="52"/>
-      <c r="AT35" s="52"/>
-      <c r="AU35" s="52"/>
-      <c r="AV35" s="52"/>
-      <c r="AW35" s="52"/>
-      <c r="AX35" s="52"/>
-      <c r="AY35" s="52"/>
-      <c r="AZ35" s="52"/>
-      <c r="BA35" s="52"/>
-      <c r="BB35" s="52"/>
-      <c r="BC35" s="52"/>
+    <row r="36" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="62"/>
+      <c r="Y36" s="62"/>
+      <c r="Z36" s="62"/>
+      <c r="AA36" s="62"/>
+      <c r="AB36" s="62"/>
+      <c r="AC36" s="60"/>
+      <c r="AD36" s="60"/>
+      <c r="AE36" s="60"/>
+      <c r="AF36" s="60"/>
+      <c r="AG36" s="60"/>
+      <c r="AH36" s="60"/>
+      <c r="AI36" s="60"/>
+      <c r="AJ36" s="60"/>
+      <c r="AK36" s="60"/>
+      <c r="AL36" s="60"/>
+      <c r="AM36" s="60"/>
+      <c r="AN36" s="60"/>
+      <c r="AO36" s="60"/>
+      <c r="AP36" s="60"/>
+      <c r="AQ36" s="60"/>
+      <c r="AR36" s="60"/>
+      <c r="AS36" s="60"/>
+      <c r="AT36" s="60"/>
+      <c r="AU36" s="60"/>
+      <c r="AV36" s="60"/>
+      <c r="AW36" s="60"/>
+      <c r="AX36" s="60"/>
+      <c r="AY36" s="60"/>
+      <c r="AZ36" s="60"/>
+      <c r="BA36" s="60"/>
+      <c r="BB36" s="60"/>
+      <c r="BC36" s="60"/>
     </row>
-    <row r="36" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="8"/>
-      <c r="AD36" s="8"/>
-      <c r="AE36" s="8"/>
-      <c r="AF36" s="8"/>
-      <c r="AG36" s="8"/>
-      <c r="AH36" s="8"/>
-      <c r="AI36" s="8"/>
-      <c r="AJ36" s="8"/>
-      <c r="AK36" s="8"/>
-      <c r="AL36" s="8"/>
-      <c r="AM36" s="8"/>
-      <c r="AN36" s="8"/>
-      <c r="AO36" s="8"/>
-      <c r="AP36" s="8"/>
-      <c r="AQ36" s="8"/>
-      <c r="AR36" s="8"/>
-      <c r="AS36" s="8"/>
-      <c r="AT36" s="8"/>
-      <c r="AU36" s="8"/>
-      <c r="AV36" s="8"/>
-      <c r="AW36" s="8"/>
-      <c r="AX36" s="8"/>
-      <c r="AY36" s="8"/>
-      <c r="AZ36" s="8"/>
-      <c r="BA36" s="8"/>
-      <c r="BB36" s="8"/>
-      <c r="BC36" s="8"/>
+    <row r="37" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
+      <c r="AM37" s="8"/>
+      <c r="AN37" s="8"/>
+      <c r="AO37" s="8"/>
+      <c r="AP37" s="8"/>
+      <c r="AQ37" s="8"/>
+      <c r="AR37" s="8"/>
+      <c r="AS37" s="8"/>
+      <c r="AT37" s="8"/>
+      <c r="AU37" s="8"/>
+      <c r="AV37" s="8"/>
+      <c r="AW37" s="8"/>
+      <c r="AX37" s="8"/>
+      <c r="AY37" s="8"/>
+      <c r="AZ37" s="8"/>
+      <c r="BA37" s="8"/>
+      <c r="BB37" s="8"/>
+      <c r="BC37" s="8"/>
     </row>
-    <row r="37" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="38" t="s">
+    <row r="38" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38" t="s">
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="38" t="s">
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="R37" s="38"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="39" t="s">
+      <c r="R38" s="46"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="46"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="X37" s="39"/>
-      <c r="Y37" s="39"/>
-      <c r="Z37" s="39"/>
-      <c r="AA37" s="39"/>
-      <c r="AB37" s="39"/>
-      <c r="AC37" s="39"/>
-      <c r="AD37" s="39"/>
-      <c r="AE37" s="38" t="s">
+      <c r="X38" s="47"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="47"/>
+      <c r="AC38" s="47"/>
+      <c r="AD38" s="47"/>
+      <c r="AE38" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="AF37" s="38"/>
-      <c r="AG37" s="38"/>
-      <c r="AH37" s="38"/>
-      <c r="AI37" s="38"/>
-      <c r="AJ37" s="38"/>
-      <c r="AK37" s="38"/>
-      <c r="AL37" s="38"/>
-      <c r="AM37" s="38"/>
-      <c r="AN37" s="38"/>
-      <c r="AO37" s="38"/>
-      <c r="AP37" s="38"/>
-      <c r="AQ37" s="38"/>
-      <c r="AR37" s="38"/>
-      <c r="AS37" s="38"/>
-      <c r="AT37" s="38"/>
-      <c r="AU37" s="38"/>
-      <c r="AV37" s="38"/>
-      <c r="AW37" s="38"/>
-      <c r="AX37" s="38"/>
-      <c r="AY37" s="38"/>
-      <c r="AZ37" s="38"/>
-      <c r="BA37" s="38"/>
-      <c r="BB37" s="38"/>
-      <c r="BC37" s="38"/>
+      <c r="AF38" s="46"/>
+      <c r="AG38" s="46"/>
+      <c r="AH38" s="46"/>
+      <c r="AI38" s="46"/>
+      <c r="AJ38" s="46"/>
+      <c r="AK38" s="46"/>
+      <c r="AL38" s="46"/>
+      <c r="AM38" s="46"/>
+      <c r="AN38" s="46"/>
+      <c r="AO38" s="46"/>
+      <c r="AP38" s="46"/>
+      <c r="AQ38" s="46"/>
+      <c r="AR38" s="46"/>
+      <c r="AS38" s="46"/>
+      <c r="AT38" s="46"/>
+      <c r="AU38" s="46"/>
+      <c r="AV38" s="46"/>
+      <c r="AW38" s="46"/>
+      <c r="AX38" s="46"/>
+      <c r="AY38" s="46"/>
+      <c r="AZ38" s="46"/>
+      <c r="BA38" s="46"/>
+      <c r="BB38" s="46"/>
+      <c r="BC38" s="46"/>
     </row>
-    <row r="38" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="38"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="39"/>
-      <c r="X38" s="39"/>
-      <c r="Y38" s="39"/>
-      <c r="Z38" s="39"/>
-      <c r="AA38" s="39"/>
-      <c r="AB38" s="39"/>
-      <c r="AC38" s="39"/>
-      <c r="AD38" s="39"/>
-      <c r="AE38" s="38"/>
-      <c r="AF38" s="38"/>
-      <c r="AG38" s="38"/>
-      <c r="AH38" s="38"/>
-      <c r="AI38" s="38"/>
-      <c r="AJ38" s="38"/>
-      <c r="AK38" s="38"/>
-      <c r="AL38" s="38"/>
-      <c r="AM38" s="38"/>
-      <c r="AN38" s="38"/>
-      <c r="AO38" s="38"/>
-      <c r="AP38" s="38"/>
-      <c r="AQ38" s="38"/>
-      <c r="AR38" s="38"/>
-      <c r="AS38" s="38"/>
-      <c r="AT38" s="38"/>
-      <c r="AU38" s="38"/>
-      <c r="AV38" s="38"/>
-      <c r="AW38" s="38"/>
-      <c r="AX38" s="38"/>
-      <c r="AY38" s="38"/>
-      <c r="AZ38" s="38"/>
-      <c r="BA38" s="38"/>
-      <c r="BB38" s="38"/>
-      <c r="BC38" s="38"/>
+    <row r="39" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="46"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="47"/>
+      <c r="Z39" s="47"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="47"/>
+      <c r="AD39" s="47"/>
+      <c r="AE39" s="46"/>
+      <c r="AF39" s="46"/>
+      <c r="AG39" s="46"/>
+      <c r="AH39" s="46"/>
+      <c r="AI39" s="46"/>
+      <c r="AJ39" s="46"/>
+      <c r="AK39" s="46"/>
+      <c r="AL39" s="46"/>
+      <c r="AM39" s="46"/>
+      <c r="AN39" s="46"/>
+      <c r="AO39" s="46"/>
+      <c r="AP39" s="46"/>
+      <c r="AQ39" s="46"/>
+      <c r="AR39" s="46"/>
+      <c r="AS39" s="46"/>
+      <c r="AT39" s="46"/>
+      <c r="AU39" s="46"/>
+      <c r="AV39" s="46"/>
+      <c r="AW39" s="46"/>
+      <c r="AX39" s="46"/>
+      <c r="AY39" s="46"/>
+      <c r="AZ39" s="46"/>
+      <c r="BA39" s="46"/>
+      <c r="BB39" s="46"/>
+      <c r="BC39" s="46"/>
     </row>
-    <row r="39" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="75" t="s">
+    <row r="40" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="71" t="s">
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="71"/>
-      <c r="Q39" s="71" t="s">
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="R39" s="71"/>
-      <c r="S39" s="71"/>
-      <c r="T39" s="71"/>
-      <c r="U39" s="71"/>
-      <c r="V39" s="71"/>
-      <c r="W39" s="74" t="s">
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+      <c r="W40" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="X39" s="74"/>
-      <c r="Y39" s="74"/>
-      <c r="Z39" s="74"/>
-      <c r="AA39" s="74"/>
-      <c r="AB39" s="74"/>
-      <c r="AC39" s="74"/>
-      <c r="AD39" s="74"/>
-      <c r="AE39" s="76" t="s">
+      <c r="X40" s="55"/>
+      <c r="Y40" s="55"/>
+      <c r="Z40" s="55"/>
+      <c r="AA40" s="55"/>
+      <c r="AB40" s="55"/>
+      <c r="AC40" s="55"/>
+      <c r="AD40" s="55"/>
+      <c r="AE40" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="AF39" s="76"/>
-      <c r="AG39" s="76"/>
-      <c r="AH39" s="76"/>
-      <c r="AI39" s="76"/>
-      <c r="AJ39" s="76"/>
-      <c r="AK39" s="76"/>
-      <c r="AL39" s="76"/>
-      <c r="AM39" s="76"/>
-      <c r="AN39" s="76"/>
-      <c r="AO39" s="76"/>
-      <c r="AP39" s="76"/>
-      <c r="AQ39" s="76"/>
-      <c r="AR39" s="76"/>
-      <c r="AS39" s="76"/>
-      <c r="AT39" s="76"/>
-      <c r="AU39" s="76"/>
-      <c r="AV39" s="76"/>
-      <c r="AW39" s="76"/>
-      <c r="AX39" s="76"/>
-      <c r="AY39" s="76"/>
-      <c r="AZ39" s="76"/>
-      <c r="BA39" s="76"/>
-      <c r="BB39" s="76"/>
-      <c r="BC39" s="76"/>
+      <c r="AF40" s="56"/>
+      <c r="AG40" s="56"/>
+      <c r="AH40" s="56"/>
+      <c r="AI40" s="56"/>
+      <c r="AJ40" s="56"/>
+      <c r="AK40" s="56"/>
+      <c r="AL40" s="56"/>
+      <c r="AM40" s="56"/>
+      <c r="AN40" s="56"/>
+      <c r="AO40" s="56"/>
+      <c r="AP40" s="56"/>
+      <c r="AQ40" s="56"/>
+      <c r="AR40" s="56"/>
+      <c r="AS40" s="56"/>
+      <c r="AT40" s="56"/>
+      <c r="AU40" s="56"/>
+      <c r="AV40" s="56"/>
+      <c r="AW40" s="56"/>
+      <c r="AX40" s="56"/>
+      <c r="AY40" s="56"/>
+      <c r="AZ40" s="56"/>
+      <c r="BA40" s="56"/>
+      <c r="BB40" s="56"/>
+      <c r="BC40" s="56"/>
     </row>
-    <row r="40" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="75" t="s">
+    <row r="41" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="71" t="s">
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="71" t="s">
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="R40" s="71"/>
-      <c r="S40" s="71"/>
-      <c r="T40" s="71"/>
-      <c r="U40" s="71"/>
-      <c r="V40" s="71"/>
-      <c r="W40" s="74" t="s">
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
+      <c r="U41" s="54"/>
+      <c r="V41" s="54"/>
+      <c r="W41" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="X40" s="74"/>
-      <c r="Y40" s="74"/>
-      <c r="Z40" s="74"/>
-      <c r="AA40" s="74"/>
-      <c r="AB40" s="74"/>
-      <c r="AC40" s="74"/>
-      <c r="AD40" s="74"/>
-      <c r="AE40" s="76" t="s">
+      <c r="X41" s="55"/>
+      <c r="Y41" s="55"/>
+      <c r="Z41" s="55"/>
+      <c r="AA41" s="55"/>
+      <c r="AB41" s="55"/>
+      <c r="AC41" s="55"/>
+      <c r="AD41" s="55"/>
+      <c r="AE41" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="AF40" s="76"/>
-      <c r="AG40" s="76"/>
-      <c r="AH40" s="76"/>
-      <c r="AI40" s="76"/>
-      <c r="AJ40" s="76"/>
-      <c r="AK40" s="76"/>
-      <c r="AL40" s="76"/>
-      <c r="AM40" s="76"/>
-      <c r="AN40" s="76"/>
-      <c r="AO40" s="76"/>
-      <c r="AP40" s="76"/>
-      <c r="AQ40" s="76"/>
-      <c r="AR40" s="76"/>
-      <c r="AS40" s="76"/>
-      <c r="AT40" s="76"/>
-      <c r="AU40" s="76"/>
-      <c r="AV40" s="76"/>
-      <c r="AW40" s="76"/>
-      <c r="AX40" s="76"/>
-      <c r="AY40" s="76"/>
-      <c r="AZ40" s="76"/>
-      <c r="BA40" s="76"/>
-      <c r="BB40" s="76"/>
-      <c r="BC40" s="76"/>
+      <c r="AF41" s="56"/>
+      <c r="AG41" s="56"/>
+      <c r="AH41" s="56"/>
+      <c r="AI41" s="56"/>
+      <c r="AJ41" s="56"/>
+      <c r="AK41" s="56"/>
+      <c r="AL41" s="56"/>
+      <c r="AM41" s="56"/>
+      <c r="AN41" s="56"/>
+      <c r="AO41" s="56"/>
+      <c r="AP41" s="56"/>
+      <c r="AQ41" s="56"/>
+      <c r="AR41" s="56"/>
+      <c r="AS41" s="56"/>
+      <c r="AT41" s="56"/>
+      <c r="AU41" s="56"/>
+      <c r="AV41" s="56"/>
+      <c r="AW41" s="56"/>
+      <c r="AX41" s="56"/>
+      <c r="AY41" s="56"/>
+      <c r="AZ41" s="56"/>
+      <c r="BA41" s="56"/>
+      <c r="BB41" s="56"/>
+      <c r="BC41" s="56"/>
     </row>
-    <row r="41" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="75" t="s">
+    <row r="42" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="71" t="s">
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="71"/>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="71" t="s">
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="R41" s="71"/>
-      <c r="S41" s="71"/>
-      <c r="T41" s="71"/>
-      <c r="U41" s="71"/>
-      <c r="V41" s="71"/>
-      <c r="W41" s="74" t="s">
+      <c r="R42" s="54"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="54"/>
+      <c r="V42" s="54"/>
+      <c r="W42" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="X41" s="74"/>
-      <c r="Y41" s="74"/>
-      <c r="Z41" s="74"/>
-      <c r="AA41" s="74"/>
-      <c r="AB41" s="74"/>
-      <c r="AC41" s="74"/>
-      <c r="AD41" s="74"/>
-      <c r="AE41" s="76" t="s">
+      <c r="X42" s="55"/>
+      <c r="Y42" s="55"/>
+      <c r="Z42" s="55"/>
+      <c r="AA42" s="55"/>
+      <c r="AB42" s="55"/>
+      <c r="AC42" s="55"/>
+      <c r="AD42" s="55"/>
+      <c r="AE42" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="AF41" s="76"/>
-      <c r="AG41" s="76"/>
-      <c r="AH41" s="76"/>
-      <c r="AI41" s="76"/>
-      <c r="AJ41" s="76"/>
-      <c r="AK41" s="76"/>
-      <c r="AL41" s="76"/>
-      <c r="AM41" s="76"/>
-      <c r="AN41" s="76"/>
-      <c r="AO41" s="76"/>
-      <c r="AP41" s="76"/>
-      <c r="AQ41" s="76"/>
-      <c r="AR41" s="76"/>
-      <c r="AS41" s="76"/>
-      <c r="AT41" s="76"/>
-      <c r="AU41" s="76"/>
-      <c r="AV41" s="76"/>
-      <c r="AW41" s="76"/>
-      <c r="AX41" s="76"/>
-      <c r="AY41" s="76"/>
-      <c r="AZ41" s="76"/>
-      <c r="BA41" s="76"/>
-      <c r="BB41" s="76"/>
-      <c r="BC41" s="76"/>
+      <c r="AF42" s="56"/>
+      <c r="AG42" s="56"/>
+      <c r="AH42" s="56"/>
+      <c r="AI42" s="56"/>
+      <c r="AJ42" s="56"/>
+      <c r="AK42" s="56"/>
+      <c r="AL42" s="56"/>
+      <c r="AM42" s="56"/>
+      <c r="AN42" s="56"/>
+      <c r="AO42" s="56"/>
+      <c r="AP42" s="56"/>
+      <c r="AQ42" s="56"/>
+      <c r="AR42" s="56"/>
+      <c r="AS42" s="56"/>
+      <c r="AT42" s="56"/>
+      <c r="AU42" s="56"/>
+      <c r="AV42" s="56"/>
+      <c r="AW42" s="56"/>
+      <c r="AX42" s="56"/>
+      <c r="AY42" s="56"/>
+      <c r="AZ42" s="56"/>
+      <c r="BA42" s="56"/>
+      <c r="BB42" s="56"/>
+      <c r="BC42" s="56"/>
     </row>
-    <row r="42" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="75" t="s">
+    <row r="43" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="75"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="71" t="s">
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="71"/>
-      <c r="O42" s="71"/>
-      <c r="P42" s="71"/>
-      <c r="Q42" s="71" t="s">
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="R42" s="71"/>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
-      <c r="W42" s="74" t="s">
+      <c r="R43" s="54"/>
+      <c r="S43" s="54"/>
+      <c r="T43" s="54"/>
+      <c r="U43" s="54"/>
+      <c r="V43" s="54"/>
+      <c r="W43" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="X42" s="74"/>
-      <c r="Y42" s="74"/>
-      <c r="Z42" s="74"/>
-      <c r="AA42" s="74"/>
-      <c r="AB42" s="74"/>
-      <c r="AC42" s="74"/>
-      <c r="AD42" s="74"/>
-      <c r="AE42" s="76" t="s">
+      <c r="X43" s="55"/>
+      <c r="Y43" s="55"/>
+      <c r="Z43" s="55"/>
+      <c r="AA43" s="55"/>
+      <c r="AB43" s="55"/>
+      <c r="AC43" s="55"/>
+      <c r="AD43" s="55"/>
+      <c r="AE43" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="AF42" s="76"/>
-      <c r="AG42" s="76"/>
-      <c r="AH42" s="76"/>
-      <c r="AI42" s="76"/>
-      <c r="AJ42" s="76"/>
-      <c r="AK42" s="76"/>
-      <c r="AL42" s="76"/>
-      <c r="AM42" s="76"/>
-      <c r="AN42" s="76"/>
-      <c r="AO42" s="76"/>
-      <c r="AP42" s="76"/>
-      <c r="AQ42" s="76"/>
-      <c r="AR42" s="76"/>
-      <c r="AS42" s="76"/>
-      <c r="AT42" s="76"/>
-      <c r="AU42" s="76"/>
-      <c r="AV42" s="76"/>
-      <c r="AW42" s="76"/>
-      <c r="AX42" s="76"/>
-      <c r="AY42" s="76"/>
-      <c r="AZ42" s="76"/>
-      <c r="BA42" s="76"/>
-      <c r="BB42" s="76"/>
-      <c r="BC42" s="76"/>
+      <c r="AF43" s="56"/>
+      <c r="AG43" s="56"/>
+      <c r="AH43" s="56"/>
+      <c r="AI43" s="56"/>
+      <c r="AJ43" s="56"/>
+      <c r="AK43" s="56"/>
+      <c r="AL43" s="56"/>
+      <c r="AM43" s="56"/>
+      <c r="AN43" s="56"/>
+      <c r="AO43" s="56"/>
+      <c r="AP43" s="56"/>
+      <c r="AQ43" s="56"/>
+      <c r="AR43" s="56"/>
+      <c r="AS43" s="56"/>
+      <c r="AT43" s="56"/>
+      <c r="AU43" s="56"/>
+      <c r="AV43" s="56"/>
+      <c r="AW43" s="56"/>
+      <c r="AX43" s="56"/>
+      <c r="AY43" s="56"/>
+      <c r="AZ43" s="56"/>
+      <c r="BA43" s="56"/>
+      <c r="BB43" s="56"/>
+      <c r="BC43" s="56"/>
     </row>
-    <row r="43" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="75" t="s">
+    <row r="44" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="75"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="71" t="s">
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="71"/>
-      <c r="Q43" s="71" t="s">
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="71"/>
-      <c r="S43" s="71"/>
-      <c r="T43" s="71"/>
-      <c r="U43" s="71"/>
-      <c r="V43" s="71"/>
-      <c r="W43" s="74" t="s">
+      <c r="R44" s="54"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="54"/>
+      <c r="U44" s="54"/>
+      <c r="V44" s="54"/>
+      <c r="W44" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="X43" s="74"/>
-      <c r="Y43" s="74"/>
-      <c r="Z43" s="74"/>
-      <c r="AA43" s="74"/>
-      <c r="AB43" s="74"/>
-      <c r="AC43" s="74"/>
-      <c r="AD43" s="74"/>
-      <c r="AE43" s="76" t="s">
+      <c r="X44" s="55"/>
+      <c r="Y44" s="55"/>
+      <c r="Z44" s="55"/>
+      <c r="AA44" s="55"/>
+      <c r="AB44" s="55"/>
+      <c r="AC44" s="55"/>
+      <c r="AD44" s="55"/>
+      <c r="AE44" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="AF43" s="76"/>
-      <c r="AG43" s="76"/>
-      <c r="AH43" s="76"/>
-      <c r="AI43" s="76"/>
-      <c r="AJ43" s="76"/>
-      <c r="AK43" s="76"/>
-      <c r="AL43" s="76"/>
-      <c r="AM43" s="76"/>
-      <c r="AN43" s="76"/>
-      <c r="AO43" s="76"/>
-      <c r="AP43" s="76"/>
-      <c r="AQ43" s="76"/>
-      <c r="AR43" s="76"/>
-      <c r="AS43" s="76"/>
-      <c r="AT43" s="76"/>
-      <c r="AU43" s="76"/>
-      <c r="AV43" s="76"/>
-      <c r="AW43" s="76"/>
-      <c r="AX43" s="76"/>
-      <c r="AY43" s="76"/>
-      <c r="AZ43" s="76"/>
-      <c r="BA43" s="76"/>
-      <c r="BB43" s="76"/>
-      <c r="BC43" s="76"/>
+      <c r="AF44" s="56"/>
+      <c r="AG44" s="56"/>
+      <c r="AH44" s="56"/>
+      <c r="AI44" s="56"/>
+      <c r="AJ44" s="56"/>
+      <c r="AK44" s="56"/>
+      <c r="AL44" s="56"/>
+      <c r="AM44" s="56"/>
+      <c r="AN44" s="56"/>
+      <c r="AO44" s="56"/>
+      <c r="AP44" s="56"/>
+      <c r="AQ44" s="56"/>
+      <c r="AR44" s="56"/>
+      <c r="AS44" s="56"/>
+      <c r="AT44" s="56"/>
+      <c r="AU44" s="56"/>
+      <c r="AV44" s="56"/>
+      <c r="AW44" s="56"/>
+      <c r="AX44" s="56"/>
+      <c r="AY44" s="56"/>
+      <c r="AZ44" s="56"/>
+      <c r="BA44" s="56"/>
+      <c r="BB44" s="56"/>
+      <c r="BC44" s="56"/>
     </row>
-    <row r="44" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="75" t="s">
+    <row r="45" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="75"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="71" t="s">
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="71"/>
-      <c r="O44" s="71"/>
-      <c r="P44" s="71"/>
-      <c r="Q44" s="71" t="s">
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="R44" s="71"/>
-      <c r="S44" s="71"/>
-      <c r="T44" s="71"/>
-      <c r="U44" s="71"/>
-      <c r="V44" s="71"/>
-      <c r="W44" s="74" t="s">
+      <c r="R45" s="54"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="54"/>
+      <c r="U45" s="54"/>
+      <c r="V45" s="54"/>
+      <c r="W45" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="X44" s="74"/>
-      <c r="Y44" s="74"/>
-      <c r="Z44" s="74"/>
-      <c r="AA44" s="74"/>
-      <c r="AB44" s="74"/>
-      <c r="AC44" s="74"/>
-      <c r="AD44" s="74"/>
-      <c r="AE44" s="76" t="s">
+      <c r="X45" s="55"/>
+      <c r="Y45" s="55"/>
+      <c r="Z45" s="55"/>
+      <c r="AA45" s="55"/>
+      <c r="AB45" s="55"/>
+      <c r="AC45" s="55"/>
+      <c r="AD45" s="55"/>
+      <c r="AE45" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="AF44" s="76"/>
-      <c r="AG44" s="76"/>
-      <c r="AH44" s="76"/>
-      <c r="AI44" s="76"/>
-      <c r="AJ44" s="76"/>
-      <c r="AK44" s="76"/>
-      <c r="AL44" s="76"/>
-      <c r="AM44" s="76"/>
-      <c r="AN44" s="76"/>
-      <c r="AO44" s="76"/>
-      <c r="AP44" s="76"/>
-      <c r="AQ44" s="76"/>
-      <c r="AR44" s="76"/>
-      <c r="AS44" s="76"/>
-      <c r="AT44" s="76"/>
-      <c r="AU44" s="76"/>
-      <c r="AV44" s="76"/>
-      <c r="AW44" s="76"/>
-      <c r="AX44" s="76"/>
-      <c r="AY44" s="76"/>
-      <c r="AZ44" s="76"/>
-      <c r="BA44" s="76"/>
-      <c r="BB44" s="76"/>
-      <c r="BC44" s="76"/>
-      <c r="BD44" s="6"/>
-      <c r="BE44" s="6"/>
-      <c r="BF44" s="3"/>
-      <c r="BN44" s="3"/>
-      <c r="BO44" s="3"/>
-      <c r="BP44" s="3"/>
-      <c r="BQ44" s="3"/>
-      <c r="BR44" s="3"/>
-      <c r="BS44" s="3"/>
-      <c r="BT44" s="3"/>
-      <c r="BU44" s="3"/>
-      <c r="BV44" s="3"/>
-      <c r="BW44" s="3"/>
-      <c r="BX44" s="3"/>
-      <c r="BY44" s="3"/>
-      <c r="BZ44" s="3"/>
-      <c r="CA44" s="3"/>
-      <c r="CB44" s="3"/>
-      <c r="CC44" s="3"/>
-      <c r="CD44" s="3"/>
-      <c r="CE44" s="3"/>
-      <c r="CF44" s="3"/>
-      <c r="CG44" s="3"/>
-      <c r="CH44" s="3"/>
-      <c r="CI44" s="3"/>
-      <c r="CJ44" s="3"/>
-      <c r="CK44" s="3"/>
-      <c r="CL44" s="3"/>
-      <c r="CM44" s="3"/>
-      <c r="CN44" s="3"/>
-      <c r="CO44" s="3"/>
-      <c r="CP44" s="3"/>
-      <c r="CQ44" s="3"/>
-      <c r="CR44" s="3"/>
-      <c r="CS44" s="3"/>
-      <c r="CT44" s="3"/>
-      <c r="CU44" s="3"/>
-      <c r="CV44" s="3"/>
-      <c r="CW44" s="3"/>
-      <c r="CX44" s="3"/>
-      <c r="CY44" s="3"/>
-      <c r="CZ44" s="3"/>
-      <c r="DA44" s="3"/>
-      <c r="DB44" s="3"/>
-      <c r="DC44" s="3"/>
-      <c r="DD44" s="3"/>
-      <c r="DE44" s="3"/>
-      <c r="DF44" s="3"/>
-      <c r="DG44" s="3"/>
-      <c r="DH44" s="3"/>
-      <c r="DI44" s="3"/>
-      <c r="DJ44" s="3"/>
-      <c r="DK44" s="3"/>
-      <c r="DL44" s="3"/>
-      <c r="DM44" s="3"/>
-      <c r="DN44" s="3"/>
-      <c r="DO44" s="3"/>
-      <c r="DP44" s="3"/>
-      <c r="DQ44" s="3"/>
-      <c r="DR44" s="3"/>
-      <c r="DS44" s="3"/>
-      <c r="DT44" s="3"/>
-      <c r="DU44" s="3"/>
-      <c r="DV44" s="3"/>
-      <c r="DW44" s="3"/>
-      <c r="DX44" s="3"/>
-      <c r="DY44" s="3"/>
-      <c r="DZ44" s="3"/>
-      <c r="EA44" s="3"/>
-      <c r="EB44" s="3"/>
-      <c r="EC44" s="3"/>
-      <c r="ED44" s="3"/>
-      <c r="EE44" s="3"/>
-      <c r="EF44" s="3"/>
-      <c r="EG44" s="3"/>
-      <c r="EH44" s="3"/>
-      <c r="EI44" s="3"/>
-      <c r="EJ44" s="3"/>
-      <c r="EK44" s="3"/>
-      <c r="EL44" s="3"/>
-      <c r="EM44" s="3"/>
-      <c r="EN44" s="3"/>
-      <c r="EO44" s="3"/>
-      <c r="EP44" s="3"/>
-      <c r="EQ44" s="3"/>
-      <c r="ER44" s="3"/>
-      <c r="ES44" s="3"/>
-      <c r="ET44" s="3"/>
-      <c r="EU44" s="3"/>
-      <c r="EV44" s="3"/>
-      <c r="EW44" s="3"/>
-      <c r="EX44" s="3"/>
-      <c r="EY44" s="3"/>
-      <c r="EZ44" s="3"/>
-      <c r="FA44" s="3"/>
-      <c r="FB44" s="3"/>
-      <c r="FC44" s="3"/>
-      <c r="FD44" s="3"/>
-      <c r="FE44" s="3"/>
-      <c r="FF44" s="3"/>
-      <c r="FG44" s="3"/>
-      <c r="FH44" s="3"/>
-      <c r="FI44" s="3"/>
-      <c r="FJ44" s="3"/>
-      <c r="FK44" s="3"/>
-      <c r="FL44" s="3"/>
-      <c r="FM44" s="3"/>
-      <c r="FN44" s="3"/>
-      <c r="FO44" s="3"/>
-      <c r="FP44" s="3"/>
-      <c r="FQ44" s="3"/>
-      <c r="FR44" s="3"/>
-      <c r="FS44" s="3"/>
-      <c r="FT44" s="3"/>
-      <c r="FU44" s="3"/>
-      <c r="FV44" s="3"/>
-      <c r="FW44" s="3"/>
-      <c r="FX44" s="3"/>
-      <c r="FY44" s="3"/>
-      <c r="FZ44" s="3"/>
-      <c r="GA44" s="3"/>
-      <c r="GB44" s="3"/>
-      <c r="GC44" s="3"/>
-      <c r="GD44" s="3"/>
-      <c r="GE44" s="3"/>
-      <c r="GF44" s="3"/>
-      <c r="GG44" s="3"/>
-      <c r="GH44" s="3"/>
-      <c r="GI44" s="3"/>
-      <c r="GJ44" s="3"/>
-      <c r="GK44" s="3"/>
-      <c r="GL44" s="3"/>
-      <c r="GM44" s="3"/>
-      <c r="GN44" s="3"/>
-      <c r="GO44" s="3"/>
-      <c r="GP44" s="3"/>
-      <c r="GQ44" s="3"/>
-      <c r="GR44" s="3"/>
-      <c r="GS44" s="3"/>
-      <c r="GT44" s="3"/>
-      <c r="GU44" s="3"/>
-      <c r="GV44" s="3"/>
+      <c r="AF45" s="56"/>
+      <c r="AG45" s="56"/>
+      <c r="AH45" s="56"/>
+      <c r="AI45" s="56"/>
+      <c r="AJ45" s="56"/>
+      <c r="AK45" s="56"/>
+      <c r="AL45" s="56"/>
+      <c r="AM45" s="56"/>
+      <c r="AN45" s="56"/>
+      <c r="AO45" s="56"/>
+      <c r="AP45" s="56"/>
+      <c r="AQ45" s="56"/>
+      <c r="AR45" s="56"/>
+      <c r="AS45" s="56"/>
+      <c r="AT45" s="56"/>
+      <c r="AU45" s="56"/>
+      <c r="AV45" s="56"/>
+      <c r="AW45" s="56"/>
+      <c r="AX45" s="56"/>
+      <c r="AY45" s="56"/>
+      <c r="AZ45" s="56"/>
+      <c r="BA45" s="56"/>
+      <c r="BB45" s="56"/>
+      <c r="BC45" s="56"/>
+      <c r="BD45" s="6"/>
+      <c r="BE45" s="6"/>
+      <c r="BF45" s="3"/>
+      <c r="BN45" s="3"/>
+      <c r="BO45" s="3"/>
+      <c r="BP45" s="3"/>
+      <c r="BQ45" s="3"/>
+      <c r="BR45" s="3"/>
+      <c r="BS45" s="3"/>
+      <c r="BT45" s="3"/>
+      <c r="BU45" s="3"/>
+      <c r="BV45" s="3"/>
+      <c r="BW45" s="3"/>
+      <c r="BX45" s="3"/>
+      <c r="BY45" s="3"/>
+      <c r="BZ45" s="3"/>
+      <c r="CA45" s="3"/>
+      <c r="CB45" s="3"/>
+      <c r="CC45" s="3"/>
+      <c r="CD45" s="3"/>
+      <c r="CE45" s="3"/>
+      <c r="CF45" s="3"/>
+      <c r="CG45" s="3"/>
+      <c r="CH45" s="3"/>
+      <c r="CI45" s="3"/>
+      <c r="CJ45" s="3"/>
+      <c r="CK45" s="3"/>
+      <c r="CL45" s="3"/>
+      <c r="CM45" s="3"/>
+      <c r="CN45" s="3"/>
+      <c r="CO45" s="3"/>
+      <c r="CP45" s="3"/>
+      <c r="CQ45" s="3"/>
+      <c r="CR45" s="3"/>
+      <c r="CS45" s="3"/>
+      <c r="CT45" s="3"/>
+      <c r="CU45" s="3"/>
+      <c r="CV45" s="3"/>
+      <c r="CW45" s="3"/>
+      <c r="CX45" s="3"/>
+      <c r="CY45" s="3"/>
+      <c r="CZ45" s="3"/>
+      <c r="DA45" s="3"/>
+      <c r="DB45" s="3"/>
+      <c r="DC45" s="3"/>
+      <c r="DD45" s="3"/>
+      <c r="DE45" s="3"/>
+      <c r="DF45" s="3"/>
+      <c r="DG45" s="3"/>
+      <c r="DH45" s="3"/>
+      <c r="DI45" s="3"/>
+      <c r="DJ45" s="3"/>
+      <c r="DK45" s="3"/>
+      <c r="DL45" s="3"/>
+      <c r="DM45" s="3"/>
+      <c r="DN45" s="3"/>
+      <c r="DO45" s="3"/>
+      <c r="DP45" s="3"/>
+      <c r="DQ45" s="3"/>
+      <c r="DR45" s="3"/>
+      <c r="DS45" s="3"/>
+      <c r="DT45" s="3"/>
+      <c r="DU45" s="3"/>
+      <c r="DV45" s="3"/>
+      <c r="DW45" s="3"/>
+      <c r="DX45" s="3"/>
+      <c r="DY45" s="3"/>
+      <c r="DZ45" s="3"/>
+      <c r="EA45" s="3"/>
+      <c r="EB45" s="3"/>
+      <c r="EC45" s="3"/>
+      <c r="ED45" s="3"/>
+      <c r="EE45" s="3"/>
+      <c r="EF45" s="3"/>
+      <c r="EG45" s="3"/>
+      <c r="EH45" s="3"/>
+      <c r="EI45" s="3"/>
+      <c r="EJ45" s="3"/>
+      <c r="EK45" s="3"/>
+      <c r="EL45" s="3"/>
+      <c r="EM45" s="3"/>
+      <c r="EN45" s="3"/>
+      <c r="EO45" s="3"/>
+      <c r="EP45" s="3"/>
+      <c r="EQ45" s="3"/>
+      <c r="ER45" s="3"/>
+      <c r="ES45" s="3"/>
+      <c r="ET45" s="3"/>
+      <c r="EU45" s="3"/>
+      <c r="EV45" s="3"/>
+      <c r="EW45" s="3"/>
+      <c r="EX45" s="3"/>
+      <c r="EY45" s="3"/>
+      <c r="EZ45" s="3"/>
+      <c r="FA45" s="3"/>
+      <c r="FB45" s="3"/>
+      <c r="FC45" s="3"/>
+      <c r="FD45" s="3"/>
+      <c r="FE45" s="3"/>
+      <c r="FF45" s="3"/>
+      <c r="FG45" s="3"/>
+      <c r="FH45" s="3"/>
+      <c r="FI45" s="3"/>
+      <c r="FJ45" s="3"/>
+      <c r="FK45" s="3"/>
+      <c r="FL45" s="3"/>
+      <c r="FM45" s="3"/>
+      <c r="FN45" s="3"/>
+      <c r="FO45" s="3"/>
+      <c r="FP45" s="3"/>
+      <c r="FQ45" s="3"/>
+      <c r="FR45" s="3"/>
+      <c r="FS45" s="3"/>
+      <c r="FT45" s="3"/>
+      <c r="FU45" s="3"/>
+      <c r="FV45" s="3"/>
+      <c r="FW45" s="3"/>
+      <c r="FX45" s="3"/>
+      <c r="FY45" s="3"/>
+      <c r="FZ45" s="3"/>
+      <c r="GA45" s="3"/>
+      <c r="GB45" s="3"/>
+      <c r="GC45" s="3"/>
+      <c r="GD45" s="3"/>
+      <c r="GE45" s="3"/>
+      <c r="GF45" s="3"/>
+      <c r="GG45" s="3"/>
+      <c r="GH45" s="3"/>
+      <c r="GI45" s="3"/>
+      <c r="GJ45" s="3"/>
+      <c r="GK45" s="3"/>
+      <c r="GL45" s="3"/>
+      <c r="GM45" s="3"/>
+      <c r="GN45" s="3"/>
+      <c r="GO45" s="3"/>
+      <c r="GP45" s="3"/>
+      <c r="GQ45" s="3"/>
+      <c r="GR45" s="3"/>
+      <c r="GS45" s="3"/>
+      <c r="GT45" s="3"/>
+      <c r="GU45" s="3"/>
+      <c r="GV45" s="3"/>
     </row>
-    <row r="45" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="75" t="s">
+    <row r="46" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="75"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="71" t="s">
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
-      <c r="M45" s="71"/>
-      <c r="N45" s="71"/>
-      <c r="O45" s="71"/>
-      <c r="P45" s="71"/>
-      <c r="Q45" s="71" t="s">
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="R45" s="71"/>
-      <c r="S45" s="71"/>
-      <c r="T45" s="71"/>
-      <c r="U45" s="71"/>
-      <c r="V45" s="71"/>
-      <c r="W45" s="74" t="s">
+      <c r="R46" s="54"/>
+      <c r="S46" s="54"/>
+      <c r="T46" s="54"/>
+      <c r="U46" s="54"/>
+      <c r="V46" s="54"/>
+      <c r="W46" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="X45" s="74"/>
-      <c r="Y45" s="74"/>
-      <c r="Z45" s="74"/>
-      <c r="AA45" s="74"/>
-      <c r="AB45" s="74"/>
-      <c r="AC45" s="74"/>
-      <c r="AD45" s="74"/>
-      <c r="AE45" s="76" t="s">
+      <c r="X46" s="55"/>
+      <c r="Y46" s="55"/>
+      <c r="Z46" s="55"/>
+      <c r="AA46" s="55"/>
+      <c r="AB46" s="55"/>
+      <c r="AC46" s="55"/>
+      <c r="AD46" s="55"/>
+      <c r="AE46" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AF45" s="76"/>
-      <c r="AG45" s="76"/>
-      <c r="AH45" s="76"/>
-      <c r="AI45" s="76"/>
-      <c r="AJ45" s="76"/>
-      <c r="AK45" s="76"/>
-      <c r="AL45" s="76"/>
-      <c r="AM45" s="76"/>
-      <c r="AN45" s="76"/>
-      <c r="AO45" s="76"/>
-      <c r="AP45" s="76"/>
-      <c r="AQ45" s="76"/>
-      <c r="AR45" s="76"/>
-      <c r="AS45" s="76"/>
-      <c r="AT45" s="76"/>
-      <c r="AU45" s="76"/>
-      <c r="AV45" s="76"/>
-      <c r="AW45" s="76"/>
-      <c r="AX45" s="76"/>
-      <c r="AY45" s="76"/>
-      <c r="AZ45" s="76"/>
-      <c r="BA45" s="76"/>
-      <c r="BB45" s="76"/>
-      <c r="BC45" s="76"/>
-      <c r="BD45" s="7"/>
-      <c r="BE45" s="7"/>
-    </row>
-    <row r="46" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="75"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="71"/>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="71"/>
-      <c r="Q46" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="R46" s="71"/>
-      <c r="S46" s="71"/>
-      <c r="T46" s="71"/>
-      <c r="U46" s="71"/>
-      <c r="V46" s="71"/>
-      <c r="W46" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="X46" s="74"/>
-      <c r="Y46" s="74"/>
-      <c r="Z46" s="74"/>
-      <c r="AA46" s="74"/>
-      <c r="AB46" s="74"/>
-      <c r="AC46" s="74"/>
-      <c r="AD46" s="74"/>
-      <c r="AE46" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF46" s="76"/>
-      <c r="AG46" s="76"/>
-      <c r="AH46" s="76"/>
-      <c r="AI46" s="76"/>
-      <c r="AJ46" s="76"/>
-      <c r="AK46" s="76"/>
-      <c r="AL46" s="76"/>
-      <c r="AM46" s="76"/>
-      <c r="AN46" s="76"/>
-      <c r="AO46" s="76"/>
-      <c r="AP46" s="76"/>
-      <c r="AQ46" s="76"/>
-      <c r="AR46" s="76"/>
-      <c r="AS46" s="76"/>
-      <c r="AT46" s="76"/>
-      <c r="AU46" s="76"/>
-      <c r="AV46" s="76"/>
-      <c r="AW46" s="76"/>
-      <c r="AX46" s="76"/>
-      <c r="AY46" s="76"/>
-      <c r="AZ46" s="76"/>
-      <c r="BA46" s="76"/>
-      <c r="BB46" s="76"/>
-      <c r="BC46" s="76"/>
+      <c r="AF46" s="56"/>
+      <c r="AG46" s="56"/>
+      <c r="AH46" s="56"/>
+      <c r="AI46" s="56"/>
+      <c r="AJ46" s="56"/>
+      <c r="AK46" s="56"/>
+      <c r="AL46" s="56"/>
+      <c r="AM46" s="56"/>
+      <c r="AN46" s="56"/>
+      <c r="AO46" s="56"/>
+      <c r="AP46" s="56"/>
+      <c r="AQ46" s="56"/>
+      <c r="AR46" s="56"/>
+      <c r="AS46" s="56"/>
+      <c r="AT46" s="56"/>
+      <c r="AU46" s="56"/>
+      <c r="AV46" s="56"/>
+      <c r="AW46" s="56"/>
+      <c r="AX46" s="56"/>
+      <c r="AY46" s="56"/>
+      <c r="AZ46" s="56"/>
+      <c r="BA46" s="56"/>
+      <c r="BB46" s="56"/>
+      <c r="BC46" s="56"/>
       <c r="BD46" s="7"/>
       <c r="BE46" s="7"/>
     </row>
-    <row r="47" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="77"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="78"/>
-      <c r="M47" s="78"/>
-      <c r="N47" s="78"/>
-      <c r="O47" s="78"/>
-      <c r="P47" s="78"/>
-      <c r="Q47" s="71"/>
-      <c r="R47" s="71"/>
-      <c r="S47" s="71"/>
-      <c r="T47" s="71"/>
-      <c r="U47" s="71"/>
-      <c r="V47" s="71"/>
-      <c r="W47" s="74"/>
-      <c r="X47" s="74"/>
-      <c r="Y47" s="74"/>
-      <c r="Z47" s="74"/>
-      <c r="AA47" s="74"/>
-      <c r="AB47" s="74"/>
-      <c r="AC47" s="74"/>
-      <c r="AD47" s="74"/>
-      <c r="AE47" s="76"/>
-      <c r="AF47" s="76"/>
-      <c r="AG47" s="76"/>
-      <c r="AH47" s="76"/>
-      <c r="AI47" s="76"/>
-      <c r="AJ47" s="76"/>
-      <c r="AK47" s="76"/>
-      <c r="AL47" s="76"/>
-      <c r="AM47" s="76"/>
-      <c r="AN47" s="76"/>
-      <c r="AO47" s="76"/>
-      <c r="AP47" s="76"/>
-      <c r="AQ47" s="76"/>
-      <c r="AR47" s="76"/>
-      <c r="AS47" s="76"/>
-      <c r="AT47" s="76"/>
-      <c r="AU47" s="76"/>
-      <c r="AV47" s="76"/>
-      <c r="AW47" s="76"/>
-      <c r="AX47" s="76"/>
-      <c r="AY47" s="76"/>
-      <c r="AZ47" s="76"/>
-      <c r="BA47" s="76"/>
-      <c r="BB47" s="76"/>
-      <c r="BC47" s="76"/>
+    <row r="47" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="R47" s="54"/>
+      <c r="S47" s="54"/>
+      <c r="T47" s="54"/>
+      <c r="U47" s="54"/>
+      <c r="V47" s="54"/>
+      <c r="W47" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="X47" s="55"/>
+      <c r="Y47" s="55"/>
+      <c r="Z47" s="55"/>
+      <c r="AA47" s="55"/>
+      <c r="AB47" s="55"/>
+      <c r="AC47" s="55"/>
+      <c r="AD47" s="55"/>
+      <c r="AE47" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF47" s="56"/>
+      <c r="AG47" s="56"/>
+      <c r="AH47" s="56"/>
+      <c r="AI47" s="56"/>
+      <c r="AJ47" s="56"/>
+      <c r="AK47" s="56"/>
+      <c r="AL47" s="56"/>
+      <c r="AM47" s="56"/>
+      <c r="AN47" s="56"/>
+      <c r="AO47" s="56"/>
+      <c r="AP47" s="56"/>
+      <c r="AQ47" s="56"/>
+      <c r="AR47" s="56"/>
+      <c r="AS47" s="56"/>
+      <c r="AT47" s="56"/>
+      <c r="AU47" s="56"/>
+      <c r="AV47" s="56"/>
+      <c r="AW47" s="56"/>
+      <c r="AX47" s="56"/>
+      <c r="AY47" s="56"/>
+      <c r="AZ47" s="56"/>
+      <c r="BA47" s="56"/>
+      <c r="BB47" s="56"/>
+      <c r="BC47" s="56"/>
       <c r="BD47" s="7"/>
       <c r="BE47" s="7"/>
     </row>
-    <row r="48" spans="1:204" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="27"/>
-      <c r="S48" s="27"/>
-      <c r="T48" s="27"/>
-      <c r="U48" s="27"/>
-      <c r="V48" s="27"/>
-      <c r="W48" s="29"/>
-      <c r="X48" s="29"/>
-      <c r="Y48" s="29"/>
-      <c r="Z48" s="29"/>
-      <c r="AA48" s="29"/>
-      <c r="AB48" s="29"/>
-      <c r="AC48" s="29"/>
-      <c r="AD48" s="29"/>
-      <c r="AE48" s="32"/>
-      <c r="AF48" s="32"/>
-      <c r="AG48" s="32"/>
-      <c r="AH48" s="32"/>
-      <c r="AI48" s="32"/>
-      <c r="AJ48" s="32"/>
-      <c r="AK48" s="32"/>
-      <c r="AL48" s="32"/>
-      <c r="AM48" s="32"/>
-      <c r="AN48" s="32"/>
-      <c r="AO48" s="32"/>
-      <c r="AP48" s="32"/>
-      <c r="AQ48" s="32"/>
-      <c r="AR48" s="32"/>
-      <c r="AS48" s="32"/>
-      <c r="AT48" s="32"/>
-      <c r="AU48" s="32"/>
-      <c r="AV48" s="32"/>
-      <c r="AW48" s="32"/>
-      <c r="AX48" s="32"/>
-      <c r="AY48" s="32"/>
-      <c r="AZ48" s="32"/>
-      <c r="BA48" s="32"/>
-      <c r="BB48" s="32"/>
-      <c r="BC48" s="32"/>
-      <c r="BD48" s="7"/>
-      <c r="BE48" s="7"/>
+    <row r="48" spans="1:218" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="77"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="J48" s="77"/>
+      <c r="K48" s="77"/>
+      <c r="L48" s="77"/>
+      <c r="M48" s="77"/>
+      <c r="N48" s="77"/>
+      <c r="O48" s="77"/>
+      <c r="P48" s="77"/>
+      <c r="Q48" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="R48" s="77"/>
+      <c r="S48" s="77"/>
+      <c r="T48" s="77"/>
+      <c r="U48" s="77"/>
+      <c r="V48" s="77"/>
+      <c r="W48" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="X48" s="78"/>
+      <c r="Y48" s="78"/>
+      <c r="Z48" s="78"/>
+      <c r="AA48" s="78"/>
+      <c r="AB48" s="78"/>
+      <c r="AC48" s="78"/>
+      <c r="AD48" s="78"/>
+      <c r="AE48" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF48" s="76"/>
+      <c r="AG48" s="76"/>
+      <c r="AH48" s="76"/>
+      <c r="AI48" s="76"/>
+      <c r="AJ48" s="76"/>
+      <c r="AK48" s="76"/>
+      <c r="AL48" s="76"/>
+      <c r="AM48" s="76"/>
+      <c r="AN48" s="76"/>
+      <c r="AO48" s="76"/>
+      <c r="AP48" s="76"/>
+      <c r="AQ48" s="76"/>
+      <c r="AR48" s="76"/>
+      <c r="AS48" s="76"/>
+      <c r="AT48" s="76"/>
+      <c r="AU48" s="76"/>
+      <c r="AV48" s="76"/>
+      <c r="AW48" s="76"/>
+      <c r="AX48" s="76"/>
+      <c r="AY48" s="76"/>
+      <c r="AZ48" s="76"/>
+      <c r="BA48" s="76"/>
+      <c r="BB48" s="76"/>
+      <c r="BC48" s="76"/>
+      <c r="BD48" s="38"/>
+      <c r="BE48" s="38"/>
+      <c r="CP48" s="38"/>
+      <c r="CQ48" s="38"/>
+      <c r="CR48" s="38"/>
+      <c r="CS48" s="38"/>
+      <c r="CT48" s="38"/>
+      <c r="CU48" s="38"/>
+      <c r="CV48" s="38"/>
+      <c r="CW48" s="38"/>
+      <c r="CX48" s="38"/>
+      <c r="CY48" s="38"/>
+      <c r="CZ48" s="38"/>
+      <c r="DA48" s="38"/>
+      <c r="DB48" s="38"/>
+      <c r="DC48" s="38"/>
+      <c r="DD48" s="38"/>
+      <c r="DE48" s="38"/>
+      <c r="DF48" s="38"/>
+      <c r="DG48" s="38"/>
+      <c r="DH48" s="38"/>
+      <c r="DI48" s="38"/>
+      <c r="DJ48" s="38"/>
+      <c r="DK48" s="38"/>
+      <c r="DL48" s="38"/>
+      <c r="DM48" s="38"/>
+      <c r="DN48" s="38"/>
+      <c r="DO48" s="38"/>
+      <c r="DP48" s="38"/>
+      <c r="DQ48" s="38"/>
+      <c r="DR48" s="38"/>
+      <c r="DS48" s="38"/>
+      <c r="DT48" s="38"/>
+      <c r="DU48" s="38"/>
+      <c r="DV48" s="38"/>
+      <c r="DW48" s="38"/>
+      <c r="DX48" s="38"/>
+      <c r="DY48" s="38"/>
+      <c r="DZ48" s="38"/>
+      <c r="EA48" s="38"/>
+      <c r="EB48" s="38"/>
+      <c r="EC48" s="38"/>
+      <c r="ED48" s="38"/>
+      <c r="EE48" s="38"/>
+      <c r="EF48" s="38"/>
+      <c r="EG48" s="38"/>
+      <c r="EH48" s="38"/>
+      <c r="EI48" s="38"/>
+      <c r="EJ48" s="38"/>
+      <c r="EK48" s="38"/>
+      <c r="EL48" s="38"/>
+      <c r="EM48" s="38"/>
+      <c r="EN48" s="38"/>
+      <c r="EO48" s="38"/>
+      <c r="EP48" s="38"/>
+      <c r="EQ48" s="38"/>
+      <c r="ER48" s="38"/>
+      <c r="ES48" s="38"/>
+      <c r="ET48" s="38"/>
+      <c r="EU48" s="38"/>
+      <c r="EV48" s="38"/>
+      <c r="EW48" s="38"/>
+      <c r="EX48" s="38"/>
+      <c r="EY48" s="38"/>
+      <c r="EZ48" s="38"/>
+      <c r="FA48" s="38"/>
+      <c r="FB48" s="38"/>
+      <c r="FC48" s="38"/>
+      <c r="FD48" s="38"/>
+      <c r="FE48" s="38"/>
+      <c r="FF48" s="38"/>
+      <c r="FG48" s="38"/>
+      <c r="FH48" s="38"/>
+      <c r="FI48" s="38"/>
+      <c r="FJ48" s="38"/>
+      <c r="FK48" s="38"/>
+      <c r="FL48" s="38"/>
+      <c r="FM48" s="38"/>
+      <c r="FN48" s="38"/>
+      <c r="FO48" s="38"/>
+      <c r="FP48" s="38"/>
+      <c r="FQ48" s="38"/>
+      <c r="FR48" s="38"/>
+      <c r="FS48" s="38"/>
+      <c r="FT48" s="38"/>
+      <c r="FU48" s="38"/>
+      <c r="FV48" s="38"/>
+      <c r="FW48" s="38"/>
+      <c r="FX48" s="38"/>
+      <c r="FY48" s="38"/>
+      <c r="FZ48" s="38"/>
+      <c r="GA48" s="38"/>
+      <c r="GB48" s="38"/>
+      <c r="GC48" s="38"/>
+      <c r="GD48" s="38"/>
+      <c r="GE48" s="38"/>
+      <c r="GF48" s="38"/>
+      <c r="GG48" s="38"/>
+      <c r="GH48" s="38"/>
+      <c r="GI48" s="38"/>
+      <c r="GJ48" s="38"/>
+      <c r="GK48" s="38"/>
+      <c r="GL48" s="38"/>
+      <c r="GM48" s="38"/>
+      <c r="GN48" s="38"/>
+      <c r="GO48" s="38"/>
+      <c r="GP48" s="38"/>
+      <c r="GQ48" s="38"/>
+      <c r="GR48" s="38"/>
+      <c r="GS48" s="38"/>
+      <c r="GT48" s="38"/>
+      <c r="GU48" s="38"/>
+      <c r="GV48" s="38"/>
+      <c r="GW48" s="38"/>
+      <c r="GX48" s="38"/>
+      <c r="GY48" s="38"/>
+      <c r="GZ48" s="38"/>
+      <c r="HA48" s="38"/>
+      <c r="HB48" s="38"/>
+      <c r="HC48" s="38"/>
+      <c r="HD48" s="38"/>
+      <c r="HE48" s="38"/>
+      <c r="HF48" s="38"/>
+      <c r="HG48" s="38"/>
+      <c r="HH48" s="38"/>
+      <c r="HI48" s="38"/>
+      <c r="HJ48" s="38"/>
     </row>
     <row r="49" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="29"/>
+      <c r="X49" s="29"/>
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="29"/>
+      <c r="AA49" s="29"/>
+      <c r="AB49" s="29"/>
+      <c r="AC49" s="29"/>
+      <c r="AD49" s="29"/>
+      <c r="AE49" s="32"/>
+      <c r="AF49" s="32"/>
+      <c r="AG49" s="32"/>
+      <c r="AH49" s="32"/>
+      <c r="AI49" s="32"/>
+      <c r="AJ49" s="32"/>
+      <c r="AK49" s="32"/>
+      <c r="AL49" s="32"/>
+      <c r="AM49" s="32"/>
+      <c r="AN49" s="32"/>
+      <c r="AO49" s="32"/>
+      <c r="AP49" s="32"/>
+      <c r="AQ49" s="32"/>
+      <c r="AR49" s="32"/>
+      <c r="AS49" s="32"/>
+      <c r="AT49" s="32"/>
+      <c r="AU49" s="32"/>
+      <c r="AV49" s="32"/>
+      <c r="AW49" s="32"/>
+      <c r="AX49" s="32"/>
+      <c r="AY49" s="32"/>
+      <c r="AZ49" s="32"/>
+      <c r="BA49" s="32"/>
+      <c r="BB49" s="32"/>
+      <c r="BC49" s="32"/>
       <c r="BD49" s="7"/>
       <c r="BE49" s="7"/>
     </row>
@@ -25081,8 +25583,13 @@
     <row r="51" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
+      <c r="BD51" s="7"/>
+      <c r="BE51" s="7"/>
     </row>
-    <row r="52" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+    </row>
     <row r="53" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:57" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -25098,161 +25605,158 @@
     <row r="65" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-      <c r="V68" s="3"/>
-      <c r="W68" s="3"/>
-      <c r="X68" s="3"/>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="3"/>
-      <c r="AA68" s="3"/>
-      <c r="AB68" s="3"/>
-      <c r="AC68" s="3"/>
-      <c r="AD68" s="3"/>
-      <c r="AE68" s="3"/>
-      <c r="AF68" s="3"/>
-      <c r="AG68" s="3"/>
-      <c r="AH68" s="3"/>
-      <c r="AI68" s="3"/>
-      <c r="AJ68" s="3"/>
-      <c r="AK68" s="3"/>
-      <c r="AL68" s="3"/>
-      <c r="AM68" s="3"/>
-      <c r="AN68" s="3"/>
-      <c r="AO68" s="3"/>
-      <c r="AP68" s="3"/>
-      <c r="AQ68" s="3"/>
-      <c r="AR68" s="3"/>
-      <c r="AS68" s="3"/>
-      <c r="AT68" s="3"/>
-      <c r="AU68" s="3"/>
-      <c r="AV68" s="3"/>
-      <c r="AW68" s="3"/>
-      <c r="AX68" s="3"/>
-      <c r="AY68" s="3"/>
-      <c r="AZ68" s="3"/>
-      <c r="BA68" s="3"/>
-      <c r="BB68" s="3"/>
-      <c r="BC68" s="3"/>
-    </row>
+    <row r="68" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+      <c r="AA69" s="3"/>
+      <c r="AB69" s="3"/>
+      <c r="AC69" s="3"/>
+      <c r="AD69" s="3"/>
+      <c r="AE69" s="3"/>
+      <c r="AF69" s="3"/>
+      <c r="AG69" s="3"/>
+      <c r="AH69" s="3"/>
+      <c r="AI69" s="3"/>
+      <c r="AJ69" s="3"/>
+      <c r="AK69" s="3"/>
+      <c r="AL69" s="3"/>
+      <c r="AM69" s="3"/>
+      <c r="AN69" s="3"/>
+      <c r="AO69" s="3"/>
+      <c r="AP69" s="3"/>
+      <c r="AQ69" s="3"/>
+      <c r="AR69" s="3"/>
+      <c r="AS69" s="3"/>
+      <c r="AT69" s="3"/>
+      <c r="AU69" s="3"/>
+      <c r="AV69" s="3"/>
+      <c r="AW69" s="3"/>
+      <c r="AX69" s="3"/>
+      <c r="AY69" s="3"/>
+      <c r="AZ69" s="3"/>
+      <c r="BA69" s="3"/>
+      <c r="BB69" s="3"/>
+      <c r="BC69" s="3"/>
     </row>
     <row r="70" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
-      <c r="BD70" s="3"/>
-      <c r="BE70" s="3"/>
-      <c r="BF70" s="3"/>
-      <c r="BG70" s="3"/>
-      <c r="BH70" s="3"/>
-      <c r="BI70" s="3"/>
-      <c r="BJ70" s="3"/>
-      <c r="BK70" s="3"/>
-      <c r="BL70" s="3"/>
-      <c r="BM70" s="3"/>
-      <c r="BN70" s="3"/>
-      <c r="BO70" s="3"/>
-      <c r="BP70" s="3"/>
-      <c r="BQ70" s="3"/>
-      <c r="BR70" s="3"/>
-      <c r="BS70" s="3"/>
-      <c r="BT70" s="3"/>
-      <c r="BU70" s="3"/>
-      <c r="BV70" s="3"/>
-      <c r="BW70" s="3"/>
-      <c r="BX70" s="3"/>
-      <c r="BY70" s="3"/>
-      <c r="BZ70" s="3"/>
-      <c r="CA70" s="3"/>
-      <c r="CB70" s="3"/>
-      <c r="CC70" s="3"/>
-      <c r="CD70" s="3"/>
-      <c r="CE70" s="3"/>
-      <c r="CF70" s="3"/>
-      <c r="CG70" s="3"/>
-      <c r="CH70" s="3"/>
-      <c r="CI70" s="3"/>
-      <c r="CJ70" s="3"/>
-      <c r="CK70" s="3"/>
-      <c r="CL70" s="3"/>
-      <c r="CM70" s="3"/>
-      <c r="CN70" s="3"/>
-      <c r="CO70" s="3"/>
-      <c r="CP70" s="3"/>
-      <c r="CQ70" s="3"/>
-      <c r="CR70" s="3"/>
-      <c r="CS70" s="3"/>
-      <c r="CT70" s="3"/>
-      <c r="CU70" s="3"/>
-      <c r="CV70" s="3"/>
-      <c r="CW70" s="3"/>
-      <c r="CX70" s="3"/>
-      <c r="CY70" s="3"/>
-      <c r="CZ70" s="3"/>
-      <c r="DA70" s="3"/>
-      <c r="DB70" s="3"/>
-      <c r="DC70" s="3"/>
-      <c r="DD70" s="3"/>
-      <c r="DE70" s="3"/>
-      <c r="DF70" s="3"/>
-      <c r="DG70" s="3"/>
-      <c r="DH70" s="3"/>
-      <c r="DI70" s="3"/>
-      <c r="DJ70" s="3"/>
-      <c r="DK70" s="3"/>
-      <c r="DL70" s="3"/>
-      <c r="DM70" s="3"/>
-      <c r="DN70" s="3"/>
-      <c r="DO70" s="3"/>
-      <c r="DP70" s="3"/>
-      <c r="DQ70" s="3"/>
-      <c r="DR70" s="3"/>
-      <c r="DS70" s="3"/>
-      <c r="DT70" s="3"/>
-      <c r="DU70" s="3"/>
-      <c r="DV70" s="3"/>
-      <c r="DW70" s="3"/>
-      <c r="DX70" s="3"/>
-      <c r="DY70" s="3"/>
-      <c r="DZ70" s="3"/>
-      <c r="EA70" s="3"/>
-      <c r="EB70" s="3"/>
-      <c r="EC70" s="3"/>
-      <c r="ED70" s="3"/>
-      <c r="EE70" s="3"/>
-      <c r="EF70" s="3"/>
-      <c r="EG70" s="3"/>
-      <c r="EH70" s="3"/>
-      <c r="EI70" s="3"/>
-      <c r="EJ70" s="3"/>
-      <c r="EK70" s="3"/>
-      <c r="EL70" s="3"/>
-      <c r="EM70" s="3"/>
-      <c r="EN70" s="3"/>
-      <c r="EO70" s="3"/>
-      <c r="EP70" s="3"/>
-      <c r="EQ70" s="3"/>
-      <c r="ER70" s="3"/>
-      <c r="ES70" s="3"/>
     </row>
     <row r="71" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
+      <c r="BD71" s="3"/>
+      <c r="BE71" s="3"/>
+      <c r="BF71" s="3"/>
+      <c r="BG71" s="3"/>
+      <c r="BH71" s="3"/>
+      <c r="BI71" s="3"/>
+      <c r="BJ71" s="3"/>
+      <c r="BK71" s="3"/>
+      <c r="BL71" s="3"/>
+      <c r="BM71" s="3"/>
+      <c r="BN71" s="3"/>
+      <c r="BO71" s="3"/>
+      <c r="BP71" s="3"/>
+      <c r="BQ71" s="3"/>
+      <c r="BR71" s="3"/>
+      <c r="BS71" s="3"/>
+      <c r="BT71" s="3"/>
+      <c r="BU71" s="3"/>
+      <c r="BV71" s="3"/>
+      <c r="BW71" s="3"/>
+      <c r="BX71" s="3"/>
+      <c r="BY71" s="3"/>
+      <c r="BZ71" s="3"/>
+      <c r="CA71" s="3"/>
+      <c r="CB71" s="3"/>
+      <c r="CC71" s="3"/>
+      <c r="CD71" s="3"/>
+      <c r="CE71" s="3"/>
+      <c r="CF71" s="3"/>
+      <c r="CG71" s="3"/>
+      <c r="CH71" s="3"/>
+      <c r="CI71" s="3"/>
+      <c r="CJ71" s="3"/>
+      <c r="CK71" s="3"/>
+      <c r="CL71" s="3"/>
+      <c r="CM71" s="3"/>
+      <c r="CN71" s="3"/>
+      <c r="CO71" s="3"/>
+      <c r="CP71" s="3"/>
+      <c r="CQ71" s="3"/>
+      <c r="CR71" s="3"/>
+      <c r="CS71" s="3"/>
+      <c r="CT71" s="3"/>
+      <c r="CU71" s="3"/>
+      <c r="CV71" s="3"/>
+      <c r="CW71" s="3"/>
+      <c r="CX71" s="3"/>
+      <c r="CY71" s="3"/>
+      <c r="CZ71" s="3"/>
+      <c r="DA71" s="3"/>
+      <c r="DB71" s="3"/>
+      <c r="DC71" s="3"/>
+      <c r="DD71" s="3"/>
+      <c r="DE71" s="3"/>
+      <c r="DF71" s="3"/>
+      <c r="DG71" s="3"/>
+      <c r="DH71" s="3"/>
+      <c r="DI71" s="3"/>
+      <c r="DJ71" s="3"/>
+      <c r="DK71" s="3"/>
+      <c r="DL71" s="3"/>
+      <c r="DM71" s="3"/>
+      <c r="DN71" s="3"/>
+      <c r="DO71" s="3"/>
+      <c r="DP71" s="3"/>
+      <c r="DQ71" s="3"/>
+      <c r="DR71" s="3"/>
+      <c r="DS71" s="3"/>
+      <c r="DT71" s="3"/>
+      <c r="DU71" s="3"/>
+      <c r="DV71" s="3"/>
+      <c r="DW71" s="3"/>
+      <c r="DX71" s="3"/>
+      <c r="DY71" s="3"/>
+      <c r="DZ71" s="3"/>
+      <c r="EA71" s="3"/>
+      <c r="EB71" s="3"/>
+      <c r="EC71" s="3"/>
+      <c r="ED71" s="3"/>
+      <c r="EE71" s="3"/>
+      <c r="EF71" s="3"/>
+      <c r="EG71" s="3"/>
+      <c r="EH71" s="3"/>
+      <c r="EI71" s="3"/>
+      <c r="EJ71" s="3"/>
+      <c r="EK71" s="3"/>
+      <c r="EL71" s="3"/>
+      <c r="EM71" s="3"/>
+      <c r="EN71" s="3"/>
+      <c r="EO71" s="3"/>
+      <c r="EP71" s="3"/>
+      <c r="EQ71" s="3"/>
+      <c r="ER71" s="3"/>
+      <c r="ES71" s="3"/>
     </row>
     <row r="72" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
@@ -25262,70 +25766,17 @@
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
     </row>
-    <row r="74" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+    </row>
     <row r="75" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="78" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="80" spans="1:149" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" spans="1:55" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
-      <c r="T81" s="1"/>
-      <c r="U81" s="1"/>
-      <c r="V81" s="1"/>
-      <c r="W81" s="1"/>
-      <c r="X81" s="1"/>
-      <c r="Y81" s="1"/>
-      <c r="Z81" s="1"/>
-      <c r="AA81" s="1"/>
-      <c r="AB81" s="1"/>
-      <c r="AC81" s="1"/>
-      <c r="AD81" s="1"/>
-      <c r="AE81" s="1"/>
-      <c r="AF81" s="1"/>
-      <c r="AG81" s="1"/>
-      <c r="AH81" s="1"/>
-      <c r="AI81" s="1"/>
-      <c r="AJ81" s="1"/>
-      <c r="AK81" s="1"/>
-      <c r="AL81" s="1"/>
-      <c r="AM81" s="1"/>
-      <c r="AN81" s="1"/>
-      <c r="AO81" s="1"/>
-      <c r="AP81" s="1"/>
-      <c r="AQ81" s="1"/>
-      <c r="AR81" s="1"/>
-      <c r="AS81" s="1"/>
-      <c r="AT81" s="1"/>
-      <c r="AU81" s="1"/>
-      <c r="AV81" s="1"/>
-      <c r="AW81" s="1"/>
-      <c r="AX81" s="1"/>
-      <c r="AY81" s="1"/>
-      <c r="AZ81" s="1"/>
-      <c r="BA81" s="1"/>
-      <c r="BB81" s="1"/>
-      <c r="BC81" s="1"/>
-    </row>
+    <row r="81" spans="1:55" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="82" spans="1:55" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
@@ -25383,126 +25834,109 @@
       <c r="BB82" s="1"/>
       <c r="BC82" s="1"/>
     </row>
+    <row r="83" spans="1:55" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+      <c r="AF83" s="1"/>
+      <c r="AG83" s="1"/>
+      <c r="AH83" s="1"/>
+      <c r="AI83" s="1"/>
+      <c r="AJ83" s="1"/>
+      <c r="AK83" s="1"/>
+      <c r="AL83" s="1"/>
+      <c r="AM83" s="1"/>
+      <c r="AN83" s="1"/>
+      <c r="AO83" s="1"/>
+      <c r="AP83" s="1"/>
+      <c r="AQ83" s="1"/>
+      <c r="AR83" s="1"/>
+      <c r="AS83" s="1"/>
+      <c r="AT83" s="1"/>
+      <c r="AU83" s="1"/>
+      <c r="AV83" s="1"/>
+      <c r="AW83" s="1"/>
+      <c r="AX83" s="1"/>
+      <c r="AY83" s="1"/>
+      <c r="AZ83" s="1"/>
+      <c r="BA83" s="1"/>
+      <c r="BB83" s="1"/>
+      <c r="BC83" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="181">
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="I44:P44"/>
-    <mergeCell ref="Q44:V44"/>
-    <mergeCell ref="W44:AD44"/>
-    <mergeCell ref="AE44:BC44"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="I47:P47"/>
-    <mergeCell ref="Q47:V47"/>
-    <mergeCell ref="W47:AD47"/>
-    <mergeCell ref="AE47:BC47"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="I45:P45"/>
-    <mergeCell ref="Q45:V45"/>
-    <mergeCell ref="W45:AD45"/>
-    <mergeCell ref="AE45:BC45"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="I46:P46"/>
-    <mergeCell ref="Q46:V46"/>
-    <mergeCell ref="W46:AD46"/>
-    <mergeCell ref="AE46:BC46"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="I42:P42"/>
-    <mergeCell ref="Q42:V42"/>
-    <mergeCell ref="W42:AD42"/>
-    <mergeCell ref="AE42:BC42"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="I43:P43"/>
-    <mergeCell ref="Q43:V43"/>
-    <mergeCell ref="W43:AD43"/>
-    <mergeCell ref="AE43:BC43"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="I40:P40"/>
-    <mergeCell ref="Q40:V40"/>
-    <mergeCell ref="W40:AD40"/>
-    <mergeCell ref="AE40:BC40"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="I41:P41"/>
-    <mergeCell ref="Q41:V41"/>
-    <mergeCell ref="W41:AD41"/>
-    <mergeCell ref="AE41:BC41"/>
-    <mergeCell ref="A37:H38"/>
-    <mergeCell ref="I37:P38"/>
-    <mergeCell ref="Q37:V38"/>
-    <mergeCell ref="W37:AD38"/>
-    <mergeCell ref="AE37:BC38"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="I39:P39"/>
-    <mergeCell ref="Q39:V39"/>
-    <mergeCell ref="W39:AD39"/>
-    <mergeCell ref="AE39:BC39"/>
-    <mergeCell ref="A34:E35"/>
-    <mergeCell ref="F34:W35"/>
-    <mergeCell ref="X34:AB35"/>
-    <mergeCell ref="AC34:BC35"/>
-    <mergeCell ref="A31:J32"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="O31:W31"/>
-    <mergeCell ref="X31:AA31"/>
-    <mergeCell ref="AB31:AJ31"/>
-    <mergeCell ref="AK31:AM31"/>
-    <mergeCell ref="AN31:AT31"/>
-    <mergeCell ref="AU31:AW31"/>
-    <mergeCell ref="AX31:BC31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O32:W32"/>
-    <mergeCell ref="X32:AA32"/>
-    <mergeCell ref="AB32:AJ32"/>
-    <mergeCell ref="AK32:AM32"/>
-    <mergeCell ref="AN32:AT32"/>
-    <mergeCell ref="AU32:AW32"/>
-    <mergeCell ref="AX32:BC32"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I28:P28"/>
-    <mergeCell ref="Q28:V28"/>
-    <mergeCell ref="W28:AD28"/>
-    <mergeCell ref="AE28:BC28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:P29"/>
-    <mergeCell ref="Q29:V29"/>
-    <mergeCell ref="W29:AD29"/>
-    <mergeCell ref="AE29:BC29"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="I25:P25"/>
-    <mergeCell ref="Q25:V25"/>
-    <mergeCell ref="W25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="I26:P26"/>
-    <mergeCell ref="Q26:V26"/>
-    <mergeCell ref="W26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="I23:P23"/>
-    <mergeCell ref="Q23:V23"/>
-    <mergeCell ref="W23:AD23"/>
-    <mergeCell ref="AE23:BC23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="I24:P24"/>
-    <mergeCell ref="Q24:V24"/>
-    <mergeCell ref="W24:AD24"/>
-    <mergeCell ref="AE24:BC24"/>
-    <mergeCell ref="X17:AB18"/>
-    <mergeCell ref="AC17:BC18"/>
-    <mergeCell ref="W12:AD12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="I13:P13"/>
-    <mergeCell ref="Q13:V13"/>
-    <mergeCell ref="W13:AD13"/>
-    <mergeCell ref="Q22:V22"/>
-    <mergeCell ref="W22:AD22"/>
-    <mergeCell ref="AE22:BC22"/>
-    <mergeCell ref="Q20:V21"/>
-    <mergeCell ref="W20:AD21"/>
-    <mergeCell ref="AE20:BC21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="I22:P22"/>
-    <mergeCell ref="A17:E18"/>
-    <mergeCell ref="F17:W18"/>
+  <mergeCells count="186">
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:P30"/>
+    <mergeCell ref="Q30:V30"/>
+    <mergeCell ref="W30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="F4:W5"/>
+    <mergeCell ref="X4:AB5"/>
+    <mergeCell ref="A7:H8"/>
+    <mergeCell ref="I7:P8"/>
+    <mergeCell ref="Q7:V8"/>
+    <mergeCell ref="W7:AD8"/>
+    <mergeCell ref="AE27:BC27"/>
+    <mergeCell ref="W27:AD27"/>
+    <mergeCell ref="Q27:V27"/>
+    <mergeCell ref="I27:P27"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="AE14:BC14"/>
+    <mergeCell ref="AE15:BC15"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="W14:AD14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="I15:P15"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="W15:AD15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I14:P14"/>
+    <mergeCell ref="A20:H21"/>
+    <mergeCell ref="I20:P21"/>
+    <mergeCell ref="AE10:BC10"/>
+    <mergeCell ref="AE11:BC11"/>
+    <mergeCell ref="AE12:BC12"/>
+    <mergeCell ref="AE13:BC13"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:P10"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="W10:AD10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:P11"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="W11:AD11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:P12"/>
+    <mergeCell ref="Q12:V12"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="A4:E5"/>
     <mergeCell ref="AC4:BC5"/>
@@ -25527,49 +25961,128 @@
     <mergeCell ref="AX2:BC2"/>
     <mergeCell ref="X1:AA1"/>
     <mergeCell ref="AB1:AJ1"/>
-    <mergeCell ref="AE10:BC10"/>
-    <mergeCell ref="AE11:BC11"/>
-    <mergeCell ref="AE12:BC12"/>
-    <mergeCell ref="AE13:BC13"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:P10"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="W10:AD10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:P11"/>
-    <mergeCell ref="Q11:V11"/>
-    <mergeCell ref="W11:AD11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:P12"/>
-    <mergeCell ref="Q12:V12"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="F4:W5"/>
-    <mergeCell ref="X4:AB5"/>
-    <mergeCell ref="A7:H8"/>
-    <mergeCell ref="I7:P8"/>
-    <mergeCell ref="Q7:V8"/>
-    <mergeCell ref="W7:AD8"/>
-    <mergeCell ref="AE27:BC27"/>
-    <mergeCell ref="W27:AD27"/>
-    <mergeCell ref="Q27:V27"/>
-    <mergeCell ref="I27:P27"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="AE14:BC14"/>
-    <mergeCell ref="AE15:BC15"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="W14:AD14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="I15:P15"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="W15:AD15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I14:P14"/>
-    <mergeCell ref="A20:H21"/>
-    <mergeCell ref="I20:P21"/>
+    <mergeCell ref="X17:AB18"/>
+    <mergeCell ref="AC17:BC18"/>
+    <mergeCell ref="W12:AD12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="I13:P13"/>
+    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="W13:AD13"/>
+    <mergeCell ref="Q22:V22"/>
+    <mergeCell ref="W22:AD22"/>
+    <mergeCell ref="AE22:BC22"/>
+    <mergeCell ref="Q20:V21"/>
+    <mergeCell ref="W20:AD21"/>
+    <mergeCell ref="AE20:BC21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="I22:P22"/>
+    <mergeCell ref="A17:E18"/>
+    <mergeCell ref="F17:W18"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="I23:P23"/>
+    <mergeCell ref="Q23:V23"/>
+    <mergeCell ref="W23:AD23"/>
+    <mergeCell ref="AE23:BC23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="I24:P24"/>
+    <mergeCell ref="Q24:V24"/>
+    <mergeCell ref="W24:AD24"/>
+    <mergeCell ref="AE24:BC24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="I25:P25"/>
+    <mergeCell ref="Q25:V25"/>
+    <mergeCell ref="W25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="I26:P26"/>
+    <mergeCell ref="Q26:V26"/>
+    <mergeCell ref="W26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="Q28:V28"/>
+    <mergeCell ref="W28:AD28"/>
+    <mergeCell ref="AE28:BC28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:P29"/>
+    <mergeCell ref="Q29:V29"/>
+    <mergeCell ref="W29:AD29"/>
+    <mergeCell ref="AE29:BC29"/>
+    <mergeCell ref="A35:E36"/>
+    <mergeCell ref="F35:W36"/>
+    <mergeCell ref="X35:AB36"/>
+    <mergeCell ref="AC35:BC36"/>
+    <mergeCell ref="A32:J33"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:W32"/>
+    <mergeCell ref="X32:AA32"/>
+    <mergeCell ref="AB32:AJ32"/>
+    <mergeCell ref="AK32:AM32"/>
+    <mergeCell ref="AN32:AT32"/>
+    <mergeCell ref="AU32:AW32"/>
+    <mergeCell ref="AX32:BC32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="O33:W33"/>
+    <mergeCell ref="X33:AA33"/>
+    <mergeCell ref="AB33:AJ33"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="AN33:AT33"/>
+    <mergeCell ref="AU33:AW33"/>
+    <mergeCell ref="AX33:BC33"/>
+    <mergeCell ref="A38:H39"/>
+    <mergeCell ref="I38:P39"/>
+    <mergeCell ref="Q38:V39"/>
+    <mergeCell ref="W38:AD39"/>
+    <mergeCell ref="AE38:BC39"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="I40:P40"/>
+    <mergeCell ref="Q40:V40"/>
+    <mergeCell ref="W40:AD40"/>
+    <mergeCell ref="AE40:BC40"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="I41:P41"/>
+    <mergeCell ref="Q41:V41"/>
+    <mergeCell ref="W41:AD41"/>
+    <mergeCell ref="AE41:BC41"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="I42:P42"/>
+    <mergeCell ref="Q42:V42"/>
+    <mergeCell ref="W42:AD42"/>
+    <mergeCell ref="AE42:BC42"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="I43:P43"/>
+    <mergeCell ref="Q43:V43"/>
+    <mergeCell ref="W43:AD43"/>
+    <mergeCell ref="AE43:BC43"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="I44:P44"/>
+    <mergeCell ref="Q44:V44"/>
+    <mergeCell ref="W44:AD44"/>
+    <mergeCell ref="AE44:BC44"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="I45:P45"/>
+    <mergeCell ref="Q45:V45"/>
+    <mergeCell ref="W45:AD45"/>
+    <mergeCell ref="AE45:BC45"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="I48:P48"/>
+    <mergeCell ref="Q48:V48"/>
+    <mergeCell ref="W48:AD48"/>
+    <mergeCell ref="AE48:BC48"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="I46:P46"/>
+    <mergeCell ref="Q46:V46"/>
+    <mergeCell ref="W46:AD46"/>
+    <mergeCell ref="AE46:BC46"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="I47:P47"/>
+    <mergeCell ref="Q47:V47"/>
+    <mergeCell ref="W47:AD47"/>
+    <mergeCell ref="AE47:BC47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q9:Q16 Q39:Q48 Q22:Q30" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q9:Q16 Q22:Q31 Q40:Q49" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>部品種別</formula1>
     </dataValidation>
   </dataValidations>
@@ -25578,7 +26091,7 @@
   <pageSetup paperSize="9" scale="57" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="69" max="16383" man="1"/>
+    <brk id="70" max="16383" man="1"/>
   </rowBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -25614,7 +26127,7 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="37" t="s">
         <v>84</v>
       </c>
     </row>
@@ -25650,21 +26163,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -25796,24 +26294,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1772C4F8-7E90-48A5-BA69-025DEF3B94A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB350337-5F8D-43AC-A85C-B7B1DB45F08B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{779E7F19-D7BB-4605-A5DA-30EE80C7B0F0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25829,4 +26325,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB350337-5F8D-43AC-A85C-B7B1DB45F08B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1772C4F8-7E90-48A5-BA69-025DEF3B94A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>